--- a/BackTest/2019-10-26 BackTest OMG.xlsx
+++ b/BackTest/2019-10-26 BackTest OMG.xlsx
@@ -451,17 +451,13 @@
         <v>976.8</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="n">
-        <v>977</v>
-      </c>
-      <c r="K2" t="n">
-        <v>977</v>
-      </c>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="n">
         <v>1</v>
@@ -490,22 +486,14 @@
         <v>975.8</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>978</v>
-      </c>
-      <c r="K3" t="n">
-        <v>977</v>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
         <v>1</v>
       </c>
@@ -533,22 +521,14 @@
         <v>974.4</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
-        <v>970</v>
-      </c>
-      <c r="K4" t="n">
-        <v>977</v>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
         <v>1</v>
       </c>
@@ -576,22 +556,14 @@
         <v>974</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>975</v>
-      </c>
-      <c r="K5" t="n">
-        <v>977</v>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
         <v>1</v>
       </c>
@@ -619,22 +591,14 @@
         <v>973.2</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>973</v>
-      </c>
-      <c r="K6" t="n">
-        <v>977</v>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
         <v>1</v>
       </c>
@@ -662,22 +626,14 @@
         <v>973</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>976</v>
-      </c>
-      <c r="K7" t="n">
-        <v>977</v>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -705,22 +661,14 @@
         <v>974</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
-        <v>976</v>
-      </c>
-      <c r="K8" t="n">
-        <v>977</v>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
         <v>1</v>
       </c>
@@ -748,22 +696,14 @@
         <v>974.6</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
-        <v>974</v>
-      </c>
-      <c r="K9" t="n">
-        <v>977</v>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -791,22 +731,14 @@
         <v>974.2</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="n">
-        <v>978</v>
-      </c>
-      <c r="K10" t="n">
-        <v>977</v>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -834,22 +766,14 @@
         <v>975.4</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="n">
-        <v>978</v>
-      </c>
-      <c r="K11" t="n">
-        <v>977</v>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -877,22 +801,14 @@
         <v>976</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="n">
-        <v>979</v>
-      </c>
-      <c r="K12" t="n">
-        <v>977</v>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -920,22 +836,14 @@
         <v>976.8</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
-        <v>980</v>
-      </c>
-      <c r="K13" t="n">
-        <v>977</v>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -963,22 +871,14 @@
         <v>977.4</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="n">
-        <v>976</v>
-      </c>
-      <c r="K14" t="n">
-        <v>977</v>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -1006,22 +906,14 @@
         <v>978.6</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="n">
-        <v>979</v>
-      </c>
-      <c r="K15" t="n">
-        <v>977</v>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -1049,22 +941,14 @@
         <v>978</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="n">
-        <v>976</v>
-      </c>
-      <c r="K16" t="n">
-        <v>977</v>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -1092,22 +976,14 @@
         <v>977.8</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="n">
-        <v>980</v>
-      </c>
-      <c r="K17" t="n">
-        <v>977</v>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1135,22 +1011,14 @@
         <v>978.4</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="n">
-        <v>978</v>
-      </c>
-      <c r="K18" t="n">
-        <v>977</v>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1184,14 +1052,8 @@
         <v>0</v>
       </c>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="n">
-        <v>977</v>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1225,14 +1087,8 @@
         <v>0</v>
       </c>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="n">
-        <v>977</v>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1266,14 +1122,8 @@
         <v>0</v>
       </c>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="n">
-        <v>977</v>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1307,14 +1157,8 @@
         <v>0</v>
       </c>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="n">
-        <v>977</v>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1342,22 +1186,14 @@
         <v>970.8</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="n">
-        <v>964</v>
-      </c>
-      <c r="K23" t="n">
-        <v>977</v>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1385,22 +1221,14 @@
         <v>966.6</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="n">
-        <v>960</v>
-      </c>
-      <c r="K24" t="n">
-        <v>977</v>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1428,22 +1256,14 @@
         <v>964.8</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="n">
-        <v>958</v>
-      </c>
-      <c r="K25" t="n">
-        <v>977</v>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1471,22 +1291,14 @@
         <v>963.4</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="n">
-        <v>965</v>
-      </c>
-      <c r="K26" t="n">
-        <v>977</v>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1514,22 +1326,14 @@
         <v>963.8</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="n">
-        <v>972</v>
-      </c>
-      <c r="K27" t="n">
-        <v>977</v>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1557,22 +1361,14 @@
         <v>965.4</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="n">
-        <v>971</v>
-      </c>
-      <c r="K28" t="n">
-        <v>977</v>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1600,22 +1396,14 @@
         <v>967.4</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="n">
-        <v>970</v>
-      </c>
-      <c r="K29" t="n">
-        <v>977</v>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1643,22 +1431,14 @@
         <v>968.2</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="n">
-        <v>967</v>
-      </c>
-      <c r="K30" t="n">
-        <v>977</v>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1686,22 +1466,14 @@
         <v>966</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="n">
-        <v>967</v>
-      </c>
-      <c r="K31" t="n">
-        <v>977</v>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1729,22 +1501,14 @@
         <v>963.8</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="n">
-        <v>960</v>
-      </c>
-      <c r="K32" t="n">
-        <v>977</v>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1772,22 +1536,14 @@
         <v>962.8</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="n">
-        <v>966</v>
-      </c>
-      <c r="K33" t="n">
-        <v>977</v>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1815,22 +1571,14 @@
         <v>963</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="n">
-        <v>967</v>
-      </c>
-      <c r="K34" t="n">
-        <v>977</v>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1858,22 +1606,14 @@
         <v>962.8</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="n">
-        <v>966</v>
-      </c>
-      <c r="K35" t="n">
-        <v>977</v>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1901,22 +1641,14 @@
         <v>966</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="n">
-        <v>967</v>
-      </c>
-      <c r="K36" t="n">
-        <v>977</v>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1944,22 +1676,14 @@
         <v>968.6</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="n">
-        <v>973</v>
-      </c>
-      <c r="K37" t="n">
-        <v>977</v>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1987,22 +1711,14 @@
         <v>970</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="n">
-        <v>967</v>
-      </c>
-      <c r="K38" t="n">
-        <v>977</v>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -2030,22 +1746,14 @@
         <v>971.4</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="n">
-        <v>972</v>
-      </c>
-      <c r="K39" t="n">
-        <v>977</v>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -2073,22 +1781,14 @@
         <v>972.4</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="n">
-        <v>971</v>
-      </c>
-      <c r="K40" t="n">
-        <v>977</v>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -2116,22 +1816,14 @@
         <v>972.8</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="n">
-        <v>972</v>
-      </c>
-      <c r="K41" t="n">
-        <v>977</v>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -2159,22 +1851,14 @@
         <v>973.2</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="n">
-        <v>975</v>
-      </c>
-      <c r="K42" t="n">
-        <v>977</v>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -2202,22 +1886,14 @@
         <v>973</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="n">
-        <v>972</v>
-      </c>
-      <c r="K43" t="n">
-        <v>977</v>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -2245,22 +1921,14 @@
         <v>972.2</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="n">
-        <v>971</v>
-      </c>
-      <c r="K44" t="n">
-        <v>977</v>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -2288,22 +1956,14 @@
         <v>973.6</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="n">
-        <v>973</v>
-      </c>
-      <c r="K45" t="n">
-        <v>977</v>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -2331,22 +1991,14 @@
         <v>975.2</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="n">
-        <v>980</v>
-      </c>
-      <c r="K46" t="n">
-        <v>977</v>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2374,22 +2026,14 @@
         <v>976.2</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="n">
-        <v>980</v>
-      </c>
-      <c r="K47" t="n">
-        <v>977</v>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2417,22 +2061,14 @@
         <v>977.4</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="n">
-        <v>978</v>
-      </c>
-      <c r="K48" t="n">
-        <v>977</v>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2460,22 +2096,14 @@
         <v>979.2</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="n">
-        <v>980</v>
-      </c>
-      <c r="K49" t="n">
-        <v>977</v>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2503,22 +2131,14 @@
         <v>980.6</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="n">
-        <v>983</v>
-      </c>
-      <c r="K50" t="n">
-        <v>977</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2546,22 +2166,14 @@
         <v>981.6</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="n">
-        <v>985</v>
-      </c>
-      <c r="K51" t="n">
-        <v>977</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2595,14 +2207,8 @@
         <v>0</v>
       </c>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="n">
-        <v>977</v>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2636,14 +2242,8 @@
         <v>0</v>
       </c>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="n">
-        <v>977</v>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2677,14 +2277,8 @@
         <v>0</v>
       </c>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="n">
-        <v>977</v>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2718,14 +2312,8 @@
         <v>0</v>
       </c>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="n">
-        <v>977</v>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2759,14 +2347,8 @@
         <v>0</v>
       </c>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="n">
-        <v>977</v>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2800,14 +2382,8 @@
         <v>0</v>
       </c>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="n">
-        <v>977</v>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2838,17 +2414,11 @@
         <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="n">
-        <v>977</v>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2879,17 +2449,11 @@
         <v>0</v>
       </c>
       <c r="I59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="n">
-        <v>977</v>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2920,19 +2484,13 @@
         <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="n">
-        <v>977</v>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
-        <v>1.014447287615148</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">
@@ -2961,7 +2519,7 @@
         <v>0</v>
       </c>
       <c r="I61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
@@ -2996,7 +2554,7 @@
         <v>0</v>
       </c>
       <c r="I62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
@@ -3731,7 +3289,7 @@
         <v>0</v>
       </c>
       <c r="I83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
@@ -4011,7 +3569,7 @@
         <v>0</v>
       </c>
       <c r="I91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
@@ -4046,7 +3604,7 @@
         <v>0</v>
       </c>
       <c r="I92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
@@ -4466,7 +4024,7 @@
         <v>0</v>
       </c>
       <c r="I104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
@@ -4501,7 +4059,7 @@
         <v>0</v>
       </c>
       <c r="I105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
@@ -6668,13 +6226,17 @@
         <v>979.6</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I167" t="n">
         <v>0</v>
       </c>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>978</v>
+      </c>
+      <c r="K167" t="n">
+        <v>978</v>
+      </c>
       <c r="L167" t="inlineStr"/>
       <c r="M167" t="n">
         <v>1</v>
@@ -6709,8 +6271,14 @@
         <v>0</v>
       </c>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>978</v>
+      </c>
+      <c r="L168" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M168" t="n">
         <v>1</v>
       </c>
@@ -6744,8 +6312,14 @@
         <v>0</v>
       </c>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>978</v>
+      </c>
+      <c r="L169" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M169" t="n">
         <v>1</v>
       </c>
@@ -8001,7 +7575,7 @@
         <v>0</v>
       </c>
       <c r="I205" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr"/>
@@ -8036,7 +7610,7 @@
         <v>0</v>
       </c>
       <c r="I206" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr"/>
@@ -8071,7 +7645,7 @@
         <v>0</v>
       </c>
       <c r="I207" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr"/>
@@ -8106,7 +7680,7 @@
         <v>0</v>
       </c>
       <c r="I208" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr"/>
@@ -8141,7 +7715,7 @@
         <v>0</v>
       </c>
       <c r="I209" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr"/>
@@ -8176,7 +7750,7 @@
         <v>0</v>
       </c>
       <c r="I210" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr"/>
@@ -8211,7 +7785,7 @@
         <v>0</v>
       </c>
       <c r="I211" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr"/>
@@ -8246,7 +7820,7 @@
         <v>0</v>
       </c>
       <c r="I212" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr"/>
@@ -10798,14 +10372,20 @@
         <v>969.8</v>
       </c>
       <c r="H285" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I285" t="n">
         <v>0</v>
       </c>
-      <c r="J285" t="inlineStr"/>
+      <c r="J285" t="n">
+        <v>966</v>
+      </c>
       <c r="K285" t="inlineStr"/>
-      <c r="L285" t="inlineStr"/>
+      <c r="L285" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M285" t="n">
         <v>1</v>
       </c>
@@ -10833,14 +10413,20 @@
         <v>968.4</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I286" t="n">
         <v>0</v>
       </c>
-      <c r="J286" t="inlineStr"/>
+      <c r="J286" t="n">
+        <v>971</v>
+      </c>
       <c r="K286" t="inlineStr"/>
-      <c r="L286" t="inlineStr"/>
+      <c r="L286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M286" t="n">
         <v>1</v>
       </c>
@@ -10868,14 +10454,20 @@
         <v>966.4</v>
       </c>
       <c r="H287" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I287" t="n">
         <v>0</v>
       </c>
-      <c r="J287" t="inlineStr"/>
+      <c r="J287" t="n">
+        <v>969</v>
+      </c>
       <c r="K287" t="inlineStr"/>
-      <c r="L287" t="inlineStr"/>
+      <c r="L287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M287" t="n">
         <v>1</v>
       </c>
@@ -10903,14 +10495,20 @@
         <v>967</v>
       </c>
       <c r="H288" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I288" t="n">
         <v>0</v>
       </c>
-      <c r="J288" t="inlineStr"/>
+      <c r="J288" t="n">
+        <v>961</v>
+      </c>
       <c r="K288" t="inlineStr"/>
-      <c r="L288" t="inlineStr"/>
+      <c r="L288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M288" t="n">
         <v>1</v>
       </c>
@@ -10938,14 +10536,20 @@
         <v>966</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I289" t="n">
         <v>0</v>
       </c>
-      <c r="J289" t="inlineStr"/>
+      <c r="J289" t="n">
+        <v>968</v>
+      </c>
       <c r="K289" t="inlineStr"/>
-      <c r="L289" t="inlineStr"/>
+      <c r="L289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M289" t="n">
         <v>1</v>
       </c>
@@ -10973,14 +10577,20 @@
         <v>964.4</v>
       </c>
       <c r="H290" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I290" t="n">
         <v>0</v>
       </c>
-      <c r="J290" t="inlineStr"/>
+      <c r="J290" t="n">
+        <v>961</v>
+      </c>
       <c r="K290" t="inlineStr"/>
-      <c r="L290" t="inlineStr"/>
+      <c r="L290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M290" t="n">
         <v>1</v>
       </c>
@@ -11019,7 +10629,7 @@
       <c r="K291" t="inlineStr"/>
       <c r="L291" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M291" t="n">
@@ -11096,7 +10706,7 @@
         <v>0</v>
       </c>
       <c r="J293" t="n">
-        <v>963</v>
+        <v>966</v>
       </c>
       <c r="K293" t="inlineStr"/>
       <c r="L293" t="inlineStr">
@@ -11137,7 +10747,7 @@
         <v>0</v>
       </c>
       <c r="J294" t="n">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="K294" t="inlineStr"/>
       <c r="L294" t="inlineStr">
@@ -11178,7 +10788,7 @@
         <v>0</v>
       </c>
       <c r="J295" t="n">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="K295" t="inlineStr"/>
       <c r="L295" t="inlineStr">
@@ -11213,14 +10823,12 @@
         <v>963.6</v>
       </c>
       <c r="H296" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I296" t="n">
         <v>0</v>
       </c>
-      <c r="J296" t="n">
-        <v>965</v>
-      </c>
+      <c r="J296" t="inlineStr"/>
       <c r="K296" t="inlineStr"/>
       <c r="L296" t="inlineStr">
         <is>
@@ -11260,7 +10868,7 @@
         <v>0</v>
       </c>
       <c r="J297" t="n">
-        <v>967</v>
+        <v>963</v>
       </c>
       <c r="K297" t="inlineStr"/>
       <c r="L297" t="inlineStr">
@@ -11295,14 +10903,12 @@
         <v>963.8</v>
       </c>
       <c r="H298" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I298" t="n">
         <v>0</v>
       </c>
-      <c r="J298" t="n">
-        <v>961</v>
-      </c>
+      <c r="J298" t="inlineStr"/>
       <c r="K298" t="inlineStr"/>
       <c r="L298" t="inlineStr">
         <is>
@@ -11342,7 +10948,7 @@
         <v>0</v>
       </c>
       <c r="J299" t="n">
-        <v>969</v>
+        <v>963</v>
       </c>
       <c r="K299" t="inlineStr"/>
       <c r="L299" t="inlineStr">
@@ -11383,7 +10989,7 @@
         <v>0</v>
       </c>
       <c r="J300" t="n">
-        <v>967</v>
+        <v>970</v>
       </c>
       <c r="K300" t="inlineStr"/>
       <c r="L300" t="inlineStr">
@@ -11418,14 +11024,12 @@
         <v>967.6</v>
       </c>
       <c r="H301" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I301" t="n">
         <v>0</v>
       </c>
-      <c r="J301" t="n">
-        <v>969</v>
-      </c>
+      <c r="J301" t="inlineStr"/>
       <c r="K301" t="inlineStr"/>
       <c r="L301" t="inlineStr">
         <is>
@@ -11459,14 +11063,12 @@
         <v>968</v>
       </c>
       <c r="H302" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I302" t="n">
         <v>0</v>
       </c>
-      <c r="J302" t="n">
-        <v>969</v>
-      </c>
+      <c r="J302" t="inlineStr"/>
       <c r="K302" t="inlineStr"/>
       <c r="L302" t="inlineStr">
         <is>
@@ -11500,14 +11102,12 @@
         <v>970.6</v>
       </c>
       <c r="H303" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I303" t="n">
         <v>0</v>
       </c>
-      <c r="J303" t="n">
-        <v>976</v>
-      </c>
+      <c r="J303" t="inlineStr"/>
       <c r="K303" t="inlineStr"/>
       <c r="L303" t="inlineStr">
         <is>
@@ -11541,14 +11141,12 @@
         <v>970</v>
       </c>
       <c r="H304" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I304" t="n">
         <v>0</v>
       </c>
-      <c r="J304" t="n">
-        <v>973</v>
-      </c>
+      <c r="J304" t="inlineStr"/>
       <c r="K304" t="inlineStr"/>
       <c r="L304" t="inlineStr">
         <is>
@@ -11582,14 +11180,12 @@
         <v>970</v>
       </c>
       <c r="H305" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I305" t="n">
         <v>0</v>
       </c>
-      <c r="J305" t="n">
-        <v>969</v>
-      </c>
+      <c r="J305" t="inlineStr"/>
       <c r="K305" t="inlineStr"/>
       <c r="L305" t="inlineStr">
         <is>
@@ -11623,14 +11219,12 @@
         <v>970.8</v>
       </c>
       <c r="H306" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I306" t="n">
         <v>0</v>
       </c>
-      <c r="J306" t="n">
-        <v>973</v>
-      </c>
+      <c r="J306" t="inlineStr"/>
       <c r="K306" t="inlineStr"/>
       <c r="L306" t="inlineStr">
         <is>
@@ -11664,14 +11258,12 @@
         <v>972.8</v>
       </c>
       <c r="H307" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I307" t="n">
         <v>0</v>
       </c>
-      <c r="J307" t="n">
-        <v>977</v>
-      </c>
+      <c r="J307" t="inlineStr"/>
       <c r="K307" t="inlineStr"/>
       <c r="L307" t="inlineStr">
         <is>
@@ -11705,14 +11297,12 @@
         <v>973.4</v>
       </c>
       <c r="H308" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I308" t="n">
         <v>0</v>
       </c>
-      <c r="J308" t="n">
-        <v>979</v>
-      </c>
+      <c r="J308" t="inlineStr"/>
       <c r="K308" t="inlineStr"/>
       <c r="L308" t="inlineStr">
         <is>

--- a/BackTest/2019-10-26 BackTest OMG.xlsx
+++ b/BackTest/2019-10-26 BackTest OMG.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M308"/>
+  <dimension ref="A1:M309"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -445,10 +445,10 @@
         <v>977</v>
       </c>
       <c r="F2" t="n">
-        <v>920.6822</v>
+        <v>36.0798</v>
       </c>
       <c r="G2" t="n">
-        <v>976.8</v>
+        <v>973.1333333333333</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="C3" t="n">
-        <v>971</v>
+        <v>977</v>
       </c>
       <c r="D3" t="n">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="E3" t="n">
-        <v>971</v>
+        <v>977</v>
       </c>
       <c r="F3" t="n">
-        <v>2408.9104</v>
+        <v>920.6822</v>
       </c>
       <c r="G3" t="n">
-        <v>975.8</v>
+        <v>973.0833333333334</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -503,22 +503,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>970</v>
+        <v>978</v>
       </c>
       <c r="C4" t="n">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="D4" t="n">
-        <v>970</v>
+        <v>978</v>
       </c>
       <c r="E4" t="n">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="F4" t="n">
-        <v>34.2917</v>
+        <v>2408.9104</v>
       </c>
       <c r="G4" t="n">
-        <v>974.4</v>
+        <v>972.75</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -538,22 +538,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>975</v>
+        <v>970</v>
       </c>
       <c r="C5" t="n">
-        <v>975</v>
+        <v>970</v>
       </c>
       <c r="D5" t="n">
-        <v>975</v>
+        <v>970</v>
       </c>
       <c r="E5" t="n">
-        <v>975</v>
+        <v>970</v>
       </c>
       <c r="F5" t="n">
-        <v>2.2093</v>
+        <v>34.2917</v>
       </c>
       <c r="G5" t="n">
-        <v>974</v>
+        <v>972.6</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -573,22 +573,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>973</v>
+        <v>975</v>
       </c>
       <c r="C6" t="n">
-        <v>973</v>
+        <v>975</v>
       </c>
       <c r="D6" t="n">
-        <v>973</v>
+        <v>975</v>
       </c>
       <c r="E6" t="n">
-        <v>973</v>
+        <v>975</v>
       </c>
       <c r="F6" t="n">
-        <v>1389.85</v>
+        <v>2.2093</v>
       </c>
       <c r="G6" t="n">
-        <v>973.2</v>
+        <v>972.5666666666667</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -608,22 +608,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>976</v>
+        <v>973</v>
       </c>
       <c r="C7" t="n">
-        <v>976</v>
+        <v>973</v>
       </c>
       <c r="D7" t="n">
-        <v>976</v>
+        <v>973</v>
       </c>
       <c r="E7" t="n">
-        <v>976</v>
+        <v>973</v>
       </c>
       <c r="F7" t="n">
-        <v>5</v>
+        <v>1389.85</v>
       </c>
       <c r="G7" t="n">
-        <v>973</v>
+        <v>972.4833333333333</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -655,10 +655,10 @@
         <v>976</v>
       </c>
       <c r="F8" t="n">
-        <v>150.7157</v>
+        <v>5</v>
       </c>
       <c r="G8" t="n">
-        <v>974</v>
+        <v>972.55</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -678,22 +678,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>974</v>
+        <v>976</v>
       </c>
       <c r="C9" t="n">
-        <v>973</v>
+        <v>976</v>
       </c>
       <c r="D9" t="n">
-        <v>974</v>
+        <v>976</v>
       </c>
       <c r="E9" t="n">
-        <v>973</v>
+        <v>976</v>
       </c>
       <c r="F9" t="n">
-        <v>954.5325</v>
+        <v>150.7157</v>
       </c>
       <c r="G9" t="n">
-        <v>974.6</v>
+        <v>972.7833333333333</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -713,22 +713,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>978</v>
+        <v>974</v>
       </c>
       <c r="C10" t="n">
         <v>973</v>
       </c>
       <c r="D10" t="n">
-        <v>978</v>
+        <v>974</v>
       </c>
       <c r="E10" t="n">
         <v>973</v>
       </c>
       <c r="F10" t="n">
-        <v>1737.1586</v>
+        <v>954.5325</v>
       </c>
       <c r="G10" t="n">
-        <v>974.2</v>
+        <v>972.9</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -751,19 +751,19 @@
         <v>978</v>
       </c>
       <c r="C11" t="n">
-        <v>979</v>
+        <v>973</v>
       </c>
       <c r="D11" t="n">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="E11" t="n">
-        <v>978</v>
+        <v>973</v>
       </c>
       <c r="F11" t="n">
-        <v>161.1019</v>
+        <v>1737.1586</v>
       </c>
       <c r="G11" t="n">
-        <v>975.4</v>
+        <v>972.9166666666666</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="C12" t="n">
         <v>979</v>
@@ -792,13 +792,13 @@
         <v>979</v>
       </c>
       <c r="E12" t="n">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="F12" t="n">
-        <v>221.6959</v>
+        <v>161.1019</v>
       </c>
       <c r="G12" t="n">
-        <v>976</v>
+        <v>973.1833333333333</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -818,22 +818,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="C13" t="n">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="D13" t="n">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="E13" t="n">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="F13" t="n">
-        <v>407.2571</v>
+        <v>221.6959</v>
       </c>
       <c r="G13" t="n">
-        <v>976.8</v>
+        <v>973.4166666666666</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -853,22 +853,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>976</v>
+        <v>980</v>
       </c>
       <c r="C14" t="n">
-        <v>976</v>
+        <v>980</v>
       </c>
       <c r="D14" t="n">
-        <v>976</v>
+        <v>980</v>
       </c>
       <c r="E14" t="n">
-        <v>976</v>
+        <v>980</v>
       </c>
       <c r="F14" t="n">
-        <v>170.9715</v>
+        <v>407.2571</v>
       </c>
       <c r="G14" t="n">
-        <v>977.4</v>
+        <v>973.5833333333334</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -888,22 +888,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>979</v>
+        <v>976</v>
       </c>
       <c r="C15" t="n">
-        <v>979</v>
+        <v>976</v>
       </c>
       <c r="D15" t="n">
-        <v>979</v>
+        <v>976</v>
       </c>
       <c r="E15" t="n">
-        <v>979</v>
+        <v>976</v>
       </c>
       <c r="F15" t="n">
-        <v>33.6579</v>
+        <v>170.9715</v>
       </c>
       <c r="G15" t="n">
-        <v>978.6</v>
+        <v>973.6833333333333</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -923,22 +923,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>976</v>
+        <v>979</v>
       </c>
       <c r="C16" t="n">
-        <v>976</v>
+        <v>979</v>
       </c>
       <c r="D16" t="n">
-        <v>976</v>
+        <v>979</v>
       </c>
       <c r="E16" t="n">
-        <v>976</v>
+        <v>979</v>
       </c>
       <c r="F16" t="n">
-        <v>153.8744</v>
+        <v>33.6579</v>
       </c>
       <c r="G16" t="n">
-        <v>978</v>
+        <v>973.8</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -958,22 +958,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>980</v>
+        <v>976</v>
       </c>
       <c r="C17" t="n">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="D17" t="n">
-        <v>981</v>
+        <v>976</v>
       </c>
       <c r="E17" t="n">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="F17" t="n">
-        <v>3034.9991</v>
+        <v>153.8744</v>
       </c>
       <c r="G17" t="n">
-        <v>977.8</v>
+        <v>973.85</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -993,22 +993,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
+        <v>980</v>
+      </c>
+      <c r="C18" t="n">
         <v>978</v>
       </c>
-      <c r="C18" t="n">
-        <v>983</v>
-      </c>
       <c r="D18" t="n">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="E18" t="n">
         <v>978</v>
       </c>
       <c r="F18" t="n">
-        <v>926.1854</v>
+        <v>3034.9991</v>
       </c>
       <c r="G18" t="n">
-        <v>978.4</v>
+        <v>973.95</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1031,19 +1031,19 @@
         <v>978</v>
       </c>
       <c r="C19" t="n">
-        <v>978</v>
+        <v>983</v>
       </c>
       <c r="D19" t="n">
-        <v>978</v>
+        <v>983</v>
       </c>
       <c r="E19" t="n">
         <v>978</v>
       </c>
       <c r="F19" t="n">
-        <v>2</v>
+        <v>926.1854</v>
       </c>
       <c r="G19" t="n">
-        <v>978.8</v>
+        <v>974.1</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1066,19 +1066,19 @@
         <v>978</v>
       </c>
       <c r="C20" t="n">
-        <v>972</v>
+        <v>978</v>
       </c>
       <c r="D20" t="n">
         <v>978</v>
       </c>
       <c r="E20" t="n">
-        <v>971</v>
+        <v>978</v>
       </c>
       <c r="F20" t="n">
-        <v>3127.5098</v>
+        <v>2</v>
       </c>
       <c r="G20" t="n">
-        <v>977.4</v>
+        <v>974.1666666666666</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1098,22 +1098,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>972</v>
+        <v>978</v>
       </c>
       <c r="C21" t="n">
         <v>972</v>
       </c>
       <c r="D21" t="n">
-        <v>972</v>
+        <v>978</v>
       </c>
       <c r="E21" t="n">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="F21" t="n">
-        <v>628.1355</v>
+        <v>3127.5098</v>
       </c>
       <c r="G21" t="n">
-        <v>976.6</v>
+        <v>974.1</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1133,22 +1133,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>969</v>
+        <v>972</v>
       </c>
       <c r="C22" t="n">
-        <v>969</v>
+        <v>972</v>
       </c>
       <c r="D22" t="n">
-        <v>969</v>
+        <v>972</v>
       </c>
       <c r="E22" t="n">
-        <v>969</v>
+        <v>972</v>
       </c>
       <c r="F22" t="n">
-        <v>1</v>
+        <v>628.1355</v>
       </c>
       <c r="G22" t="n">
-        <v>974.8</v>
+        <v>973.9666666666667</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1168,22 +1168,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>964</v>
+        <v>969</v>
       </c>
       <c r="C23" t="n">
-        <v>963</v>
+        <v>969</v>
       </c>
       <c r="D23" t="n">
-        <v>964</v>
+        <v>969</v>
       </c>
       <c r="E23" t="n">
-        <v>963</v>
+        <v>969</v>
       </c>
       <c r="F23" t="n">
-        <v>320.7251</v>
+        <v>1</v>
       </c>
       <c r="G23" t="n">
-        <v>970.8</v>
+        <v>973.7333333333333</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1203,22 +1203,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>960</v>
+        <v>964</v>
       </c>
       <c r="C24" t="n">
-        <v>957</v>
+        <v>963</v>
       </c>
       <c r="D24" t="n">
-        <v>960</v>
+        <v>964</v>
       </c>
       <c r="E24" t="n">
-        <v>957</v>
+        <v>963</v>
       </c>
       <c r="F24" t="n">
-        <v>22.9291</v>
+        <v>320.7251</v>
       </c>
       <c r="G24" t="n">
-        <v>966.6</v>
+        <v>973.5333333333333</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1238,22 +1238,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>958</v>
+        <v>960</v>
       </c>
       <c r="C25" t="n">
-        <v>963</v>
+        <v>957</v>
       </c>
       <c r="D25" t="n">
-        <v>963</v>
+        <v>960</v>
       </c>
       <c r="E25" t="n">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="F25" t="n">
-        <v>2948.9828</v>
+        <v>22.9291</v>
       </c>
       <c r="G25" t="n">
-        <v>964.8</v>
+        <v>973.1166666666667</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1273,22 +1273,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>965</v>
+        <v>958</v>
       </c>
       <c r="C26" t="n">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="D26" t="n">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="E26" t="n">
-        <v>965</v>
+        <v>958</v>
       </c>
       <c r="F26" t="n">
-        <v>41.6</v>
+        <v>2948.9828</v>
       </c>
       <c r="G26" t="n">
-        <v>963.4</v>
+        <v>972.7166666666667</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1308,22 +1308,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>972</v>
+        <v>965</v>
       </c>
       <c r="C27" t="n">
-        <v>971</v>
+        <v>965</v>
       </c>
       <c r="D27" t="n">
-        <v>972</v>
+        <v>965</v>
       </c>
       <c r="E27" t="n">
-        <v>970</v>
+        <v>965</v>
       </c>
       <c r="F27" t="n">
-        <v>4.7721</v>
+        <v>41.6</v>
       </c>
       <c r="G27" t="n">
-        <v>963.8</v>
+        <v>972.5666666666667</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1343,22 +1343,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="C28" t="n">
         <v>971</v>
       </c>
       <c r="D28" t="n">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="E28" t="n">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="F28" t="n">
-        <v>0.9001</v>
+        <v>4.7721</v>
       </c>
       <c r="G28" t="n">
-        <v>965.4</v>
+        <v>972.4666666666667</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1378,22 +1378,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="C29" t="n">
-        <v>967</v>
+        <v>971</v>
       </c>
       <c r="D29" t="n">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="E29" t="n">
-        <v>967</v>
+        <v>971</v>
       </c>
       <c r="F29" t="n">
-        <v>200</v>
+        <v>0.9001</v>
       </c>
       <c r="G29" t="n">
-        <v>967.4</v>
+        <v>972.2666666666667</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1413,22 +1413,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>967</v>
+        <v>970</v>
       </c>
       <c r="C30" t="n">
         <v>967</v>
       </c>
       <c r="D30" t="n">
-        <v>967</v>
+        <v>970</v>
       </c>
       <c r="E30" t="n">
         <v>967</v>
       </c>
       <c r="F30" t="n">
-        <v>1.7642</v>
+        <v>200</v>
       </c>
       <c r="G30" t="n">
-        <v>968.2</v>
+        <v>972.2333333333333</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1451,19 +1451,19 @@
         <v>967</v>
       </c>
       <c r="C31" t="n">
-        <v>954</v>
+        <v>967</v>
       </c>
       <c r="D31" t="n">
         <v>967</v>
       </c>
       <c r="E31" t="n">
-        <v>954</v>
+        <v>967</v>
       </c>
       <c r="F31" t="n">
-        <v>3792.2477</v>
+        <v>1.7642</v>
       </c>
       <c r="G31" t="n">
-        <v>966</v>
+        <v>972.15</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1483,32 +1483,38 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>960</v>
+        <v>967</v>
       </c>
       <c r="C32" t="n">
-        <v>960</v>
+        <v>954</v>
       </c>
       <c r="D32" t="n">
-        <v>960</v>
+        <v>967</v>
       </c>
       <c r="E32" t="n">
-        <v>960</v>
+        <v>954</v>
       </c>
       <c r="F32" t="n">
-        <v>100</v>
+        <v>3792.2477</v>
       </c>
       <c r="G32" t="n">
-        <v>963.8</v>
+        <v>971.8166666666667</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>967</v>
+      </c>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1518,22 +1524,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>966</v>
+        <v>960</v>
       </c>
       <c r="C33" t="n">
-        <v>966</v>
+        <v>960</v>
       </c>
       <c r="D33" t="n">
-        <v>966</v>
+        <v>960</v>
       </c>
       <c r="E33" t="n">
-        <v>966</v>
+        <v>960</v>
       </c>
       <c r="F33" t="n">
-        <v>356</v>
+        <v>100</v>
       </c>
       <c r="G33" t="n">
-        <v>962.8</v>
+        <v>971.5833333333334</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1543,7 +1549,11 @@
       </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1553,22 +1563,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="C34" t="n">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="D34" t="n">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="E34" t="n">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="F34" t="n">
-        <v>53.3554</v>
+        <v>356</v>
       </c>
       <c r="G34" t="n">
-        <v>963</v>
+        <v>971.6166666666667</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1578,7 +1588,11 @@
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1588,32 +1602,38 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
+        <v>967</v>
+      </c>
+      <c r="C35" t="n">
+        <v>968</v>
+      </c>
+      <c r="D35" t="n">
+        <v>968</v>
+      </c>
+      <c r="E35" t="n">
+        <v>967</v>
+      </c>
+      <c r="F35" t="n">
+        <v>53.3554</v>
+      </c>
+      <c r="G35" t="n">
+        <v>971.8833333333333</v>
+      </c>
+      <c r="H35" t="n">
+        <v>1</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
         <v>966</v>
       </c>
-      <c r="C35" t="n">
-        <v>966</v>
-      </c>
-      <c r="D35" t="n">
-        <v>966</v>
-      </c>
-      <c r="E35" t="n">
-        <v>966</v>
-      </c>
-      <c r="F35" t="n">
-        <v>19.2374</v>
-      </c>
-      <c r="G35" t="n">
-        <v>962.8</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1623,22 +1643,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="C36" t="n">
-        <v>970</v>
+        <v>966</v>
       </c>
       <c r="D36" t="n">
-        <v>970</v>
+        <v>966</v>
       </c>
       <c r="E36" t="n">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="F36" t="n">
-        <v>392.4606</v>
+        <v>19.2374</v>
       </c>
       <c r="G36" t="n">
-        <v>966</v>
+        <v>971.8166666666667</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1648,7 +1668,11 @@
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1658,32 +1682,38 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>973</v>
+        <v>967</v>
       </c>
       <c r="C37" t="n">
-        <v>973</v>
+        <v>970</v>
       </c>
       <c r="D37" t="n">
-        <v>973</v>
+        <v>970</v>
       </c>
       <c r="E37" t="n">
-        <v>973</v>
+        <v>967</v>
       </c>
       <c r="F37" t="n">
-        <v>18.626</v>
+        <v>392.4606</v>
       </c>
       <c r="G37" t="n">
-        <v>968.6</v>
+        <v>971.5833333333334</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>966</v>
+      </c>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1693,7 +1723,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>967</v>
+        <v>973</v>
       </c>
       <c r="C38" t="n">
         <v>973</v>
@@ -1702,23 +1732,29 @@
         <v>973</v>
       </c>
       <c r="E38" t="n">
-        <v>966</v>
+        <v>973</v>
       </c>
       <c r="F38" t="n">
-        <v>1187.3592</v>
+        <v>18.626</v>
       </c>
       <c r="G38" t="n">
+        <v>971.4166666666666</v>
+      </c>
+      <c r="H38" t="n">
+        <v>1</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
         <v>970</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1728,32 +1764,38 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>972</v>
+        <v>967</v>
       </c>
       <c r="C39" t="n">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="D39" t="n">
-        <v>976</v>
+        <v>973</v>
       </c>
       <c r="E39" t="n">
-        <v>972</v>
+        <v>966</v>
       </c>
       <c r="F39" t="n">
-        <v>999.8104662909836</v>
+        <v>1187.3592</v>
       </c>
       <c r="G39" t="n">
-        <v>971.4</v>
+        <v>971.4166666666666</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>973</v>
+      </c>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -1763,22 +1805,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="C40" t="n">
-        <v>971</v>
+        <v>975</v>
       </c>
       <c r="D40" t="n">
-        <v>971</v>
+        <v>976</v>
       </c>
       <c r="E40" t="n">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="F40" t="n">
-        <v>2.9937</v>
+        <v>999.8104662909836</v>
       </c>
       <c r="G40" t="n">
-        <v>972.4</v>
+        <v>971.45</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1788,7 +1830,11 @@
       </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -1798,22 +1844,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="C41" t="n">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="D41" t="n">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="E41" t="n">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="F41" t="n">
-        <v>89.181</v>
+        <v>2.9937</v>
       </c>
       <c r="G41" t="n">
-        <v>972.8</v>
+        <v>971.55</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1823,7 +1869,11 @@
       </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -1833,22 +1883,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>975</v>
+        <v>972</v>
       </c>
       <c r="C42" t="n">
-        <v>975</v>
+        <v>972</v>
       </c>
       <c r="D42" t="n">
-        <v>975</v>
+        <v>972</v>
       </c>
       <c r="E42" t="n">
-        <v>975</v>
+        <v>972</v>
       </c>
       <c r="F42" t="n">
-        <v>18.9185</v>
+        <v>89.181</v>
       </c>
       <c r="G42" t="n">
-        <v>973.2</v>
+        <v>971.7333333333333</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1858,7 +1908,11 @@
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -1868,22 +1922,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>972</v>
+        <v>975</v>
       </c>
       <c r="C43" t="n">
-        <v>972</v>
+        <v>975</v>
       </c>
       <c r="D43" t="n">
-        <v>972</v>
+        <v>975</v>
       </c>
       <c r="E43" t="n">
-        <v>972</v>
+        <v>975</v>
       </c>
       <c r="F43" t="n">
-        <v>39.3942</v>
+        <v>18.9185</v>
       </c>
       <c r="G43" t="n">
-        <v>973</v>
+        <v>971.9833333333333</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1893,7 +1947,11 @@
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -1903,22 +1961,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="C44" t="n">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="D44" t="n">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="E44" t="n">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="F44" t="n">
-        <v>28.1258</v>
+        <v>39.3942</v>
       </c>
       <c r="G44" t="n">
-        <v>972.2</v>
+        <v>971.9666666666667</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1928,7 +1986,11 @@
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -1938,22 +2000,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="C45" t="n">
-        <v>978</v>
+        <v>971</v>
       </c>
       <c r="D45" t="n">
-        <v>978</v>
+        <v>971</v>
       </c>
       <c r="E45" t="n">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="F45" t="n">
-        <v>47.1932</v>
+        <v>28.1258</v>
       </c>
       <c r="G45" t="n">
-        <v>973.6</v>
+        <v>971.8666666666667</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1963,7 +2025,11 @@
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -1973,22 +2039,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>980</v>
+        <v>973</v>
       </c>
       <c r="C46" t="n">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="D46" t="n">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="E46" t="n">
-        <v>980</v>
+        <v>973</v>
       </c>
       <c r="F46" t="n">
-        <v>51.44</v>
+        <v>47.1932</v>
       </c>
       <c r="G46" t="n">
-        <v>975.2</v>
+        <v>971.85</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -1998,7 +2064,11 @@
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2020,10 +2090,10 @@
         <v>980</v>
       </c>
       <c r="F47" t="n">
-        <v>13.9014</v>
+        <v>51.44</v>
       </c>
       <c r="G47" t="n">
-        <v>976.2</v>
+        <v>971.95</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2033,7 +2103,11 @@
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2043,22 +2117,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>978</v>
+        <v>980</v>
       </c>
       <c r="C48" t="n">
-        <v>978</v>
+        <v>980</v>
       </c>
       <c r="D48" t="n">
-        <v>978</v>
+        <v>980</v>
       </c>
       <c r="E48" t="n">
-        <v>978</v>
+        <v>980</v>
       </c>
       <c r="F48" t="n">
-        <v>500</v>
+        <v>13.9014</v>
       </c>
       <c r="G48" t="n">
-        <v>977.4</v>
+        <v>972.0666666666667</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2068,7 +2142,11 @@
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2078,22 +2156,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="C49" t="n">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="D49" t="n">
-        <v>983</v>
+        <v>978</v>
       </c>
       <c r="E49" t="n">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="F49" t="n">
-        <v>593.5</v>
+        <v>500</v>
       </c>
       <c r="G49" t="n">
-        <v>979.2</v>
+        <v>972.1666666666666</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2103,7 +2181,11 @@
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2113,22 +2195,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
+        <v>980</v>
+      </c>
+      <c r="C50" t="n">
+        <v>980</v>
+      </c>
+      <c r="D50" t="n">
         <v>983</v>
       </c>
-      <c r="C50" t="n">
-        <v>985</v>
-      </c>
-      <c r="D50" t="n">
-        <v>985</v>
-      </c>
       <c r="E50" t="n">
-        <v>983</v>
+        <v>980</v>
       </c>
       <c r="F50" t="n">
-        <v>23.6321</v>
+        <v>593.5</v>
       </c>
       <c r="G50" t="n">
-        <v>980.6</v>
+        <v>972.3166666666667</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2138,7 +2220,11 @@
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2148,7 +2234,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="C51" t="n">
         <v>985</v>
@@ -2157,13 +2243,13 @@
         <v>985</v>
       </c>
       <c r="E51" t="n">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="F51" t="n">
-        <v>500</v>
+        <v>23.6321</v>
       </c>
       <c r="G51" t="n">
-        <v>981.6</v>
+        <v>972.55</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2173,7 +2259,11 @@
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2183,22 +2273,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>990</v>
+        <v>985</v>
       </c>
       <c r="C52" t="n">
-        <v>993</v>
+        <v>985</v>
       </c>
       <c r="D52" t="n">
-        <v>993</v>
+        <v>985</v>
       </c>
       <c r="E52" t="n">
-        <v>990</v>
+        <v>985</v>
       </c>
       <c r="F52" t="n">
-        <v>436.9651</v>
+        <v>500</v>
       </c>
       <c r="G52" t="n">
-        <v>984.2</v>
+        <v>972.8</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2208,7 +2298,11 @@
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2218,22 +2312,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
+        <v>990</v>
+      </c>
+      <c r="C53" t="n">
         <v>993</v>
-      </c>
-      <c r="C53" t="n">
-        <v>986</v>
       </c>
       <c r="D53" t="n">
         <v>993</v>
       </c>
       <c r="E53" t="n">
-        <v>986</v>
+        <v>990</v>
       </c>
       <c r="F53" t="n">
-        <v>124.582</v>
+        <v>436.9651</v>
       </c>
       <c r="G53" t="n">
-        <v>985.8</v>
+        <v>973.1833333333333</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2243,7 +2337,11 @@
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2253,22 +2351,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>991</v>
+        <v>993</v>
       </c>
       <c r="C54" t="n">
-        <v>995</v>
+        <v>986</v>
       </c>
       <c r="D54" t="n">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="E54" t="n">
-        <v>991</v>
+        <v>986</v>
       </c>
       <c r="F54" t="n">
-        <v>923.5945</v>
+        <v>124.582</v>
       </c>
       <c r="G54" t="n">
-        <v>988.8</v>
+        <v>973.45</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2278,7 +2376,11 @@
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2288,22 +2390,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>997</v>
+        <v>991</v>
       </c>
       <c r="C55" t="n">
-        <v>1003</v>
+        <v>995</v>
       </c>
       <c r="D55" t="n">
-        <v>1003</v>
+        <v>995</v>
       </c>
       <c r="E55" t="n">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="F55" t="n">
-        <v>1212.087</v>
+        <v>923.5945</v>
       </c>
       <c r="G55" t="n">
-        <v>992.4</v>
+        <v>973.9</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2313,7 +2415,11 @@
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2323,22 +2429,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
+        <v>997</v>
+      </c>
+      <c r="C56" t="n">
         <v>1003</v>
       </c>
-      <c r="C56" t="n">
-        <v>1020</v>
-      </c>
       <c r="D56" t="n">
-        <v>1020</v>
+        <v>1003</v>
       </c>
       <c r="E56" t="n">
-        <v>1003</v>
+        <v>992</v>
       </c>
       <c r="F56" t="n">
-        <v>3067.7421</v>
+        <v>1212.087</v>
       </c>
       <c r="G56" t="n">
-        <v>999.4</v>
+        <v>974.4833333333333</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2348,7 +2454,11 @@
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2358,22 +2468,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>1014</v>
+        <v>1003</v>
       </c>
       <c r="C57" t="n">
-        <v>1002</v>
+        <v>1020</v>
       </c>
       <c r="D57" t="n">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="E57" t="n">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="F57" t="n">
-        <v>672.2165</v>
+        <v>3067.7421</v>
       </c>
       <c r="G57" t="n">
-        <v>1001.2</v>
+        <v>975.35</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2383,7 +2493,11 @@
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2393,22 +2507,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>1000</v>
+        <v>1014</v>
       </c>
       <c r="C58" t="n">
-        <v>997</v>
+        <v>1002</v>
       </c>
       <c r="D58" t="n">
-        <v>1009</v>
+        <v>1022</v>
       </c>
       <c r="E58" t="n">
-        <v>988</v>
+        <v>1002</v>
       </c>
       <c r="F58" t="n">
-        <v>615.5857</v>
+        <v>672.2165</v>
       </c>
       <c r="G58" t="n">
-        <v>1003.4</v>
+        <v>975.7833333333333</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2418,32 +2532,34 @@
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>995</v>
+        <v>1000</v>
       </c>
       <c r="C59" t="n">
         <v>997</v>
       </c>
       <c r="D59" t="n">
-        <v>997</v>
+        <v>1009</v>
       </c>
       <c r="E59" t="n">
-        <v>995</v>
+        <v>988</v>
       </c>
       <c r="F59" t="n">
-        <v>450.0126</v>
+        <v>615.5857</v>
       </c>
       <c r="G59" t="n">
-        <v>1003.8</v>
+        <v>976.1333333333333</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2463,28 +2579,28 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>986</v>
+        <v>995</v>
       </c>
       <c r="C60" t="n">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="D60" t="n">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="E60" t="n">
-        <v>986</v>
+        <v>995</v>
       </c>
       <c r="F60" t="n">
-        <v>260.0013</v>
+        <v>450.0126</v>
       </c>
       <c r="G60" t="n">
-        <v>1002.4</v>
+        <v>976.4666666666667</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
@@ -2501,25 +2617,25 @@
         <v>986</v>
       </c>
       <c r="C61" t="n">
-        <v>987</v>
+        <v>996</v>
       </c>
       <c r="D61" t="n">
-        <v>987</v>
+        <v>996</v>
       </c>
       <c r="E61" t="n">
         <v>986</v>
       </c>
       <c r="F61" t="n">
-        <v>121.2191</v>
+        <v>260.0013</v>
       </c>
       <c r="G61" t="n">
-        <v>995.8</v>
+        <v>976.7833333333333</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
       </c>
       <c r="I61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
@@ -2536,25 +2652,25 @@
         <v>986</v>
       </c>
       <c r="C62" t="n">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="D62" t="n">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="E62" t="n">
         <v>986</v>
       </c>
       <c r="F62" t="n">
-        <v>92.0912</v>
+        <v>121.2191</v>
       </c>
       <c r="G62" t="n">
-        <v>992.6</v>
+        <v>976.95</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
       </c>
       <c r="I62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
@@ -2568,22 +2684,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>990</v>
+        <v>986</v>
       </c>
       <c r="C63" t="n">
-        <v>990</v>
+        <v>986</v>
       </c>
       <c r="D63" t="n">
-        <v>990</v>
+        <v>986</v>
       </c>
       <c r="E63" t="n">
-        <v>990</v>
+        <v>986</v>
       </c>
       <c r="F63" t="n">
-        <v>8.948600000000001</v>
+        <v>92.0912</v>
       </c>
       <c r="G63" t="n">
-        <v>991.2</v>
+        <v>977.1</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2603,22 +2719,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>985</v>
+        <v>990</v>
       </c>
       <c r="C64" t="n">
-        <v>980</v>
+        <v>990</v>
       </c>
       <c r="D64" t="n">
-        <v>985</v>
+        <v>990</v>
       </c>
       <c r="E64" t="n">
-        <v>980</v>
+        <v>990</v>
       </c>
       <c r="F64" t="n">
-        <v>761.816</v>
+        <v>8.948600000000001</v>
       </c>
       <c r="G64" t="n">
-        <v>987.8</v>
+        <v>977.4166666666666</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2638,22 +2754,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="C65" t="n">
-        <v>987</v>
+        <v>980</v>
       </c>
       <c r="D65" t="n">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="E65" t="n">
-        <v>987</v>
+        <v>980</v>
       </c>
       <c r="F65" t="n">
-        <v>261.7811</v>
+        <v>761.816</v>
       </c>
       <c r="G65" t="n">
-        <v>986</v>
+        <v>977.5833333333334</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2673,22 +2789,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>985</v>
+        <v>987</v>
       </c>
       <c r="C66" t="n">
-        <v>985</v>
+        <v>987</v>
       </c>
       <c r="D66" t="n">
-        <v>985</v>
+        <v>987</v>
       </c>
       <c r="E66" t="n">
-        <v>985</v>
+        <v>987</v>
       </c>
       <c r="F66" t="n">
-        <v>108.1005</v>
+        <v>261.7811</v>
       </c>
       <c r="G66" t="n">
-        <v>985.6</v>
+        <v>977.7833333333333</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2711,19 +2827,19 @@
         <v>985</v>
       </c>
       <c r="C67" t="n">
-        <v>992</v>
+        <v>985</v>
       </c>
       <c r="D67" t="n">
-        <v>992</v>
+        <v>985</v>
       </c>
       <c r="E67" t="n">
         <v>985</v>
       </c>
       <c r="F67" t="n">
-        <v>2238.2726</v>
+        <v>108.1005</v>
       </c>
       <c r="G67" t="n">
-        <v>986.8</v>
+        <v>977.9833333333333</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2743,22 +2859,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>995</v>
+        <v>985</v>
       </c>
       <c r="C68" t="n">
-        <v>995</v>
+        <v>992</v>
       </c>
       <c r="D68" t="n">
-        <v>995</v>
+        <v>992</v>
       </c>
       <c r="E68" t="n">
-        <v>995</v>
+        <v>985</v>
       </c>
       <c r="F68" t="n">
-        <v>14</v>
+        <v>2238.2726</v>
       </c>
       <c r="G68" t="n">
-        <v>987.8</v>
+        <v>978.25</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2778,22 +2894,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>990</v>
+        <v>995</v>
       </c>
       <c r="C69" t="n">
-        <v>988</v>
+        <v>995</v>
       </c>
       <c r="D69" t="n">
-        <v>990</v>
+        <v>995</v>
       </c>
       <c r="E69" t="n">
-        <v>988</v>
+        <v>995</v>
       </c>
       <c r="F69" t="n">
-        <v>28.5429</v>
+        <v>14</v>
       </c>
       <c r="G69" t="n">
-        <v>989.4</v>
+        <v>978.5666666666667</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2813,22 +2929,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>988</v>
+        <v>990</v>
       </c>
       <c r="C70" t="n">
         <v>988</v>
       </c>
       <c r="D70" t="n">
-        <v>988</v>
+        <v>990</v>
       </c>
       <c r="E70" t="n">
         <v>988</v>
       </c>
       <c r="F70" t="n">
-        <v>15.3821</v>
+        <v>28.5429</v>
       </c>
       <c r="G70" t="n">
-        <v>989.6</v>
+        <v>978.8166666666667</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2848,22 +2964,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>985</v>
+        <v>988</v>
       </c>
       <c r="C71" t="n">
-        <v>992</v>
+        <v>988</v>
       </c>
       <c r="D71" t="n">
-        <v>992</v>
+        <v>988</v>
       </c>
       <c r="E71" t="n">
-        <v>985</v>
+        <v>988</v>
       </c>
       <c r="F71" t="n">
-        <v>311.5085</v>
+        <v>15.3821</v>
       </c>
       <c r="G71" t="n">
-        <v>991</v>
+        <v>979.0666666666667</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2883,22 +2999,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
+        <v>985</v>
+      </c>
+      <c r="C72" t="n">
         <v>992</v>
       </c>
-      <c r="C72" t="n">
-        <v>993</v>
-      </c>
       <c r="D72" t="n">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="E72" t="n">
-        <v>992</v>
+        <v>985</v>
       </c>
       <c r="F72" t="n">
-        <v>77.8151</v>
+        <v>311.5085</v>
       </c>
       <c r="G72" t="n">
-        <v>991.2</v>
+        <v>979.2833333333333</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2918,22 +3034,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
+        <v>992</v>
+      </c>
+      <c r="C73" t="n">
         <v>993</v>
       </c>
-      <c r="C73" t="n">
-        <v>1000</v>
-      </c>
       <c r="D73" t="n">
-        <v>1000</v>
+        <v>993</v>
       </c>
       <c r="E73" t="n">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="F73" t="n">
-        <v>533</v>
+        <v>77.8151</v>
       </c>
       <c r="G73" t="n">
-        <v>992.2</v>
+        <v>979.5166666666667</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2953,22 +3069,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
+        <v>993</v>
+      </c>
+      <c r="C74" t="n">
         <v>1000</v>
       </c>
-      <c r="C74" t="n">
-        <v>1003</v>
-      </c>
       <c r="D74" t="n">
-        <v>1003</v>
+        <v>1000</v>
       </c>
       <c r="E74" t="n">
-        <v>1000</v>
+        <v>993</v>
       </c>
       <c r="F74" t="n">
-        <v>967.4512999999999</v>
+        <v>533</v>
       </c>
       <c r="G74" t="n">
-        <v>995.2</v>
+        <v>979.85</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -2988,7 +3104,7 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>1003</v>
+        <v>1000</v>
       </c>
       <c r="C75" t="n">
         <v>1003</v>
@@ -2997,13 +3113,13 @@
         <v>1003</v>
       </c>
       <c r="E75" t="n">
-        <v>1003</v>
+        <v>1000</v>
       </c>
       <c r="F75" t="n">
-        <v>10.5884</v>
+        <v>967.4512999999999</v>
       </c>
       <c r="G75" t="n">
-        <v>998.2</v>
+        <v>980.3</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3023,22 +3139,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>998</v>
+        <v>1003</v>
       </c>
       <c r="C76" t="n">
-        <v>998</v>
+        <v>1003</v>
       </c>
       <c r="D76" t="n">
-        <v>998</v>
+        <v>1003</v>
       </c>
       <c r="E76" t="n">
-        <v>998</v>
+        <v>1003</v>
       </c>
       <c r="F76" t="n">
-        <v>38.8858</v>
+        <v>10.5884</v>
       </c>
       <c r="G76" t="n">
-        <v>999.4</v>
+        <v>980.7</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3058,22 +3174,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>1002</v>
+        <v>998</v>
       </c>
       <c r="C77" t="n">
-        <v>1003</v>
+        <v>998</v>
       </c>
       <c r="D77" t="n">
-        <v>1003</v>
+        <v>998</v>
       </c>
       <c r="E77" t="n">
-        <v>1002</v>
+        <v>998</v>
       </c>
       <c r="F77" t="n">
-        <v>302</v>
+        <v>38.8858</v>
       </c>
       <c r="G77" t="n">
-        <v>1001.4</v>
+        <v>981.0666666666667</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3093,22 +3209,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>1009</v>
+        <v>1002</v>
       </c>
       <c r="C78" t="n">
-        <v>1009</v>
+        <v>1003</v>
       </c>
       <c r="D78" t="n">
-        <v>1009</v>
+        <v>1003</v>
       </c>
       <c r="E78" t="n">
-        <v>1009</v>
+        <v>1002</v>
       </c>
       <c r="F78" t="n">
-        <v>11.5343</v>
+        <v>302</v>
       </c>
       <c r="G78" t="n">
-        <v>1003.2</v>
+        <v>981.4833333333333</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3128,22 +3244,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="C79" t="n">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="D79" t="n">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="E79" t="n">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="F79" t="n">
-        <v>1000</v>
+        <v>11.5343</v>
       </c>
       <c r="G79" t="n">
-        <v>1004.6</v>
+        <v>981.9166666666666</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3163,22 +3279,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>1015</v>
+        <v>1010</v>
       </c>
       <c r="C80" t="n">
-        <v>1015</v>
+        <v>1010</v>
       </c>
       <c r="D80" t="n">
-        <v>1015</v>
+        <v>1010</v>
       </c>
       <c r="E80" t="n">
-        <v>1015</v>
+        <v>1010</v>
       </c>
       <c r="F80" t="n">
-        <v>8</v>
+        <v>1000</v>
       </c>
       <c r="G80" t="n">
-        <v>1007</v>
+        <v>982.45</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3198,22 +3314,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>1020</v>
+        <v>1015</v>
       </c>
       <c r="C81" t="n">
-        <v>1018</v>
+        <v>1015</v>
       </c>
       <c r="D81" t="n">
-        <v>1025</v>
+        <v>1015</v>
       </c>
       <c r="E81" t="n">
-        <v>1018</v>
+        <v>1015</v>
       </c>
       <c r="F81" t="n">
-        <v>541.1611</v>
+        <v>8</v>
       </c>
       <c r="G81" t="n">
-        <v>1011</v>
+        <v>983.1666666666666</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3233,22 +3349,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>1012</v>
+        <v>1020</v>
       </c>
       <c r="C82" t="n">
-        <v>1011</v>
+        <v>1018</v>
       </c>
       <c r="D82" t="n">
-        <v>1012</v>
+        <v>1025</v>
       </c>
       <c r="E82" t="n">
-        <v>1007</v>
+        <v>1018</v>
       </c>
       <c r="F82" t="n">
-        <v>683.0512</v>
+        <v>541.1611</v>
       </c>
       <c r="G82" t="n">
-        <v>1012.6</v>
+        <v>983.9333333333333</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3268,28 +3384,28 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>1005</v>
+        <v>1012</v>
       </c>
       <c r="C83" t="n">
-        <v>1005</v>
+        <v>1011</v>
       </c>
       <c r="D83" t="n">
-        <v>1005</v>
+        <v>1012</v>
       </c>
       <c r="E83" t="n">
-        <v>1005</v>
+        <v>1007</v>
       </c>
       <c r="F83" t="n">
-        <v>8</v>
+        <v>683.0512</v>
       </c>
       <c r="G83" t="n">
-        <v>1011.8</v>
+        <v>984.6333333333333</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
       </c>
       <c r="I83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
@@ -3303,22 +3419,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>1000</v>
+        <v>1005</v>
       </c>
       <c r="C84" t="n">
-        <v>1000</v>
+        <v>1005</v>
       </c>
       <c r="D84" t="n">
-        <v>1000</v>
+        <v>1005</v>
       </c>
       <c r="E84" t="n">
-        <v>1000</v>
+        <v>1005</v>
       </c>
       <c r="F84" t="n">
-        <v>71.3138</v>
+        <v>8</v>
       </c>
       <c r="G84" t="n">
-        <v>1009.8</v>
+        <v>985.3333333333334</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3338,22 +3454,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>1007</v>
+        <v>1000</v>
       </c>
       <c r="C85" t="n">
-        <v>1014</v>
+        <v>1000</v>
       </c>
       <c r="D85" t="n">
-        <v>1014</v>
+        <v>1000</v>
       </c>
       <c r="E85" t="n">
-        <v>1007</v>
+        <v>1000</v>
       </c>
       <c r="F85" t="n">
-        <v>280.9935</v>
+        <v>71.3138</v>
       </c>
       <c r="G85" t="n">
-        <v>1009.6</v>
+        <v>986.05</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3373,22 +3489,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>1015</v>
+        <v>1007</v>
       </c>
       <c r="C86" t="n">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="D86" t="n">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="E86" t="n">
-        <v>1015</v>
+        <v>1007</v>
       </c>
       <c r="F86" t="n">
-        <v>8</v>
+        <v>280.9935</v>
       </c>
       <c r="G86" t="n">
-        <v>1009</v>
+        <v>986.9</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3408,22 +3524,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>1020</v>
+        <v>1015</v>
       </c>
       <c r="C87" t="n">
-        <v>1020</v>
+        <v>1015</v>
       </c>
       <c r="D87" t="n">
-        <v>1020</v>
+        <v>1015</v>
       </c>
       <c r="E87" t="n">
-        <v>1020</v>
+        <v>1015</v>
       </c>
       <c r="F87" t="n">
-        <v>52.3911</v>
+        <v>8</v>
       </c>
       <c r="G87" t="n">
-        <v>1010.8</v>
+        <v>987.7333333333333</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3446,19 +3562,19 @@
         <v>1020</v>
       </c>
       <c r="C88" t="n">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="D88" t="n">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="E88" t="n">
         <v>1020</v>
       </c>
       <c r="F88" t="n">
-        <v>536.6839</v>
+        <v>52.3911</v>
       </c>
       <c r="G88" t="n">
-        <v>1014</v>
+        <v>988.55</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3478,22 +3594,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>1025</v>
+        <v>1020</v>
       </c>
       <c r="C89" t="n">
-        <v>1035</v>
+        <v>1021</v>
       </c>
       <c r="D89" t="n">
-        <v>1035</v>
+        <v>1021</v>
       </c>
       <c r="E89" t="n">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="F89" t="n">
-        <v>1742.3989</v>
+        <v>536.6839</v>
       </c>
       <c r="G89" t="n">
-        <v>1021</v>
+        <v>989.3833333333333</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3513,22 +3629,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>1030</v>
+        <v>1025</v>
       </c>
       <c r="C90" t="n">
-        <v>1029</v>
+        <v>1035</v>
       </c>
       <c r="D90" t="n">
-        <v>1030</v>
+        <v>1035</v>
       </c>
       <c r="E90" t="n">
-        <v>1029</v>
+        <v>1022</v>
       </c>
       <c r="F90" t="n">
-        <v>48.0389</v>
+        <v>1742.3989</v>
       </c>
       <c r="G90" t="n">
-        <v>1024</v>
+        <v>990.5166666666667</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3548,28 +3664,28 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>1018</v>
+        <v>1030</v>
       </c>
       <c r="C91" t="n">
-        <v>1018</v>
+        <v>1029</v>
       </c>
       <c r="D91" t="n">
-        <v>1018</v>
+        <v>1030</v>
       </c>
       <c r="E91" t="n">
-        <v>1018</v>
+        <v>1029</v>
       </c>
       <c r="F91" t="n">
-        <v>32.69</v>
+        <v>48.0389</v>
       </c>
       <c r="G91" t="n">
-        <v>1024.6</v>
+        <v>991.55</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
       </c>
       <c r="I91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
@@ -3583,28 +3699,28 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>1028</v>
+        <v>1018</v>
       </c>
       <c r="C92" t="n">
-        <v>1028</v>
+        <v>1018</v>
       </c>
       <c r="D92" t="n">
-        <v>1028</v>
+        <v>1018</v>
       </c>
       <c r="E92" t="n">
-        <v>1028</v>
+        <v>1018</v>
       </c>
       <c r="F92" t="n">
-        <v>76.1606</v>
+        <v>32.69</v>
       </c>
       <c r="G92" t="n">
-        <v>1026.2</v>
+        <v>992.6166666666667</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
       </c>
       <c r="I92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
@@ -3618,22 +3734,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>1022</v>
+        <v>1028</v>
       </c>
       <c r="C93" t="n">
-        <v>1022</v>
+        <v>1028</v>
       </c>
       <c r="D93" t="n">
-        <v>1022</v>
+        <v>1028</v>
       </c>
       <c r="E93" t="n">
-        <v>1022</v>
+        <v>1028</v>
       </c>
       <c r="F93" t="n">
-        <v>5.1703</v>
+        <v>76.1606</v>
       </c>
       <c r="G93" t="n">
-        <v>1026.4</v>
+        <v>993.75</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3653,22 +3769,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>1018</v>
+        <v>1022</v>
       </c>
       <c r="C94" t="n">
-        <v>1018</v>
+        <v>1022</v>
       </c>
       <c r="D94" t="n">
-        <v>1029</v>
+        <v>1022</v>
       </c>
       <c r="E94" t="n">
-        <v>1018</v>
+        <v>1022</v>
       </c>
       <c r="F94" t="n">
-        <v>273.6898</v>
+        <v>5.1703</v>
       </c>
       <c r="G94" t="n">
-        <v>1023</v>
+        <v>994.6833333333333</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3688,22 +3804,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="C95" t="n">
-        <v>1029</v>
+        <v>1018</v>
       </c>
       <c r="D95" t="n">
         <v>1029</v>
       </c>
       <c r="E95" t="n">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="F95" t="n">
-        <v>462.1617</v>
+        <v>273.6898</v>
       </c>
       <c r="G95" t="n">
-        <v>1023</v>
+        <v>995.5166666666667</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3723,7 +3839,7 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>1028</v>
+        <v>1020</v>
       </c>
       <c r="C96" t="n">
         <v>1029</v>
@@ -3732,13 +3848,13 @@
         <v>1029</v>
       </c>
       <c r="E96" t="n">
-        <v>1028</v>
+        <v>1019</v>
       </c>
       <c r="F96" t="n">
-        <v>1238.106</v>
+        <v>462.1617</v>
       </c>
       <c r="G96" t="n">
-        <v>1025.2</v>
+        <v>996.5666666666667</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3758,22 +3874,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>1035</v>
+        <v>1028</v>
       </c>
       <c r="C97" t="n">
-        <v>1026</v>
+        <v>1029</v>
       </c>
       <c r="D97" t="n">
-        <v>1036</v>
+        <v>1029</v>
       </c>
       <c r="E97" t="n">
-        <v>1026</v>
+        <v>1028</v>
       </c>
       <c r="F97" t="n">
-        <v>258.061</v>
+        <v>1238.106</v>
       </c>
       <c r="G97" t="n">
-        <v>1024.8</v>
+        <v>997.55</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3793,22 +3909,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>1025</v>
+        <v>1035</v>
       </c>
       <c r="C98" t="n">
-        <v>1017</v>
+        <v>1026</v>
       </c>
       <c r="D98" t="n">
-        <v>1025</v>
+        <v>1036</v>
       </c>
       <c r="E98" t="n">
-        <v>1017</v>
+        <v>1026</v>
       </c>
       <c r="F98" t="n">
-        <v>575.5</v>
+        <v>258.061</v>
       </c>
       <c r="G98" t="n">
-        <v>1023.8</v>
+        <v>998.4333333333333</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3828,22 +3944,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>1022</v>
+        <v>1025</v>
       </c>
       <c r="C99" t="n">
-        <v>1026</v>
+        <v>1017</v>
       </c>
       <c r="D99" t="n">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="E99" t="n">
-        <v>1022</v>
+        <v>1017</v>
       </c>
       <c r="F99" t="n">
-        <v>471.0583</v>
+        <v>575.5</v>
       </c>
       <c r="G99" t="n">
-        <v>1025.4</v>
+        <v>999.1666666666666</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3863,22 +3979,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>1026</v>
+        <v>1022</v>
       </c>
       <c r="C100" t="n">
         <v>1026</v>
       </c>
       <c r="D100" t="n">
-        <v>1030</v>
+        <v>1027</v>
       </c>
       <c r="E100" t="n">
-        <v>1026</v>
+        <v>1022</v>
       </c>
       <c r="F100" t="n">
-        <v>51.794</v>
+        <v>471.0583</v>
       </c>
       <c r="G100" t="n">
-        <v>1024.8</v>
+        <v>1000.016666666667</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3898,22 +4014,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>1035</v>
+        <v>1026</v>
       </c>
       <c r="C101" t="n">
-        <v>1035</v>
+        <v>1026</v>
       </c>
       <c r="D101" t="n">
-        <v>1035</v>
+        <v>1030</v>
       </c>
       <c r="E101" t="n">
-        <v>1035</v>
+        <v>1026</v>
       </c>
       <c r="F101" t="n">
-        <v>16.6057</v>
+        <v>51.794</v>
       </c>
       <c r="G101" t="n">
-        <v>1026</v>
+        <v>1000.933333333333</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3936,19 +4052,19 @@
         <v>1035</v>
       </c>
       <c r="C102" t="n">
-        <v>1045</v>
+        <v>1035</v>
       </c>
       <c r="D102" t="n">
-        <v>1045</v>
+        <v>1035</v>
       </c>
       <c r="E102" t="n">
         <v>1035</v>
       </c>
       <c r="F102" t="n">
-        <v>1729.9621</v>
+        <v>16.6057</v>
       </c>
       <c r="G102" t="n">
-        <v>1029.8</v>
+        <v>1001.983333333333</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -3968,22 +4084,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
+        <v>1035</v>
+      </c>
+      <c r="C103" t="n">
         <v>1045</v>
       </c>
-      <c r="C103" t="n">
-        <v>1047</v>
-      </c>
       <c r="D103" t="n">
-        <v>1047</v>
+        <v>1045</v>
       </c>
       <c r="E103" t="n">
-        <v>1045</v>
+        <v>1035</v>
       </c>
       <c r="F103" t="n">
-        <v>360.8044</v>
+        <v>1729.9621</v>
       </c>
       <c r="G103" t="n">
-        <v>1035.8</v>
+        <v>1003.15</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4003,28 +4119,28 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>1031</v>
+        <v>1045</v>
       </c>
       <c r="C104" t="n">
-        <v>1024</v>
+        <v>1047</v>
       </c>
       <c r="D104" t="n">
-        <v>1031</v>
+        <v>1047</v>
       </c>
       <c r="E104" t="n">
-        <v>1024</v>
+        <v>1045</v>
       </c>
       <c r="F104" t="n">
-        <v>155.7858</v>
+        <v>360.8044</v>
       </c>
       <c r="G104" t="n">
-        <v>1035.4</v>
+        <v>1004.4</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
       </c>
       <c r="I104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
@@ -4038,28 +4154,28 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>1022</v>
+        <v>1031</v>
       </c>
       <c r="C105" t="n">
-        <v>1009</v>
+        <v>1024</v>
       </c>
       <c r="D105" t="n">
-        <v>1022</v>
+        <v>1031</v>
       </c>
       <c r="E105" t="n">
-        <v>1006</v>
+        <v>1024</v>
       </c>
       <c r="F105" t="n">
-        <v>1216.3138</v>
+        <v>155.7858</v>
       </c>
       <c r="G105" t="n">
-        <v>1032</v>
+        <v>1005.283333333333</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
       </c>
       <c r="I105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
@@ -4073,22 +4189,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>1005</v>
+        <v>1022</v>
       </c>
       <c r="C106" t="n">
-        <v>1005</v>
+        <v>1009</v>
       </c>
       <c r="D106" t="n">
-        <v>1005</v>
+        <v>1022</v>
       </c>
       <c r="E106" t="n">
-        <v>997</v>
+        <v>1006</v>
       </c>
       <c r="F106" t="n">
-        <v>499.1448</v>
+        <v>1216.3138</v>
       </c>
       <c r="G106" t="n">
-        <v>1026</v>
+        <v>1005.8</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4108,22 +4224,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>999</v>
+        <v>1005</v>
       </c>
       <c r="C107" t="n">
-        <v>993</v>
+        <v>1005</v>
       </c>
       <c r="D107" t="n">
-        <v>999</v>
+        <v>1005</v>
       </c>
       <c r="E107" t="n">
-        <v>993</v>
+        <v>997</v>
       </c>
       <c r="F107" t="n">
-        <v>60.8234</v>
+        <v>499.1448</v>
       </c>
       <c r="G107" t="n">
-        <v>1015.6</v>
+        <v>1006.216666666667</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4143,22 +4259,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="C108" t="n">
-        <v>1009</v>
+        <v>993</v>
       </c>
       <c r="D108" t="n">
-        <v>1009</v>
+        <v>999</v>
       </c>
       <c r="E108" t="n">
-        <v>1001</v>
+        <v>993</v>
       </c>
       <c r="F108" t="n">
-        <v>1059.7096</v>
+        <v>60.8234</v>
       </c>
       <c r="G108" t="n">
-        <v>1008</v>
+        <v>1006.433333333333</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4178,7 +4294,7 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>1009</v>
+        <v>1001</v>
       </c>
       <c r="C109" t="n">
         <v>1009</v>
@@ -4187,13 +4303,13 @@
         <v>1009</v>
       </c>
       <c r="E109" t="n">
-        <v>1009</v>
+        <v>1001</v>
       </c>
       <c r="F109" t="n">
-        <v>399.8816</v>
+        <v>1059.7096</v>
       </c>
       <c r="G109" t="n">
-        <v>1005</v>
+        <v>1006.95</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4225,10 +4341,10 @@
         <v>1009</v>
       </c>
       <c r="F110" t="n">
-        <v>0.5108</v>
+        <v>399.8816</v>
       </c>
       <c r="G110" t="n">
-        <v>1005</v>
+        <v>1007.433333333333</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4248,22 +4364,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>1017</v>
+        <v>1009</v>
       </c>
       <c r="C111" t="n">
-        <v>1003</v>
+        <v>1009</v>
       </c>
       <c r="D111" t="n">
-        <v>1017</v>
+        <v>1009</v>
       </c>
       <c r="E111" t="n">
-        <v>1003</v>
+        <v>1009</v>
       </c>
       <c r="F111" t="n">
-        <v>207.8754</v>
+        <v>0.5108</v>
       </c>
       <c r="G111" t="n">
-        <v>1004.6</v>
+        <v>1007.833333333333</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4283,22 +4399,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>1001</v>
+        <v>1017</v>
       </c>
       <c r="C112" t="n">
-        <v>1010</v>
+        <v>1003</v>
       </c>
       <c r="D112" t="n">
-        <v>1010</v>
+        <v>1017</v>
       </c>
       <c r="E112" t="n">
-        <v>1001</v>
+        <v>1003</v>
       </c>
       <c r="F112" t="n">
-        <v>7371.0941</v>
+        <v>207.8754</v>
       </c>
       <c r="G112" t="n">
-        <v>1008</v>
+        <v>1008.133333333333</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4318,22 +4434,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>1012</v>
+        <v>1001</v>
       </c>
       <c r="C113" t="n">
-        <v>1023</v>
+        <v>1010</v>
       </c>
       <c r="D113" t="n">
-        <v>1023</v>
+        <v>1010</v>
       </c>
       <c r="E113" t="n">
-        <v>1012</v>
+        <v>1001</v>
       </c>
       <c r="F113" t="n">
-        <v>1025.6962</v>
+        <v>7371.0941</v>
       </c>
       <c r="G113" t="n">
-        <v>1010.8</v>
+        <v>1008.416666666667</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4353,22 +4469,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>1020</v>
+        <v>1012</v>
       </c>
       <c r="C114" t="n">
-        <v>1020</v>
+        <v>1023</v>
       </c>
       <c r="D114" t="n">
-        <v>1021</v>
+        <v>1023</v>
       </c>
       <c r="E114" t="n">
-        <v>1020</v>
+        <v>1012</v>
       </c>
       <c r="F114" t="n">
-        <v>1997.934</v>
+        <v>1025.6962</v>
       </c>
       <c r="G114" t="n">
-        <v>1013</v>
+        <v>1009.033333333333</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4400,10 +4516,10 @@
         <v>1020</v>
       </c>
       <c r="F115" t="n">
-        <v>1818.4456</v>
+        <v>1997.934</v>
       </c>
       <c r="G115" t="n">
-        <v>1015.2</v>
+        <v>1009.45</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4423,22 +4539,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>1012</v>
+        <v>1020</v>
       </c>
       <c r="C116" t="n">
-        <v>1026</v>
+        <v>1020</v>
       </c>
       <c r="D116" t="n">
-        <v>1026</v>
+        <v>1021</v>
       </c>
       <c r="E116" t="n">
-        <v>1012</v>
+        <v>1020</v>
       </c>
       <c r="F116" t="n">
-        <v>177.6963</v>
+        <v>1818.4456</v>
       </c>
       <c r="G116" t="n">
-        <v>1019.8</v>
+        <v>1009.733333333333</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4461,19 +4577,19 @@
         <v>1012</v>
       </c>
       <c r="C117" t="n">
-        <v>1012</v>
+        <v>1026</v>
       </c>
       <c r="D117" t="n">
-        <v>1012</v>
+        <v>1026</v>
       </c>
       <c r="E117" t="n">
         <v>1012</v>
       </c>
       <c r="F117" t="n">
-        <v>61.5901</v>
+        <v>177.6963</v>
       </c>
       <c r="G117" t="n">
-        <v>1020.2</v>
+        <v>1009.833333333333</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4493,22 +4609,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="C118" t="n">
+        <v>1012</v>
+      </c>
+      <c r="D118" t="n">
+        <v>1012</v>
+      </c>
+      <c r="E118" t="n">
+        <v>1012</v>
+      </c>
+      <c r="F118" t="n">
+        <v>61.5901</v>
+      </c>
+      <c r="G118" t="n">
         <v>1010</v>
-      </c>
-      <c r="D118" t="n">
-        <v>1011</v>
-      </c>
-      <c r="E118" t="n">
-        <v>1010</v>
-      </c>
-      <c r="F118" t="n">
-        <v>27.4134</v>
-      </c>
-      <c r="G118" t="n">
-        <v>1017.6</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4528,22 +4644,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>1005</v>
+        <v>1011</v>
       </c>
       <c r="C119" t="n">
-        <v>1006</v>
+        <v>1010</v>
       </c>
       <c r="D119" t="n">
-        <v>1006</v>
+        <v>1011</v>
       </c>
       <c r="E119" t="n">
-        <v>1005</v>
+        <v>1010</v>
       </c>
       <c r="F119" t="n">
-        <v>138.2756</v>
+        <v>27.4134</v>
       </c>
       <c r="G119" t="n">
-        <v>1014.8</v>
+        <v>1010.216666666667</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4563,22 +4679,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>1009</v>
+        <v>1005</v>
       </c>
       <c r="C120" t="n">
-        <v>999</v>
+        <v>1006</v>
       </c>
       <c r="D120" t="n">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="E120" t="n">
-        <v>999</v>
+        <v>1005</v>
       </c>
       <c r="F120" t="n">
-        <v>1812.9742</v>
+        <v>138.2756</v>
       </c>
       <c r="G120" t="n">
-        <v>1010.6</v>
+        <v>1010.366666666667</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4598,22 +4714,22 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>1000</v>
+        <v>1009</v>
       </c>
       <c r="C121" t="n">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="D121" t="n">
-        <v>1000</v>
+        <v>1009</v>
       </c>
       <c r="E121" t="n">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="F121" t="n">
-        <v>476.2882</v>
+        <v>1812.9742</v>
       </c>
       <c r="G121" t="n">
-        <v>1005</v>
+        <v>1010.416666666667</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4633,22 +4749,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>1006</v>
+        <v>1000</v>
       </c>
       <c r="C122" t="n">
-        <v>1012</v>
+        <v>998</v>
       </c>
       <c r="D122" t="n">
-        <v>1012</v>
+        <v>1000</v>
       </c>
       <c r="E122" t="n">
-        <v>1006</v>
+        <v>998</v>
       </c>
       <c r="F122" t="n">
-        <v>56.4289</v>
+        <v>476.2882</v>
       </c>
       <c r="G122" t="n">
-        <v>1005</v>
+        <v>1010.6</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4671,19 +4787,19 @@
         <v>1006</v>
       </c>
       <c r="C123" t="n">
-        <v>1006</v>
+        <v>1012</v>
       </c>
       <c r="D123" t="n">
-        <v>1006</v>
+        <v>1012</v>
       </c>
       <c r="E123" t="n">
         <v>1006</v>
       </c>
       <c r="F123" t="n">
-        <v>23.6698</v>
+        <v>56.4289</v>
       </c>
       <c r="G123" t="n">
-        <v>1004.2</v>
+        <v>1011.033333333333</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4703,22 +4819,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>1012</v>
+        <v>1006</v>
       </c>
       <c r="C124" t="n">
-        <v>1012</v>
+        <v>1006</v>
       </c>
       <c r="D124" t="n">
-        <v>1012</v>
+        <v>1006</v>
       </c>
       <c r="E124" t="n">
-        <v>1012</v>
+        <v>1006</v>
       </c>
       <c r="F124" t="n">
-        <v>1.11</v>
+        <v>23.6698</v>
       </c>
       <c r="G124" t="n">
-        <v>1005.4</v>
+        <v>1011.3</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4738,22 +4854,22 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="C125" t="n">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="D125" t="n">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="E125" t="n">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="F125" t="n">
-        <v>30.9199</v>
+        <v>1.11</v>
       </c>
       <c r="G125" t="n">
-        <v>1008.2</v>
+        <v>1011.833333333333</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4773,22 +4889,22 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>1010</v>
+        <v>1013</v>
       </c>
       <c r="C126" t="n">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="D126" t="n">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="E126" t="n">
-        <v>1010</v>
+        <v>1013</v>
       </c>
       <c r="F126" t="n">
-        <v>319.3955</v>
+        <v>30.9199</v>
       </c>
       <c r="G126" t="n">
-        <v>1011.6</v>
+        <v>1012.266666666667</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -4808,22 +4924,22 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>1015</v>
+        <v>1010</v>
       </c>
       <c r="C127" t="n">
         <v>1015</v>
       </c>
       <c r="D127" t="n">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="E127" t="n">
-        <v>1015</v>
+        <v>1010</v>
       </c>
       <c r="F127" t="n">
-        <v>817.75</v>
+        <v>319.3955</v>
       </c>
       <c r="G127" t="n">
-        <v>1012.2</v>
+        <v>1012.766666666667</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -4843,22 +4959,22 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>1019</v>
+        <v>1015</v>
       </c>
       <c r="C128" t="n">
-        <v>1018</v>
+        <v>1015</v>
       </c>
       <c r="D128" t="n">
-        <v>1019</v>
+        <v>1016</v>
       </c>
       <c r="E128" t="n">
-        <v>1018</v>
+        <v>1015</v>
       </c>
       <c r="F128" t="n">
-        <v>477.518</v>
+        <v>817.75</v>
       </c>
       <c r="G128" t="n">
-        <v>1014.6</v>
+        <v>1013.15</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -4878,22 +4994,22 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>1012</v>
+        <v>1019</v>
       </c>
       <c r="C129" t="n">
-        <v>1012</v>
+        <v>1018</v>
       </c>
       <c r="D129" t="n">
-        <v>1012</v>
+        <v>1019</v>
       </c>
       <c r="E129" t="n">
-        <v>1012</v>
+        <v>1018</v>
       </c>
       <c r="F129" t="n">
-        <v>10</v>
+        <v>477.518</v>
       </c>
       <c r="G129" t="n">
-        <v>1014.6</v>
+        <v>1013.533333333333</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -4913,22 +5029,22 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>1020</v>
+        <v>1012</v>
       </c>
       <c r="C130" t="n">
-        <v>1020</v>
+        <v>1012</v>
       </c>
       <c r="D130" t="n">
-        <v>1022</v>
+        <v>1012</v>
       </c>
       <c r="E130" t="n">
-        <v>1020</v>
+        <v>1012</v>
       </c>
       <c r="F130" t="n">
-        <v>343.5788</v>
+        <v>10</v>
       </c>
       <c r="G130" t="n">
-        <v>1016</v>
+        <v>1013.933333333333</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -4954,16 +5070,16 @@
         <v>1020</v>
       </c>
       <c r="D131" t="n">
-        <v>1020</v>
+        <v>1022</v>
       </c>
       <c r="E131" t="n">
         <v>1020</v>
       </c>
       <c r="F131" t="n">
-        <v>0.8678</v>
+        <v>343.5788</v>
       </c>
       <c r="G131" t="n">
-        <v>1017</v>
+        <v>1014.466666666667</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -4995,10 +5111,10 @@
         <v>1020</v>
       </c>
       <c r="F132" t="n">
-        <v>2.4957</v>
+        <v>0.8678</v>
       </c>
       <c r="G132" t="n">
-        <v>1018</v>
+        <v>1014.933333333333</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5030,10 +5146,10 @@
         <v>1020</v>
       </c>
       <c r="F133" t="n">
-        <v>8.3134</v>
+        <v>2.4957</v>
       </c>
       <c r="G133" t="n">
-        <v>1018.4</v>
+        <v>1015.383333333333</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5065,10 +5181,10 @@
         <v>1020</v>
       </c>
       <c r="F134" t="n">
-        <v>3.5629</v>
+        <v>8.3134</v>
       </c>
       <c r="G134" t="n">
-        <v>1020</v>
+        <v>1015.716666666667</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5100,10 +5216,10 @@
         <v>1020</v>
       </c>
       <c r="F135" t="n">
-        <v>103.1522</v>
+        <v>3.5629</v>
       </c>
       <c r="G135" t="n">
-        <v>1020</v>
+        <v>1016</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5123,22 +5239,22 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="C136" t="n">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="D136" t="n">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="E136" t="n">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="F136" t="n">
-        <v>30.4614</v>
+        <v>103.1522</v>
       </c>
       <c r="G136" t="n">
-        <v>1020.4</v>
+        <v>1016.283333333333</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5161,19 +5277,19 @@
         <v>1022</v>
       </c>
       <c r="C137" t="n">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="D137" t="n">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="E137" t="n">
         <v>1022</v>
       </c>
       <c r="F137" t="n">
-        <v>600</v>
+        <v>30.4614</v>
       </c>
       <c r="G137" t="n">
-        <v>1021</v>
+        <v>1016.683333333333</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5193,22 +5309,22 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>1020</v>
+        <v>1022</v>
       </c>
       <c r="C138" t="n">
-        <v>1018</v>
+        <v>1023</v>
       </c>
       <c r="D138" t="n">
-        <v>1020</v>
+        <v>1023</v>
       </c>
       <c r="E138" t="n">
-        <v>1018</v>
+        <v>1022</v>
       </c>
       <c r="F138" t="n">
-        <v>17.5763</v>
+        <v>600</v>
       </c>
       <c r="G138" t="n">
-        <v>1020.6</v>
+        <v>1017.016666666667</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5228,22 +5344,22 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>1014</v>
+        <v>1020</v>
       </c>
       <c r="C139" t="n">
-        <v>1014</v>
+        <v>1018</v>
       </c>
       <c r="D139" t="n">
-        <v>1014</v>
+        <v>1020</v>
       </c>
       <c r="E139" t="n">
-        <v>1014</v>
+        <v>1018</v>
       </c>
       <c r="F139" t="n">
-        <v>131.1182</v>
+        <v>17.5763</v>
       </c>
       <c r="G139" t="n">
-        <v>1019.4</v>
+        <v>1017.166666666667</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5263,22 +5379,22 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>1006</v>
+        <v>1014</v>
       </c>
       <c r="C140" t="n">
-        <v>1005</v>
+        <v>1014</v>
       </c>
       <c r="D140" t="n">
-        <v>1006</v>
+        <v>1014</v>
       </c>
       <c r="E140" t="n">
-        <v>1005</v>
+        <v>1014</v>
       </c>
       <c r="F140" t="n">
-        <v>308.9479</v>
+        <v>131.1182</v>
       </c>
       <c r="G140" t="n">
-        <v>1016.4</v>
+        <v>1017.233333333333</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5298,22 +5414,22 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="C141" t="n">
         <v>1005</v>
       </c>
       <c r="D141" t="n">
+        <v>1006</v>
+      </c>
+      <c r="E141" t="n">
         <v>1005</v>
       </c>
-      <c r="E141" t="n">
-        <v>1003</v>
-      </c>
       <c r="F141" t="n">
-        <v>568.9575</v>
+        <v>308.9479</v>
       </c>
       <c r="G141" t="n">
-        <v>1013</v>
+        <v>1017.066666666667</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5333,22 +5449,22 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>1010</v>
+        <v>1005</v>
       </c>
       <c r="C142" t="n">
-        <v>1009</v>
+        <v>1005</v>
       </c>
       <c r="D142" t="n">
-        <v>1010</v>
+        <v>1005</v>
       </c>
       <c r="E142" t="n">
-        <v>1009</v>
+        <v>1003</v>
       </c>
       <c r="F142" t="n">
-        <v>199.3443</v>
+        <v>568.9575</v>
       </c>
       <c r="G142" t="n">
-        <v>1010.2</v>
+        <v>1016.85</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5368,22 +5484,22 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>1014</v>
+        <v>1010</v>
       </c>
       <c r="C143" t="n">
-        <v>1014</v>
+        <v>1009</v>
       </c>
       <c r="D143" t="n">
-        <v>1014</v>
+        <v>1010</v>
       </c>
       <c r="E143" t="n">
-        <v>1014</v>
+        <v>1009</v>
       </c>
       <c r="F143" t="n">
-        <v>1.5803</v>
+        <v>199.3443</v>
       </c>
       <c r="G143" t="n">
-        <v>1009.4</v>
+        <v>1016.816666666667</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5403,22 +5519,22 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>1009</v>
+        <v>1014</v>
       </c>
       <c r="C144" t="n">
-        <v>1009</v>
+        <v>1014</v>
       </c>
       <c r="D144" t="n">
-        <v>1009</v>
+        <v>1014</v>
       </c>
       <c r="E144" t="n">
-        <v>1009</v>
+        <v>1014</v>
       </c>
       <c r="F144" t="n">
-        <v>8.8713</v>
+        <v>1.5803</v>
       </c>
       <c r="G144" t="n">
-        <v>1008.4</v>
+        <v>1016.966666666667</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5441,19 +5557,19 @@
         <v>1009</v>
       </c>
       <c r="C145" t="n">
-        <v>1007</v>
+        <v>1009</v>
       </c>
       <c r="D145" t="n">
         <v>1009</v>
       </c>
       <c r="E145" t="n">
-        <v>1002</v>
+        <v>1009</v>
       </c>
       <c r="F145" t="n">
-        <v>207.9077</v>
+        <v>8.8713</v>
       </c>
       <c r="G145" t="n">
-        <v>1008.8</v>
+        <v>1017.116666666667</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5473,22 +5589,22 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>1000</v>
+        <v>1009</v>
       </c>
       <c r="C146" t="n">
-        <v>1013</v>
+        <v>1007</v>
       </c>
       <c r="D146" t="n">
-        <v>1013</v>
+        <v>1009</v>
       </c>
       <c r="E146" t="n">
-        <v>999</v>
+        <v>1002</v>
       </c>
       <c r="F146" t="n">
-        <v>946.4756</v>
+        <v>207.9077</v>
       </c>
       <c r="G146" t="n">
-        <v>1010.4</v>
+        <v>1017</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5508,22 +5624,22 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="C147" t="n">
-        <v>1001</v>
+        <v>1013</v>
       </c>
       <c r="D147" t="n">
-        <v>1001</v>
+        <v>1013</v>
       </c>
       <c r="E147" t="n">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="F147" t="n">
-        <v>6.0947</v>
+        <v>946.4756</v>
       </c>
       <c r="G147" t="n">
-        <v>1008.8</v>
+        <v>1016.966666666667</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5543,22 +5659,22 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="C148" t="n">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="D148" t="n">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="E148" t="n">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="F148" t="n">
-        <v>2.7854</v>
+        <v>6.0947</v>
       </c>
       <c r="G148" t="n">
-        <v>1006.6</v>
+        <v>1016.65</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5578,22 +5694,22 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>1000</v>
+        <v>1003</v>
       </c>
       <c r="C149" t="n">
-        <v>1000</v>
+        <v>1003</v>
       </c>
       <c r="D149" t="n">
-        <v>1000</v>
+        <v>1003</v>
       </c>
       <c r="E149" t="n">
-        <v>1000</v>
+        <v>1003</v>
       </c>
       <c r="F149" t="n">
-        <v>10.8416</v>
+        <v>2.7854</v>
       </c>
       <c r="G149" t="n">
-        <v>1004.8</v>
+        <v>1016.35</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -5613,22 +5729,22 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>995</v>
+        <v>1000</v>
       </c>
       <c r="C150" t="n">
-        <v>990</v>
+        <v>1000</v>
       </c>
       <c r="D150" t="n">
-        <v>995</v>
+        <v>1000</v>
       </c>
       <c r="E150" t="n">
-        <v>990</v>
+        <v>1000</v>
       </c>
       <c r="F150" t="n">
-        <v>45.7589</v>
+        <v>10.8416</v>
       </c>
       <c r="G150" t="n">
-        <v>1001.4</v>
+        <v>1015.766666666667</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -5648,22 +5764,22 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>992</v>
+        <v>995</v>
       </c>
       <c r="C151" t="n">
-        <v>988</v>
+        <v>990</v>
       </c>
       <c r="D151" t="n">
-        <v>992</v>
+        <v>995</v>
       </c>
       <c r="E151" t="n">
-        <v>988</v>
+        <v>990</v>
       </c>
       <c r="F151" t="n">
-        <v>41.6118</v>
+        <v>45.7589</v>
       </c>
       <c r="G151" t="n">
-        <v>996.4</v>
+        <v>1015.116666666667</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -5683,22 +5799,22 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>990</v>
+        <v>992</v>
       </c>
       <c r="C152" t="n">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="D152" t="n">
-        <v>990</v>
+        <v>992</v>
       </c>
       <c r="E152" t="n">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="F152" t="n">
-        <v>27.9097</v>
+        <v>41.6118</v>
       </c>
       <c r="G152" t="n">
-        <v>994.2</v>
+        <v>1014.616666666667</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -5718,22 +5834,22 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="C153" t="n">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="D153" t="n">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="E153" t="n">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="F153" t="n">
-        <v>72.1185</v>
+        <v>27.9097</v>
       </c>
       <c r="G153" t="n">
-        <v>991.4</v>
+        <v>1013.983333333333</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -5756,19 +5872,19 @@
         <v>989</v>
       </c>
       <c r="C154" t="n">
-        <v>985</v>
+        <v>989</v>
       </c>
       <c r="D154" t="n">
         <v>989</v>
       </c>
       <c r="E154" t="n">
-        <v>985</v>
+        <v>989</v>
       </c>
       <c r="F154" t="n">
-        <v>520.3248</v>
+        <v>72.1185</v>
       </c>
       <c r="G154" t="n">
-        <v>988.4</v>
+        <v>1013.433333333333</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -5788,22 +5904,22 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>987</v>
+        <v>989</v>
       </c>
       <c r="C155" t="n">
-        <v>988</v>
+        <v>985</v>
       </c>
       <c r="D155" t="n">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="E155" t="n">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="F155" t="n">
-        <v>77.0723</v>
+        <v>520.3248</v>
       </c>
       <c r="G155" t="n">
-        <v>988</v>
+        <v>1012.883333333333</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -5823,22 +5939,22 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>990</v>
+        <v>987</v>
       </c>
       <c r="C156" t="n">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="D156" t="n">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="E156" t="n">
-        <v>990</v>
+        <v>987</v>
       </c>
       <c r="F156" t="n">
-        <v>128.9385</v>
+        <v>77.0723</v>
       </c>
       <c r="G156" t="n">
-        <v>988.4</v>
+        <v>1012.2</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -5861,19 +5977,19 @@
         <v>990</v>
       </c>
       <c r="C157" t="n">
-        <v>979</v>
+        <v>990</v>
       </c>
       <c r="D157" t="n">
         <v>990</v>
       </c>
       <c r="E157" t="n">
-        <v>979</v>
+        <v>990</v>
       </c>
       <c r="F157" t="n">
-        <v>1222.1764</v>
+        <v>128.9385</v>
       </c>
       <c r="G157" t="n">
-        <v>986.2</v>
+        <v>1011.55</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -5893,22 +6009,22 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>987</v>
+        <v>990</v>
       </c>
       <c r="C158" t="n">
-        <v>986</v>
+        <v>979</v>
       </c>
       <c r="D158" t="n">
-        <v>987</v>
+        <v>990</v>
       </c>
       <c r="E158" t="n">
-        <v>986</v>
+        <v>979</v>
       </c>
       <c r="F158" t="n">
-        <v>668.612</v>
+        <v>1222.1764</v>
       </c>
       <c r="G158" t="n">
-        <v>985.6</v>
+        <v>1010.766666666667</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -5928,22 +6044,22 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>985</v>
+        <v>987</v>
       </c>
       <c r="C159" t="n">
         <v>986</v>
       </c>
       <c r="D159" t="n">
+        <v>987</v>
+      </c>
+      <c r="E159" t="n">
         <v>986</v>
       </c>
-      <c r="E159" t="n">
-        <v>985</v>
-      </c>
       <c r="F159" t="n">
-        <v>78.0018</v>
+        <v>668.612</v>
       </c>
       <c r="G159" t="n">
-        <v>985.8</v>
+        <v>1010.25</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -5963,22 +6079,22 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>980</v>
+        <v>985</v>
       </c>
       <c r="C160" t="n">
+        <v>986</v>
+      </c>
+      <c r="D160" t="n">
+        <v>986</v>
+      </c>
+      <c r="E160" t="n">
         <v>985</v>
       </c>
-      <c r="D160" t="n">
-        <v>985</v>
-      </c>
-      <c r="E160" t="n">
-        <v>978</v>
-      </c>
       <c r="F160" t="n">
-        <v>375.0342</v>
+        <v>78.0018</v>
       </c>
       <c r="G160" t="n">
-        <v>985.2</v>
+        <v>1009.583333333333</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -5998,7 +6114,7 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>985</v>
+        <v>980</v>
       </c>
       <c r="C161" t="n">
         <v>985</v>
@@ -6007,13 +6123,13 @@
         <v>985</v>
       </c>
       <c r="E161" t="n">
-        <v>985</v>
+        <v>978</v>
       </c>
       <c r="F161" t="n">
-        <v>504.8084</v>
+        <v>375.0342</v>
       </c>
       <c r="G161" t="n">
-        <v>984.2</v>
+        <v>1008.9</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -6036,19 +6152,19 @@
         <v>985</v>
       </c>
       <c r="C162" t="n">
-        <v>983</v>
+        <v>985</v>
       </c>
       <c r="D162" t="n">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="E162" t="n">
-        <v>979</v>
+        <v>985</v>
       </c>
       <c r="F162" t="n">
-        <v>498.8991</v>
+        <v>504.8084</v>
       </c>
       <c r="G162" t="n">
-        <v>985</v>
+        <v>1008.066666666667</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -6068,22 +6184,22 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>981</v>
+        <v>985</v>
       </c>
       <c r="C163" t="n">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="D163" t="n">
-        <v>982</v>
+        <v>986</v>
       </c>
       <c r="E163" t="n">
         <v>979</v>
       </c>
       <c r="F163" t="n">
-        <v>65.5926</v>
+        <v>498.8991</v>
       </c>
       <c r="G163" t="n">
-        <v>984.2</v>
+        <v>1007.033333333333</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -6106,19 +6222,19 @@
         <v>981</v>
       </c>
       <c r="C164" t="n">
-        <v>979</v>
+        <v>982</v>
       </c>
       <c r="D164" t="n">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="E164" t="n">
         <v>979</v>
       </c>
       <c r="F164" t="n">
-        <v>524.6303</v>
+        <v>65.5926</v>
       </c>
       <c r="G164" t="n">
-        <v>982.8</v>
+        <v>1005.95</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -6138,22 +6254,22 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
+        <v>981</v>
+      </c>
+      <c r="C165" t="n">
         <v>979</v>
       </c>
-      <c r="C165" t="n">
-        <v>978</v>
-      </c>
       <c r="D165" t="n">
+        <v>981</v>
+      </c>
+      <c r="E165" t="n">
         <v>979</v>
       </c>
-      <c r="E165" t="n">
-        <v>978</v>
-      </c>
       <c r="F165" t="n">
-        <v>371.2617</v>
+        <v>524.6303</v>
       </c>
       <c r="G165" t="n">
-        <v>981.4</v>
+        <v>1005.2</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -6173,22 +6289,22 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="C166" t="n">
         <v>978</v>
       </c>
       <c r="D166" t="n">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="E166" t="n">
         <v>978</v>
       </c>
       <c r="F166" t="n">
-        <v>155.2705</v>
+        <v>371.2617</v>
       </c>
       <c r="G166" t="n">
-        <v>980</v>
+        <v>1004.683333333333</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -6208,35 +6324,31 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>981</v>
+        <v>978</v>
       </c>
       <c r="C167" t="n">
-        <v>981</v>
+        <v>978</v>
       </c>
       <c r="D167" t="n">
-        <v>981</v>
+        <v>978</v>
       </c>
       <c r="E167" t="n">
-        <v>981</v>
+        <v>978</v>
       </c>
       <c r="F167" t="n">
-        <v>16.2649</v>
+        <v>155.2705</v>
       </c>
       <c r="G167" t="n">
-        <v>979.6</v>
+        <v>1004.233333333333</v>
       </c>
       <c r="H167" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I167" t="n">
         <v>0</v>
       </c>
-      <c r="J167" t="n">
-        <v>978</v>
-      </c>
-      <c r="K167" t="n">
-        <v>978</v>
-      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="inlineStr"/>
       <c r="M167" t="n">
         <v>1</v>
@@ -6247,22 +6359,22 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="C168" t="n">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="D168" t="n">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="E168" t="n">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="F168" t="n">
-        <v>33.7174</v>
+        <v>16.2649</v>
       </c>
       <c r="G168" t="n">
-        <v>979.2</v>
+        <v>1004.033333333333</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -6271,14 +6383,8 @@
         <v>0</v>
       </c>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="n">
-        <v>978</v>
-      </c>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="inlineStr"/>
       <c r="M168" t="n">
         <v>1</v>
       </c>
@@ -6288,22 +6394,22 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>988</v>
+        <v>980</v>
       </c>
       <c r="C169" t="n">
-        <v>988</v>
+        <v>980</v>
       </c>
       <c r="D169" t="n">
-        <v>988</v>
+        <v>980</v>
       </c>
       <c r="E169" t="n">
-        <v>988</v>
+        <v>980</v>
       </c>
       <c r="F169" t="n">
-        <v>82.9075</v>
+        <v>33.7174</v>
       </c>
       <c r="G169" t="n">
-        <v>981</v>
+        <v>1003.55</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -6312,14 +6418,8 @@
         <v>0</v>
       </c>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="n">
-        <v>978</v>
-      </c>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="inlineStr"/>
       <c r="M169" t="n">
         <v>1</v>
       </c>
@@ -6332,19 +6432,19 @@
         <v>988</v>
       </c>
       <c r="C170" t="n">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="D170" t="n">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="E170" t="n">
         <v>988</v>
       </c>
       <c r="F170" t="n">
-        <v>94.13849999999999</v>
+        <v>82.9075</v>
       </c>
       <c r="G170" t="n">
-        <v>983.2</v>
+        <v>1003.2</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -6364,10 +6464,10 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
+        <v>988</v>
+      </c>
+      <c r="C171" t="n">
         <v>989</v>
-      </c>
-      <c r="C171" t="n">
-        <v>988</v>
       </c>
       <c r="D171" t="n">
         <v>989</v>
@@ -6376,10 +6476,10 @@
         <v>988</v>
       </c>
       <c r="F171" t="n">
-        <v>48.2417</v>
+        <v>94.13849999999999</v>
       </c>
       <c r="G171" t="n">
-        <v>985.2</v>
+        <v>1002.866666666667</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -6399,10 +6499,10 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
+        <v>989</v>
+      </c>
+      <c r="C172" t="n">
         <v>988</v>
-      </c>
-      <c r="C172" t="n">
-        <v>989</v>
       </c>
       <c r="D172" t="n">
         <v>989</v>
@@ -6411,10 +6511,10 @@
         <v>988</v>
       </c>
       <c r="F172" t="n">
-        <v>20.2571</v>
+        <v>48.2417</v>
       </c>
       <c r="G172" t="n">
-        <v>986.8</v>
+        <v>1002.616666666667</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -6434,22 +6534,22 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
+        <v>988</v>
+      </c>
+      <c r="C173" t="n">
         <v>989</v>
       </c>
-      <c r="C173" t="n">
-        <v>990</v>
-      </c>
       <c r="D173" t="n">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="E173" t="n">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="F173" t="n">
-        <v>307.1038</v>
+        <v>20.2571</v>
       </c>
       <c r="G173" t="n">
-        <v>988.8</v>
+        <v>1002.266666666667</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -6469,7 +6569,7 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>987</v>
+        <v>989</v>
       </c>
       <c r="C174" t="n">
         <v>990</v>
@@ -6478,13 +6578,13 @@
         <v>990</v>
       </c>
       <c r="E174" t="n">
-        <v>987</v>
+        <v>989</v>
       </c>
       <c r="F174" t="n">
-        <v>206.0504</v>
+        <v>307.1038</v>
       </c>
       <c r="G174" t="n">
-        <v>989.2</v>
+        <v>1001.716666666667</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -6504,22 +6604,22 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
+        <v>987</v>
+      </c>
+      <c r="C175" t="n">
         <v>990</v>
-      </c>
-      <c r="C175" t="n">
-        <v>989</v>
       </c>
       <c r="D175" t="n">
         <v>990</v>
       </c>
       <c r="E175" t="n">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="F175" t="n">
-        <v>169.0188</v>
+        <v>206.0504</v>
       </c>
       <c r="G175" t="n">
-        <v>989.2</v>
+        <v>1001.216666666667</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -6539,22 +6639,22 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="C176" t="n">
         <v>989</v>
       </c>
       <c r="D176" t="n">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="E176" t="n">
         <v>989</v>
       </c>
       <c r="F176" t="n">
-        <v>32.7963</v>
+        <v>169.0188</v>
       </c>
       <c r="G176" t="n">
-        <v>989.4</v>
+        <v>1000.7</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -6574,22 +6674,22 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="C177" t="n">
-        <v>993</v>
+        <v>989</v>
       </c>
       <c r="D177" t="n">
-        <v>993</v>
+        <v>989</v>
       </c>
       <c r="E177" t="n">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="F177" t="n">
-        <v>72.16370000000001</v>
+        <v>32.7963</v>
       </c>
       <c r="G177" t="n">
-        <v>990.2</v>
+        <v>1000.083333333333</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -6609,22 +6709,22 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
+        <v>990</v>
+      </c>
+      <c r="C178" t="n">
         <v>993</v>
-      </c>
-      <c r="C178" t="n">
-        <v>992</v>
       </c>
       <c r="D178" t="n">
         <v>993</v>
       </c>
       <c r="E178" t="n">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="F178" t="n">
-        <v>63.393</v>
+        <v>72.16370000000001</v>
       </c>
       <c r="G178" t="n">
-        <v>990.6</v>
+        <v>999.7666666666667</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -6647,19 +6747,19 @@
         <v>993</v>
       </c>
       <c r="C179" t="n">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="D179" t="n">
         <v>993</v>
       </c>
       <c r="E179" t="n">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="F179" t="n">
-        <v>1.1269</v>
+        <v>63.393</v>
       </c>
       <c r="G179" t="n">
-        <v>991.2</v>
+        <v>999.4666666666667</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -6679,22 +6779,22 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>998</v>
+        <v>993</v>
       </c>
       <c r="C180" t="n">
-        <v>998</v>
+        <v>993</v>
       </c>
       <c r="D180" t="n">
-        <v>998</v>
+        <v>993</v>
       </c>
       <c r="E180" t="n">
-        <v>998</v>
+        <v>993</v>
       </c>
       <c r="F180" t="n">
-        <v>9.452999999999999</v>
+        <v>1.1269</v>
       </c>
       <c r="G180" t="n">
-        <v>993</v>
+        <v>999.25</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -6714,22 +6814,22 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>992</v>
+        <v>998</v>
       </c>
       <c r="C181" t="n">
-        <v>991</v>
+        <v>998</v>
       </c>
       <c r="D181" t="n">
-        <v>992</v>
+        <v>998</v>
       </c>
       <c r="E181" t="n">
-        <v>991</v>
+        <v>998</v>
       </c>
       <c r="F181" t="n">
-        <v>203.5293</v>
+        <v>9.452999999999999</v>
       </c>
       <c r="G181" t="n">
-        <v>993.4</v>
+        <v>999.2333333333333</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -6749,22 +6849,22 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>990</v>
+        <v>992</v>
       </c>
       <c r="C182" t="n">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="D182" t="n">
-        <v>990</v>
+        <v>992</v>
       </c>
       <c r="E182" t="n">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="F182" t="n">
-        <v>34.3268</v>
+        <v>203.5293</v>
       </c>
       <c r="G182" t="n">
-        <v>992.8</v>
+        <v>999.1166666666667</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -6784,22 +6884,22 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>995</v>
+        <v>990</v>
       </c>
       <c r="C183" t="n">
-        <v>995</v>
+        <v>990</v>
       </c>
       <c r="D183" t="n">
-        <v>995</v>
+        <v>990</v>
       </c>
       <c r="E183" t="n">
-        <v>995</v>
+        <v>990</v>
       </c>
       <c r="F183" t="n">
-        <v>24.5353</v>
+        <v>34.3268</v>
       </c>
       <c r="G183" t="n">
-        <v>993.4</v>
+        <v>998.75</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -6822,19 +6922,19 @@
         <v>995</v>
       </c>
       <c r="C184" t="n">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="D184" t="n">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="E184" t="n">
         <v>995</v>
       </c>
       <c r="F184" t="n">
-        <v>977.1826</v>
+        <v>24.5353</v>
       </c>
       <c r="G184" t="n">
-        <v>994.2</v>
+        <v>998.5666666666667</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -6854,7 +6954,7 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="C185" t="n">
         <v>997</v>
@@ -6863,13 +6963,13 @@
         <v>997</v>
       </c>
       <c r="E185" t="n">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="F185" t="n">
-        <v>3.009027081243731</v>
+        <v>977.1826</v>
       </c>
       <c r="G185" t="n">
-        <v>994</v>
+        <v>998.3166666666667</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -6889,22 +6989,22 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="C186" t="n">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="D186" t="n">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="E186" t="n">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="F186" t="n">
-        <v>102.7338</v>
+        <v>3.009027081243731</v>
       </c>
       <c r="G186" t="n">
-        <v>995</v>
+        <v>998.05</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -6924,22 +7024,22 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="C187" t="n">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="D187" t="n">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="E187" t="n">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="F187" t="n">
-        <v>81.66200000000001</v>
+        <v>102.7338</v>
       </c>
       <c r="G187" t="n">
-        <v>996.4</v>
+        <v>997.7333333333333</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -6971,10 +7071,10 @@
         <v>997</v>
       </c>
       <c r="F188" t="n">
-        <v>957.9708000000001</v>
+        <v>81.66200000000001</v>
       </c>
       <c r="G188" t="n">
-        <v>996.8</v>
+        <v>997.4333333333333</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -6997,19 +7097,19 @@
         <v>997</v>
       </c>
       <c r="C189" t="n">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="D189" t="n">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="E189" t="n">
         <v>997</v>
       </c>
       <c r="F189" t="n">
-        <v>624.1859729187563</v>
+        <v>957.9708000000001</v>
       </c>
       <c r="G189" t="n">
-        <v>997</v>
+        <v>997.0833333333334</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -7029,22 +7129,22 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="C190" t="n">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="D190" t="n">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="E190" t="n">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="F190" t="n">
-        <v>48.493</v>
+        <v>624.1859729187563</v>
       </c>
       <c r="G190" t="n">
-        <v>997.4</v>
+        <v>996.85</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -7064,22 +7164,22 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="C191" t="n">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="D191" t="n">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="E191" t="n">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="F191" t="n">
-        <v>6.4</v>
+        <v>48.493</v>
       </c>
       <c r="G191" t="n">
-        <v>998.2</v>
+        <v>996.5</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -7099,22 +7199,22 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>1006</v>
+        <v>1000</v>
       </c>
       <c r="C192" t="n">
         <v>1000</v>
       </c>
       <c r="D192" t="n">
-        <v>1006</v>
+        <v>1000</v>
       </c>
       <c r="E192" t="n">
         <v>1000</v>
       </c>
       <c r="F192" t="n">
-        <v>387.6174</v>
+        <v>6.4</v>
       </c>
       <c r="G192" t="n">
-        <v>998.8</v>
+        <v>996.1666666666666</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -7134,22 +7234,22 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>999</v>
+        <v>1006</v>
       </c>
       <c r="C193" t="n">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="D193" t="n">
-        <v>999</v>
+        <v>1006</v>
       </c>
       <c r="E193" t="n">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="F193" t="n">
-        <v>168.1422</v>
+        <v>387.6174</v>
       </c>
       <c r="G193" t="n">
-        <v>999.2</v>
+        <v>995.8333333333334</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -7172,19 +7272,19 @@
         <v>999</v>
       </c>
       <c r="C194" t="n">
-        <v>1006</v>
+        <v>999</v>
       </c>
       <c r="D194" t="n">
-        <v>1006</v>
+        <v>999</v>
       </c>
       <c r="E194" t="n">
         <v>999</v>
       </c>
       <c r="F194" t="n">
-        <v>343.1122</v>
+        <v>168.1422</v>
       </c>
       <c r="G194" t="n">
-        <v>1000.8</v>
+        <v>995.4833333333333</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -7204,22 +7304,22 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="C195" t="n">
-        <v>1000</v>
+        <v>1006</v>
       </c>
       <c r="D195" t="n">
-        <v>1000</v>
+        <v>1006</v>
       </c>
       <c r="E195" t="n">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="F195" t="n">
-        <v>559.123</v>
+        <v>343.1122</v>
       </c>
       <c r="G195" t="n">
-        <v>1001</v>
+        <v>995.25</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -7251,10 +7351,10 @@
         <v>1000</v>
       </c>
       <c r="F196" t="n">
-        <v>0.2323</v>
+        <v>559.123</v>
       </c>
       <c r="G196" t="n">
-        <v>1001</v>
+        <v>994.9166666666666</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -7274,22 +7374,22 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>1006</v>
+        <v>1000</v>
       </c>
       <c r="C197" t="n">
-        <v>1006</v>
+        <v>1000</v>
       </c>
       <c r="D197" t="n">
-        <v>1006</v>
+        <v>1000</v>
       </c>
       <c r="E197" t="n">
-        <v>1006</v>
+        <v>1000</v>
       </c>
       <c r="F197" t="n">
-        <v>1143.5129</v>
+        <v>0.2323</v>
       </c>
       <c r="G197" t="n">
-        <v>1002.2</v>
+        <v>994.55</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -7312,19 +7412,19 @@
         <v>1006</v>
       </c>
       <c r="C198" t="n">
-        <v>1010</v>
+        <v>1006</v>
       </c>
       <c r="D198" t="n">
-        <v>1010</v>
+        <v>1006</v>
       </c>
       <c r="E198" t="n">
         <v>1006</v>
       </c>
       <c r="F198" t="n">
-        <v>889.8982999999999</v>
+        <v>1143.5129</v>
       </c>
       <c r="G198" t="n">
-        <v>1004.4</v>
+        <v>994.2666666666667</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -7344,22 +7444,22 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="C199" t="n">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="D199" t="n">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="E199" t="n">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="F199" t="n">
-        <v>3.3508</v>
+        <v>889.8982999999999</v>
       </c>
       <c r="G199" t="n">
-        <v>1005</v>
+        <v>994.1333333333333</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -7379,22 +7479,22 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>1002</v>
+        <v>1009</v>
       </c>
       <c r="C200" t="n">
-        <v>1002</v>
+        <v>1009</v>
       </c>
       <c r="D200" t="n">
-        <v>1002</v>
+        <v>1009</v>
       </c>
       <c r="E200" t="n">
-        <v>1002</v>
+        <v>1009</v>
       </c>
       <c r="F200" t="n">
-        <v>3.3258</v>
+        <v>3.3508</v>
       </c>
       <c r="G200" t="n">
-        <v>1005.4</v>
+        <v>994.05</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -7417,19 +7517,19 @@
         <v>1002</v>
       </c>
       <c r="C201" t="n">
-        <v>1009</v>
+        <v>1002</v>
       </c>
       <c r="D201" t="n">
-        <v>1009</v>
+        <v>1002</v>
       </c>
       <c r="E201" t="n">
         <v>1002</v>
       </c>
       <c r="F201" t="n">
-        <v>22.9833</v>
+        <v>3.3258</v>
       </c>
       <c r="G201" t="n">
-        <v>1007.2</v>
+        <v>994</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -7449,22 +7549,22 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>1014</v>
+        <v>1002</v>
       </c>
       <c r="C202" t="n">
-        <v>1017</v>
+        <v>1009</v>
       </c>
       <c r="D202" t="n">
-        <v>1017</v>
+        <v>1009</v>
       </c>
       <c r="E202" t="n">
-        <v>1014</v>
+        <v>1002</v>
       </c>
       <c r="F202" t="n">
-        <v>444.3502</v>
+        <v>22.9833</v>
       </c>
       <c r="G202" t="n">
-        <v>1009.4</v>
+        <v>994.0666666666667</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -7484,7 +7584,7 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>1017</v>
+        <v>1014</v>
       </c>
       <c r="C203" t="n">
         <v>1017</v>
@@ -7493,13 +7593,13 @@
         <v>1017</v>
       </c>
       <c r="E203" t="n">
-        <v>1017</v>
+        <v>1014</v>
       </c>
       <c r="F203" t="n">
-        <v>21.3978</v>
+        <v>444.3502</v>
       </c>
       <c r="G203" t="n">
-        <v>1010.8</v>
+        <v>994.2</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -7519,22 +7619,22 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="C204" t="n">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="D204" t="n">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="E204" t="n">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="F204" t="n">
-        <v>38</v>
+        <v>21.3978</v>
       </c>
       <c r="G204" t="n">
-        <v>1012.6</v>
+        <v>994.25</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -7566,10 +7666,10 @@
         <v>1018</v>
       </c>
       <c r="F205" t="n">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="G205" t="n">
-        <v>1015.8</v>
+        <v>994.4</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -7601,10 +7701,10 @@
         <v>1018</v>
       </c>
       <c r="F206" t="n">
-        <v>209.8</v>
+        <v>12</v>
       </c>
       <c r="G206" t="n">
-        <v>1017.6</v>
+        <v>994.5833333333334</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -7624,22 +7724,22 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="C207" t="n">
-        <v>1021</v>
+        <v>1018</v>
       </c>
       <c r="D207" t="n">
-        <v>1021</v>
+        <v>1018</v>
       </c>
       <c r="E207" t="n">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="F207" t="n">
-        <v>34.9331</v>
+        <v>209.8</v>
       </c>
       <c r="G207" t="n">
-        <v>1018.4</v>
+        <v>994.6666666666666</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -7662,19 +7762,19 @@
         <v>1020</v>
       </c>
       <c r="C208" t="n">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="D208" t="n">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="E208" t="n">
         <v>1020</v>
       </c>
       <c r="F208" t="n">
-        <v>160.1147</v>
+        <v>34.9331</v>
       </c>
       <c r="G208" t="n">
-        <v>1019</v>
+        <v>995</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -7694,22 +7794,22 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>1023</v>
+        <v>1020</v>
       </c>
       <c r="C209" t="n">
-        <v>1023</v>
+        <v>1020</v>
       </c>
       <c r="D209" t="n">
-        <v>1023</v>
+        <v>1020</v>
       </c>
       <c r="E209" t="n">
-        <v>1023</v>
+        <v>1020</v>
       </c>
       <c r="F209" t="n">
-        <v>619.6</v>
+        <v>160.1147</v>
       </c>
       <c r="G209" t="n">
-        <v>1020</v>
+        <v>995.2833333333333</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -7741,10 +7841,10 @@
         <v>1023</v>
       </c>
       <c r="F210" t="n">
-        <v>100</v>
+        <v>619.6</v>
       </c>
       <c r="G210" t="n">
-        <v>1021</v>
+        <v>995.6666666666666</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -7764,22 +7864,22 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
-        <v>1020</v>
+        <v>1023</v>
       </c>
       <c r="C211" t="n">
-        <v>1020</v>
+        <v>1023</v>
       </c>
       <c r="D211" t="n">
-        <v>1020</v>
+        <v>1023</v>
       </c>
       <c r="E211" t="n">
-        <v>1020</v>
+        <v>1023</v>
       </c>
       <c r="F211" t="n">
-        <v>125.8584</v>
+        <v>100</v>
       </c>
       <c r="G211" t="n">
-        <v>1021.4</v>
+        <v>996.2166666666667</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -7802,19 +7902,19 @@
         <v>1020</v>
       </c>
       <c r="C212" t="n">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="D212" t="n">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="E212" t="n">
-        <v>1017</v>
+        <v>1020</v>
       </c>
       <c r="F212" t="n">
-        <v>489.7183</v>
+        <v>125.8584</v>
       </c>
       <c r="G212" t="n">
-        <v>1021.6</v>
+        <v>996.75</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -7837,19 +7937,19 @@
         <v>1020</v>
       </c>
       <c r="C213" t="n">
-        <v>1020</v>
+        <v>1022</v>
       </c>
       <c r="D213" t="n">
-        <v>1020</v>
+        <v>1022</v>
       </c>
       <c r="E213" t="n">
-        <v>1020</v>
+        <v>1017</v>
       </c>
       <c r="F213" t="n">
-        <v>525.3864</v>
+        <v>489.7183</v>
       </c>
       <c r="G213" t="n">
-        <v>1021.6</v>
+        <v>997.2833333333333</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -7872,19 +7972,19 @@
         <v>1020</v>
       </c>
       <c r="C214" t="n">
-        <v>1017</v>
+        <v>1020</v>
       </c>
       <c r="D214" t="n">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="E214" t="n">
-        <v>1017</v>
+        <v>1020</v>
       </c>
       <c r="F214" t="n">
-        <v>277.2952</v>
+        <v>525.3864</v>
       </c>
       <c r="G214" t="n">
-        <v>1020.4</v>
+        <v>997.8</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -7904,22 +8004,22 @@
         <v>213</v>
       </c>
       <c r="B215" t="n">
-        <v>1017</v>
+        <v>1020</v>
       </c>
       <c r="C215" t="n">
         <v>1017</v>
       </c>
       <c r="D215" t="n">
-        <v>1017</v>
+        <v>1022</v>
       </c>
       <c r="E215" t="n">
         <v>1017</v>
       </c>
       <c r="F215" t="n">
-        <v>6.3112</v>
+        <v>277.2952</v>
       </c>
       <c r="G215" t="n">
-        <v>1019.2</v>
+        <v>998.3333333333334</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -7939,22 +8039,22 @@
         <v>214</v>
       </c>
       <c r="B216" t="n">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="C216" t="n">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="D216" t="n">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="E216" t="n">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="F216" t="n">
-        <v>16.7612</v>
+        <v>6.3112</v>
       </c>
       <c r="G216" t="n">
-        <v>1018.4</v>
+        <v>998.8166666666667</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -7986,10 +8086,10 @@
         <v>1016</v>
       </c>
       <c r="F217" t="n">
-        <v>277.4872</v>
+        <v>16.7612</v>
       </c>
       <c r="G217" t="n">
-        <v>1017.2</v>
+        <v>999.25</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -8009,22 +8109,22 @@
         <v>216</v>
       </c>
       <c r="B218" t="n">
-        <v>1012</v>
+        <v>1016</v>
       </c>
       <c r="C218" t="n">
-        <v>1012</v>
+        <v>1016</v>
       </c>
       <c r="D218" t="n">
-        <v>1012</v>
+        <v>1016</v>
       </c>
       <c r="E218" t="n">
-        <v>1012</v>
+        <v>1016</v>
       </c>
       <c r="F218" t="n">
-        <v>49.5284</v>
+        <v>277.4872</v>
       </c>
       <c r="G218" t="n">
-        <v>1015.6</v>
+        <v>999.8666666666667</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -8056,10 +8156,10 @@
         <v>1012</v>
       </c>
       <c r="F219" t="n">
-        <v>58.384</v>
+        <v>49.5284</v>
       </c>
       <c r="G219" t="n">
-        <v>1014.6</v>
+        <v>1000.3</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -8082,19 +8182,19 @@
         <v>1012</v>
       </c>
       <c r="C220" t="n">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="D220" t="n">
-        <v>1015</v>
+        <v>1012</v>
       </c>
       <c r="E220" t="n">
         <v>1012</v>
       </c>
       <c r="F220" t="n">
-        <v>2224.7175</v>
+        <v>58.384</v>
       </c>
       <c r="G220" t="n">
-        <v>1014</v>
+        <v>1000.733333333333</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -8114,22 +8214,22 @@
         <v>219</v>
       </c>
       <c r="B221" t="n">
-        <v>1010</v>
+        <v>1012</v>
       </c>
       <c r="C221" t="n">
-        <v>1010</v>
+        <v>1014</v>
       </c>
       <c r="D221" t="n">
-        <v>1010</v>
+        <v>1015</v>
       </c>
       <c r="E221" t="n">
-        <v>1010</v>
+        <v>1012</v>
       </c>
       <c r="F221" t="n">
-        <v>253.4871</v>
+        <v>2224.7175</v>
       </c>
       <c r="G221" t="n">
-        <v>1012.8</v>
+        <v>1001.216666666667</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -8149,22 +8249,22 @@
         <v>220</v>
       </c>
       <c r="B222" t="n">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="C222" t="n">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="D222" t="n">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="E222" t="n">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="F222" t="n">
-        <v>128.5564</v>
+        <v>253.4871</v>
       </c>
       <c r="G222" t="n">
-        <v>1011.4</v>
+        <v>1001.633333333333</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -8184,22 +8284,22 @@
         <v>221</v>
       </c>
       <c r="B223" t="n">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="C223" t="n">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="D223" t="n">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="E223" t="n">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="F223" t="n">
-        <v>1.3</v>
+        <v>128.5564</v>
       </c>
       <c r="G223" t="n">
-        <v>1011.2</v>
+        <v>1002.066666666667</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -8219,22 +8319,22 @@
         <v>222</v>
       </c>
       <c r="B224" t="n">
-        <v>1004</v>
+        <v>1011</v>
       </c>
       <c r="C224" t="n">
-        <v>1000</v>
+        <v>1011</v>
       </c>
       <c r="D224" t="n">
-        <v>1004</v>
+        <v>1011</v>
       </c>
       <c r="E224" t="n">
-        <v>1000</v>
+        <v>1011</v>
       </c>
       <c r="F224" t="n">
-        <v>2200</v>
+        <v>1.3</v>
       </c>
       <c r="G224" t="n">
-        <v>1008.8</v>
+        <v>1002.55</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -8254,22 +8354,22 @@
         <v>223</v>
       </c>
       <c r="B225" t="n">
-        <v>1011</v>
+        <v>1004</v>
       </c>
       <c r="C225" t="n">
-        <v>1005</v>
+        <v>1000</v>
       </c>
       <c r="D225" t="n">
-        <v>1011</v>
+        <v>1004</v>
       </c>
       <c r="E225" t="n">
-        <v>1005</v>
+        <v>1000</v>
       </c>
       <c r="F225" t="n">
-        <v>432.1141</v>
+        <v>2200</v>
       </c>
       <c r="G225" t="n">
-        <v>1007</v>
+        <v>1002.9</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -8289,22 +8389,22 @@
         <v>224</v>
       </c>
       <c r="B226" t="n">
-        <v>1002</v>
+        <v>1011</v>
       </c>
       <c r="C226" t="n">
-        <v>1002</v>
+        <v>1005</v>
       </c>
       <c r="D226" t="n">
-        <v>1002</v>
+        <v>1011</v>
       </c>
       <c r="E226" t="n">
-        <v>1002</v>
+        <v>1005</v>
       </c>
       <c r="F226" t="n">
-        <v>8.462999999999999</v>
+        <v>432.1141</v>
       </c>
       <c r="G226" t="n">
-        <v>1005.4</v>
+        <v>1003.35</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -8327,19 +8427,19 @@
         <v>1002</v>
       </c>
       <c r="C227" t="n">
-        <v>993</v>
+        <v>1002</v>
       </c>
       <c r="D227" t="n">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="E227" t="n">
-        <v>993</v>
+        <v>1002</v>
       </c>
       <c r="F227" t="n">
-        <v>1076.5335</v>
+        <v>8.462999999999999</v>
       </c>
       <c r="G227" t="n">
-        <v>1002.2</v>
+        <v>1003.75</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -8359,22 +8459,22 @@
         <v>226</v>
       </c>
       <c r="B228" t="n">
-        <v>998</v>
+        <v>1002</v>
       </c>
       <c r="C228" t="n">
-        <v>998</v>
+        <v>993</v>
       </c>
       <c r="D228" t="n">
-        <v>998</v>
+        <v>1003</v>
       </c>
       <c r="E228" t="n">
-        <v>998</v>
+        <v>993</v>
       </c>
       <c r="F228" t="n">
-        <v>350</v>
+        <v>1076.5335</v>
       </c>
       <c r="G228" t="n">
-        <v>999.6</v>
+        <v>1003.95</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -8394,22 +8494,22 @@
         <v>227</v>
       </c>
       <c r="B229" t="n">
-        <v>1002</v>
+        <v>998</v>
       </c>
       <c r="C229" t="n">
-        <v>1002</v>
+        <v>998</v>
       </c>
       <c r="D229" t="n">
-        <v>1002</v>
+        <v>998</v>
       </c>
       <c r="E229" t="n">
-        <v>1002</v>
+        <v>998</v>
       </c>
       <c r="F229" t="n">
-        <v>1</v>
+        <v>350</v>
       </c>
       <c r="G229" t="n">
-        <v>1000</v>
+        <v>1004.25</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -8441,10 +8541,10 @@
         <v>1002</v>
       </c>
       <c r="F230" t="n">
-        <v>7.8683</v>
+        <v>1</v>
       </c>
       <c r="G230" t="n">
-        <v>999.4</v>
+        <v>1004.483333333333</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -8476,10 +8576,10 @@
         <v>1002</v>
       </c>
       <c r="F231" t="n">
-        <v>1.4921</v>
+        <v>7.8683</v>
       </c>
       <c r="G231" t="n">
-        <v>999.4</v>
+        <v>1004.7</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -8499,22 +8599,22 @@
         <v>230</v>
       </c>
       <c r="B232" t="n">
-        <v>1000</v>
+        <v>1002</v>
       </c>
       <c r="C232" t="n">
-        <v>1000</v>
+        <v>1002</v>
       </c>
       <c r="D232" t="n">
-        <v>1000</v>
+        <v>1002</v>
       </c>
       <c r="E232" t="n">
-        <v>1000</v>
+        <v>1002</v>
       </c>
       <c r="F232" t="n">
-        <v>100</v>
+        <v>1.4921</v>
       </c>
       <c r="G232" t="n">
-        <v>1000.8</v>
+        <v>1004.933333333333</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -8534,22 +8634,22 @@
         <v>231</v>
       </c>
       <c r="B233" t="n">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="C233" t="n">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="D233" t="n">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="E233" t="n">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="F233" t="n">
-        <v>5.5495</v>
+        <v>100</v>
       </c>
       <c r="G233" t="n">
-        <v>1001</v>
+        <v>1005.116666666667</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -8569,22 +8669,22 @@
         <v>232</v>
       </c>
       <c r="B234" t="n">
-        <v>1002</v>
+        <v>999</v>
       </c>
       <c r="C234" t="n">
-        <v>1005</v>
+        <v>999</v>
       </c>
       <c r="D234" t="n">
-        <v>1005</v>
+        <v>999</v>
       </c>
       <c r="E234" t="n">
-        <v>1002</v>
+        <v>999</v>
       </c>
       <c r="F234" t="n">
-        <v>11.843</v>
+        <v>5.5495</v>
       </c>
       <c r="G234" t="n">
-        <v>1001.6</v>
+        <v>1005.266666666667</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -8604,7 +8704,7 @@
         <v>233</v>
       </c>
       <c r="B235" t="n">
-        <v>1005</v>
+        <v>1002</v>
       </c>
       <c r="C235" t="n">
         <v>1005</v>
@@ -8613,13 +8713,13 @@
         <v>1005</v>
       </c>
       <c r="E235" t="n">
-        <v>1005</v>
+        <v>1002</v>
       </c>
       <c r="F235" t="n">
-        <v>14.3728</v>
+        <v>11.843</v>
       </c>
       <c r="G235" t="n">
-        <v>1002.2</v>
+        <v>1005.516666666667</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -8642,19 +8742,19 @@
         <v>1005</v>
       </c>
       <c r="C236" t="n">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="D236" t="n">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="E236" t="n">
         <v>1005</v>
       </c>
       <c r="F236" t="n">
-        <v>406.1599</v>
+        <v>14.3728</v>
       </c>
       <c r="G236" t="n">
-        <v>1003</v>
+        <v>1005.783333333333</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -8674,22 +8774,22 @@
         <v>235</v>
       </c>
       <c r="B237" t="n">
-        <v>1010</v>
+        <v>1005</v>
       </c>
       <c r="C237" t="n">
-        <v>1010</v>
+        <v>1006</v>
       </c>
       <c r="D237" t="n">
-        <v>1010</v>
+        <v>1006</v>
       </c>
       <c r="E237" t="n">
-        <v>1010</v>
+        <v>1005</v>
       </c>
       <c r="F237" t="n">
-        <v>13.9232</v>
+        <v>406.1599</v>
       </c>
       <c r="G237" t="n">
-        <v>1005</v>
+        <v>1006.066666666667</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -8721,10 +8821,10 @@
         <v>1010</v>
       </c>
       <c r="F238" t="n">
-        <v>2.8287</v>
+        <v>13.9232</v>
       </c>
       <c r="G238" t="n">
-        <v>1007.2</v>
+        <v>1006.35</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -8744,22 +8844,22 @@
         <v>237</v>
       </c>
       <c r="B239" t="n">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="C239" t="n">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="D239" t="n">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="E239" t="n">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="F239" t="n">
-        <v>17.1115</v>
+        <v>2.8287</v>
       </c>
       <c r="G239" t="n">
-        <v>1008.4</v>
+        <v>1006.65</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -8779,22 +8879,22 @@
         <v>238</v>
       </c>
       <c r="B240" t="n">
-        <v>1009</v>
+        <v>1011</v>
       </c>
       <c r="C240" t="n">
-        <v>1009</v>
+        <v>1011</v>
       </c>
       <c r="D240" t="n">
-        <v>1009</v>
+        <v>1011</v>
       </c>
       <c r="E240" t="n">
-        <v>1009</v>
+        <v>1011</v>
       </c>
       <c r="F240" t="n">
-        <v>31.5092</v>
+        <v>17.1115</v>
       </c>
       <c r="G240" t="n">
-        <v>1009.2</v>
+        <v>1006.95</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -8814,22 +8914,22 @@
         <v>239</v>
       </c>
       <c r="B241" t="n">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="C241" t="n">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="D241" t="n">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="E241" t="n">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="F241" t="n">
-        <v>10.3272</v>
+        <v>31.5092</v>
       </c>
       <c r="G241" t="n">
-        <v>1010</v>
+        <v>1007.133333333333</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -8849,22 +8949,22 @@
         <v>240</v>
       </c>
       <c r="B242" t="n">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="C242" t="n">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="D242" t="n">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="E242" t="n">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="F242" t="n">
-        <v>81.626</v>
+        <v>10.3272</v>
       </c>
       <c r="G242" t="n">
-        <v>1010.2</v>
+        <v>1007.45</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -8896,10 +8996,10 @@
         <v>1011</v>
       </c>
       <c r="F243" t="n">
-        <v>0.8837</v>
+        <v>81.626</v>
       </c>
       <c r="G243" t="n">
-        <v>1010.4</v>
+        <v>1007.8</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -8919,22 +9019,22 @@
         <v>242</v>
       </c>
       <c r="B244" t="n">
-        <v>1005</v>
+        <v>1011</v>
       </c>
       <c r="C244" t="n">
-        <v>1002</v>
+        <v>1011</v>
       </c>
       <c r="D244" t="n">
-        <v>1005</v>
+        <v>1011</v>
       </c>
       <c r="E244" t="n">
-        <v>1002</v>
+        <v>1011</v>
       </c>
       <c r="F244" t="n">
-        <v>901.0366</v>
+        <v>0.8837</v>
       </c>
       <c r="G244" t="n">
-        <v>1008.6</v>
+        <v>1008.066666666667</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -8954,22 +9054,22 @@
         <v>243</v>
       </c>
       <c r="B245" t="n">
-        <v>1010</v>
+        <v>1005</v>
       </c>
       <c r="C245" t="n">
-        <v>1010</v>
+        <v>1002</v>
       </c>
       <c r="D245" t="n">
-        <v>1010</v>
+        <v>1005</v>
       </c>
       <c r="E245" t="n">
-        <v>1010</v>
+        <v>1002</v>
       </c>
       <c r="F245" t="n">
-        <v>29.2664</v>
+        <v>901.0366</v>
       </c>
       <c r="G245" t="n">
-        <v>1008.8</v>
+        <v>1008.15</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -9001,10 +9101,10 @@
         <v>1010</v>
       </c>
       <c r="F246" t="n">
-        <v>5.5312</v>
+        <v>29.2664</v>
       </c>
       <c r="G246" t="n">
-        <v>1008.8</v>
+        <v>1008.366666666667</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -9024,22 +9124,22 @@
         <v>245</v>
       </c>
       <c r="B247" t="n">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="C247" t="n">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="D247" t="n">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="E247" t="n">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="F247" t="n">
-        <v>28.0919</v>
+        <v>5.5312</v>
       </c>
       <c r="G247" t="n">
-        <v>1008.4</v>
+        <v>1008.6</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -9059,22 +9159,22 @@
         <v>246</v>
       </c>
       <c r="B248" t="n">
-        <v>1002</v>
+        <v>1009</v>
       </c>
       <c r="C248" t="n">
-        <v>1002</v>
+        <v>1009</v>
       </c>
       <c r="D248" t="n">
-        <v>1002</v>
+        <v>1009</v>
       </c>
       <c r="E248" t="n">
-        <v>1002</v>
+        <v>1009</v>
       </c>
       <c r="F248" t="n">
-        <v>4.4653</v>
+        <v>28.0919</v>
       </c>
       <c r="G248" t="n">
-        <v>1006.6</v>
+        <v>1008.8</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -9094,22 +9194,22 @@
         <v>247</v>
       </c>
       <c r="B249" t="n">
-        <v>1000</v>
+        <v>1002</v>
       </c>
       <c r="C249" t="n">
-        <v>1000</v>
+        <v>1002</v>
       </c>
       <c r="D249" t="n">
-        <v>1000</v>
+        <v>1002</v>
       </c>
       <c r="E249" t="n">
-        <v>1000</v>
+        <v>1002</v>
       </c>
       <c r="F249" t="n">
-        <v>8</v>
+        <v>4.4653</v>
       </c>
       <c r="G249" t="n">
-        <v>1006.2</v>
+        <v>1008.883333333333</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -9129,22 +9229,22 @@
         <v>248</v>
       </c>
       <c r="B250" t="n">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="C250" t="n">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="D250" t="n">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="E250" t="n">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="F250" t="n">
-        <v>13.3713</v>
+        <v>8</v>
       </c>
       <c r="G250" t="n">
-        <v>1004</v>
+        <v>1008.916666666667</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -9176,10 +9276,10 @@
         <v>999</v>
       </c>
       <c r="F251" t="n">
-        <v>19.4599</v>
+        <v>13.3713</v>
       </c>
       <c r="G251" t="n">
-        <v>1001.8</v>
+        <v>1008.916666666667</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -9199,22 +9299,22 @@
         <v>250</v>
       </c>
       <c r="B252" t="n">
-        <v>995</v>
+        <v>999</v>
       </c>
       <c r="C252" t="n">
-        <v>995</v>
+        <v>999</v>
       </c>
       <c r="D252" t="n">
-        <v>995</v>
+        <v>999</v>
       </c>
       <c r="E252" t="n">
-        <v>995</v>
+        <v>999</v>
       </c>
       <c r="F252" t="n">
-        <v>1.021</v>
+        <v>19.4599</v>
       </c>
       <c r="G252" t="n">
-        <v>999</v>
+        <v>1008.9</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
@@ -9234,22 +9334,22 @@
         <v>251</v>
       </c>
       <c r="B253" t="n">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="C253" t="n">
-        <v>998</v>
+        <v>995</v>
       </c>
       <c r="D253" t="n">
-        <v>998</v>
+        <v>995</v>
       </c>
       <c r="E253" t="n">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="F253" t="n">
-        <v>502.7688</v>
+        <v>1.021</v>
       </c>
       <c r="G253" t="n">
-        <v>998.2</v>
+        <v>1008.816666666667</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -9269,22 +9369,22 @@
         <v>252</v>
       </c>
       <c r="B254" t="n">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="C254" t="n">
-        <v>991</v>
+        <v>998</v>
       </c>
       <c r="D254" t="n">
-        <v>996</v>
+        <v>998</v>
       </c>
       <c r="E254" t="n">
-        <v>991</v>
+        <v>997</v>
       </c>
       <c r="F254" t="n">
-        <v>607.2418</v>
+        <v>502.7688</v>
       </c>
       <c r="G254" t="n">
-        <v>996.4</v>
+        <v>1008.8</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
@@ -9304,22 +9404,22 @@
         <v>253</v>
       </c>
       <c r="B255" t="n">
+        <v>996</v>
+      </c>
+      <c r="C255" t="n">
         <v>991</v>
       </c>
-      <c r="C255" t="n">
-        <v>999</v>
-      </c>
       <c r="D255" t="n">
-        <v>999</v>
+        <v>996</v>
       </c>
       <c r="E255" t="n">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="F255" t="n">
-        <v>892.0034000000001</v>
+        <v>607.2418</v>
       </c>
       <c r="G255" t="n">
-        <v>996.4</v>
+        <v>1008.55</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>
@@ -9339,7 +9439,7 @@
         <v>254</v>
       </c>
       <c r="B256" t="n">
-        <v>999</v>
+        <v>991</v>
       </c>
       <c r="C256" t="n">
         <v>999</v>
@@ -9348,13 +9448,13 @@
         <v>999</v>
       </c>
       <c r="E256" t="n">
-        <v>999</v>
+        <v>990</v>
       </c>
       <c r="F256" t="n">
-        <v>1126.7362</v>
+        <v>892.0034000000001</v>
       </c>
       <c r="G256" t="n">
-        <v>996.4</v>
+        <v>1008.533333333333</v>
       </c>
       <c r="H256" t="n">
         <v>0</v>
@@ -9374,22 +9474,22 @@
         <v>255</v>
       </c>
       <c r="B257" t="n">
-        <v>997</v>
+        <v>999</v>
       </c>
       <c r="C257" t="n">
-        <v>997</v>
+        <v>999</v>
       </c>
       <c r="D257" t="n">
-        <v>997</v>
+        <v>999</v>
       </c>
       <c r="E257" t="n">
-        <v>997</v>
+        <v>999</v>
       </c>
       <c r="F257" t="n">
-        <v>500</v>
+        <v>1126.7362</v>
       </c>
       <c r="G257" t="n">
-        <v>996.8</v>
+        <v>1008.516666666667</v>
       </c>
       <c r="H257" t="n">
         <v>0</v>
@@ -9421,10 +9521,10 @@
         <v>997</v>
       </c>
       <c r="F258" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="G258" t="n">
-        <v>996.6</v>
+        <v>1008.366666666667</v>
       </c>
       <c r="H258" t="n">
         <v>0</v>
@@ -9450,16 +9550,16 @@
         <v>997</v>
       </c>
       <c r="D259" t="n">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="E259" t="n">
         <v>997</v>
       </c>
       <c r="F259" t="n">
-        <v>1490.36</v>
+        <v>300</v>
       </c>
       <c r="G259" t="n">
-        <v>997.8</v>
+        <v>1008.15</v>
       </c>
       <c r="H259" t="n">
         <v>0</v>
@@ -9485,16 +9585,16 @@
         <v>997</v>
       </c>
       <c r="D260" t="n">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="E260" t="n">
         <v>997</v>
       </c>
       <c r="F260" t="n">
-        <v>9.8871</v>
+        <v>1490.36</v>
       </c>
       <c r="G260" t="n">
-        <v>997.4</v>
+        <v>1007.95</v>
       </c>
       <c r="H260" t="n">
         <v>0</v>
@@ -9514,22 +9614,22 @@
         <v>259</v>
       </c>
       <c r="B261" t="n">
-        <v>993</v>
+        <v>997</v>
       </c>
       <c r="C261" t="n">
-        <v>993</v>
+        <v>997</v>
       </c>
       <c r="D261" t="n">
-        <v>993</v>
+        <v>997</v>
       </c>
       <c r="E261" t="n">
-        <v>993</v>
+        <v>997</v>
       </c>
       <c r="F261" t="n">
-        <v>15.8994</v>
+        <v>9.8871</v>
       </c>
       <c r="G261" t="n">
-        <v>996.2</v>
+        <v>1007.866666666667</v>
       </c>
       <c r="H261" t="n">
         <v>0</v>
@@ -9549,22 +9649,22 @@
         <v>260</v>
       </c>
       <c r="B262" t="n">
-        <v>996</v>
+        <v>993</v>
       </c>
       <c r="C262" t="n">
-        <v>997</v>
+        <v>993</v>
       </c>
       <c r="D262" t="n">
-        <v>997</v>
+        <v>993</v>
       </c>
       <c r="E262" t="n">
-        <v>996</v>
+        <v>993</v>
       </c>
       <c r="F262" t="n">
-        <v>496.2501</v>
+        <v>15.8994</v>
       </c>
       <c r="G262" t="n">
-        <v>996.2</v>
+        <v>1007.6</v>
       </c>
       <c r="H262" t="n">
         <v>0</v>
@@ -9584,22 +9684,22 @@
         <v>261</v>
       </c>
       <c r="B263" t="n">
-        <v>992</v>
+        <v>996</v>
       </c>
       <c r="C263" t="n">
-        <v>992</v>
+        <v>997</v>
       </c>
       <c r="D263" t="n">
-        <v>992</v>
+        <v>997</v>
       </c>
       <c r="E263" t="n">
-        <v>992</v>
+        <v>996</v>
       </c>
       <c r="F263" t="n">
-        <v>13.4956</v>
+        <v>496.2501</v>
       </c>
       <c r="G263" t="n">
-        <v>995.2</v>
+        <v>1007.266666666667</v>
       </c>
       <c r="H263" t="n">
         <v>0</v>
@@ -9631,10 +9731,10 @@
         <v>992</v>
       </c>
       <c r="F264" t="n">
-        <v>1.3348</v>
+        <v>13.4956</v>
       </c>
       <c r="G264" t="n">
-        <v>994.2</v>
+        <v>1006.85</v>
       </c>
       <c r="H264" t="n">
         <v>0</v>
@@ -9654,22 +9754,22 @@
         <v>263</v>
       </c>
       <c r="B265" t="n">
-        <v>989</v>
+        <v>992</v>
       </c>
       <c r="C265" t="n">
-        <v>989</v>
+        <v>992</v>
       </c>
       <c r="D265" t="n">
-        <v>989</v>
+        <v>992</v>
       </c>
       <c r="E265" t="n">
-        <v>989</v>
+        <v>992</v>
       </c>
       <c r="F265" t="n">
-        <v>20</v>
+        <v>1.3348</v>
       </c>
       <c r="G265" t="n">
-        <v>992.6</v>
+        <v>1006.416666666667</v>
       </c>
       <c r="H265" t="n">
         <v>0</v>
@@ -9689,22 +9789,22 @@
         <v>264</v>
       </c>
       <c r="B266" t="n">
-        <v>987</v>
+        <v>989</v>
       </c>
       <c r="C266" t="n">
-        <v>987</v>
+        <v>989</v>
       </c>
       <c r="D266" t="n">
-        <v>987</v>
+        <v>989</v>
       </c>
       <c r="E266" t="n">
-        <v>987</v>
+        <v>989</v>
       </c>
       <c r="F266" t="n">
-        <v>1.8256</v>
+        <v>20</v>
       </c>
       <c r="G266" t="n">
-        <v>991.4</v>
+        <v>1005.933333333333</v>
       </c>
       <c r="H266" t="n">
         <v>0</v>
@@ -9724,22 +9824,22 @@
         <v>265</v>
       </c>
       <c r="B267" t="n">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="C267" t="n">
-        <v>992</v>
+        <v>987</v>
       </c>
       <c r="D267" t="n">
-        <v>992</v>
+        <v>987</v>
       </c>
       <c r="E267" t="n">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="F267" t="n">
-        <v>255</v>
+        <v>1.8256</v>
       </c>
       <c r="G267" t="n">
-        <v>990.4</v>
+        <v>1005.416666666667</v>
       </c>
       <c r="H267" t="n">
         <v>0</v>
@@ -9759,7 +9859,7 @@
         <v>266</v>
       </c>
       <c r="B268" t="n">
-        <v>992</v>
+        <v>989</v>
       </c>
       <c r="C268" t="n">
         <v>992</v>
@@ -9768,13 +9868,13 @@
         <v>992</v>
       </c>
       <c r="E268" t="n">
-        <v>992</v>
+        <v>989</v>
       </c>
       <c r="F268" t="n">
-        <v>26.3249</v>
+        <v>255</v>
       </c>
       <c r="G268" t="n">
-        <v>990.4</v>
+        <v>1004.933333333333</v>
       </c>
       <c r="H268" t="n">
         <v>0</v>
@@ -9806,10 +9906,10 @@
         <v>992</v>
       </c>
       <c r="F269" t="n">
-        <v>23.7245</v>
+        <v>26.3249</v>
       </c>
       <c r="G269" t="n">
-        <v>990.4</v>
+        <v>1004.466666666667</v>
       </c>
       <c r="H269" t="n">
         <v>0</v>
@@ -9841,10 +9941,10 @@
         <v>992</v>
       </c>
       <c r="F270" t="n">
-        <v>551.98</v>
+        <v>23.7245</v>
       </c>
       <c r="G270" t="n">
-        <v>991</v>
+        <v>1003.95</v>
       </c>
       <c r="H270" t="n">
         <v>0</v>
@@ -9864,22 +9964,22 @@
         <v>269</v>
       </c>
       <c r="B271" t="n">
-        <v>987</v>
+        <v>992</v>
       </c>
       <c r="C271" t="n">
-        <v>987</v>
+        <v>992</v>
       </c>
       <c r="D271" t="n">
-        <v>987</v>
+        <v>992</v>
       </c>
       <c r="E271" t="n">
-        <v>987</v>
+        <v>992</v>
       </c>
       <c r="F271" t="n">
-        <v>28.1744</v>
+        <v>551.98</v>
       </c>
       <c r="G271" t="n">
-        <v>991</v>
+        <v>1003.433333333333</v>
       </c>
       <c r="H271" t="n">
         <v>0</v>
@@ -9899,22 +9999,22 @@
         <v>270</v>
       </c>
       <c r="B272" t="n">
-        <v>983</v>
+        <v>987</v>
       </c>
       <c r="C272" t="n">
-        <v>983</v>
+        <v>987</v>
       </c>
       <c r="D272" t="n">
-        <v>983</v>
+        <v>987</v>
       </c>
       <c r="E272" t="n">
-        <v>983</v>
+        <v>987</v>
       </c>
       <c r="F272" t="n">
-        <v>3.0598</v>
+        <v>28.1744</v>
       </c>
       <c r="G272" t="n">
-        <v>989.2</v>
+        <v>1002.883333333333</v>
       </c>
       <c r="H272" t="n">
         <v>0</v>
@@ -9934,22 +10034,22 @@
         <v>271</v>
       </c>
       <c r="B273" t="n">
-        <v>980</v>
+        <v>983</v>
       </c>
       <c r="C273" t="n">
-        <v>975</v>
+        <v>983</v>
       </c>
       <c r="D273" t="n">
-        <v>980</v>
+        <v>983</v>
       </c>
       <c r="E273" t="n">
-        <v>975</v>
+        <v>983</v>
       </c>
       <c r="F273" t="n">
-        <v>296.9283</v>
+        <v>3.0598</v>
       </c>
       <c r="G273" t="n">
-        <v>985.8</v>
+        <v>1002.233333333333</v>
       </c>
       <c r="H273" t="n">
         <v>0</v>
@@ -9969,22 +10069,22 @@
         <v>272</v>
       </c>
       <c r="B274" t="n">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="C274" t="n">
-        <v>979</v>
+        <v>975</v>
       </c>
       <c r="D274" t="n">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="E274" t="n">
-        <v>979</v>
+        <v>975</v>
       </c>
       <c r="F274" t="n">
-        <v>47.4837</v>
+        <v>296.9283</v>
       </c>
       <c r="G274" t="n">
-        <v>983.2</v>
+        <v>1001.483333333333</v>
       </c>
       <c r="H274" t="n">
         <v>0</v>
@@ -10004,22 +10104,22 @@
         <v>273</v>
       </c>
       <c r="B275" t="n">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="C275" t="n">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="D275" t="n">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="E275" t="n">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="F275" t="n">
-        <v>28.9</v>
+        <v>47.4837</v>
       </c>
       <c r="G275" t="n">
-        <v>981</v>
+        <v>1000.85</v>
       </c>
       <c r="H275" t="n">
         <v>0</v>
@@ -10039,22 +10139,22 @@
         <v>274</v>
       </c>
       <c r="B276" t="n">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="C276" t="n">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="D276" t="n">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="E276" t="n">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="F276" t="n">
-        <v>16.1078</v>
+        <v>28.9</v>
       </c>
       <c r="G276" t="n">
-        <v>979.6</v>
+        <v>1000.25</v>
       </c>
       <c r="H276" t="n">
         <v>0</v>
@@ -10074,22 +10174,22 @@
         <v>275</v>
       </c>
       <c r="B277" t="n">
-        <v>976</v>
+        <v>980</v>
       </c>
       <c r="C277" t="n">
-        <v>976</v>
+        <v>980</v>
       </c>
       <c r="D277" t="n">
-        <v>976</v>
+        <v>980</v>
       </c>
       <c r="E277" t="n">
-        <v>976</v>
+        <v>980</v>
       </c>
       <c r="F277" t="n">
-        <v>32.8438</v>
+        <v>16.1078</v>
       </c>
       <c r="G277" t="n">
-        <v>978.2</v>
+        <v>999.65</v>
       </c>
       <c r="H277" t="n">
         <v>0</v>
@@ -10109,22 +10209,22 @@
         <v>276</v>
       </c>
       <c r="B278" t="n">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="C278" t="n">
-        <v>972</v>
+        <v>976</v>
       </c>
       <c r="D278" t="n">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="E278" t="n">
-        <v>972</v>
+        <v>976</v>
       </c>
       <c r="F278" t="n">
-        <v>29.8413</v>
+        <v>32.8438</v>
       </c>
       <c r="G278" t="n">
-        <v>977.6</v>
+        <v>998.9833333333333</v>
       </c>
       <c r="H278" t="n">
         <v>0</v>
@@ -10147,19 +10247,19 @@
         <v>975</v>
       </c>
       <c r="C279" t="n">
-        <v>975</v>
+        <v>972</v>
       </c>
       <c r="D279" t="n">
         <v>975</v>
       </c>
       <c r="E279" t="n">
-        <v>975</v>
+        <v>972</v>
       </c>
       <c r="F279" t="n">
-        <v>15.1887</v>
+        <v>29.8413</v>
       </c>
       <c r="G279" t="n">
-        <v>976.8</v>
+        <v>998.3166666666667</v>
       </c>
       <c r="H279" t="n">
         <v>0</v>
@@ -10179,22 +10279,22 @@
         <v>278</v>
       </c>
       <c r="B280" t="n">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="C280" t="n">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="D280" t="n">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="E280" t="n">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="F280" t="n">
-        <v>13.7219</v>
+        <v>15.1887</v>
       </c>
       <c r="G280" t="n">
-        <v>975.4</v>
+        <v>997.7</v>
       </c>
       <c r="H280" t="n">
         <v>0</v>
@@ -10214,22 +10314,22 @@
         <v>279</v>
       </c>
       <c r="B281" t="n">
-        <v>971</v>
+        <v>974</v>
       </c>
       <c r="C281" t="n">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="D281" t="n">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="E281" t="n">
-        <v>971</v>
+        <v>974</v>
       </c>
       <c r="F281" t="n">
-        <v>63.9305</v>
+        <v>13.7219</v>
       </c>
       <c r="G281" t="n">
-        <v>974.6</v>
+        <v>997.0333333333333</v>
       </c>
       <c r="H281" t="n">
         <v>0</v>
@@ -10252,19 +10352,19 @@
         <v>971</v>
       </c>
       <c r="C282" t="n">
-        <v>971</v>
+        <v>976</v>
       </c>
       <c r="D282" t="n">
-        <v>971</v>
+        <v>976</v>
       </c>
       <c r="E282" t="n">
         <v>971</v>
       </c>
       <c r="F282" t="n">
-        <v>4.7995</v>
+        <v>63.9305</v>
       </c>
       <c r="G282" t="n">
-        <v>973.6</v>
+        <v>996.4666666666667</v>
       </c>
       <c r="H282" t="n">
         <v>0</v>
@@ -10284,22 +10384,22 @@
         <v>281</v>
       </c>
       <c r="B283" t="n">
-        <v>969</v>
+        <v>971</v>
       </c>
       <c r="C283" t="n">
-        <v>965</v>
+        <v>971</v>
       </c>
       <c r="D283" t="n">
-        <v>969</v>
+        <v>971</v>
       </c>
       <c r="E283" t="n">
-        <v>965</v>
+        <v>971</v>
       </c>
       <c r="F283" t="n">
-        <v>318.3319</v>
+        <v>4.7995</v>
       </c>
       <c r="G283" t="n">
-        <v>972.2</v>
+        <v>995.8333333333334</v>
       </c>
       <c r="H283" t="n">
         <v>0</v>
@@ -10319,22 +10419,22 @@
         <v>282</v>
       </c>
       <c r="B284" t="n">
+        <v>969</v>
+      </c>
+      <c r="C284" t="n">
         <v>965</v>
       </c>
-      <c r="C284" t="n">
-        <v>966</v>
-      </c>
       <c r="D284" t="n">
-        <v>966</v>
+        <v>969</v>
       </c>
       <c r="E284" t="n">
         <v>965</v>
       </c>
       <c r="F284" t="n">
-        <v>36.2376</v>
+        <v>318.3319</v>
       </c>
       <c r="G284" t="n">
-        <v>970.4</v>
+        <v>995.0666666666667</v>
       </c>
       <c r="H284" t="n">
         <v>0</v>
@@ -10354,688 +10454,614 @@
         <v>283</v>
       </c>
       <c r="B285" t="n">
+        <v>965</v>
+      </c>
+      <c r="C285" t="n">
         <v>966</v>
       </c>
-      <c r="C285" t="n">
+      <c r="D285" t="n">
+        <v>966</v>
+      </c>
+      <c r="E285" t="n">
+        <v>965</v>
+      </c>
+      <c r="F285" t="n">
+        <v>36.2376</v>
+      </c>
+      <c r="G285" t="n">
+        <v>994.5</v>
+      </c>
+      <c r="H285" t="n">
+        <v>0</v>
+      </c>
+      <c r="I285" t="n">
+        <v>0</v>
+      </c>
+      <c r="J285" t="inlineStr"/>
+      <c r="K285" t="inlineStr"/>
+      <c r="L285" t="inlineStr"/>
+      <c r="M285" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" s="1" t="n">
+        <v>284</v>
+      </c>
+      <c r="B286" t="n">
+        <v>966</v>
+      </c>
+      <c r="C286" t="n">
         <v>971</v>
       </c>
-      <c r="D285" t="n">
+      <c r="D286" t="n">
         <v>971</v>
       </c>
-      <c r="E285" t="n">
+      <c r="E286" t="n">
         <v>963</v>
       </c>
-      <c r="F285" t="n">
+      <c r="F286" t="n">
         <v>1458.2133</v>
       </c>
-      <c r="G285" t="n">
-        <v>969.8</v>
-      </c>
-      <c r="H285" t="n">
-        <v>1</v>
-      </c>
-      <c r="I285" t="n">
-        <v>0</v>
-      </c>
-      <c r="J285" t="n">
+      <c r="G286" t="n">
+        <v>993.9333333333333</v>
+      </c>
+      <c r="H286" t="n">
+        <v>0</v>
+      </c>
+      <c r="I286" t="n">
+        <v>0</v>
+      </c>
+      <c r="J286" t="inlineStr"/>
+      <c r="K286" t="inlineStr"/>
+      <c r="L286" t="inlineStr"/>
+      <c r="M286" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" s="1" t="n">
+        <v>285</v>
+      </c>
+      <c r="B287" t="n">
+        <v>969</v>
+      </c>
+      <c r="C287" t="n">
+        <v>969</v>
+      </c>
+      <c r="D287" t="n">
+        <v>969</v>
+      </c>
+      <c r="E287" t="n">
+        <v>969</v>
+      </c>
+      <c r="F287" t="n">
+        <v>53.9654</v>
+      </c>
+      <c r="G287" t="n">
+        <v>993.3833333333333</v>
+      </c>
+      <c r="H287" t="n">
+        <v>0</v>
+      </c>
+      <c r="I287" t="n">
+        <v>0</v>
+      </c>
+      <c r="J287" t="inlineStr"/>
+      <c r="K287" t="inlineStr"/>
+      <c r="L287" t="inlineStr"/>
+      <c r="M287" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" s="1" t="n">
+        <v>286</v>
+      </c>
+      <c r="B288" t="n">
+        <v>961</v>
+      </c>
+      <c r="C288" t="n">
+        <v>961</v>
+      </c>
+      <c r="D288" t="n">
+        <v>961</v>
+      </c>
+      <c r="E288" t="n">
+        <v>961</v>
+      </c>
+      <c r="F288" t="n">
+        <v>48.8523</v>
+      </c>
+      <c r="G288" t="n">
+        <v>992.85</v>
+      </c>
+      <c r="H288" t="n">
+        <v>0</v>
+      </c>
+      <c r="I288" t="n">
+        <v>0</v>
+      </c>
+      <c r="J288" t="inlineStr"/>
+      <c r="K288" t="inlineStr"/>
+      <c r="L288" t="inlineStr"/>
+      <c r="M288" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" s="1" t="n">
+        <v>287</v>
+      </c>
+      <c r="B289" t="n">
+        <v>959</v>
+      </c>
+      <c r="C289" t="n">
+        <v>968</v>
+      </c>
+      <c r="D289" t="n">
+        <v>968</v>
+      </c>
+      <c r="E289" t="n">
+        <v>959</v>
+      </c>
+      <c r="F289" t="n">
+        <v>309.0673</v>
+      </c>
+      <c r="G289" t="n">
+        <v>992.35</v>
+      </c>
+      <c r="H289" t="n">
+        <v>0</v>
+      </c>
+      <c r="I289" t="n">
+        <v>0</v>
+      </c>
+      <c r="J289" t="inlineStr"/>
+      <c r="K289" t="inlineStr"/>
+      <c r="L289" t="inlineStr"/>
+      <c r="M289" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" s="1" t="n">
+        <v>288</v>
+      </c>
+      <c r="B290" t="n">
+        <v>962</v>
+      </c>
+      <c r="C290" t="n">
+        <v>961</v>
+      </c>
+      <c r="D290" t="n">
+        <v>962</v>
+      </c>
+      <c r="E290" t="n">
+        <v>961</v>
+      </c>
+      <c r="F290" t="n">
+        <v>48.8755</v>
+      </c>
+      <c r="G290" t="n">
+        <v>991.6666666666666</v>
+      </c>
+      <c r="H290" t="n">
+        <v>0</v>
+      </c>
+      <c r="I290" t="n">
+        <v>0</v>
+      </c>
+      <c r="J290" t="inlineStr"/>
+      <c r="K290" t="inlineStr"/>
+      <c r="L290" t="inlineStr"/>
+      <c r="M290" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" s="1" t="n">
+        <v>289</v>
+      </c>
+      <c r="B291" t="n">
+        <v>961</v>
+      </c>
+      <c r="C291" t="n">
+        <v>963</v>
+      </c>
+      <c r="D291" t="n">
+        <v>963</v>
+      </c>
+      <c r="E291" t="n">
+        <v>961</v>
+      </c>
+      <c r="F291" t="n">
+        <v>133.6255</v>
+      </c>
+      <c r="G291" t="n">
+        <v>991.0166666666667</v>
+      </c>
+      <c r="H291" t="n">
+        <v>0</v>
+      </c>
+      <c r="I291" t="n">
+        <v>0</v>
+      </c>
+      <c r="J291" t="inlineStr"/>
+      <c r="K291" t="inlineStr"/>
+      <c r="L291" t="inlineStr"/>
+      <c r="M291" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" s="1" t="n">
+        <v>290</v>
+      </c>
+      <c r="B292" t="n">
+        <v>963</v>
+      </c>
+      <c r="C292" t="n">
         <v>966</v>
       </c>
-      <c r="K285" t="inlineStr"/>
-      <c r="L285" t="inlineStr">
+      <c r="D292" t="n">
+        <v>966</v>
+      </c>
+      <c r="E292" t="n">
+        <v>963</v>
+      </c>
+      <c r="F292" t="n">
+        <v>5.353</v>
+      </c>
+      <c r="G292" t="n">
+        <v>990.4166666666666</v>
+      </c>
+      <c r="H292" t="n">
+        <v>0</v>
+      </c>
+      <c r="I292" t="n">
+        <v>0</v>
+      </c>
+      <c r="J292" t="inlineStr"/>
+      <c r="K292" t="inlineStr"/>
+      <c r="L292" t="inlineStr"/>
+      <c r="M292" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" s="1" t="n">
+        <v>291</v>
+      </c>
+      <c r="B293" t="n">
+        <v>966</v>
+      </c>
+      <c r="C293" t="n">
+        <v>966</v>
+      </c>
+      <c r="D293" t="n">
+        <v>966</v>
+      </c>
+      <c r="E293" t="n">
+        <v>966</v>
+      </c>
+      <c r="F293" t="n">
+        <v>197.9203</v>
+      </c>
+      <c r="G293" t="n">
+        <v>989.85</v>
+      </c>
+      <c r="H293" t="n">
+        <v>1</v>
+      </c>
+      <c r="I293" t="n">
+        <v>0</v>
+      </c>
+      <c r="J293" t="n">
+        <v>966</v>
+      </c>
+      <c r="K293" t="n">
+        <v>966</v>
+      </c>
+      <c r="L293" t="inlineStr"/>
+      <c r="M293" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" s="1" t="n">
+        <v>292</v>
+      </c>
+      <c r="B294" t="n">
+        <v>963</v>
+      </c>
+      <c r="C294" t="n">
+        <v>963</v>
+      </c>
+      <c r="D294" t="n">
+        <v>963</v>
+      </c>
+      <c r="E294" t="n">
+        <v>963</v>
+      </c>
+      <c r="F294" t="n">
+        <v>86.52290000000001</v>
+      </c>
+      <c r="G294" t="n">
+        <v>989.25</v>
+      </c>
+      <c r="H294" t="n">
+        <v>0</v>
+      </c>
+      <c r="I294" t="n">
+        <v>0</v>
+      </c>
+      <c r="J294" t="inlineStr"/>
+      <c r="K294" t="n">
+        <v>966</v>
+      </c>
+      <c r="L294" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M294" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" s="1" t="n">
+        <v>293</v>
+      </c>
+      <c r="B295" t="n">
+        <v>962</v>
+      </c>
+      <c r="C295" t="n">
+        <v>962</v>
+      </c>
+      <c r="D295" t="n">
+        <v>962</v>
+      </c>
+      <c r="E295" t="n">
+        <v>962</v>
+      </c>
+      <c r="F295" t="n">
+        <v>300</v>
+      </c>
+      <c r="G295" t="n">
+        <v>988.5333333333333</v>
+      </c>
+      <c r="H295" t="n">
+        <v>0</v>
+      </c>
+      <c r="I295" t="n">
+        <v>0</v>
+      </c>
+      <c r="J295" t="inlineStr"/>
+      <c r="K295" t="n">
+        <v>966</v>
+      </c>
+      <c r="L295" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M295" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" s="1" t="n">
+        <v>294</v>
+      </c>
+      <c r="B296" t="n">
+        <v>963</v>
+      </c>
+      <c r="C296" t="n">
+        <v>964</v>
+      </c>
+      <c r="D296" t="n">
+        <v>964</v>
+      </c>
+      <c r="E296" t="n">
+        <v>963</v>
+      </c>
+      <c r="F296" t="n">
+        <v>1062.1792</v>
+      </c>
+      <c r="G296" t="n">
+        <v>987.85</v>
+      </c>
+      <c r="H296" t="n">
+        <v>0</v>
+      </c>
+      <c r="I296" t="n">
+        <v>0</v>
+      </c>
+      <c r="J296" t="inlineStr"/>
+      <c r="K296" t="inlineStr"/>
+      <c r="L296" t="inlineStr"/>
+      <c r="M296" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" s="1" t="n">
+        <v>295</v>
+      </c>
+      <c r="B297" t="n">
+        <v>965</v>
+      </c>
+      <c r="C297" t="n">
+        <v>963</v>
+      </c>
+      <c r="D297" t="n">
+        <v>965</v>
+      </c>
+      <c r="E297" t="n">
+        <v>963</v>
+      </c>
+      <c r="F297" t="n">
+        <v>336</v>
+      </c>
+      <c r="G297" t="n">
+        <v>987.1333333333333</v>
+      </c>
+      <c r="H297" t="n">
+        <v>0</v>
+      </c>
+      <c r="I297" t="n">
+        <v>0</v>
+      </c>
+      <c r="J297" t="inlineStr"/>
+      <c r="K297" t="inlineStr"/>
+      <c r="L297" t="inlineStr"/>
+      <c r="M297" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" s="1" t="n">
+        <v>296</v>
+      </c>
+      <c r="B298" t="n">
+        <v>967</v>
+      </c>
+      <c r="C298" t="n">
+        <v>967</v>
+      </c>
+      <c r="D298" t="n">
+        <v>967</v>
+      </c>
+      <c r="E298" t="n">
+        <v>967</v>
+      </c>
+      <c r="F298" t="n">
+        <v>1.3236</v>
+      </c>
+      <c r="G298" t="n">
+        <v>986.4166666666666</v>
+      </c>
+      <c r="H298" t="n">
+        <v>0</v>
+      </c>
+      <c r="I298" t="n">
+        <v>0</v>
+      </c>
+      <c r="J298" t="inlineStr"/>
+      <c r="K298" t="inlineStr"/>
+      <c r="L298" t="inlineStr"/>
+      <c r="M298" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" s="1" t="n">
+        <v>297</v>
+      </c>
+      <c r="B299" t="n">
+        <v>961</v>
+      </c>
+      <c r="C299" t="n">
+        <v>963</v>
+      </c>
+      <c r="D299" t="n">
+        <v>963</v>
+      </c>
+      <c r="E299" t="n">
+        <v>961</v>
+      </c>
+      <c r="F299" t="n">
+        <v>561.4555</v>
+      </c>
+      <c r="G299" t="n">
+        <v>985.6333333333333</v>
+      </c>
+      <c r="H299" t="n">
+        <v>0</v>
+      </c>
+      <c r="I299" t="n">
+        <v>0</v>
+      </c>
+      <c r="J299" t="inlineStr"/>
+      <c r="K299" t="inlineStr"/>
+      <c r="L299" t="inlineStr"/>
+      <c r="M299" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" s="1" t="n">
+        <v>298</v>
+      </c>
+      <c r="B300" t="n">
+        <v>969</v>
+      </c>
+      <c r="C300" t="n">
+        <v>970</v>
+      </c>
+      <c r="D300" t="n">
+        <v>973</v>
+      </c>
+      <c r="E300" t="n">
+        <v>969</v>
+      </c>
+      <c r="F300" t="n">
+        <v>402.6046</v>
+      </c>
+      <c r="G300" t="n">
+        <v>984.95</v>
+      </c>
+      <c r="H300" t="n">
+        <v>0</v>
+      </c>
+      <c r="I300" t="n">
+        <v>0</v>
+      </c>
+      <c r="J300" t="inlineStr"/>
+      <c r="K300" t="inlineStr"/>
+      <c r="L300" t="inlineStr"/>
+      <c r="M300" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" s="1" t="n">
+        <v>299</v>
+      </c>
+      <c r="B301" t="n">
+        <v>967</v>
+      </c>
+      <c r="C301" t="n">
+        <v>969</v>
+      </c>
+      <c r="D301" t="n">
+        <v>969</v>
+      </c>
+      <c r="E301" t="n">
+        <v>967</v>
+      </c>
+      <c r="F301" t="n">
+        <v>189.2254</v>
+      </c>
+      <c r="G301" t="n">
+        <v>984.2833333333333</v>
+      </c>
+      <c r="H301" t="n">
+        <v>1</v>
+      </c>
+      <c r="I301" t="n">
+        <v>0</v>
+      </c>
+      <c r="J301" t="n">
+        <v>970</v>
+      </c>
+      <c r="K301" t="inlineStr"/>
+      <c r="L301" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M285" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="286">
-      <c r="A286" s="1" t="n">
-        <v>284</v>
-      </c>
-      <c r="B286" t="n">
-        <v>969</v>
-      </c>
-      <c r="C286" t="n">
-        <v>969</v>
-      </c>
-      <c r="D286" t="n">
-        <v>969</v>
-      </c>
-      <c r="E286" t="n">
-        <v>969</v>
-      </c>
-      <c r="F286" t="n">
-        <v>53.9654</v>
-      </c>
-      <c r="G286" t="n">
-        <v>968.4</v>
-      </c>
-      <c r="H286" t="n">
-        <v>1</v>
-      </c>
-      <c r="I286" t="n">
-        <v>0</v>
-      </c>
-      <c r="J286" t="n">
-        <v>971</v>
-      </c>
-      <c r="K286" t="inlineStr"/>
-      <c r="L286" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M286" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="287">
-      <c r="A287" s="1" t="n">
-        <v>285</v>
-      </c>
-      <c r="B287" t="n">
-        <v>961</v>
-      </c>
-      <c r="C287" t="n">
-        <v>961</v>
-      </c>
-      <c r="D287" t="n">
-        <v>961</v>
-      </c>
-      <c r="E287" t="n">
-        <v>961</v>
-      </c>
-      <c r="F287" t="n">
-        <v>48.8523</v>
-      </c>
-      <c r="G287" t="n">
-        <v>966.4</v>
-      </c>
-      <c r="H287" t="n">
-        <v>1</v>
-      </c>
-      <c r="I287" t="n">
-        <v>0</v>
-      </c>
-      <c r="J287" t="n">
-        <v>969</v>
-      </c>
-      <c r="K287" t="inlineStr"/>
-      <c r="L287" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M287" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="288">
-      <c r="A288" s="1" t="n">
-        <v>286</v>
-      </c>
-      <c r="B288" t="n">
-        <v>959</v>
-      </c>
-      <c r="C288" t="n">
-        <v>968</v>
-      </c>
-      <c r="D288" t="n">
-        <v>968</v>
-      </c>
-      <c r="E288" t="n">
-        <v>959</v>
-      </c>
-      <c r="F288" t="n">
-        <v>309.0673</v>
-      </c>
-      <c r="G288" t="n">
-        <v>967</v>
-      </c>
-      <c r="H288" t="n">
-        <v>1</v>
-      </c>
-      <c r="I288" t="n">
-        <v>0</v>
-      </c>
-      <c r="J288" t="n">
-        <v>961</v>
-      </c>
-      <c r="K288" t="inlineStr"/>
-      <c r="L288" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M288" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="289">
-      <c r="A289" s="1" t="n">
-        <v>287</v>
-      </c>
-      <c r="B289" t="n">
-        <v>962</v>
-      </c>
-      <c r="C289" t="n">
-        <v>961</v>
-      </c>
-      <c r="D289" t="n">
-        <v>962</v>
-      </c>
-      <c r="E289" t="n">
-        <v>961</v>
-      </c>
-      <c r="F289" t="n">
-        <v>48.8755</v>
-      </c>
-      <c r="G289" t="n">
-        <v>966</v>
-      </c>
-      <c r="H289" t="n">
-        <v>1</v>
-      </c>
-      <c r="I289" t="n">
-        <v>0</v>
-      </c>
-      <c r="J289" t="n">
-        <v>968</v>
-      </c>
-      <c r="K289" t="inlineStr"/>
-      <c r="L289" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M289" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="290">
-      <c r="A290" s="1" t="n">
-        <v>288</v>
-      </c>
-      <c r="B290" t="n">
-        <v>961</v>
-      </c>
-      <c r="C290" t="n">
-        <v>963</v>
-      </c>
-      <c r="D290" t="n">
-        <v>963</v>
-      </c>
-      <c r="E290" t="n">
-        <v>961</v>
-      </c>
-      <c r="F290" t="n">
-        <v>133.6255</v>
-      </c>
-      <c r="G290" t="n">
-        <v>964.4</v>
-      </c>
-      <c r="H290" t="n">
-        <v>1</v>
-      </c>
-      <c r="I290" t="n">
-        <v>0</v>
-      </c>
-      <c r="J290" t="n">
-        <v>961</v>
-      </c>
-      <c r="K290" t="inlineStr"/>
-      <c r="L290" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M290" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="291">
-      <c r="A291" s="1" t="n">
-        <v>289</v>
-      </c>
-      <c r="B291" t="n">
-        <v>963</v>
-      </c>
-      <c r="C291" t="n">
-        <v>966</v>
-      </c>
-      <c r="D291" t="n">
-        <v>966</v>
-      </c>
-      <c r="E291" t="n">
-        <v>963</v>
-      </c>
-      <c r="F291" t="n">
-        <v>5.353</v>
-      </c>
-      <c r="G291" t="n">
-        <v>963.8</v>
-      </c>
-      <c r="H291" t="n">
-        <v>1</v>
-      </c>
-      <c r="I291" t="n">
-        <v>0</v>
-      </c>
-      <c r="J291" t="n">
-        <v>963</v>
-      </c>
-      <c r="K291" t="inlineStr"/>
-      <c r="L291" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M291" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="292">
-      <c r="A292" s="1" t="n">
-        <v>290</v>
-      </c>
-      <c r="B292" t="n">
-        <v>966</v>
-      </c>
-      <c r="C292" t="n">
-        <v>966</v>
-      </c>
-      <c r="D292" t="n">
-        <v>966</v>
-      </c>
-      <c r="E292" t="n">
-        <v>966</v>
-      </c>
-      <c r="F292" t="n">
-        <v>197.9203</v>
-      </c>
-      <c r="G292" t="n">
-        <v>964.8</v>
-      </c>
-      <c r="H292" t="n">
-        <v>1</v>
-      </c>
-      <c r="I292" t="n">
-        <v>0</v>
-      </c>
-      <c r="J292" t="n">
-        <v>966</v>
-      </c>
-      <c r="K292" t="inlineStr"/>
-      <c r="L292" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M292" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="293">
-      <c r="A293" s="1" t="n">
-        <v>291</v>
-      </c>
-      <c r="B293" t="n">
-        <v>963</v>
-      </c>
-      <c r="C293" t="n">
-        <v>963</v>
-      </c>
-      <c r="D293" t="n">
-        <v>963</v>
-      </c>
-      <c r="E293" t="n">
-        <v>963</v>
-      </c>
-      <c r="F293" t="n">
-        <v>86.52290000000001</v>
-      </c>
-      <c r="G293" t="n">
-        <v>963.8</v>
-      </c>
-      <c r="H293" t="n">
-        <v>1</v>
-      </c>
-      <c r="I293" t="n">
-        <v>0</v>
-      </c>
-      <c r="J293" t="n">
-        <v>966</v>
-      </c>
-      <c r="K293" t="inlineStr"/>
-      <c r="L293" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M293" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="294">
-      <c r="A294" s="1" t="n">
-        <v>292</v>
-      </c>
-      <c r="B294" t="n">
-        <v>962</v>
-      </c>
-      <c r="C294" t="n">
-        <v>962</v>
-      </c>
-      <c r="D294" t="n">
-        <v>962</v>
-      </c>
-      <c r="E294" t="n">
-        <v>962</v>
-      </c>
-      <c r="F294" t="n">
-        <v>300</v>
-      </c>
-      <c r="G294" t="n">
-        <v>964</v>
-      </c>
-      <c r="H294" t="n">
-        <v>1</v>
-      </c>
-      <c r="I294" t="n">
-        <v>0</v>
-      </c>
-      <c r="J294" t="n">
-        <v>963</v>
-      </c>
-      <c r="K294" t="inlineStr"/>
-      <c r="L294" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M294" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="295">
-      <c r="A295" s="1" t="n">
-        <v>293</v>
-      </c>
-      <c r="B295" t="n">
-        <v>963</v>
-      </c>
-      <c r="C295" t="n">
-        <v>964</v>
-      </c>
-      <c r="D295" t="n">
-        <v>964</v>
-      </c>
-      <c r="E295" t="n">
-        <v>963</v>
-      </c>
-      <c r="F295" t="n">
-        <v>1062.1792</v>
-      </c>
-      <c r="G295" t="n">
-        <v>964.2</v>
-      </c>
-      <c r="H295" t="n">
-        <v>1</v>
-      </c>
-      <c r="I295" t="n">
-        <v>0</v>
-      </c>
-      <c r="J295" t="n">
-        <v>962</v>
-      </c>
-      <c r="K295" t="inlineStr"/>
-      <c r="L295" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M295" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="296">
-      <c r="A296" s="1" t="n">
-        <v>294</v>
-      </c>
-      <c r="B296" t="n">
-        <v>965</v>
-      </c>
-      <c r="C296" t="n">
-        <v>963</v>
-      </c>
-      <c r="D296" t="n">
-        <v>965</v>
-      </c>
-      <c r="E296" t="n">
-        <v>963</v>
-      </c>
-      <c r="F296" t="n">
-        <v>336</v>
-      </c>
-      <c r="G296" t="n">
-        <v>963.6</v>
-      </c>
-      <c r="H296" t="n">
-        <v>0</v>
-      </c>
-      <c r="I296" t="n">
-        <v>0</v>
-      </c>
-      <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
-      <c r="L296" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M296" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="297">
-      <c r="A297" s="1" t="n">
-        <v>295</v>
-      </c>
-      <c r="B297" t="n">
-        <v>967</v>
-      </c>
-      <c r="C297" t="n">
-        <v>967</v>
-      </c>
-      <c r="D297" t="n">
-        <v>967</v>
-      </c>
-      <c r="E297" t="n">
-        <v>967</v>
-      </c>
-      <c r="F297" t="n">
-        <v>1.3236</v>
-      </c>
-      <c r="G297" t="n">
-        <v>963.8</v>
-      </c>
-      <c r="H297" t="n">
-        <v>1</v>
-      </c>
-      <c r="I297" t="n">
-        <v>0</v>
-      </c>
-      <c r="J297" t="n">
-        <v>963</v>
-      </c>
-      <c r="K297" t="inlineStr"/>
-      <c r="L297" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M297" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="298">
-      <c r="A298" s="1" t="n">
-        <v>296</v>
-      </c>
-      <c r="B298" t="n">
-        <v>961</v>
-      </c>
-      <c r="C298" t="n">
-        <v>963</v>
-      </c>
-      <c r="D298" t="n">
-        <v>963</v>
-      </c>
-      <c r="E298" t="n">
-        <v>961</v>
-      </c>
-      <c r="F298" t="n">
-        <v>561.4555</v>
-      </c>
-      <c r="G298" t="n">
-        <v>963.8</v>
-      </c>
-      <c r="H298" t="n">
-        <v>0</v>
-      </c>
-      <c r="I298" t="n">
-        <v>0</v>
-      </c>
-      <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
-      <c r="L298" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M298" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="299">
-      <c r="A299" s="1" t="n">
-        <v>297</v>
-      </c>
-      <c r="B299" t="n">
-        <v>969</v>
-      </c>
-      <c r="C299" t="n">
-        <v>970</v>
-      </c>
-      <c r="D299" t="n">
-        <v>973</v>
-      </c>
-      <c r="E299" t="n">
-        <v>969</v>
-      </c>
-      <c r="F299" t="n">
-        <v>402.6046</v>
-      </c>
-      <c r="G299" t="n">
-        <v>965.4</v>
-      </c>
-      <c r="H299" t="n">
-        <v>1</v>
-      </c>
-      <c r="I299" t="n">
-        <v>0</v>
-      </c>
-      <c r="J299" t="n">
-        <v>963</v>
-      </c>
-      <c r="K299" t="inlineStr"/>
-      <c r="L299" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M299" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="300">
-      <c r="A300" s="1" t="n">
-        <v>298</v>
-      </c>
-      <c r="B300" t="n">
-        <v>967</v>
-      </c>
-      <c r="C300" t="n">
-        <v>969</v>
-      </c>
-      <c r="D300" t="n">
-        <v>969</v>
-      </c>
-      <c r="E300" t="n">
-        <v>967</v>
-      </c>
-      <c r="F300" t="n">
-        <v>189.2254</v>
-      </c>
-      <c r="G300" t="n">
-        <v>966.4</v>
-      </c>
-      <c r="H300" t="n">
-        <v>1</v>
-      </c>
-      <c r="I300" t="n">
-        <v>0</v>
-      </c>
-      <c r="J300" t="n">
-        <v>970</v>
-      </c>
-      <c r="K300" t="inlineStr"/>
-      <c r="L300" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M300" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="301">
-      <c r="A301" s="1" t="n">
-        <v>299</v>
-      </c>
-      <c r="B301" t="n">
-        <v>969</v>
-      </c>
-      <c r="C301" t="n">
-        <v>969</v>
-      </c>
-      <c r="D301" t="n">
-        <v>969</v>
-      </c>
-      <c r="E301" t="n">
-        <v>969</v>
-      </c>
-      <c r="F301" t="n">
-        <v>598.8876</v>
-      </c>
-      <c r="G301" t="n">
-        <v>967.6</v>
-      </c>
-      <c r="H301" t="n">
-        <v>0</v>
-      </c>
-      <c r="I301" t="n">
-        <v>0</v>
-      </c>
-      <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
-      <c r="L301" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="M301" t="n">
         <v>1</v>
       </c>
@@ -11057,10 +11083,10 @@
         <v>969</v>
       </c>
       <c r="F302" t="n">
-        <v>0.4734</v>
+        <v>598.8876</v>
       </c>
       <c r="G302" t="n">
-        <v>968</v>
+        <v>983.6</v>
       </c>
       <c r="H302" t="n">
         <v>0</v>
@@ -11084,22 +11110,22 @@
         <v>301</v>
       </c>
       <c r="B303" t="n">
-        <v>976</v>
+        <v>969</v>
       </c>
       <c r="C303" t="n">
-        <v>976</v>
+        <v>969</v>
       </c>
       <c r="D303" t="n">
-        <v>976</v>
+        <v>969</v>
       </c>
       <c r="E303" t="n">
-        <v>976</v>
+        <v>969</v>
       </c>
       <c r="F303" t="n">
-        <v>37.1598</v>
+        <v>0.4734</v>
       </c>
       <c r="G303" t="n">
-        <v>970.6</v>
+        <v>982.9</v>
       </c>
       <c r="H303" t="n">
         <v>0</v>
@@ -11123,22 +11149,22 @@
         <v>302</v>
       </c>
       <c r="B304" t="n">
-        <v>973</v>
+        <v>976</v>
       </c>
       <c r="C304" t="n">
-        <v>967</v>
+        <v>976</v>
       </c>
       <c r="D304" t="n">
-        <v>973</v>
+        <v>976</v>
       </c>
       <c r="E304" t="n">
-        <v>967</v>
+        <v>976</v>
       </c>
       <c r="F304" t="n">
-        <v>155.5004</v>
+        <v>37.1598</v>
       </c>
       <c r="G304" t="n">
-        <v>970</v>
+        <v>982.3166666666667</v>
       </c>
       <c r="H304" t="n">
         <v>0</v>
@@ -11162,22 +11188,22 @@
         <v>303</v>
       </c>
       <c r="B305" t="n">
-        <v>969</v>
+        <v>973</v>
       </c>
       <c r="C305" t="n">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="D305" t="n">
-        <v>969</v>
+        <v>973</v>
       </c>
       <c r="E305" t="n">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="F305" t="n">
-        <v>34.3339</v>
+        <v>155.5004</v>
       </c>
       <c r="G305" t="n">
-        <v>970</v>
+        <v>981.7333333333333</v>
       </c>
       <c r="H305" t="n">
         <v>0</v>
@@ -11201,22 +11227,22 @@
         <v>304</v>
       </c>
       <c r="B306" t="n">
-        <v>973</v>
+        <v>969</v>
       </c>
       <c r="C306" t="n">
-        <v>973</v>
+        <v>969</v>
       </c>
       <c r="D306" t="n">
-        <v>973</v>
+        <v>969</v>
       </c>
       <c r="E306" t="n">
-        <v>973</v>
+        <v>969</v>
       </c>
       <c r="F306" t="n">
-        <v>31.3044</v>
+        <v>34.3339</v>
       </c>
       <c r="G306" t="n">
-        <v>970.8</v>
+        <v>981.05</v>
       </c>
       <c r="H306" t="n">
         <v>0</v>
@@ -11240,22 +11266,22 @@
         <v>305</v>
       </c>
       <c r="B307" t="n">
-        <v>977</v>
+        <v>973</v>
       </c>
       <c r="C307" t="n">
-        <v>979</v>
+        <v>973</v>
       </c>
       <c r="D307" t="n">
-        <v>979</v>
+        <v>973</v>
       </c>
       <c r="E307" t="n">
-        <v>977</v>
+        <v>973</v>
       </c>
       <c r="F307" t="n">
-        <v>1880.8057</v>
+        <v>31.3044</v>
       </c>
       <c r="G307" t="n">
-        <v>972.8</v>
+        <v>980.4333333333333</v>
       </c>
       <c r="H307" t="n">
         <v>0</v>
@@ -11279,7 +11305,7 @@
         <v>306</v>
       </c>
       <c r="B308" t="n">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="C308" t="n">
         <v>979</v>
@@ -11288,13 +11314,13 @@
         <v>979</v>
       </c>
       <c r="E308" t="n">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="F308" t="n">
-        <v>1290.3935</v>
+        <v>1880.8057</v>
       </c>
       <c r="G308" t="n">
-        <v>973.4</v>
+        <v>979.9333333333333</v>
       </c>
       <c r="H308" t="n">
         <v>0</v>
@@ -11313,6 +11339,45 @@
         <v>1</v>
       </c>
     </row>
+    <row r="309">
+      <c r="A309" s="1" t="n">
+        <v>307</v>
+      </c>
+      <c r="B309" t="n">
+        <v>979</v>
+      </c>
+      <c r="C309" t="n">
+        <v>979</v>
+      </c>
+      <c r="D309" t="n">
+        <v>979</v>
+      </c>
+      <c r="E309" t="n">
+        <v>979</v>
+      </c>
+      <c r="F309" t="n">
+        <v>1290.3935</v>
+      </c>
+      <c r="G309" t="n">
+        <v>979.55</v>
+      </c>
+      <c r="H309" t="n">
+        <v>0</v>
+      </c>
+      <c r="I309" t="n">
+        <v>0</v>
+      </c>
+      <c r="J309" t="inlineStr"/>
+      <c r="K309" t="inlineStr"/>
+      <c r="L309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M309" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2019-10-26 BackTest OMG.xlsx
+++ b/BackTest/2019-10-26 BackTest OMG.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M309"/>
+  <dimension ref="A1:N319"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>36.0798</v>
       </c>
       <c r="G2" t="n">
+        <v>972.2666666666667</v>
+      </c>
+      <c r="H2" t="n">
         <v>973.1333333333333</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,18 +491,25 @@
         <v>920.6822</v>
       </c>
       <c r="G3" t="n">
+        <v>972.5333333333333</v>
+      </c>
+      <c r="H3" t="n">
         <v>973.0833333333334</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>977</v>
+      </c>
+      <c r="L3" t="n">
+        <v>977</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,18 +533,27 @@
         <v>2408.9104</v>
       </c>
       <c r="G4" t="n">
+        <v>972.4666666666667</v>
+      </c>
+      <c r="H4" t="n">
         <v>972.75</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+      <c r="L4" t="n">
+        <v>977</v>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,18 +577,27 @@
         <v>34.2917</v>
       </c>
       <c r="G5" t="n">
+        <v>972.4</v>
+      </c>
+      <c r="H5" t="n">
         <v>972.6</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
+      <c r="L5" t="n">
+        <v>977</v>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -588,18 +621,27 @@
         <v>2.2093</v>
       </c>
       <c r="G6" t="n">
+        <v>972.6666666666666</v>
+      </c>
+      <c r="H6" t="n">
         <v>972.5666666666667</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
+      <c r="L6" t="n">
+        <v>977</v>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -623,18 +665,27 @@
         <v>1389.85</v>
       </c>
       <c r="G7" t="n">
+        <v>972.8666666666667</v>
+      </c>
+      <c r="H7" t="n">
         <v>972.4833333333333</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
+      <c r="L7" t="n">
+        <v>977</v>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -658,18 +709,29 @@
         <v>5</v>
       </c>
       <c r="G8" t="n">
+        <v>973.2666666666667</v>
+      </c>
+      <c r="H8" t="n">
         <v>972.55</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>973</v>
+      </c>
+      <c r="L8" t="n">
+        <v>977</v>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -693,18 +755,27 @@
         <v>150.7157</v>
       </c>
       <c r="G9" t="n">
+        <v>973.6666666666666</v>
+      </c>
+      <c r="H9" t="n">
         <v>972.7833333333333</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
+      <c r="L9" t="n">
+        <v>977</v>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -728,18 +799,27 @@
         <v>954.5325</v>
       </c>
       <c r="G10" t="n">
+        <v>974</v>
+      </c>
+      <c r="H10" t="n">
         <v>972.9</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
+      <c r="L10" t="n">
+        <v>977</v>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -763,18 +843,27 @@
         <v>1737.1586</v>
       </c>
       <c r="G11" t="n">
+        <v>974.3333333333334</v>
+      </c>
+      <c r="H11" t="n">
         <v>972.9166666666666</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
+      <c r="L11" t="n">
+        <v>977</v>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -798,18 +887,27 @@
         <v>161.1019</v>
       </c>
       <c r="G12" t="n">
+        <v>975.0666666666667</v>
+      </c>
+      <c r="H12" t="n">
         <v>973.1833333333333</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
+      <c r="L12" t="n">
+        <v>977</v>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -833,18 +931,27 @@
         <v>221.6959</v>
       </c>
       <c r="G13" t="n">
+        <v>975.2666666666667</v>
+      </c>
+      <c r="H13" t="n">
         <v>973.4166666666666</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
+      <c r="L13" t="n">
+        <v>977</v>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -868,18 +975,27 @@
         <v>407.2571</v>
       </c>
       <c r="G14" t="n">
+        <v>975.5333333333333</v>
+      </c>
+      <c r="H14" t="n">
         <v>973.5833333333334</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
+      <c r="L14" t="n">
+        <v>977</v>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -903,18 +1019,27 @@
         <v>170.9715</v>
       </c>
       <c r="G15" t="n">
+        <v>975.4666666666667</v>
+      </c>
+      <c r="H15" t="n">
         <v>973.6833333333333</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
+      <c r="L15" t="n">
+        <v>977</v>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -938,18 +1063,27 @@
         <v>33.6579</v>
       </c>
       <c r="G16" t="n">
+        <v>975.6</v>
+      </c>
+      <c r="H16" t="n">
         <v>973.8</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
+      <c r="L16" t="n">
+        <v>977</v>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -973,18 +1107,27 @@
         <v>153.8744</v>
       </c>
       <c r="G17" t="n">
+        <v>975.5333333333333</v>
+      </c>
+      <c r="H17" t="n">
         <v>973.85</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
+      <c r="L17" t="n">
+        <v>977</v>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,18 +1151,27 @@
         <v>3034.9991</v>
       </c>
       <c r="G18" t="n">
+        <v>975.6</v>
+      </c>
+      <c r="H18" t="n">
         <v>973.95</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
+      <c r="L18" t="n">
+        <v>977</v>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1043,18 +1195,27 @@
         <v>926.1854</v>
       </c>
       <c r="G19" t="n">
+        <v>976.4</v>
+      </c>
+      <c r="H19" t="n">
         <v>974.1</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
+      <c r="L19" t="n">
+        <v>977</v>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1078,18 +1239,27 @@
         <v>2</v>
       </c>
       <c r="G20" t="n">
+        <v>976.9333333333333</v>
+      </c>
+      <c r="H20" t="n">
         <v>974.1666666666666</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
+      <c r="L20" t="n">
+        <v>977</v>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1113,18 +1283,27 @@
         <v>3127.5098</v>
       </c>
       <c r="G21" t="n">
+        <v>976.7333333333333</v>
+      </c>
+      <c r="H21" t="n">
         <v>974.1</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
+      <c r="L21" t="n">
+        <v>977</v>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1148,18 +1327,27 @@
         <v>628.1355</v>
       </c>
       <c r="G22" t="n">
+        <v>976.6666666666666</v>
+      </c>
+      <c r="H22" t="n">
         <v>973.9666666666667</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
+      <c r="L22" t="n">
+        <v>977</v>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1183,18 +1371,27 @@
         <v>1</v>
       </c>
       <c r="G23" t="n">
+        <v>976.2</v>
+      </c>
+      <c r="H23" t="n">
         <v>973.7333333333333</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
+      <c r="L23" t="n">
+        <v>977</v>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1218,18 +1415,27 @@
         <v>320.7251</v>
       </c>
       <c r="G24" t="n">
+        <v>975.3333333333334</v>
+      </c>
+      <c r="H24" t="n">
         <v>973.5333333333333</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
+      <c r="L24" t="n">
+        <v>977</v>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1253,18 +1459,27 @@
         <v>22.9291</v>
       </c>
       <c r="G25" t="n">
+        <v>974.2666666666667</v>
+      </c>
+      <c r="H25" t="n">
         <v>973.1166666666667</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
+      <c r="L25" t="n">
+        <v>977</v>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1288,18 +1503,27 @@
         <v>2948.9828</v>
       </c>
       <c r="G26" t="n">
+        <v>973.6</v>
+      </c>
+      <c r="H26" t="n">
         <v>972.7166666666667</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
+      <c r="L26" t="n">
+        <v>977</v>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1323,18 +1547,27 @@
         <v>41.6</v>
       </c>
       <c r="G27" t="n">
+        <v>972.6666666666666</v>
+      </c>
+      <c r="H27" t="n">
         <v>972.5666666666667</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
+      <c r="L27" t="n">
+        <v>977</v>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1358,18 +1591,29 @@
         <v>4.7721</v>
       </c>
       <c r="G28" t="n">
+        <v>972.1333333333333</v>
+      </c>
+      <c r="H28" t="n">
         <v>972.4666666666667</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
+        <v>1</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
+        <v>965</v>
+      </c>
+      <c r="L28" t="n">
+        <v>977</v>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1393,18 +1637,27 @@
         <v>0.9001</v>
       </c>
       <c r="G29" t="n">
+        <v>971.5333333333333</v>
+      </c>
+      <c r="H29" t="n">
         <v>972.2666666666667</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
+      <c r="L29" t="n">
+        <v>977</v>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1428,18 +1681,27 @@
         <v>200</v>
       </c>
       <c r="G30" t="n">
+        <v>970.9333333333333</v>
+      </c>
+      <c r="H30" t="n">
         <v>972.2333333333333</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
+      <c r="L30" t="n">
+        <v>977</v>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1463,18 +1725,27 @@
         <v>1.7642</v>
       </c>
       <c r="G31" t="n">
+        <v>970.1333333333333</v>
+      </c>
+      <c r="H31" t="n">
         <v>972.15</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
+      <c r="L31" t="n">
+        <v>977</v>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1498,24 +1769,27 @@
         <v>3792.2477</v>
       </c>
       <c r="G32" t="n">
+        <v>968.6666666666666</v>
+      </c>
+      <c r="H32" t="n">
         <v>971.8166666666667</v>
       </c>
-      <c r="H32" t="n">
-        <v>1</v>
-      </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>967</v>
+        <v>0</v>
       </c>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M32" t="n">
+      <c r="L32" t="n">
+        <v>977</v>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1539,22 +1813,27 @@
         <v>100</v>
       </c>
       <c r="G33" t="n">
+        <v>967.4666666666667</v>
+      </c>
+      <c r="H33" t="n">
         <v>971.5833333333334</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M33" t="n">
+      <c r="L33" t="n">
+        <v>977</v>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1578,22 +1857,27 @@
         <v>356</v>
       </c>
       <c r="G34" t="n">
+        <v>966.3333333333334</v>
+      </c>
+      <c r="H34" t="n">
         <v>971.6166666666667</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M34" t="n">
+      <c r="L34" t="n">
+        <v>977</v>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1617,24 +1901,27 @@
         <v>53.3554</v>
       </c>
       <c r="G35" t="n">
+        <v>965.6666666666666</v>
+      </c>
+      <c r="H35" t="n">
         <v>971.8833333333333</v>
       </c>
-      <c r="H35" t="n">
-        <v>1</v>
-      </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>966</v>
+        <v>0</v>
       </c>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M35" t="n">
+      <c r="L35" t="n">
+        <v>977</v>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1658,22 +1945,27 @@
         <v>19.2374</v>
       </c>
       <c r="G36" t="n">
+        <v>965.2666666666667</v>
+      </c>
+      <c r="H36" t="n">
         <v>971.8166666666667</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M36" t="n">
+      <c r="L36" t="n">
+        <v>977</v>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1697,24 +1989,27 @@
         <v>392.4606</v>
       </c>
       <c r="G37" t="n">
+        <v>965.1333333333333</v>
+      </c>
+      <c r="H37" t="n">
         <v>971.5833333333334</v>
       </c>
-      <c r="H37" t="n">
-        <v>1</v>
-      </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>966</v>
+        <v>0</v>
       </c>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M37" t="n">
+      <c r="L37" t="n">
+        <v>977</v>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1738,24 +2033,27 @@
         <v>18.626</v>
       </c>
       <c r="G38" t="n">
+        <v>965.4</v>
+      </c>
+      <c r="H38" t="n">
         <v>971.4166666666666</v>
       </c>
-      <c r="H38" t="n">
-        <v>1</v>
-      </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>970</v>
+        <v>0</v>
       </c>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M38" t="n">
+      <c r="L38" t="n">
+        <v>977</v>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1779,24 +2077,27 @@
         <v>1187.3592</v>
       </c>
       <c r="G39" t="n">
+        <v>966.0666666666667</v>
+      </c>
+      <c r="H39" t="n">
         <v>971.4166666666666</v>
       </c>
-      <c r="H39" t="n">
-        <v>1</v>
-      </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>973</v>
+        <v>0</v>
       </c>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M39" t="n">
+      <c r="L39" t="n">
+        <v>977</v>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1820,22 +2121,27 @@
         <v>999.8104662909836</v>
       </c>
       <c r="G40" t="n">
+        <v>967.2666666666667</v>
+      </c>
+      <c r="H40" t="n">
         <v>971.45</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M40" t="n">
+      <c r="L40" t="n">
+        <v>977</v>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1859,22 +2165,27 @@
         <v>2.9937</v>
       </c>
       <c r="G41" t="n">
+        <v>967.8</v>
+      </c>
+      <c r="H41" t="n">
         <v>971.55</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M41" t="n">
+      <c r="L41" t="n">
+        <v>977</v>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1898,22 +2209,27 @@
         <v>89.181</v>
       </c>
       <c r="G42" t="n">
+        <v>968.2666666666667</v>
+      </c>
+      <c r="H42" t="n">
         <v>971.7333333333333</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M42" t="n">
+      <c r="L42" t="n">
+        <v>977</v>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1937,22 +2253,27 @@
         <v>18.9185</v>
       </c>
       <c r="G43" t="n">
+        <v>968.5333333333333</v>
+      </c>
+      <c r="H43" t="n">
         <v>971.9833333333333</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M43" t="n">
+      <c r="L43" t="n">
+        <v>977</v>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1976,22 +2297,27 @@
         <v>39.3942</v>
       </c>
       <c r="G44" t="n">
+        <v>968.6</v>
+      </c>
+      <c r="H44" t="n">
         <v>971.9666666666667</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M44" t="n">
+      <c r="L44" t="n">
+        <v>977</v>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2015,22 +2341,27 @@
         <v>28.1258</v>
       </c>
       <c r="G45" t="n">
+        <v>968.8666666666667</v>
+      </c>
+      <c r="H45" t="n">
         <v>971.8666666666667</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M45" t="n">
+      <c r="L45" t="n">
+        <v>977</v>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2054,22 +2385,27 @@
         <v>47.1932</v>
       </c>
       <c r="G46" t="n">
+        <v>969.6</v>
+      </c>
+      <c r="H46" t="n">
         <v>971.85</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M46" t="n">
+      <c r="L46" t="n">
+        <v>977</v>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2093,22 +2429,27 @@
         <v>51.44</v>
       </c>
       <c r="G47" t="n">
+        <v>971.3333333333334</v>
+      </c>
+      <c r="H47" t="n">
         <v>971.95</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M47" t="n">
+      <c r="L47" t="n">
+        <v>977</v>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2132,22 +2473,27 @@
         <v>13.9014</v>
       </c>
       <c r="G48" t="n">
+        <v>972.6666666666666</v>
+      </c>
+      <c r="H48" t="n">
         <v>972.0666666666667</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M48" t="n">
+      <c r="L48" t="n">
+        <v>977</v>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2171,22 +2517,27 @@
         <v>500</v>
       </c>
       <c r="G49" t="n">
+        <v>973.4666666666667</v>
+      </c>
+      <c r="H49" t="n">
         <v>972.1666666666666</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M49" t="n">
+      <c r="L49" t="n">
+        <v>977</v>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2210,22 +2561,27 @@
         <v>593.5</v>
       </c>
       <c r="G50" t="n">
+        <v>974.2666666666667</v>
+      </c>
+      <c r="H50" t="n">
         <v>972.3166666666667</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M50" t="n">
+      <c r="L50" t="n">
+        <v>977</v>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2249,22 +2605,27 @@
         <v>23.6321</v>
       </c>
       <c r="G51" t="n">
+        <v>975.5333333333333</v>
+      </c>
+      <c r="H51" t="n">
         <v>972.55</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M51" t="n">
+      <c r="L51" t="n">
+        <v>977</v>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2288,22 +2649,27 @@
         <v>500</v>
       </c>
       <c r="G52" t="n">
+        <v>976.5333333333333</v>
+      </c>
+      <c r="H52" t="n">
         <v>972.8</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M52" t="n">
+      <c r="L52" t="n">
+        <v>977</v>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2327,22 +2693,27 @@
         <v>436.9651</v>
       </c>
       <c r="G53" t="n">
+        <v>977.8666666666667</v>
+      </c>
+      <c r="H53" t="n">
         <v>973.1833333333333</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M53" t="n">
+      <c r="L53" t="n">
+        <v>977</v>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2366,22 +2737,27 @@
         <v>124.582</v>
       </c>
       <c r="G54" t="n">
+        <v>978.7333333333333</v>
+      </c>
+      <c r="H54" t="n">
         <v>973.45</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M54" t="n">
+      <c r="L54" t="n">
+        <v>977</v>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2405,22 +2781,27 @@
         <v>923.5945</v>
       </c>
       <c r="G55" t="n">
+        <v>980.0666666666667</v>
+      </c>
+      <c r="H55" t="n">
         <v>973.9</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M55" t="n">
+      <c r="L55" t="n">
+        <v>977</v>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2444,22 +2825,27 @@
         <v>1212.087</v>
       </c>
       <c r="G56" t="n">
+        <v>982.2</v>
+      </c>
+      <c r="H56" t="n">
         <v>974.4833333333333</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M56" t="n">
+      <c r="L56" t="n">
+        <v>977</v>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2483,22 +2869,27 @@
         <v>3067.7421</v>
       </c>
       <c r="G57" t="n">
+        <v>985.4</v>
+      </c>
+      <c r="H57" t="n">
         <v>975.35</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M57" t="n">
+      <c r="L57" t="n">
+        <v>977</v>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2522,22 +2913,29 @@
         <v>672.2165</v>
       </c>
       <c r="G58" t="n">
+        <v>987.2</v>
+      </c>
+      <c r="H58" t="n">
         <v>975.7833333333333</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
-        <v>1</v>
-      </c>
-      <c r="J58" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>977</v>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N58" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2559,18 +2957,27 @@
         <v>615.5857</v>
       </c>
       <c r="G59" t="n">
+        <v>988.8666666666667</v>
+      </c>
+      <c r="H59" t="n">
         <v>976.1333333333333</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
-        <v>1</v>
-      </c>
-      <c r="J59" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
+      <c r="L59" t="n">
+        <v>977</v>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2594,18 +3001,27 @@
         <v>450.0126</v>
       </c>
       <c r="G60" t="n">
+        <v>990.6</v>
+      </c>
+      <c r="H60" t="n">
         <v>976.4666666666667</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
-        <v>1</v>
-      </c>
-      <c r="J60" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
+      <c r="L60" t="n">
+        <v>977</v>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2629,18 +3045,27 @@
         <v>260.0013</v>
       </c>
       <c r="G61" t="n">
+        <v>991.8</v>
+      </c>
+      <c r="H61" t="n">
         <v>976.7833333333333</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
-        <v>1</v>
-      </c>
-      <c r="J61" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
+      <c r="L61" t="n">
+        <v>977</v>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2664,18 +3089,27 @@
         <v>121.2191</v>
       </c>
       <c r="G62" t="n">
+        <v>992.2666666666667</v>
+      </c>
+      <c r="H62" t="n">
         <v>976.95</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
-        <v>1</v>
-      </c>
-      <c r="J62" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
+      <c r="L62" t="n">
+        <v>977</v>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2699,18 +3133,27 @@
         <v>92.0912</v>
       </c>
       <c r="G63" t="n">
+        <v>992.6666666666666</v>
+      </c>
+      <c r="H63" t="n">
         <v>977.1</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
+      <c r="L63" t="n">
+        <v>977</v>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2734,18 +3177,27 @@
         <v>8.948600000000001</v>
       </c>
       <c r="G64" t="n">
+        <v>993.4666666666667</v>
+      </c>
+      <c r="H64" t="n">
         <v>977.4166666666666</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
+      <c r="L64" t="n">
+        <v>977</v>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2769,18 +3221,27 @@
         <v>761.816</v>
       </c>
       <c r="G65" t="n">
+        <v>993.4666666666667</v>
+      </c>
+      <c r="H65" t="n">
         <v>977.5833333333334</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
+      <c r="L65" t="n">
+        <v>977</v>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2804,18 +3265,27 @@
         <v>261.7811</v>
       </c>
       <c r="G66" t="n">
+        <v>993.6</v>
+      </c>
+      <c r="H66" t="n">
         <v>977.7833333333333</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
+      <c r="L66" t="n">
+        <v>977</v>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2839,18 +3309,27 @@
         <v>108.1005</v>
       </c>
       <c r="G67" t="n">
+        <v>993.6</v>
+      </c>
+      <c r="H67" t="n">
         <v>977.9833333333333</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
+      <c r="L67" t="n">
+        <v>977</v>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2874,18 +3353,27 @@
         <v>2238.2726</v>
       </c>
       <c r="G68" t="n">
+        <v>993.5333333333333</v>
+      </c>
+      <c r="H68" t="n">
         <v>978.25</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
+      <c r="L68" t="n">
+        <v>977</v>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2909,18 +3397,27 @@
         <v>14</v>
       </c>
       <c r="G69" t="n">
+        <v>994.1333333333333</v>
+      </c>
+      <c r="H69" t="n">
         <v>978.5666666666667</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
+      <c r="L69" t="n">
+        <v>977</v>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2944,18 +3441,27 @@
         <v>28.5429</v>
       </c>
       <c r="G70" t="n">
+        <v>993.6666666666666</v>
+      </c>
+      <c r="H70" t="n">
         <v>978.8166666666667</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
+      <c r="L70" t="n">
+        <v>977</v>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2979,18 +3485,27 @@
         <v>15.3821</v>
       </c>
       <c r="G71" t="n">
+        <v>992.6666666666666</v>
+      </c>
+      <c r="H71" t="n">
         <v>979.0666666666667</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
+      <c r="L71" t="n">
+        <v>977</v>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3014,18 +3529,27 @@
         <v>311.5085</v>
       </c>
       <c r="G72" t="n">
+        <v>990.8</v>
+      </c>
+      <c r="H72" t="n">
         <v>979.2833333333333</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
+      <c r="L72" t="n">
+        <v>977</v>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3049,18 +3573,27 @@
         <v>77.8151</v>
       </c>
       <c r="G73" t="n">
+        <v>990.2</v>
+      </c>
+      <c r="H73" t="n">
         <v>979.5166666666667</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
+      <c r="L73" t="n">
+        <v>977</v>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3084,18 +3617,27 @@
         <v>533</v>
       </c>
       <c r="G74" t="n">
+        <v>990.4</v>
+      </c>
+      <c r="H74" t="n">
         <v>979.85</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
+      <c r="L74" t="n">
+        <v>977</v>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3119,18 +3661,27 @@
         <v>967.4512999999999</v>
       </c>
       <c r="G75" t="n">
+        <v>990.8</v>
+      </c>
+      <c r="H75" t="n">
         <v>980.3</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
+      <c r="L75" t="n">
+        <v>977</v>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3154,18 +3705,27 @@
         <v>10.5884</v>
       </c>
       <c r="G76" t="n">
+        <v>991.2666666666667</v>
+      </c>
+      <c r="H76" t="n">
         <v>980.7</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
+      <c r="L76" t="n">
+        <v>977</v>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3189,18 +3749,27 @@
         <v>38.8858</v>
       </c>
       <c r="G77" t="n">
+        <v>992</v>
+      </c>
+      <c r="H77" t="n">
         <v>981.0666666666667</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
+      <c r="L77" t="n">
+        <v>977</v>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3224,18 +3793,27 @@
         <v>302</v>
       </c>
       <c r="G78" t="n">
+        <v>993.1333333333333</v>
+      </c>
+      <c r="H78" t="n">
         <v>981.4833333333333</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
+      <c r="L78" t="n">
+        <v>977</v>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3259,18 +3837,27 @@
         <v>11.5343</v>
       </c>
       <c r="G79" t="n">
+        <v>994.4</v>
+      </c>
+      <c r="H79" t="n">
         <v>981.9166666666666</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
+      <c r="L79" t="n">
+        <v>977</v>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3294,18 +3881,27 @@
         <v>1000</v>
       </c>
       <c r="G80" t="n">
+        <v>996.4</v>
+      </c>
+      <c r="H80" t="n">
         <v>982.45</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
+      <c r="L80" t="n">
+        <v>977</v>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3329,18 +3925,27 @@
         <v>8</v>
       </c>
       <c r="G81" t="n">
+        <v>998.2666666666667</v>
+      </c>
+      <c r="H81" t="n">
         <v>983.1666666666666</v>
       </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
+      <c r="L81" t="n">
+        <v>977</v>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3364,18 +3969,27 @@
         <v>541.1611</v>
       </c>
       <c r="G82" t="n">
+        <v>1000.466666666667</v>
+      </c>
+      <c r="H82" t="n">
         <v>983.9333333333333</v>
       </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
+      <c r="L82" t="n">
+        <v>977</v>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3399,18 +4013,27 @@
         <v>683.0512</v>
       </c>
       <c r="G83" t="n">
+        <v>1001.733333333333</v>
+      </c>
+      <c r="H83" t="n">
         <v>984.6333333333333</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
+      <c r="L83" t="n">
+        <v>977</v>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3434,18 +4057,27 @@
         <v>8</v>
       </c>
       <c r="G84" t="n">
+        <v>1002.4</v>
+      </c>
+      <c r="H84" t="n">
         <v>985.3333333333334</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
+      <c r="L84" t="n">
+        <v>977</v>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3469,18 +4101,27 @@
         <v>71.3138</v>
       </c>
       <c r="G85" t="n">
+        <v>1003.2</v>
+      </c>
+      <c r="H85" t="n">
         <v>986.05</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
+      <c r="L85" t="n">
+        <v>977</v>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3504,18 +4145,27 @@
         <v>280.9935</v>
       </c>
       <c r="G86" t="n">
+        <v>1004.933333333333</v>
+      </c>
+      <c r="H86" t="n">
         <v>986.9</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
+      <c r="L86" t="n">
+        <v>977</v>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3539,18 +4189,27 @@
         <v>8</v>
       </c>
       <c r="G87" t="n">
+        <v>1006.466666666667</v>
+      </c>
+      <c r="H87" t="n">
         <v>987.7333333333333</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
+      <c r="L87" t="n">
+        <v>977</v>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3574,18 +4233,27 @@
         <v>52.3911</v>
       </c>
       <c r="G88" t="n">
+        <v>1008.266666666667</v>
+      </c>
+      <c r="H88" t="n">
         <v>988.55</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
+      <c r="L88" t="n">
+        <v>977</v>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3609,18 +4277,27 @@
         <v>536.6839</v>
       </c>
       <c r="G89" t="n">
+        <v>1009.666666666667</v>
+      </c>
+      <c r="H89" t="n">
         <v>989.3833333333333</v>
       </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
+      <c r="L89" t="n">
+        <v>977</v>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3644,18 +4321,27 @@
         <v>1742.3989</v>
       </c>
       <c r="G90" t="n">
+        <v>1011.8</v>
+      </c>
+      <c r="H90" t="n">
         <v>990.5166666666667</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
+      <c r="L90" t="n">
+        <v>977</v>
+      </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3679,18 +4365,27 @@
         <v>48.0389</v>
       </c>
       <c r="G91" t="n">
+        <v>1013.533333333333</v>
+      </c>
+      <c r="H91" t="n">
         <v>991.55</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
+      <c r="L91" t="n">
+        <v>977</v>
+      </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3714,18 +4409,27 @@
         <v>32.69</v>
       </c>
       <c r="G92" t="n">
+        <v>1014.866666666667</v>
+      </c>
+      <c r="H92" t="n">
         <v>992.6166666666667</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
+      <c r="L92" t="n">
+        <v>977</v>
+      </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3749,18 +4453,27 @@
         <v>76.1606</v>
       </c>
       <c r="G93" t="n">
+        <v>1016.533333333333</v>
+      </c>
+      <c r="H93" t="n">
         <v>993.75</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
+      <c r="L93" t="n">
+        <v>977</v>
+      </c>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3784,18 +4497,27 @@
         <v>5.1703</v>
       </c>
       <c r="G94" t="n">
+        <v>1017.4</v>
+      </c>
+      <c r="H94" t="n">
         <v>994.6833333333333</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
+      <c r="L94" t="n">
+        <v>977</v>
+      </c>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3819,18 +4541,27 @@
         <v>273.6898</v>
       </c>
       <c r="G95" t="n">
+        <v>1017.933333333333</v>
+      </c>
+      <c r="H95" t="n">
         <v>995.5166666666667</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
+      <c r="L95" t="n">
+        <v>977</v>
+      </c>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3854,18 +4585,27 @@
         <v>462.1617</v>
       </c>
       <c r="G96" t="n">
+        <v>1018.866666666667</v>
+      </c>
+      <c r="H96" t="n">
         <v>996.5666666666667</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
+      <c r="L96" t="n">
+        <v>977</v>
+      </c>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3889,18 +4629,27 @@
         <v>1238.106</v>
       </c>
       <c r="G97" t="n">
+        <v>1019.6</v>
+      </c>
+      <c r="H97" t="n">
         <v>997.55</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
+      <c r="L97" t="n">
+        <v>977</v>
+      </c>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3924,18 +4673,27 @@
         <v>258.061</v>
       </c>
       <c r="G98" t="n">
+        <v>1020.6</v>
+      </c>
+      <c r="H98" t="n">
         <v>998.4333333333333</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
+      <c r="L98" t="n">
+        <v>977</v>
+      </c>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3959,18 +4717,27 @@
         <v>575.5</v>
       </c>
       <c r="G99" t="n">
+        <v>1021.4</v>
+      </c>
+      <c r="H99" t="n">
         <v>999.1666666666666</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
+      <c r="L99" t="n">
+        <v>977</v>
+      </c>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3994,18 +4761,27 @@
         <v>471.0583</v>
       </c>
       <c r="G100" t="n">
+        <v>1023.133333333333</v>
+      </c>
+      <c r="H100" t="n">
         <v>1000.016666666667</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
+      <c r="L100" t="n">
+        <v>977</v>
+      </c>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4029,19 +4805,28 @@
         <v>51.794</v>
       </c>
       <c r="G101" t="n">
+        <v>1023.933333333333</v>
+      </c>
+      <c r="H101" t="n">
         <v>1000.933333333333</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>1</v>
+      </c>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
+      <c r="L101" t="n">
+        <v>977</v>
+      </c>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="N101" t="n">
+        <v>1.045153531218014</v>
       </c>
     </row>
     <row r="102">
@@ -4064,18 +4849,21 @@
         <v>16.6057</v>
       </c>
       <c r="G102" t="n">
+        <v>1025.266666666667</v>
+      </c>
+      <c r="H102" t="n">
         <v>1001.983333333333</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
+      <c r="M102" t="inlineStr"/>
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4099,18 +4887,21 @@
         <v>1729.9621</v>
       </c>
       <c r="G103" t="n">
+        <v>1026.933333333333</v>
+      </c>
+      <c r="H103" t="n">
         <v>1003.15</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>1</v>
+      </c>
       <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
+      <c r="M103" t="inlineStr"/>
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4134,18 +4925,21 @@
         <v>360.8044</v>
       </c>
       <c r="G104" t="n">
+        <v>1028.666666666667</v>
+      </c>
+      <c r="H104" t="n">
         <v>1004.4</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>1</v>
+      </c>
       <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
+      <c r="M104" t="inlineStr"/>
+      <c r="N104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4169,18 +4963,21 @@
         <v>155.7858</v>
       </c>
       <c r="G105" t="n">
+        <v>1027.933333333333</v>
+      </c>
+      <c r="H105" t="n">
         <v>1005.283333333333</v>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>1</v>
+      </c>
       <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
+      <c r="M105" t="inlineStr"/>
+      <c r="N105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4204,18 +5001,21 @@
         <v>1216.3138</v>
       </c>
       <c r="G106" t="n">
+        <v>1026.6</v>
+      </c>
+      <c r="H106" t="n">
         <v>1005.8</v>
       </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>1</v>
+      </c>
       <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
+      <c r="M106" t="inlineStr"/>
+      <c r="N106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4239,18 +5039,21 @@
         <v>499.1448</v>
       </c>
       <c r="G107" t="n">
+        <v>1025.733333333333</v>
+      </c>
+      <c r="H107" t="n">
         <v>1006.216666666667</v>
       </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>1</v>
+      </c>
       <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
+      <c r="M107" t="inlineStr"/>
+      <c r="N107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4274,18 +5077,21 @@
         <v>60.8234</v>
       </c>
       <c r="G108" t="n">
+        <v>1023.4</v>
+      </c>
+      <c r="H108" t="n">
         <v>1006.433333333333</v>
       </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>1</v>
+      </c>
       <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
+      <c r="M108" t="inlineStr"/>
+      <c r="N108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4309,18 +5115,21 @@
         <v>1059.7096</v>
       </c>
       <c r="G109" t="n">
+        <v>1022.533333333333</v>
+      </c>
+      <c r="H109" t="n">
         <v>1006.95</v>
       </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
       <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
+      <c r="M109" t="inlineStr"/>
+      <c r="N109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4344,18 +5153,21 @@
         <v>399.8816</v>
       </c>
       <c r="G110" t="n">
+        <v>1021.933333333333</v>
+      </c>
+      <c r="H110" t="n">
         <v>1007.433333333333</v>
       </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
       <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
+      <c r="M110" t="inlineStr"/>
+      <c r="N110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4379,18 +5191,21 @@
         <v>0.5108</v>
       </c>
       <c r="G111" t="n">
+        <v>1020.6</v>
+      </c>
+      <c r="H111" t="n">
         <v>1007.833333333333</v>
       </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
       <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
+      <c r="M111" t="inlineStr"/>
+      <c r="N111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4414,18 +5229,21 @@
         <v>207.8754</v>
       </c>
       <c r="G112" t="n">
+        <v>1018.866666666667</v>
+      </c>
+      <c r="H112" t="n">
         <v>1008.133333333333</v>
       </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
       <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
+      <c r="M112" t="inlineStr"/>
+      <c r="N112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4449,18 +5267,21 @@
         <v>7371.0941</v>
       </c>
       <c r="G113" t="n">
+        <v>1017.8</v>
+      </c>
+      <c r="H113" t="n">
         <v>1008.416666666667</v>
       </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
       <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
+      <c r="M113" t="inlineStr"/>
+      <c r="N113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4484,18 +5305,21 @@
         <v>1025.6962</v>
       </c>
       <c r="G114" t="n">
+        <v>1018.2</v>
+      </c>
+      <c r="H114" t="n">
         <v>1009.033333333333</v>
       </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
       <c r="K114" t="inlineStr"/>
       <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
+      <c r="M114" t="inlineStr"/>
+      <c r="N114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4519,18 +5343,21 @@
         <v>1997.934</v>
       </c>
       <c r="G115" t="n">
+        <v>1017.8</v>
+      </c>
+      <c r="H115" t="n">
         <v>1009.45</v>
       </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
       <c r="K115" t="inlineStr"/>
       <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
+      <c r="M115" t="inlineStr"/>
+      <c r="N115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4554,18 +5381,21 @@
         <v>1818.4456</v>
       </c>
       <c r="G116" t="n">
+        <v>1017.4</v>
+      </c>
+      <c r="H116" t="n">
         <v>1009.733333333333</v>
       </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>1</v>
+      </c>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
+      <c r="M116" t="inlineStr"/>
+      <c r="N116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4589,18 +5419,21 @@
         <v>177.6963</v>
       </c>
       <c r="G117" t="n">
+        <v>1016.8</v>
+      </c>
+      <c r="H117" t="n">
         <v>1009.833333333333</v>
       </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4624,18 +5457,21 @@
         <v>61.5901</v>
       </c>
       <c r="G118" t="n">
+        <v>1014.6</v>
+      </c>
+      <c r="H118" t="n">
         <v>1010</v>
       </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
       <c r="K118" t="inlineStr"/>
       <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4659,18 +5495,21 @@
         <v>27.4134</v>
       </c>
       <c r="G119" t="n">
+        <v>1012.133333333333</v>
+      </c>
+      <c r="H119" t="n">
         <v>1010.216666666667</v>
       </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
       <c r="K119" t="inlineStr"/>
       <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
+      <c r="M119" t="inlineStr"/>
+      <c r="N119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4694,18 +5533,21 @@
         <v>138.2756</v>
       </c>
       <c r="G120" t="n">
+        <v>1010.933333333333</v>
+      </c>
+      <c r="H120" t="n">
         <v>1010.366666666667</v>
       </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
       <c r="K120" t="inlineStr"/>
       <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
+      <c r="M120" t="inlineStr"/>
+      <c r="N120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4729,18 +5571,21 @@
         <v>1812.9742</v>
       </c>
       <c r="G121" t="n">
+        <v>1010.266666666667</v>
+      </c>
+      <c r="H121" t="n">
         <v>1010.416666666667</v>
       </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
       <c r="K121" t="inlineStr"/>
       <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
+      <c r="M121" t="inlineStr"/>
+      <c r="N121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4764,18 +5609,21 @@
         <v>476.2882</v>
       </c>
       <c r="G122" t="n">
+        <v>1009.8</v>
+      </c>
+      <c r="H122" t="n">
         <v>1010.6</v>
       </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
       <c r="K122" t="inlineStr"/>
       <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
+      <c r="M122" t="inlineStr"/>
+      <c r="N122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4799,18 +5647,21 @@
         <v>56.4289</v>
       </c>
       <c r="G123" t="n">
+        <v>1011.066666666667</v>
+      </c>
+      <c r="H123" t="n">
         <v>1011.033333333333</v>
       </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
       <c r="K123" t="inlineStr"/>
       <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
+      <c r="M123" t="inlineStr"/>
+      <c r="N123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4834,18 +5685,21 @@
         <v>23.6698</v>
       </c>
       <c r="G124" t="n">
+        <v>1010.866666666667</v>
+      </c>
+      <c r="H124" t="n">
         <v>1011.3</v>
       </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>0</v>
+      </c>
       <c r="K124" t="inlineStr"/>
       <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
+      <c r="M124" t="inlineStr"/>
+      <c r="N124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4869,18 +5723,21 @@
         <v>1.11</v>
       </c>
       <c r="G125" t="n">
+        <v>1011.066666666667</v>
+      </c>
+      <c r="H125" t="n">
         <v>1011.833333333333</v>
       </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>0</v>
+      </c>
       <c r="K125" t="inlineStr"/>
       <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
+      <c r="M125" t="inlineStr"/>
+      <c r="N125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4904,18 +5761,21 @@
         <v>30.9199</v>
       </c>
       <c r="G126" t="n">
+        <v>1011.333333333333</v>
+      </c>
+      <c r="H126" t="n">
         <v>1012.266666666667</v>
       </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>0</v>
+      </c>
       <c r="K126" t="inlineStr"/>
       <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
+      <c r="M126" t="inlineStr"/>
+      <c r="N126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4939,18 +5799,21 @@
         <v>319.3955</v>
       </c>
       <c r="G127" t="n">
+        <v>1012.133333333333</v>
+      </c>
+      <c r="H127" t="n">
         <v>1012.766666666667</v>
       </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
       <c r="K127" t="inlineStr"/>
       <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
+      <c r="M127" t="inlineStr"/>
+      <c r="N127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4974,18 +5837,21 @@
         <v>817.75</v>
       </c>
       <c r="G128" t="n">
+        <v>1012.466666666667</v>
+      </c>
+      <c r="H128" t="n">
         <v>1013.15</v>
       </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
       <c r="K128" t="inlineStr"/>
       <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
+      <c r="M128" t="inlineStr"/>
+      <c r="N128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5009,18 +5875,21 @@
         <v>477.518</v>
       </c>
       <c r="G129" t="n">
+        <v>1012.133333333333</v>
+      </c>
+      <c r="H129" t="n">
         <v>1013.533333333333</v>
       </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
       <c r="K129" t="inlineStr"/>
       <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
+      <c r="M129" t="inlineStr"/>
+      <c r="N129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5044,18 +5913,21 @@
         <v>10</v>
       </c>
       <c r="G130" t="n">
+        <v>1011.6</v>
+      </c>
+      <c r="H130" t="n">
         <v>1013.933333333333</v>
       </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>0</v>
+      </c>
       <c r="K130" t="inlineStr"/>
       <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
+      <c r="M130" t="inlineStr"/>
+      <c r="N130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5079,18 +5951,21 @@
         <v>343.5788</v>
       </c>
       <c r="G131" t="n">
+        <v>1011.6</v>
+      </c>
+      <c r="H131" t="n">
         <v>1014.466666666667</v>
       </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>0</v>
+      </c>
       <c r="K131" t="inlineStr"/>
       <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
+      <c r="M131" t="inlineStr"/>
+      <c r="N131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5114,18 +5989,21 @@
         <v>0.8678</v>
       </c>
       <c r="G132" t="n">
+        <v>1011.2</v>
+      </c>
+      <c r="H132" t="n">
         <v>1014.933333333333</v>
       </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>0</v>
+      </c>
       <c r="K132" t="inlineStr"/>
       <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
+      <c r="M132" t="inlineStr"/>
+      <c r="N132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5149,18 +6027,21 @@
         <v>2.4957</v>
       </c>
       <c r="G133" t="n">
+        <v>1011.733333333333</v>
+      </c>
+      <c r="H133" t="n">
         <v>1015.383333333333</v>
       </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
       <c r="K133" t="inlineStr"/>
       <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
+      <c r="M133" t="inlineStr"/>
+      <c r="N133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5184,18 +6065,21 @@
         <v>8.3134</v>
       </c>
       <c r="G134" t="n">
+        <v>1012.4</v>
+      </c>
+      <c r="H134" t="n">
         <v>1015.716666666667</v>
       </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>0</v>
+      </c>
       <c r="K134" t="inlineStr"/>
       <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
+      <c r="M134" t="inlineStr"/>
+      <c r="N134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5219,18 +6103,21 @@
         <v>3.5629</v>
       </c>
       <c r="G135" t="n">
+        <v>1013.333333333333</v>
+      </c>
+      <c r="H135" t="n">
         <v>1016</v>
       </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>0</v>
+      </c>
       <c r="K135" t="inlineStr"/>
       <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
+      <c r="M135" t="inlineStr"/>
+      <c r="N135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5254,18 +6141,21 @@
         <v>103.1522</v>
       </c>
       <c r="G136" t="n">
+        <v>1014.733333333333</v>
+      </c>
+      <c r="H136" t="n">
         <v>1016.283333333333</v>
       </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>0</v>
+      </c>
       <c r="K136" t="inlineStr"/>
       <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
+      <c r="M136" t="inlineStr"/>
+      <c r="N136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5289,18 +6179,21 @@
         <v>30.4614</v>
       </c>
       <c r="G137" t="n">
+        <v>1016.333333333333</v>
+      </c>
+      <c r="H137" t="n">
         <v>1016.683333333333</v>
       </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>0</v>
+      </c>
       <c r="K137" t="inlineStr"/>
       <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
+      <c r="M137" t="inlineStr"/>
+      <c r="N137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5324,18 +6217,21 @@
         <v>600</v>
       </c>
       <c r="G138" t="n">
+        <v>1017.066666666667</v>
+      </c>
+      <c r="H138" t="n">
         <v>1017.016666666667</v>
       </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>0</v>
+      </c>
       <c r="K138" t="inlineStr"/>
       <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
+      <c r="M138" t="inlineStr"/>
+      <c r="N138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5359,18 +6255,21 @@
         <v>17.5763</v>
       </c>
       <c r="G139" t="n">
+        <v>1017.866666666667</v>
+      </c>
+      <c r="H139" t="n">
         <v>1017.166666666667</v>
       </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>0</v>
+      </c>
       <c r="K139" t="inlineStr"/>
       <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
+      <c r="M139" t="inlineStr"/>
+      <c r="N139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5394,18 +6293,21 @@
         <v>131.1182</v>
       </c>
       <c r="G140" t="n">
+        <v>1018</v>
+      </c>
+      <c r="H140" t="n">
         <v>1017.233333333333</v>
       </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>0</v>
+      </c>
       <c r="K140" t="inlineStr"/>
       <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
+      <c r="M140" t="inlineStr"/>
+      <c r="N140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5429,18 +6331,21 @@
         <v>308.9479</v>
       </c>
       <c r="G141" t="n">
+        <v>1017.466666666667</v>
+      </c>
+      <c r="H141" t="n">
         <v>1017.066666666667</v>
       </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>0</v>
+      </c>
       <c r="K141" t="inlineStr"/>
       <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
+      <c r="M141" t="inlineStr"/>
+      <c r="N141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5464,18 +6369,21 @@
         <v>568.9575</v>
       </c>
       <c r="G142" t="n">
+        <v>1016.8</v>
+      </c>
+      <c r="H142" t="n">
         <v>1016.85</v>
       </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>0</v>
+      </c>
       <c r="K142" t="inlineStr"/>
       <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
+      <c r="M142" t="inlineStr"/>
+      <c r="N142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5499,18 +6407,21 @@
         <v>199.3443</v>
       </c>
       <c r="G143" t="n">
+        <v>1016.4</v>
+      </c>
+      <c r="H143" t="n">
         <v>1016.816666666667</v>
       </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>0</v>
+      </c>
       <c r="K143" t="inlineStr"/>
       <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
+      <c r="M143" t="inlineStr"/>
+      <c r="N143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5534,18 +6445,21 @@
         <v>1.5803</v>
       </c>
       <c r="G144" t="n">
+        <v>1016.133333333333</v>
+      </c>
+      <c r="H144" t="n">
         <v>1016.966666666667</v>
       </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>0</v>
+      </c>
       <c r="K144" t="inlineStr"/>
       <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
+      <c r="M144" t="inlineStr"/>
+      <c r="N144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5569,18 +6483,21 @@
         <v>8.8713</v>
       </c>
       <c r="G145" t="n">
+        <v>1015.933333333333</v>
+      </c>
+      <c r="H145" t="n">
         <v>1017.116666666667</v>
       </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>0</v>
+      </c>
       <c r="K145" t="inlineStr"/>
       <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
+      <c r="M145" t="inlineStr"/>
+      <c r="N145" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5604,18 +6521,21 @@
         <v>207.9077</v>
       </c>
       <c r="G146" t="n">
+        <v>1015.066666666667</v>
+      </c>
+      <c r="H146" t="n">
         <v>1017</v>
       </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>0</v>
+      </c>
       <c r="K146" t="inlineStr"/>
       <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
+      <c r="M146" t="inlineStr"/>
+      <c r="N146" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5639,18 +6559,21 @@
         <v>946.4756</v>
       </c>
       <c r="G147" t="n">
+        <v>1014.6</v>
+      </c>
+      <c r="H147" t="n">
         <v>1016.966666666667</v>
       </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>0</v>
+      </c>
       <c r="K147" t="inlineStr"/>
       <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
+      <c r="M147" t="inlineStr"/>
+      <c r="N147" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5674,18 +6597,21 @@
         <v>6.0947</v>
       </c>
       <c r="G148" t="n">
+        <v>1013.333333333333</v>
+      </c>
+      <c r="H148" t="n">
         <v>1016.65</v>
       </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>0</v>
+      </c>
       <c r="K148" t="inlineStr"/>
       <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
+      <c r="M148" t="inlineStr"/>
+      <c r="N148" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5709,18 +6635,21 @@
         <v>2.7854</v>
       </c>
       <c r="G149" t="n">
+        <v>1012.2</v>
+      </c>
+      <c r="H149" t="n">
         <v>1016.35</v>
       </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
-      <c r="J149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>0</v>
+      </c>
       <c r="K149" t="inlineStr"/>
       <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
+      <c r="M149" t="inlineStr"/>
+      <c r="N149" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5744,18 +6673,21 @@
         <v>10.8416</v>
       </c>
       <c r="G150" t="n">
+        <v>1010.866666666667</v>
+      </c>
+      <c r="H150" t="n">
         <v>1015.766666666667</v>
       </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
-      <c r="J150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>0</v>
+      </c>
       <c r="K150" t="inlineStr"/>
       <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
+      <c r="M150" t="inlineStr"/>
+      <c r="N150" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5779,18 +6711,21 @@
         <v>45.7589</v>
       </c>
       <c r="G151" t="n">
+        <v>1008.866666666667</v>
+      </c>
+      <c r="H151" t="n">
         <v>1015.116666666667</v>
       </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
       <c r="I151" t="n">
         <v>0</v>
       </c>
-      <c r="J151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>0</v>
+      </c>
       <c r="K151" t="inlineStr"/>
       <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
+      <c r="M151" t="inlineStr"/>
+      <c r="N151" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5814,18 +6749,21 @@
         <v>41.6118</v>
       </c>
       <c r="G152" t="n">
+        <v>1006.6</v>
+      </c>
+      <c r="H152" t="n">
         <v>1014.616666666667</v>
       </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
       <c r="I152" t="n">
         <v>0</v>
       </c>
-      <c r="J152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>0</v>
+      </c>
       <c r="K152" t="inlineStr"/>
       <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
+      <c r="M152" t="inlineStr"/>
+      <c r="N152" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5849,18 +6787,21 @@
         <v>27.9097</v>
       </c>
       <c r="G153" t="n">
+        <v>1004.4</v>
+      </c>
+      <c r="H153" t="n">
         <v>1013.983333333333</v>
       </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
       <c r="I153" t="n">
         <v>0</v>
       </c>
-      <c r="J153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>0</v>
+      </c>
       <c r="K153" t="inlineStr"/>
       <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
+      <c r="M153" t="inlineStr"/>
+      <c r="N153" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5884,18 +6825,21 @@
         <v>72.1185</v>
       </c>
       <c r="G154" t="n">
+        <v>1002.466666666667</v>
+      </c>
+      <c r="H154" t="n">
         <v>1013.433333333333</v>
       </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
       <c r="I154" t="n">
         <v>0</v>
       </c>
-      <c r="J154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>0</v>
+      </c>
       <c r="K154" t="inlineStr"/>
       <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
+      <c r="M154" t="inlineStr"/>
+      <c r="N154" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5919,18 +6863,21 @@
         <v>520.3248</v>
       </c>
       <c r="G155" t="n">
+        <v>1000.533333333333</v>
+      </c>
+      <c r="H155" t="n">
         <v>1012.883333333333</v>
       </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
       <c r="I155" t="n">
         <v>0</v>
       </c>
-      <c r="J155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>0</v>
+      </c>
       <c r="K155" t="inlineStr"/>
       <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
+      <c r="M155" t="inlineStr"/>
+      <c r="N155" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5954,18 +6901,21 @@
         <v>77.0723</v>
       </c>
       <c r="G156" t="n">
+        <v>999.4</v>
+      </c>
+      <c r="H156" t="n">
         <v>1012.2</v>
       </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
       <c r="I156" t="n">
         <v>0</v>
       </c>
-      <c r="J156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>0</v>
+      </c>
       <c r="K156" t="inlineStr"/>
       <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
+      <c r="M156" t="inlineStr"/>
+      <c r="N156" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5989,18 +6939,21 @@
         <v>128.9385</v>
       </c>
       <c r="G157" t="n">
+        <v>998.4</v>
+      </c>
+      <c r="H157" t="n">
         <v>1011.55</v>
       </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
       <c r="I157" t="n">
         <v>0</v>
       </c>
-      <c r="J157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>0</v>
+      </c>
       <c r="K157" t="inlineStr"/>
       <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
+      <c r="M157" t="inlineStr"/>
+      <c r="N157" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6024,18 +6977,21 @@
         <v>1222.1764</v>
       </c>
       <c r="G158" t="n">
+        <v>996.4</v>
+      </c>
+      <c r="H158" t="n">
         <v>1010.766666666667</v>
       </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
       <c r="I158" t="n">
         <v>0</v>
       </c>
-      <c r="J158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>0</v>
+      </c>
       <c r="K158" t="inlineStr"/>
       <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
+      <c r="M158" t="inlineStr"/>
+      <c r="N158" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6059,18 +7015,21 @@
         <v>668.612</v>
       </c>
       <c r="G159" t="n">
+        <v>994.5333333333333</v>
+      </c>
+      <c r="H159" t="n">
         <v>1010.25</v>
       </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
       <c r="I159" t="n">
         <v>0</v>
       </c>
-      <c r="J159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>0</v>
+      </c>
       <c r="K159" t="inlineStr"/>
       <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
+      <c r="M159" t="inlineStr"/>
+      <c r="N159" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6094,18 +7053,21 @@
         <v>78.0018</v>
       </c>
       <c r="G160" t="n">
+        <v>993</v>
+      </c>
+      <c r="H160" t="n">
         <v>1009.583333333333</v>
       </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
       <c r="I160" t="n">
         <v>0</v>
       </c>
-      <c r="J160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>0</v>
+      </c>
       <c r="K160" t="inlineStr"/>
       <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
+      <c r="M160" t="inlineStr"/>
+      <c r="N160" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6129,18 +7091,21 @@
         <v>375.0342</v>
       </c>
       <c r="G161" t="n">
+        <v>991.5333333333333</v>
+      </c>
+      <c r="H161" t="n">
         <v>1008.9</v>
       </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
       <c r="I161" t="n">
         <v>0</v>
       </c>
-      <c r="J161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>0</v>
+      </c>
       <c r="K161" t="inlineStr"/>
       <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
+      <c r="M161" t="inlineStr"/>
+      <c r="N161" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6164,18 +7129,21 @@
         <v>504.8084</v>
       </c>
       <c r="G162" t="n">
+        <v>989.6666666666666</v>
+      </c>
+      <c r="H162" t="n">
         <v>1008.066666666667</v>
       </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
       <c r="I162" t="n">
         <v>0</v>
       </c>
-      <c r="J162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>0</v>
+      </c>
       <c r="K162" t="inlineStr"/>
       <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
+      <c r="M162" t="inlineStr"/>
+      <c r="N162" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6199,18 +7167,21 @@
         <v>498.8991</v>
       </c>
       <c r="G163" t="n">
+        <v>988.4666666666667</v>
+      </c>
+      <c r="H163" t="n">
         <v>1007.033333333333</v>
       </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
       <c r="I163" t="n">
         <v>0</v>
       </c>
-      <c r="J163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>0</v>
+      </c>
       <c r="K163" t="inlineStr"/>
       <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
+      <c r="M163" t="inlineStr"/>
+      <c r="N163" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6234,18 +7205,21 @@
         <v>65.5926</v>
       </c>
       <c r="G164" t="n">
+        <v>987.0666666666667</v>
+      </c>
+      <c r="H164" t="n">
         <v>1005.95</v>
       </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
       <c r="I164" t="n">
         <v>0</v>
       </c>
-      <c r="J164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>0</v>
+      </c>
       <c r="K164" t="inlineStr"/>
       <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
+      <c r="M164" t="inlineStr"/>
+      <c r="N164" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6269,18 +7243,21 @@
         <v>524.6303</v>
       </c>
       <c r="G165" t="n">
+        <v>985.6666666666666</v>
+      </c>
+      <c r="H165" t="n">
         <v>1005.2</v>
       </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
       <c r="I165" t="n">
         <v>0</v>
       </c>
-      <c r="J165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>0</v>
+      </c>
       <c r="K165" t="inlineStr"/>
       <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
+      <c r="M165" t="inlineStr"/>
+      <c r="N165" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6304,18 +7281,21 @@
         <v>371.2617</v>
       </c>
       <c r="G166" t="n">
+        <v>984.8666666666667</v>
+      </c>
+      <c r="H166" t="n">
         <v>1004.683333333333</v>
       </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
       <c r="I166" t="n">
         <v>0</v>
       </c>
-      <c r="J166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>0</v>
+      </c>
       <c r="K166" t="inlineStr"/>
       <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
+      <c r="M166" t="inlineStr"/>
+      <c r="N166" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6339,18 +7319,21 @@
         <v>155.2705</v>
       </c>
       <c r="G167" t="n">
+        <v>984.2</v>
+      </c>
+      <c r="H167" t="n">
         <v>1004.233333333333</v>
       </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
       <c r="I167" t="n">
         <v>0</v>
       </c>
-      <c r="J167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>0</v>
+      </c>
       <c r="K167" t="inlineStr"/>
       <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
+      <c r="M167" t="inlineStr"/>
+      <c r="N167" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6374,18 +7357,21 @@
         <v>16.2649</v>
       </c>
       <c r="G168" t="n">
+        <v>983.6</v>
+      </c>
+      <c r="H168" t="n">
         <v>1004.033333333333</v>
       </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
       <c r="I168" t="n">
         <v>0</v>
       </c>
-      <c r="J168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>0</v>
+      </c>
       <c r="K168" t="inlineStr"/>
       <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
+      <c r="M168" t="inlineStr"/>
+      <c r="N168" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6409,18 +7395,21 @@
         <v>33.7174</v>
       </c>
       <c r="G169" t="n">
+        <v>983</v>
+      </c>
+      <c r="H169" t="n">
         <v>1003.55</v>
       </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
       <c r="I169" t="n">
         <v>0</v>
       </c>
-      <c r="J169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>0</v>
+      </c>
       <c r="K169" t="inlineStr"/>
       <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
+      <c r="M169" t="inlineStr"/>
+      <c r="N169" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6444,18 +7433,21 @@
         <v>82.9075</v>
       </c>
       <c r="G170" t="n">
+        <v>983.2</v>
+      </c>
+      <c r="H170" t="n">
         <v>1003.2</v>
       </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
       <c r="I170" t="n">
         <v>0</v>
       </c>
-      <c r="J170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>0</v>
+      </c>
       <c r="K170" t="inlineStr"/>
       <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
+      <c r="M170" t="inlineStr"/>
+      <c r="N170" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6479,18 +7471,21 @@
         <v>94.13849999999999</v>
       </c>
       <c r="G171" t="n">
+        <v>983.2666666666667</v>
+      </c>
+      <c r="H171" t="n">
         <v>1002.866666666667</v>
       </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
       <c r="I171" t="n">
         <v>0</v>
       </c>
-      <c r="J171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>0</v>
+      </c>
       <c r="K171" t="inlineStr"/>
       <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
+      <c r="M171" t="inlineStr"/>
+      <c r="N171" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6514,18 +7509,21 @@
         <v>48.2417</v>
       </c>
       <c r="G172" t="n">
+        <v>983.1333333333333</v>
+      </c>
+      <c r="H172" t="n">
         <v>1002.616666666667</v>
       </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
       <c r="I172" t="n">
         <v>0</v>
       </c>
-      <c r="J172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>0</v>
+      </c>
       <c r="K172" t="inlineStr"/>
       <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
+      <c r="M172" t="inlineStr"/>
+      <c r="N172" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6549,18 +7547,21 @@
         <v>20.2571</v>
       </c>
       <c r="G173" t="n">
+        <v>983.8</v>
+      </c>
+      <c r="H173" t="n">
         <v>1002.266666666667</v>
       </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
       <c r="I173" t="n">
         <v>0</v>
       </c>
-      <c r="J173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>0</v>
+      </c>
       <c r="K173" t="inlineStr"/>
       <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
+      <c r="M173" t="inlineStr"/>
+      <c r="N173" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6584,18 +7585,21 @@
         <v>307.1038</v>
       </c>
       <c r="G174" t="n">
+        <v>984.0666666666667</v>
+      </c>
+      <c r="H174" t="n">
         <v>1001.716666666667</v>
       </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
       <c r="I174" t="n">
         <v>0</v>
       </c>
-      <c r="J174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>0</v>
+      </c>
       <c r="K174" t="inlineStr"/>
       <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
+      <c r="M174" t="inlineStr"/>
+      <c r="N174" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6619,18 +7623,21 @@
         <v>206.0504</v>
       </c>
       <c r="G175" t="n">
+        <v>984.3333333333334</v>
+      </c>
+      <c r="H175" t="n">
         <v>1001.216666666667</v>
       </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
       <c r="I175" t="n">
         <v>0</v>
       </c>
-      <c r="J175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>0</v>
+      </c>
       <c r="K175" t="inlineStr"/>
       <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
+      <c r="M175" t="inlineStr"/>
+      <c r="N175" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6654,18 +7661,21 @@
         <v>169.0188</v>
       </c>
       <c r="G176" t="n">
+        <v>984.6</v>
+      </c>
+      <c r="H176" t="n">
         <v>1000.7</v>
       </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
       <c r="I176" t="n">
         <v>0</v>
       </c>
-      <c r="J176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>0</v>
+      </c>
       <c r="K176" t="inlineStr"/>
       <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
+      <c r="M176" t="inlineStr"/>
+      <c r="N176" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6689,18 +7699,21 @@
         <v>32.7963</v>
       </c>
       <c r="G177" t="n">
+        <v>984.8666666666667</v>
+      </c>
+      <c r="H177" t="n">
         <v>1000.083333333333</v>
       </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
       <c r="I177" t="n">
         <v>0</v>
       </c>
-      <c r="J177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>0</v>
+      </c>
       <c r="K177" t="inlineStr"/>
       <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
+      <c r="M177" t="inlineStr"/>
+      <c r="N177" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6724,18 +7737,21 @@
         <v>72.16370000000001</v>
       </c>
       <c r="G178" t="n">
+        <v>985.5333333333333</v>
+      </c>
+      <c r="H178" t="n">
         <v>999.7666666666667</v>
       </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
       <c r="I178" t="n">
         <v>0</v>
       </c>
-      <c r="J178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>0</v>
+      </c>
       <c r="K178" t="inlineStr"/>
       <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
+      <c r="M178" t="inlineStr"/>
+      <c r="N178" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6759,18 +7775,21 @@
         <v>63.393</v>
       </c>
       <c r="G179" t="n">
+        <v>986.2</v>
+      </c>
+      <c r="H179" t="n">
         <v>999.4666666666667</v>
       </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
       <c r="I179" t="n">
         <v>0</v>
       </c>
-      <c r="J179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>0</v>
+      </c>
       <c r="K179" t="inlineStr"/>
       <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
+      <c r="M179" t="inlineStr"/>
+      <c r="N179" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6794,18 +7813,21 @@
         <v>1.1269</v>
       </c>
       <c r="G180" t="n">
+        <v>987.1333333333333</v>
+      </c>
+      <c r="H180" t="n">
         <v>999.25</v>
       </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
       <c r="I180" t="n">
         <v>0</v>
       </c>
-      <c r="J180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>0</v>
+      </c>
       <c r="K180" t="inlineStr"/>
       <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
+      <c r="M180" t="inlineStr"/>
+      <c r="N180" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6829,18 +7851,21 @@
         <v>9.452999999999999</v>
       </c>
       <c r="G181" t="n">
+        <v>988.4666666666667</v>
+      </c>
+      <c r="H181" t="n">
         <v>999.2333333333333</v>
       </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
       <c r="I181" t="n">
         <v>0</v>
       </c>
-      <c r="J181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>0</v>
+      </c>
       <c r="K181" t="inlineStr"/>
       <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
+      <c r="M181" t="inlineStr"/>
+      <c r="N181" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6864,18 +7889,21 @@
         <v>203.5293</v>
       </c>
       <c r="G182" t="n">
+        <v>989.3333333333334</v>
+      </c>
+      <c r="H182" t="n">
         <v>999.1166666666667</v>
       </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
       <c r="I182" t="n">
         <v>0</v>
       </c>
-      <c r="J182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>0</v>
+      </c>
       <c r="K182" t="inlineStr"/>
       <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
+      <c r="M182" t="inlineStr"/>
+      <c r="N182" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6899,18 +7927,21 @@
         <v>34.3268</v>
       </c>
       <c r="G183" t="n">
+        <v>989.9333333333333</v>
+      </c>
+      <c r="H183" t="n">
         <v>998.75</v>
       </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
       <c r="I183" t="n">
         <v>0</v>
       </c>
-      <c r="J183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>0</v>
+      </c>
       <c r="K183" t="inlineStr"/>
       <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
+      <c r="M183" t="inlineStr"/>
+      <c r="N183" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6934,18 +7965,21 @@
         <v>24.5353</v>
       </c>
       <c r="G184" t="n">
+        <v>990.9333333333333</v>
+      </c>
+      <c r="H184" t="n">
         <v>998.5666666666667</v>
       </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
       <c r="I184" t="n">
         <v>0</v>
       </c>
-      <c r="J184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>0</v>
+      </c>
       <c r="K184" t="inlineStr"/>
       <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
+      <c r="M184" t="inlineStr"/>
+      <c r="N184" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6969,18 +8003,21 @@
         <v>977.1826</v>
       </c>
       <c r="G185" t="n">
+        <v>991.5333333333333</v>
+      </c>
+      <c r="H185" t="n">
         <v>998.3166666666667</v>
       </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
       <c r="I185" t="n">
         <v>0</v>
       </c>
-      <c r="J185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>0</v>
+      </c>
       <c r="K185" t="inlineStr"/>
       <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
+      <c r="M185" t="inlineStr"/>
+      <c r="N185" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7004,18 +8041,21 @@
         <v>3.009027081243731</v>
       </c>
       <c r="G186" t="n">
+        <v>992.0666666666667</v>
+      </c>
+      <c r="H186" t="n">
         <v>998.05</v>
       </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
       <c r="I186" t="n">
         <v>0</v>
       </c>
-      <c r="J186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>0</v>
+      </c>
       <c r="K186" t="inlineStr"/>
       <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
+      <c r="M186" t="inlineStr"/>
+      <c r="N186" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7039,18 +8079,21 @@
         <v>102.7338</v>
       </c>
       <c r="G187" t="n">
+        <v>992.6</v>
+      </c>
+      <c r="H187" t="n">
         <v>997.7333333333333</v>
       </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
       <c r="I187" t="n">
         <v>0</v>
       </c>
-      <c r="J187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>0</v>
+      </c>
       <c r="K187" t="inlineStr"/>
       <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
+      <c r="M187" t="inlineStr"/>
+      <c r="N187" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7074,18 +8117,21 @@
         <v>81.66200000000001</v>
       </c>
       <c r="G188" t="n">
+        <v>993.1333333333333</v>
+      </c>
+      <c r="H188" t="n">
         <v>997.4333333333333</v>
       </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
       <c r="I188" t="n">
         <v>0</v>
       </c>
-      <c r="J188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>0</v>
+      </c>
       <c r="K188" t="inlineStr"/>
       <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
+      <c r="M188" t="inlineStr"/>
+      <c r="N188" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7109,18 +8155,21 @@
         <v>957.9708000000001</v>
       </c>
       <c r="G189" t="n">
+        <v>993.6</v>
+      </c>
+      <c r="H189" t="n">
         <v>997.0833333333334</v>
       </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
       <c r="I189" t="n">
         <v>0</v>
       </c>
-      <c r="J189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>0</v>
+      </c>
       <c r="K189" t="inlineStr"/>
       <c r="L189" t="inlineStr"/>
-      <c r="M189" t="n">
+      <c r="M189" t="inlineStr"/>
+      <c r="N189" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7144,18 +8193,21 @@
         <v>624.1859729187563</v>
       </c>
       <c r="G190" t="n">
+        <v>994.1333333333333</v>
+      </c>
+      <c r="H190" t="n">
         <v>996.85</v>
       </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
       <c r="I190" t="n">
         <v>0</v>
       </c>
-      <c r="J190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>0</v>
+      </c>
       <c r="K190" t="inlineStr"/>
       <c r="L190" t="inlineStr"/>
-      <c r="M190" t="n">
+      <c r="M190" t="inlineStr"/>
+      <c r="N190" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7179,18 +8231,21 @@
         <v>48.493</v>
       </c>
       <c r="G191" t="n">
+        <v>994.8</v>
+      </c>
+      <c r="H191" t="n">
         <v>996.5</v>
       </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
       <c r="I191" t="n">
         <v>0</v>
       </c>
-      <c r="J191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>0</v>
+      </c>
       <c r="K191" t="inlineStr"/>
       <c r="L191" t="inlineStr"/>
-      <c r="M191" t="n">
+      <c r="M191" t="inlineStr"/>
+      <c r="N191" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7214,18 +8269,21 @@
         <v>6.4</v>
       </c>
       <c r="G192" t="n">
+        <v>995.5333333333333</v>
+      </c>
+      <c r="H192" t="n">
         <v>996.1666666666666</v>
       </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
       <c r="I192" t="n">
         <v>0</v>
       </c>
-      <c r="J192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>0</v>
+      </c>
       <c r="K192" t="inlineStr"/>
       <c r="L192" t="inlineStr"/>
-      <c r="M192" t="n">
+      <c r="M192" t="inlineStr"/>
+      <c r="N192" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7249,18 +8307,21 @@
         <v>387.6174</v>
       </c>
       <c r="G193" t="n">
+        <v>996</v>
+      </c>
+      <c r="H193" t="n">
         <v>995.8333333333334</v>
       </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
       <c r="I193" t="n">
         <v>0</v>
       </c>
-      <c r="J193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>0</v>
+      </c>
       <c r="K193" t="inlineStr"/>
       <c r="L193" t="inlineStr"/>
-      <c r="M193" t="n">
+      <c r="M193" t="inlineStr"/>
+      <c r="N193" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7284,18 +8345,21 @@
         <v>168.1422</v>
       </c>
       <c r="G194" t="n">
+        <v>996.4666666666667</v>
+      </c>
+      <c r="H194" t="n">
         <v>995.4833333333333</v>
       </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
       <c r="I194" t="n">
         <v>0</v>
       </c>
-      <c r="J194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>0</v>
+      </c>
       <c r="K194" t="inlineStr"/>
       <c r="L194" t="inlineStr"/>
-      <c r="M194" t="n">
+      <c r="M194" t="inlineStr"/>
+      <c r="N194" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7319,18 +8383,21 @@
         <v>343.1122</v>
       </c>
       <c r="G195" t="n">
+        <v>997.3333333333334</v>
+      </c>
+      <c r="H195" t="n">
         <v>995.25</v>
       </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
       <c r="I195" t="n">
         <v>0</v>
       </c>
-      <c r="J195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>0</v>
+      </c>
       <c r="K195" t="inlineStr"/>
       <c r="L195" t="inlineStr"/>
-      <c r="M195" t="n">
+      <c r="M195" t="inlineStr"/>
+      <c r="N195" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7354,18 +8421,21 @@
         <v>559.123</v>
       </c>
       <c r="G196" t="n">
+        <v>997.4666666666667</v>
+      </c>
+      <c r="H196" t="n">
         <v>994.9166666666666</v>
       </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
       <c r="I196" t="n">
         <v>0</v>
       </c>
-      <c r="J196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>0</v>
+      </c>
       <c r="K196" t="inlineStr"/>
       <c r="L196" t="inlineStr"/>
-      <c r="M196" t="n">
+      <c r="M196" t="inlineStr"/>
+      <c r="N196" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7389,18 +8459,21 @@
         <v>0.2323</v>
       </c>
       <c r="G197" t="n">
+        <v>998.0666666666667</v>
+      </c>
+      <c r="H197" t="n">
         <v>994.55</v>
       </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
       <c r="I197" t="n">
         <v>0</v>
       </c>
-      <c r="J197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>0</v>
+      </c>
       <c r="K197" t="inlineStr"/>
       <c r="L197" t="inlineStr"/>
-      <c r="M197" t="n">
+      <c r="M197" t="inlineStr"/>
+      <c r="N197" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7424,18 +8497,21 @@
         <v>1143.5129</v>
       </c>
       <c r="G198" t="n">
+        <v>999.1333333333333</v>
+      </c>
+      <c r="H198" t="n">
         <v>994.2666666666667</v>
       </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
       <c r="I198" t="n">
         <v>0</v>
       </c>
-      <c r="J198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>0</v>
+      </c>
       <c r="K198" t="inlineStr"/>
       <c r="L198" t="inlineStr"/>
-      <c r="M198" t="n">
+      <c r="M198" t="inlineStr"/>
+      <c r="N198" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7459,18 +8535,21 @@
         <v>889.8982999999999</v>
       </c>
       <c r="G199" t="n">
+        <v>1000.133333333333</v>
+      </c>
+      <c r="H199" t="n">
         <v>994.1333333333333</v>
       </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
       <c r="I199" t="n">
         <v>0</v>
       </c>
-      <c r="J199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>0</v>
+      </c>
       <c r="K199" t="inlineStr"/>
       <c r="L199" t="inlineStr"/>
-      <c r="M199" t="n">
+      <c r="M199" t="inlineStr"/>
+      <c r="N199" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7494,18 +8573,21 @@
         <v>3.3508</v>
       </c>
       <c r="G200" t="n">
+        <v>1000.933333333333</v>
+      </c>
+      <c r="H200" t="n">
         <v>994.05</v>
       </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
       <c r="I200" t="n">
         <v>0</v>
       </c>
-      <c r="J200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>0</v>
+      </c>
       <c r="K200" t="inlineStr"/>
       <c r="L200" t="inlineStr"/>
-      <c r="M200" t="n">
+      <c r="M200" t="inlineStr"/>
+      <c r="N200" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7529,18 +8611,21 @@
         <v>3.3258</v>
       </c>
       <c r="G201" t="n">
+        <v>1001.266666666667</v>
+      </c>
+      <c r="H201" t="n">
         <v>994</v>
       </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
       <c r="I201" t="n">
         <v>0</v>
       </c>
-      <c r="J201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>0</v>
+      </c>
       <c r="K201" t="inlineStr"/>
       <c r="L201" t="inlineStr"/>
-      <c r="M201" t="n">
+      <c r="M201" t="inlineStr"/>
+      <c r="N201" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7564,18 +8649,21 @@
         <v>22.9833</v>
       </c>
       <c r="G202" t="n">
+        <v>1002.133333333333</v>
+      </c>
+      <c r="H202" t="n">
         <v>994.0666666666667</v>
       </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
       <c r="I202" t="n">
         <v>0</v>
       </c>
-      <c r="J202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>0</v>
+      </c>
       <c r="K202" t="inlineStr"/>
       <c r="L202" t="inlineStr"/>
-      <c r="M202" t="n">
+      <c r="M202" t="inlineStr"/>
+      <c r="N202" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7599,18 +8687,21 @@
         <v>444.3502</v>
       </c>
       <c r="G203" t="n">
+        <v>1003.466666666667</v>
+      </c>
+      <c r="H203" t="n">
         <v>994.2</v>
       </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
       <c r="I203" t="n">
         <v>0</v>
       </c>
-      <c r="J203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>0</v>
+      </c>
       <c r="K203" t="inlineStr"/>
       <c r="L203" t="inlineStr"/>
-      <c r="M203" t="n">
+      <c r="M203" t="inlineStr"/>
+      <c r="N203" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7634,18 +8725,21 @@
         <v>21.3978</v>
       </c>
       <c r="G204" t="n">
+        <v>1004.8</v>
+      </c>
+      <c r="H204" t="n">
         <v>994.25</v>
       </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
       <c r="I204" t="n">
         <v>0</v>
       </c>
-      <c r="J204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>0</v>
+      </c>
       <c r="K204" t="inlineStr"/>
       <c r="L204" t="inlineStr"/>
-      <c r="M204" t="n">
+      <c r="M204" t="inlineStr"/>
+      <c r="N204" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7669,18 +8763,21 @@
         <v>38</v>
       </c>
       <c r="G205" t="n">
+        <v>1006.133333333333</v>
+      </c>
+      <c r="H205" t="n">
         <v>994.4</v>
       </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
       <c r="I205" t="n">
         <v>0</v>
       </c>
-      <c r="J205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>0</v>
+      </c>
       <c r="K205" t="inlineStr"/>
       <c r="L205" t="inlineStr"/>
-      <c r="M205" t="n">
+      <c r="M205" t="inlineStr"/>
+      <c r="N205" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7704,18 +8801,21 @@
         <v>12</v>
       </c>
       <c r="G206" t="n">
+        <v>1007.4</v>
+      </c>
+      <c r="H206" t="n">
         <v>994.5833333333334</v>
       </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
       <c r="I206" t="n">
         <v>0</v>
       </c>
-      <c r="J206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>0</v>
+      </c>
       <c r="K206" t="inlineStr"/>
       <c r="L206" t="inlineStr"/>
-      <c r="M206" t="n">
+      <c r="M206" t="inlineStr"/>
+      <c r="N206" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7739,18 +8839,21 @@
         <v>209.8</v>
       </c>
       <c r="G207" t="n">
+        <v>1008.6</v>
+      </c>
+      <c r="H207" t="n">
         <v>994.6666666666666</v>
       </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
       <c r="I207" t="n">
         <v>0</v>
       </c>
-      <c r="J207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>0</v>
+      </c>
       <c r="K207" t="inlineStr"/>
       <c r="L207" t="inlineStr"/>
-      <c r="M207" t="n">
+      <c r="M207" t="inlineStr"/>
+      <c r="N207" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7774,18 +8877,21 @@
         <v>34.9331</v>
       </c>
       <c r="G208" t="n">
+        <v>1010</v>
+      </c>
+      <c r="H208" t="n">
         <v>995</v>
       </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
       <c r="I208" t="n">
         <v>0</v>
       </c>
-      <c r="J208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>0</v>
+      </c>
       <c r="K208" t="inlineStr"/>
       <c r="L208" t="inlineStr"/>
-      <c r="M208" t="n">
+      <c r="M208" t="inlineStr"/>
+      <c r="N208" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7809,18 +8915,21 @@
         <v>160.1147</v>
       </c>
       <c r="G209" t="n">
+        <v>1011.4</v>
+      </c>
+      <c r="H209" t="n">
         <v>995.2833333333333</v>
       </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
       <c r="I209" t="n">
         <v>0</v>
       </c>
-      <c r="J209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>0</v>
+      </c>
       <c r="K209" t="inlineStr"/>
       <c r="L209" t="inlineStr"/>
-      <c r="M209" t="n">
+      <c r="M209" t="inlineStr"/>
+      <c r="N209" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7844,18 +8953,21 @@
         <v>619.6</v>
       </c>
       <c r="G210" t="n">
+        <v>1012.533333333333</v>
+      </c>
+      <c r="H210" t="n">
         <v>995.6666666666666</v>
       </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
       <c r="I210" t="n">
         <v>0</v>
       </c>
-      <c r="J210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>0</v>
+      </c>
       <c r="K210" t="inlineStr"/>
       <c r="L210" t="inlineStr"/>
-      <c r="M210" t="n">
+      <c r="M210" t="inlineStr"/>
+      <c r="N210" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7879,18 +8991,21 @@
         <v>100</v>
       </c>
       <c r="G211" t="n">
+        <v>1014.066666666667</v>
+      </c>
+      <c r="H211" t="n">
         <v>996.2166666666667</v>
       </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
       <c r="I211" t="n">
         <v>0</v>
       </c>
-      <c r="J211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>0</v>
+      </c>
       <c r="K211" t="inlineStr"/>
       <c r="L211" t="inlineStr"/>
-      <c r="M211" t="n">
+      <c r="M211" t="inlineStr"/>
+      <c r="N211" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7914,18 +9029,21 @@
         <v>125.8584</v>
       </c>
       <c r="G212" t="n">
+        <v>1015.4</v>
+      </c>
+      <c r="H212" t="n">
         <v>996.75</v>
       </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
       <c r="I212" t="n">
         <v>0</v>
       </c>
-      <c r="J212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>0</v>
+      </c>
       <c r="K212" t="inlineStr"/>
       <c r="L212" t="inlineStr"/>
-      <c r="M212" t="n">
+      <c r="M212" t="inlineStr"/>
+      <c r="N212" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7949,18 +9067,21 @@
         <v>489.7183</v>
       </c>
       <c r="G213" t="n">
+        <v>1016.466666666667</v>
+      </c>
+      <c r="H213" t="n">
         <v>997.2833333333333</v>
       </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
       <c r="I213" t="n">
         <v>0</v>
       </c>
-      <c r="J213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>0</v>
+      </c>
       <c r="K213" t="inlineStr"/>
       <c r="L213" t="inlineStr"/>
-      <c r="M213" t="n">
+      <c r="M213" t="inlineStr"/>
+      <c r="N213" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7984,18 +9105,21 @@
         <v>525.3864</v>
       </c>
       <c r="G214" t="n">
+        <v>1017.133333333333</v>
+      </c>
+      <c r="H214" t="n">
         <v>997.8</v>
       </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
       <c r="I214" t="n">
         <v>0</v>
       </c>
-      <c r="J214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>0</v>
+      </c>
       <c r="K214" t="inlineStr"/>
       <c r="L214" t="inlineStr"/>
-      <c r="M214" t="n">
+      <c r="M214" t="inlineStr"/>
+      <c r="N214" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8019,18 +9143,21 @@
         <v>277.2952</v>
       </c>
       <c r="G215" t="n">
+        <v>1017.666666666667</v>
+      </c>
+      <c r="H215" t="n">
         <v>998.3333333333334</v>
       </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
       <c r="I215" t="n">
         <v>0</v>
       </c>
-      <c r="J215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>0</v>
+      </c>
       <c r="K215" t="inlineStr"/>
       <c r="L215" t="inlineStr"/>
-      <c r="M215" t="n">
+      <c r="M215" t="inlineStr"/>
+      <c r="N215" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8054,18 +9181,21 @@
         <v>6.3112</v>
       </c>
       <c r="G216" t="n">
+        <v>1018.666666666667</v>
+      </c>
+      <c r="H216" t="n">
         <v>998.8166666666667</v>
       </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
       <c r="I216" t="n">
         <v>0</v>
       </c>
-      <c r="J216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>0</v>
+      </c>
       <c r="K216" t="inlineStr"/>
       <c r="L216" t="inlineStr"/>
-      <c r="M216" t="n">
+      <c r="M216" t="inlineStr"/>
+      <c r="N216" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8089,18 +9219,21 @@
         <v>16.7612</v>
       </c>
       <c r="G217" t="n">
+        <v>1019.133333333333</v>
+      </c>
+      <c r="H217" t="n">
         <v>999.25</v>
       </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
       <c r="I217" t="n">
         <v>0</v>
       </c>
-      <c r="J217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>0</v>
+      </c>
       <c r="K217" t="inlineStr"/>
       <c r="L217" t="inlineStr"/>
-      <c r="M217" t="n">
+      <c r="M217" t="inlineStr"/>
+      <c r="N217" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8124,18 +9257,21 @@
         <v>277.4872</v>
       </c>
       <c r="G218" t="n">
+        <v>1019.066666666667</v>
+      </c>
+      <c r="H218" t="n">
         <v>999.8666666666667</v>
       </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
       <c r="I218" t="n">
         <v>0</v>
       </c>
-      <c r="J218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>0</v>
+      </c>
       <c r="K218" t="inlineStr"/>
       <c r="L218" t="inlineStr"/>
-      <c r="M218" t="n">
+      <c r="M218" t="inlineStr"/>
+      <c r="N218" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8159,18 +9295,21 @@
         <v>49.5284</v>
       </c>
       <c r="G219" t="n">
+        <v>1018.733333333333</v>
+      </c>
+      <c r="H219" t="n">
         <v>1000.3</v>
       </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
       <c r="I219" t="n">
         <v>0</v>
       </c>
-      <c r="J219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>0</v>
+      </c>
       <c r="K219" t="inlineStr"/>
       <c r="L219" t="inlineStr"/>
-      <c r="M219" t="n">
+      <c r="M219" t="inlineStr"/>
+      <c r="N219" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8194,18 +9333,21 @@
         <v>58.384</v>
       </c>
       <c r="G220" t="n">
+        <v>1018.333333333333</v>
+      </c>
+      <c r="H220" t="n">
         <v>1000.733333333333</v>
       </c>
-      <c r="H220" t="n">
-        <v>0</v>
-      </c>
       <c r="I220" t="n">
         <v>0</v>
       </c>
-      <c r="J220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>0</v>
+      </c>
       <c r="K220" t="inlineStr"/>
       <c r="L220" t="inlineStr"/>
-      <c r="M220" t="n">
+      <c r="M220" t="inlineStr"/>
+      <c r="N220" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8229,18 +9371,21 @@
         <v>2224.7175</v>
       </c>
       <c r="G221" t="n">
+        <v>1018.066666666667</v>
+      </c>
+      <c r="H221" t="n">
         <v>1001.216666666667</v>
       </c>
-      <c r="H221" t="n">
-        <v>0</v>
-      </c>
       <c r="I221" t="n">
         <v>0</v>
       </c>
-      <c r="J221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>0</v>
+      </c>
       <c r="K221" t="inlineStr"/>
       <c r="L221" t="inlineStr"/>
-      <c r="M221" t="n">
+      <c r="M221" t="inlineStr"/>
+      <c r="N221" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8264,18 +9409,21 @@
         <v>253.4871</v>
       </c>
       <c r="G222" t="n">
+        <v>1017.533333333333</v>
+      </c>
+      <c r="H222" t="n">
         <v>1001.633333333333</v>
       </c>
-      <c r="H222" t="n">
-        <v>0</v>
-      </c>
       <c r="I222" t="n">
         <v>0</v>
       </c>
-      <c r="J222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>0</v>
+      </c>
       <c r="K222" t="inlineStr"/>
       <c r="L222" t="inlineStr"/>
-      <c r="M222" t="n">
+      <c r="M222" t="inlineStr"/>
+      <c r="N222" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8299,18 +9447,21 @@
         <v>128.5564</v>
       </c>
       <c r="G223" t="n">
+        <v>1016.733333333333</v>
+      </c>
+      <c r="H223" t="n">
         <v>1002.066666666667</v>
       </c>
-      <c r="H223" t="n">
-        <v>0</v>
-      </c>
       <c r="I223" t="n">
         <v>0</v>
       </c>
-      <c r="J223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>0</v>
+      </c>
       <c r="K223" t="inlineStr"/>
       <c r="L223" t="inlineStr"/>
-      <c r="M223" t="n">
+      <c r="M223" t="inlineStr"/>
+      <c r="N223" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8334,18 +9485,21 @@
         <v>1.3</v>
       </c>
       <c r="G224" t="n">
+        <v>1016.133333333333</v>
+      </c>
+      <c r="H224" t="n">
         <v>1002.55</v>
       </c>
-      <c r="H224" t="n">
-        <v>0</v>
-      </c>
       <c r="I224" t="n">
         <v>0</v>
       </c>
-      <c r="J224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>0</v>
+      </c>
       <c r="K224" t="inlineStr"/>
       <c r="L224" t="inlineStr"/>
-      <c r="M224" t="n">
+      <c r="M224" t="inlineStr"/>
+      <c r="N224" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8369,18 +9523,21 @@
         <v>2200</v>
       </c>
       <c r="G225" t="n">
+        <v>1014.6</v>
+      </c>
+      <c r="H225" t="n">
         <v>1002.9</v>
       </c>
-      <c r="H225" t="n">
-        <v>0</v>
-      </c>
       <c r="I225" t="n">
         <v>0</v>
       </c>
-      <c r="J225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>0</v>
+      </c>
       <c r="K225" t="inlineStr"/>
       <c r="L225" t="inlineStr"/>
-      <c r="M225" t="n">
+      <c r="M225" t="inlineStr"/>
+      <c r="N225" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8404,18 +9561,21 @@
         <v>432.1141</v>
       </c>
       <c r="G226" t="n">
+        <v>1013.4</v>
+      </c>
+      <c r="H226" t="n">
         <v>1003.35</v>
       </c>
-      <c r="H226" t="n">
-        <v>0</v>
-      </c>
       <c r="I226" t="n">
         <v>0</v>
       </c>
-      <c r="J226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>0</v>
+      </c>
       <c r="K226" t="inlineStr"/>
       <c r="L226" t="inlineStr"/>
-      <c r="M226" t="n">
+      <c r="M226" t="inlineStr"/>
+      <c r="N226" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8439,18 +9599,21 @@
         <v>8.462999999999999</v>
       </c>
       <c r="G227" t="n">
+        <v>1012.2</v>
+      </c>
+      <c r="H227" t="n">
         <v>1003.75</v>
       </c>
-      <c r="H227" t="n">
-        <v>0</v>
-      </c>
       <c r="I227" t="n">
         <v>0</v>
       </c>
-      <c r="J227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>0</v>
+      </c>
       <c r="K227" t="inlineStr"/>
       <c r="L227" t="inlineStr"/>
-      <c r="M227" t="n">
+      <c r="M227" t="inlineStr"/>
+      <c r="N227" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8474,18 +9637,21 @@
         <v>1076.5335</v>
       </c>
       <c r="G228" t="n">
+        <v>1010.266666666667</v>
+      </c>
+      <c r="H228" t="n">
         <v>1003.95</v>
       </c>
-      <c r="H228" t="n">
-        <v>0</v>
-      </c>
       <c r="I228" t="n">
         <v>0</v>
       </c>
-      <c r="J228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>0</v>
+      </c>
       <c r="K228" t="inlineStr"/>
       <c r="L228" t="inlineStr"/>
-      <c r="M228" t="n">
+      <c r="M228" t="inlineStr"/>
+      <c r="N228" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8509,18 +9675,21 @@
         <v>350</v>
       </c>
       <c r="G229" t="n">
+        <v>1008.8</v>
+      </c>
+      <c r="H229" t="n">
         <v>1004.25</v>
       </c>
-      <c r="H229" t="n">
-        <v>0</v>
-      </c>
       <c r="I229" t="n">
         <v>0</v>
       </c>
-      <c r="J229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>0</v>
+      </c>
       <c r="K229" t="inlineStr"/>
       <c r="L229" t="inlineStr"/>
-      <c r="M229" t="n">
+      <c r="M229" t="inlineStr"/>
+      <c r="N229" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8544,18 +9713,21 @@
         <v>1</v>
       </c>
       <c r="G230" t="n">
+        <v>1007.8</v>
+      </c>
+      <c r="H230" t="n">
         <v>1004.483333333333</v>
       </c>
-      <c r="H230" t="n">
-        <v>0</v>
-      </c>
       <c r="I230" t="n">
         <v>0</v>
       </c>
-      <c r="J230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>0</v>
+      </c>
       <c r="K230" t="inlineStr"/>
       <c r="L230" t="inlineStr"/>
-      <c r="M230" t="n">
+      <c r="M230" t="inlineStr"/>
+      <c r="N230" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8579,18 +9751,21 @@
         <v>7.8683</v>
       </c>
       <c r="G231" t="n">
+        <v>1006.8</v>
+      </c>
+      <c r="H231" t="n">
         <v>1004.7</v>
       </c>
-      <c r="H231" t="n">
-        <v>0</v>
-      </c>
       <c r="I231" t="n">
         <v>0</v>
       </c>
-      <c r="J231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>0</v>
+      </c>
       <c r="K231" t="inlineStr"/>
       <c r="L231" t="inlineStr"/>
-      <c r="M231" t="n">
+      <c r="M231" t="inlineStr"/>
+      <c r="N231" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8614,18 +9789,21 @@
         <v>1.4921</v>
       </c>
       <c r="G232" t="n">
+        <v>1005.866666666667</v>
+      </c>
+      <c r="H232" t="n">
         <v>1004.933333333333</v>
       </c>
-      <c r="H232" t="n">
-        <v>0</v>
-      </c>
       <c r="I232" t="n">
         <v>0</v>
       </c>
-      <c r="J232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>0</v>
+      </c>
       <c r="K232" t="inlineStr"/>
       <c r="L232" t="inlineStr"/>
-      <c r="M232" t="n">
+      <c r="M232" t="inlineStr"/>
+      <c r="N232" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8649,18 +9827,21 @@
         <v>100</v>
       </c>
       <c r="G233" t="n">
+        <v>1004.8</v>
+      </c>
+      <c r="H233" t="n">
         <v>1005.116666666667</v>
       </c>
-      <c r="H233" t="n">
-        <v>0</v>
-      </c>
       <c r="I233" t="n">
         <v>0</v>
       </c>
-      <c r="J233" t="inlineStr"/>
+      <c r="J233" t="n">
+        <v>0</v>
+      </c>
       <c r="K233" t="inlineStr"/>
       <c r="L233" t="inlineStr"/>
-      <c r="M233" t="n">
+      <c r="M233" t="inlineStr"/>
+      <c r="N233" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8684,18 +9865,21 @@
         <v>5.5495</v>
       </c>
       <c r="G234" t="n">
+        <v>1003.933333333333</v>
+      </c>
+      <c r="H234" t="n">
         <v>1005.266666666667</v>
       </c>
-      <c r="H234" t="n">
-        <v>0</v>
-      </c>
       <c r="I234" t="n">
         <v>0</v>
       </c>
-      <c r="J234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>0</v>
+      </c>
       <c r="K234" t="inlineStr"/>
       <c r="L234" t="inlineStr"/>
-      <c r="M234" t="n">
+      <c r="M234" t="inlineStr"/>
+      <c r="N234" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8719,18 +9903,21 @@
         <v>11.843</v>
       </c>
       <c r="G235" t="n">
+        <v>1003.466666666667</v>
+      </c>
+      <c r="H235" t="n">
         <v>1005.516666666667</v>
       </c>
-      <c r="H235" t="n">
-        <v>0</v>
-      </c>
       <c r="I235" t="n">
         <v>0</v>
       </c>
-      <c r="J235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>0</v>
+      </c>
       <c r="K235" t="inlineStr"/>
       <c r="L235" t="inlineStr"/>
-      <c r="M235" t="n">
+      <c r="M235" t="inlineStr"/>
+      <c r="N235" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8754,18 +9941,21 @@
         <v>14.3728</v>
       </c>
       <c r="G236" t="n">
+        <v>1002.866666666667</v>
+      </c>
+      <c r="H236" t="n">
         <v>1005.783333333333</v>
       </c>
-      <c r="H236" t="n">
-        <v>0</v>
-      </c>
       <c r="I236" t="n">
         <v>0</v>
       </c>
-      <c r="J236" t="inlineStr"/>
+      <c r="J236" t="n">
+        <v>0</v>
+      </c>
       <c r="K236" t="inlineStr"/>
       <c r="L236" t="inlineStr"/>
-      <c r="M236" t="n">
+      <c r="M236" t="inlineStr"/>
+      <c r="N236" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8789,18 +9979,21 @@
         <v>406.1599</v>
       </c>
       <c r="G237" t="n">
+        <v>1002.6</v>
+      </c>
+      <c r="H237" t="n">
         <v>1006.066666666667</v>
       </c>
-      <c r="H237" t="n">
-        <v>0</v>
-      </c>
       <c r="I237" t="n">
         <v>0</v>
       </c>
-      <c r="J237" t="inlineStr"/>
+      <c r="J237" t="n">
+        <v>0</v>
+      </c>
       <c r="K237" t="inlineStr"/>
       <c r="L237" t="inlineStr"/>
-      <c r="M237" t="n">
+      <c r="M237" t="inlineStr"/>
+      <c r="N237" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8824,18 +10017,21 @@
         <v>13.9232</v>
       </c>
       <c r="G238" t="n">
+        <v>1002.666666666667</v>
+      </c>
+      <c r="H238" t="n">
         <v>1006.35</v>
       </c>
-      <c r="H238" t="n">
-        <v>0</v>
-      </c>
       <c r="I238" t="n">
         <v>0</v>
       </c>
-      <c r="J238" t="inlineStr"/>
+      <c r="J238" t="n">
+        <v>0</v>
+      </c>
       <c r="K238" t="inlineStr"/>
       <c r="L238" t="inlineStr"/>
-      <c r="M238" t="n">
+      <c r="M238" t="inlineStr"/>
+      <c r="N238" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8859,18 +10055,21 @@
         <v>2.8287</v>
       </c>
       <c r="G239" t="n">
+        <v>1002.6</v>
+      </c>
+      <c r="H239" t="n">
         <v>1006.65</v>
       </c>
-      <c r="H239" t="n">
-        <v>0</v>
-      </c>
       <c r="I239" t="n">
         <v>0</v>
       </c>
-      <c r="J239" t="inlineStr"/>
+      <c r="J239" t="n">
+        <v>0</v>
+      </c>
       <c r="K239" t="inlineStr"/>
       <c r="L239" t="inlineStr"/>
-      <c r="M239" t="n">
+      <c r="M239" t="inlineStr"/>
+      <c r="N239" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8894,18 +10093,21 @@
         <v>17.1115</v>
       </c>
       <c r="G240" t="n">
+        <v>1003.333333333333</v>
+      </c>
+      <c r="H240" t="n">
         <v>1006.95</v>
       </c>
-      <c r="H240" t="n">
-        <v>0</v>
-      </c>
       <c r="I240" t="n">
         <v>0</v>
       </c>
-      <c r="J240" t="inlineStr"/>
+      <c r="J240" t="n">
+        <v>0</v>
+      </c>
       <c r="K240" t="inlineStr"/>
       <c r="L240" t="inlineStr"/>
-      <c r="M240" t="n">
+      <c r="M240" t="inlineStr"/>
+      <c r="N240" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8929,18 +10131,21 @@
         <v>31.5092</v>
       </c>
       <c r="G241" t="n">
+        <v>1003.6</v>
+      </c>
+      <c r="H241" t="n">
         <v>1007.133333333333</v>
       </c>
-      <c r="H241" t="n">
-        <v>0</v>
-      </c>
       <c r="I241" t="n">
         <v>0</v>
       </c>
-      <c r="J241" t="inlineStr"/>
+      <c r="J241" t="n">
+        <v>0</v>
+      </c>
       <c r="K241" t="inlineStr"/>
       <c r="L241" t="inlineStr"/>
-      <c r="M241" t="n">
+      <c r="M241" t="inlineStr"/>
+      <c r="N241" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8964,18 +10169,21 @@
         <v>10.3272</v>
       </c>
       <c r="G242" t="n">
+        <v>1004.133333333333</v>
+      </c>
+      <c r="H242" t="n">
         <v>1007.45</v>
       </c>
-      <c r="H242" t="n">
-        <v>0</v>
-      </c>
       <c r="I242" t="n">
         <v>0</v>
       </c>
-      <c r="J242" t="inlineStr"/>
+      <c r="J242" t="n">
+        <v>0</v>
+      </c>
       <c r="K242" t="inlineStr"/>
       <c r="L242" t="inlineStr"/>
-      <c r="M242" t="n">
+      <c r="M242" t="inlineStr"/>
+      <c r="N242" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8999,18 +10207,21 @@
         <v>81.626</v>
       </c>
       <c r="G243" t="n">
+        <v>1005.333333333333</v>
+      </c>
+      <c r="H243" t="n">
         <v>1007.8</v>
       </c>
-      <c r="H243" t="n">
-        <v>0</v>
-      </c>
       <c r="I243" t="n">
         <v>0</v>
       </c>
-      <c r="J243" t="inlineStr"/>
+      <c r="J243" t="n">
+        <v>0</v>
+      </c>
       <c r="K243" t="inlineStr"/>
       <c r="L243" t="inlineStr"/>
-      <c r="M243" t="n">
+      <c r="M243" t="inlineStr"/>
+      <c r="N243" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9034,18 +10245,21 @@
         <v>0.8837</v>
       </c>
       <c r="G244" t="n">
+        <v>1006.2</v>
+      </c>
+      <c r="H244" t="n">
         <v>1008.066666666667</v>
       </c>
-      <c r="H244" t="n">
-        <v>0</v>
-      </c>
       <c r="I244" t="n">
         <v>0</v>
       </c>
-      <c r="J244" t="inlineStr"/>
+      <c r="J244" t="n">
+        <v>0</v>
+      </c>
       <c r="K244" t="inlineStr"/>
       <c r="L244" t="inlineStr"/>
-      <c r="M244" t="n">
+      <c r="M244" t="inlineStr"/>
+      <c r="N244" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9069,18 +10283,21 @@
         <v>901.0366</v>
       </c>
       <c r="G245" t="n">
+        <v>1006.2</v>
+      </c>
+      <c r="H245" t="n">
         <v>1008.15</v>
       </c>
-      <c r="H245" t="n">
-        <v>0</v>
-      </c>
       <c r="I245" t="n">
         <v>0</v>
       </c>
-      <c r="J245" t="inlineStr"/>
+      <c r="J245" t="n">
+        <v>0</v>
+      </c>
       <c r="K245" t="inlineStr"/>
       <c r="L245" t="inlineStr"/>
-      <c r="M245" t="n">
+      <c r="M245" t="inlineStr"/>
+      <c r="N245" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9104,18 +10321,21 @@
         <v>29.2664</v>
       </c>
       <c r="G246" t="n">
+        <v>1006.733333333333</v>
+      </c>
+      <c r="H246" t="n">
         <v>1008.366666666667</v>
       </c>
-      <c r="H246" t="n">
-        <v>0</v>
-      </c>
       <c r="I246" t="n">
         <v>0</v>
       </c>
-      <c r="J246" t="inlineStr"/>
+      <c r="J246" t="n">
+        <v>0</v>
+      </c>
       <c r="K246" t="inlineStr"/>
       <c r="L246" t="inlineStr"/>
-      <c r="M246" t="n">
+      <c r="M246" t="inlineStr"/>
+      <c r="N246" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9139,18 +10359,21 @@
         <v>5.5312</v>
       </c>
       <c r="G247" t="n">
+        <v>1007.266666666667</v>
+      </c>
+      <c r="H247" t="n">
         <v>1008.6</v>
       </c>
-      <c r="H247" t="n">
-        <v>0</v>
-      </c>
       <c r="I247" t="n">
         <v>0</v>
       </c>
-      <c r="J247" t="inlineStr"/>
+      <c r="J247" t="n">
+        <v>0</v>
+      </c>
       <c r="K247" t="inlineStr"/>
       <c r="L247" t="inlineStr"/>
-      <c r="M247" t="n">
+      <c r="M247" t="inlineStr"/>
+      <c r="N247" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9174,18 +10397,21 @@
         <v>28.0919</v>
       </c>
       <c r="G248" t="n">
+        <v>1007.866666666667</v>
+      </c>
+      <c r="H248" t="n">
         <v>1008.8</v>
       </c>
-      <c r="H248" t="n">
-        <v>0</v>
-      </c>
       <c r="I248" t="n">
         <v>0</v>
       </c>
-      <c r="J248" t="inlineStr"/>
+      <c r="J248" t="n">
+        <v>0</v>
+      </c>
       <c r="K248" t="inlineStr"/>
       <c r="L248" t="inlineStr"/>
-      <c r="M248" t="n">
+      <c r="M248" t="inlineStr"/>
+      <c r="N248" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9209,18 +10435,21 @@
         <v>4.4653</v>
       </c>
       <c r="G249" t="n">
+        <v>1008.066666666667</v>
+      </c>
+      <c r="H249" t="n">
         <v>1008.883333333333</v>
       </c>
-      <c r="H249" t="n">
-        <v>0</v>
-      </c>
       <c r="I249" t="n">
         <v>0</v>
       </c>
-      <c r="J249" t="inlineStr"/>
+      <c r="J249" t="n">
+        <v>0</v>
+      </c>
       <c r="K249" t="inlineStr"/>
       <c r="L249" t="inlineStr"/>
-      <c r="M249" t="n">
+      <c r="M249" t="inlineStr"/>
+      <c r="N249" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9244,18 +10473,21 @@
         <v>8</v>
       </c>
       <c r="G250" t="n">
+        <v>1007.733333333333</v>
+      </c>
+      <c r="H250" t="n">
         <v>1008.916666666667</v>
       </c>
-      <c r="H250" t="n">
-        <v>0</v>
-      </c>
       <c r="I250" t="n">
         <v>0</v>
       </c>
-      <c r="J250" t="inlineStr"/>
+      <c r="J250" t="n">
+        <v>0</v>
+      </c>
       <c r="K250" t="inlineStr"/>
       <c r="L250" t="inlineStr"/>
-      <c r="M250" t="n">
+      <c r="M250" t="inlineStr"/>
+      <c r="N250" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9279,18 +10511,21 @@
         <v>13.3713</v>
       </c>
       <c r="G251" t="n">
+        <v>1007.333333333333</v>
+      </c>
+      <c r="H251" t="n">
         <v>1008.916666666667</v>
       </c>
-      <c r="H251" t="n">
-        <v>0</v>
-      </c>
       <c r="I251" t="n">
         <v>0</v>
       </c>
-      <c r="J251" t="inlineStr"/>
+      <c r="J251" t="n">
+        <v>0</v>
+      </c>
       <c r="K251" t="inlineStr"/>
       <c r="L251" t="inlineStr"/>
-      <c r="M251" t="n">
+      <c r="M251" t="inlineStr"/>
+      <c r="N251" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9314,18 +10549,21 @@
         <v>19.4599</v>
       </c>
       <c r="G252" t="n">
+        <v>1006.866666666667</v>
+      </c>
+      <c r="H252" t="n">
         <v>1008.9</v>
       </c>
-      <c r="H252" t="n">
-        <v>0</v>
-      </c>
       <c r="I252" t="n">
         <v>0</v>
       </c>
-      <c r="J252" t="inlineStr"/>
+      <c r="J252" t="n">
+        <v>0</v>
+      </c>
       <c r="K252" t="inlineStr"/>
       <c r="L252" t="inlineStr"/>
-      <c r="M252" t="n">
+      <c r="M252" t="inlineStr"/>
+      <c r="N252" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9349,18 +10587,21 @@
         <v>1.021</v>
       </c>
       <c r="G253" t="n">
+        <v>1005.866666666667</v>
+      </c>
+      <c r="H253" t="n">
         <v>1008.816666666667</v>
       </c>
-      <c r="H253" t="n">
-        <v>0</v>
-      </c>
       <c r="I253" t="n">
         <v>0</v>
       </c>
-      <c r="J253" t="inlineStr"/>
+      <c r="J253" t="n">
+        <v>0</v>
+      </c>
       <c r="K253" t="inlineStr"/>
       <c r="L253" t="inlineStr"/>
-      <c r="M253" t="n">
+      <c r="M253" t="inlineStr"/>
+      <c r="N253" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9384,18 +10625,21 @@
         <v>502.7688</v>
       </c>
       <c r="G254" t="n">
+        <v>1005.066666666667</v>
+      </c>
+      <c r="H254" t="n">
         <v>1008.8</v>
       </c>
-      <c r="H254" t="n">
-        <v>0</v>
-      </c>
       <c r="I254" t="n">
         <v>0</v>
       </c>
-      <c r="J254" t="inlineStr"/>
+      <c r="J254" t="n">
+        <v>0</v>
+      </c>
       <c r="K254" t="inlineStr"/>
       <c r="L254" t="inlineStr"/>
-      <c r="M254" t="n">
+      <c r="M254" t="inlineStr"/>
+      <c r="N254" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9419,18 +10663,21 @@
         <v>607.2418</v>
       </c>
       <c r="G255" t="n">
+        <v>1003.733333333333</v>
+      </c>
+      <c r="H255" t="n">
         <v>1008.55</v>
       </c>
-      <c r="H255" t="n">
-        <v>0</v>
-      </c>
       <c r="I255" t="n">
         <v>0</v>
       </c>
-      <c r="J255" t="inlineStr"/>
+      <c r="J255" t="n">
+        <v>0</v>
+      </c>
       <c r="K255" t="inlineStr"/>
       <c r="L255" t="inlineStr"/>
-      <c r="M255" t="n">
+      <c r="M255" t="inlineStr"/>
+      <c r="N255" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9454,18 +10701,21 @@
         <v>892.0034000000001</v>
       </c>
       <c r="G256" t="n">
+        <v>1003.066666666667</v>
+      </c>
+      <c r="H256" t="n">
         <v>1008.533333333333</v>
       </c>
-      <c r="H256" t="n">
-        <v>0</v>
-      </c>
       <c r="I256" t="n">
         <v>0</v>
       </c>
-      <c r="J256" t="inlineStr"/>
+      <c r="J256" t="n">
+        <v>0</v>
+      </c>
       <c r="K256" t="inlineStr"/>
       <c r="L256" t="inlineStr"/>
-      <c r="M256" t="n">
+      <c r="M256" t="inlineStr"/>
+      <c r="N256" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9489,18 +10739,21 @@
         <v>1126.7362</v>
       </c>
       <c r="G257" t="n">
+        <v>1002.333333333333</v>
+      </c>
+      <c r="H257" t="n">
         <v>1008.516666666667</v>
       </c>
-      <c r="H257" t="n">
-        <v>0</v>
-      </c>
       <c r="I257" t="n">
         <v>0</v>
       </c>
-      <c r="J257" t="inlineStr"/>
+      <c r="J257" t="n">
+        <v>0</v>
+      </c>
       <c r="K257" t="inlineStr"/>
       <c r="L257" t="inlineStr"/>
-      <c r="M257" t="n">
+      <c r="M257" t="inlineStr"/>
+      <c r="N257" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9524,18 +10777,21 @@
         <v>500</v>
       </c>
       <c r="G258" t="n">
+        <v>1001.4</v>
+      </c>
+      <c r="H258" t="n">
         <v>1008.366666666667</v>
       </c>
-      <c r="H258" t="n">
-        <v>0</v>
-      </c>
       <c r="I258" t="n">
         <v>0</v>
       </c>
-      <c r="J258" t="inlineStr"/>
+      <c r="J258" t="n">
+        <v>0</v>
+      </c>
       <c r="K258" t="inlineStr"/>
       <c r="L258" t="inlineStr"/>
-      <c r="M258" t="n">
+      <c r="M258" t="inlineStr"/>
+      <c r="N258" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9559,18 +10815,21 @@
         <v>300</v>
       </c>
       <c r="G259" t="n">
+        <v>1000.466666666667</v>
+      </c>
+      <c r="H259" t="n">
         <v>1008.15</v>
       </c>
-      <c r="H259" t="n">
-        <v>0</v>
-      </c>
       <c r="I259" t="n">
         <v>0</v>
       </c>
-      <c r="J259" t="inlineStr"/>
+      <c r="J259" t="n">
+        <v>0</v>
+      </c>
       <c r="K259" t="inlineStr"/>
       <c r="L259" t="inlineStr"/>
-      <c r="M259" t="n">
+      <c r="M259" t="inlineStr"/>
+      <c r="N259" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9594,18 +10853,21 @@
         <v>1490.36</v>
       </c>
       <c r="G260" t="n">
+        <v>1000.133333333333</v>
+      </c>
+      <c r="H260" t="n">
         <v>1007.95</v>
       </c>
-      <c r="H260" t="n">
-        <v>0</v>
-      </c>
       <c r="I260" t="n">
         <v>0</v>
       </c>
-      <c r="J260" t="inlineStr"/>
+      <c r="J260" t="n">
+        <v>0</v>
+      </c>
       <c r="K260" t="inlineStr"/>
       <c r="L260" t="inlineStr"/>
-      <c r="M260" t="n">
+      <c r="M260" t="inlineStr"/>
+      <c r="N260" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9629,18 +10891,21 @@
         <v>9.8871</v>
       </c>
       <c r="G261" t="n">
+        <v>999.2666666666667</v>
+      </c>
+      <c r="H261" t="n">
         <v>1007.866666666667</v>
       </c>
-      <c r="H261" t="n">
-        <v>0</v>
-      </c>
       <c r="I261" t="n">
         <v>0</v>
       </c>
-      <c r="J261" t="inlineStr"/>
+      <c r="J261" t="n">
+        <v>0</v>
+      </c>
       <c r="K261" t="inlineStr"/>
       <c r="L261" t="inlineStr"/>
-      <c r="M261" t="n">
+      <c r="M261" t="inlineStr"/>
+      <c r="N261" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9664,18 +10929,21 @@
         <v>15.8994</v>
       </c>
       <c r="G262" t="n">
+        <v>998.1333333333333</v>
+      </c>
+      <c r="H262" t="n">
         <v>1007.6</v>
       </c>
-      <c r="H262" t="n">
-        <v>0</v>
-      </c>
       <c r="I262" t="n">
         <v>0</v>
       </c>
-      <c r="J262" t="inlineStr"/>
+      <c r="J262" t="n">
+        <v>0</v>
+      </c>
       <c r="K262" t="inlineStr"/>
       <c r="L262" t="inlineStr"/>
-      <c r="M262" t="n">
+      <c r="M262" t="inlineStr"/>
+      <c r="N262" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9699,18 +10967,21 @@
         <v>496.2501</v>
       </c>
       <c r="G263" t="n">
+        <v>997.3333333333334</v>
+      </c>
+      <c r="H263" t="n">
         <v>1007.266666666667</v>
       </c>
-      <c r="H263" t="n">
-        <v>0</v>
-      </c>
       <c r="I263" t="n">
         <v>0</v>
       </c>
-      <c r="J263" t="inlineStr"/>
+      <c r="J263" t="n">
+        <v>0</v>
+      </c>
       <c r="K263" t="inlineStr"/>
       <c r="L263" t="inlineStr"/>
-      <c r="M263" t="n">
+      <c r="M263" t="inlineStr"/>
+      <c r="N263" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9734,18 +11005,21 @@
         <v>13.4956</v>
       </c>
       <c r="G264" t="n">
+        <v>996.6666666666666</v>
+      </c>
+      <c r="H264" t="n">
         <v>1006.85</v>
       </c>
-      <c r="H264" t="n">
-        <v>0</v>
-      </c>
       <c r="I264" t="n">
         <v>0</v>
       </c>
-      <c r="J264" t="inlineStr"/>
+      <c r="J264" t="n">
+        <v>0</v>
+      </c>
       <c r="K264" t="inlineStr"/>
       <c r="L264" t="inlineStr"/>
-      <c r="M264" t="n">
+      <c r="M264" t="inlineStr"/>
+      <c r="N264" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9769,18 +11043,21 @@
         <v>1.3348</v>
       </c>
       <c r="G265" t="n">
+        <v>996.1333333333333</v>
+      </c>
+      <c r="H265" t="n">
         <v>1006.416666666667</v>
       </c>
-      <c r="H265" t="n">
-        <v>0</v>
-      </c>
       <c r="I265" t="n">
         <v>0</v>
       </c>
-      <c r="J265" t="inlineStr"/>
+      <c r="J265" t="n">
+        <v>0</v>
+      </c>
       <c r="K265" t="inlineStr"/>
       <c r="L265" t="inlineStr"/>
-      <c r="M265" t="n">
+      <c r="M265" t="inlineStr"/>
+      <c r="N265" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9804,18 +11081,21 @@
         <v>20</v>
       </c>
       <c r="G266" t="n">
+        <v>995.4666666666667</v>
+      </c>
+      <c r="H266" t="n">
         <v>1005.933333333333</v>
       </c>
-      <c r="H266" t="n">
-        <v>0</v>
-      </c>
       <c r="I266" t="n">
         <v>0</v>
       </c>
-      <c r="J266" t="inlineStr"/>
+      <c r="J266" t="n">
+        <v>0</v>
+      </c>
       <c r="K266" t="inlineStr"/>
       <c r="L266" t="inlineStr"/>
-      <c r="M266" t="n">
+      <c r="M266" t="inlineStr"/>
+      <c r="N266" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9839,18 +11119,21 @@
         <v>1.8256</v>
       </c>
       <c r="G267" t="n">
+        <v>994.6666666666666</v>
+      </c>
+      <c r="H267" t="n">
         <v>1005.416666666667</v>
       </c>
-      <c r="H267" t="n">
-        <v>0</v>
-      </c>
       <c r="I267" t="n">
         <v>0</v>
       </c>
-      <c r="J267" t="inlineStr"/>
+      <c r="J267" t="n">
+        <v>0</v>
+      </c>
       <c r="K267" t="inlineStr"/>
       <c r="L267" t="inlineStr"/>
-      <c r="M267" t="n">
+      <c r="M267" t="inlineStr"/>
+      <c r="N267" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9874,18 +11157,21 @@
         <v>255</v>
       </c>
       <c r="G268" t="n">
+        <v>994.4666666666667</v>
+      </c>
+      <c r="H268" t="n">
         <v>1004.933333333333</v>
       </c>
-      <c r="H268" t="n">
-        <v>0</v>
-      </c>
       <c r="I268" t="n">
         <v>0</v>
       </c>
-      <c r="J268" t="inlineStr"/>
+      <c r="J268" t="n">
+        <v>0</v>
+      </c>
       <c r="K268" t="inlineStr"/>
       <c r="L268" t="inlineStr"/>
-      <c r="M268" t="n">
+      <c r="M268" t="inlineStr"/>
+      <c r="N268" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9909,18 +11195,21 @@
         <v>26.3249</v>
       </c>
       <c r="G269" t="n">
+        <v>994.0666666666667</v>
+      </c>
+      <c r="H269" t="n">
         <v>1004.466666666667</v>
       </c>
-      <c r="H269" t="n">
-        <v>0</v>
-      </c>
       <c r="I269" t="n">
         <v>0</v>
       </c>
-      <c r="J269" t="inlineStr"/>
+      <c r="J269" t="n">
+        <v>0</v>
+      </c>
       <c r="K269" t="inlineStr"/>
       <c r="L269" t="inlineStr"/>
-      <c r="M269" t="n">
+      <c r="M269" t="inlineStr"/>
+      <c r="N269" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9944,18 +11233,21 @@
         <v>23.7245</v>
       </c>
       <c r="G270" t="n">
+        <v>994.1333333333333</v>
+      </c>
+      <c r="H270" t="n">
         <v>1003.95</v>
       </c>
-      <c r="H270" t="n">
-        <v>0</v>
-      </c>
       <c r="I270" t="n">
         <v>0</v>
       </c>
-      <c r="J270" t="inlineStr"/>
+      <c r="J270" t="n">
+        <v>0</v>
+      </c>
       <c r="K270" t="inlineStr"/>
       <c r="L270" t="inlineStr"/>
-      <c r="M270" t="n">
+      <c r="M270" t="inlineStr"/>
+      <c r="N270" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9979,18 +11271,21 @@
         <v>551.98</v>
       </c>
       <c r="G271" t="n">
+        <v>993.6666666666666</v>
+      </c>
+      <c r="H271" t="n">
         <v>1003.433333333333</v>
       </c>
-      <c r="H271" t="n">
-        <v>0</v>
-      </c>
       <c r="I271" t="n">
         <v>0</v>
       </c>
-      <c r="J271" t="inlineStr"/>
+      <c r="J271" t="n">
+        <v>0</v>
+      </c>
       <c r="K271" t="inlineStr"/>
       <c r="L271" t="inlineStr"/>
-      <c r="M271" t="n">
+      <c r="M271" t="inlineStr"/>
+      <c r="N271" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10014,18 +11309,21 @@
         <v>28.1744</v>
       </c>
       <c r="G272" t="n">
+        <v>992.8666666666667</v>
+      </c>
+      <c r="H272" t="n">
         <v>1002.883333333333</v>
       </c>
-      <c r="H272" t="n">
-        <v>0</v>
-      </c>
       <c r="I272" t="n">
         <v>0</v>
       </c>
-      <c r="J272" t="inlineStr"/>
+      <c r="J272" t="n">
+        <v>0</v>
+      </c>
       <c r="K272" t="inlineStr"/>
       <c r="L272" t="inlineStr"/>
-      <c r="M272" t="n">
+      <c r="M272" t="inlineStr"/>
+      <c r="N272" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10049,18 +11347,21 @@
         <v>3.0598</v>
       </c>
       <c r="G273" t="n">
+        <v>991.9333333333333</v>
+      </c>
+      <c r="H273" t="n">
         <v>1002.233333333333</v>
       </c>
-      <c r="H273" t="n">
-        <v>0</v>
-      </c>
       <c r="I273" t="n">
         <v>0</v>
       </c>
-      <c r="J273" t="inlineStr"/>
+      <c r="J273" t="n">
+        <v>0</v>
+      </c>
       <c r="K273" t="inlineStr"/>
       <c r="L273" t="inlineStr"/>
-      <c r="M273" t="n">
+      <c r="M273" t="inlineStr"/>
+      <c r="N273" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10084,18 +11385,21 @@
         <v>296.9283</v>
       </c>
       <c r="G274" t="n">
+        <v>990.4666666666667</v>
+      </c>
+      <c r="H274" t="n">
         <v>1001.483333333333</v>
       </c>
-      <c r="H274" t="n">
-        <v>0</v>
-      </c>
       <c r="I274" t="n">
         <v>0</v>
       </c>
-      <c r="J274" t="inlineStr"/>
+      <c r="J274" t="n">
+        <v>0</v>
+      </c>
       <c r="K274" t="inlineStr"/>
       <c r="L274" t="inlineStr"/>
-      <c r="M274" t="n">
+      <c r="M274" t="inlineStr"/>
+      <c r="N274" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10119,18 +11423,21 @@
         <v>47.4837</v>
       </c>
       <c r="G275" t="n">
+        <v>989.2666666666667</v>
+      </c>
+      <c r="H275" t="n">
         <v>1000.85</v>
       </c>
-      <c r="H275" t="n">
-        <v>0</v>
-      </c>
       <c r="I275" t="n">
         <v>0</v>
       </c>
-      <c r="J275" t="inlineStr"/>
+      <c r="J275" t="n">
+        <v>0</v>
+      </c>
       <c r="K275" t="inlineStr"/>
       <c r="L275" t="inlineStr"/>
-      <c r="M275" t="n">
+      <c r="M275" t="inlineStr"/>
+      <c r="N275" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10154,18 +11461,21 @@
         <v>28.9</v>
       </c>
       <c r="G276" t="n">
+        <v>988.2</v>
+      </c>
+      <c r="H276" t="n">
         <v>1000.25</v>
       </c>
-      <c r="H276" t="n">
-        <v>0</v>
-      </c>
       <c r="I276" t="n">
         <v>0</v>
       </c>
-      <c r="J276" t="inlineStr"/>
+      <c r="J276" t="n">
+        <v>0</v>
+      </c>
       <c r="K276" t="inlineStr"/>
       <c r="L276" t="inlineStr"/>
-      <c r="M276" t="n">
+      <c r="M276" t="inlineStr"/>
+      <c r="N276" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10189,18 +11499,21 @@
         <v>16.1078</v>
       </c>
       <c r="G277" t="n">
+        <v>987.3333333333334</v>
+      </c>
+      <c r="H277" t="n">
         <v>999.65</v>
       </c>
-      <c r="H277" t="n">
-        <v>0</v>
-      </c>
       <c r="I277" t="n">
         <v>0</v>
       </c>
-      <c r="J277" t="inlineStr"/>
+      <c r="J277" t="n">
+        <v>0</v>
+      </c>
       <c r="K277" t="inlineStr"/>
       <c r="L277" t="inlineStr"/>
-      <c r="M277" t="n">
+      <c r="M277" t="inlineStr"/>
+      <c r="N277" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10224,18 +11537,25 @@
         <v>32.8438</v>
       </c>
       <c r="G278" t="n">
+        <v>985.9333333333333</v>
+      </c>
+      <c r="H278" t="n">
         <v>998.9833333333333</v>
       </c>
-      <c r="H278" t="n">
-        <v>0</v>
-      </c>
       <c r="I278" t="n">
-        <v>0</v>
-      </c>
-      <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
-      <c r="L278" t="inlineStr"/>
-      <c r="M278" t="n">
+        <v>1</v>
+      </c>
+      <c r="J278" t="n">
+        <v>0</v>
+      </c>
+      <c r="K278" t="n">
+        <v>980</v>
+      </c>
+      <c r="L278" t="n">
+        <v>980</v>
+      </c>
+      <c r="M278" t="inlineStr"/>
+      <c r="N278" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10259,18 +11579,29 @@
         <v>29.8413</v>
       </c>
       <c r="G279" t="n">
+        <v>984.6</v>
+      </c>
+      <c r="H279" t="n">
         <v>998.3166666666667</v>
       </c>
-      <c r="H279" t="n">
-        <v>0</v>
-      </c>
       <c r="I279" t="n">
-        <v>0</v>
-      </c>
-      <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
-      <c r="L279" t="inlineStr"/>
-      <c r="M279" t="n">
+        <v>1</v>
+      </c>
+      <c r="J279" t="n">
+        <v>0</v>
+      </c>
+      <c r="K279" t="n">
+        <v>976</v>
+      </c>
+      <c r="L279" t="n">
+        <v>980</v>
+      </c>
+      <c r="M279" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="N279" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10294,18 +11625,29 @@
         <v>15.1887</v>
       </c>
       <c r="G280" t="n">
+        <v>983.4666666666667</v>
+      </c>
+      <c r="H280" t="n">
         <v>997.7</v>
       </c>
-      <c r="H280" t="n">
-        <v>0</v>
-      </c>
       <c r="I280" t="n">
-        <v>0</v>
-      </c>
-      <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
-      <c r="L280" t="inlineStr"/>
-      <c r="M280" t="n">
+        <v>1</v>
+      </c>
+      <c r="J280" t="n">
+        <v>0</v>
+      </c>
+      <c r="K280" t="n">
+        <v>972</v>
+      </c>
+      <c r="L280" t="n">
+        <v>980</v>
+      </c>
+      <c r="M280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N280" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10329,18 +11671,29 @@
         <v>13.7219</v>
       </c>
       <c r="G281" t="n">
+        <v>982.4666666666667</v>
+      </c>
+      <c r="H281" t="n">
         <v>997.0333333333333</v>
       </c>
-      <c r="H281" t="n">
-        <v>0</v>
-      </c>
       <c r="I281" t="n">
-        <v>0</v>
-      </c>
-      <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
-      <c r="L281" t="inlineStr"/>
-      <c r="M281" t="n">
+        <v>1</v>
+      </c>
+      <c r="J281" t="n">
+        <v>0</v>
+      </c>
+      <c r="K281" t="n">
+        <v>975</v>
+      </c>
+      <c r="L281" t="n">
+        <v>980</v>
+      </c>
+      <c r="M281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N281" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10364,18 +11717,29 @@
         <v>63.9305</v>
       </c>
       <c r="G282" t="n">
+        <v>981.7333333333333</v>
+      </c>
+      <c r="H282" t="n">
         <v>996.4666666666667</v>
       </c>
-      <c r="H282" t="n">
-        <v>0</v>
-      </c>
       <c r="I282" t="n">
-        <v>0</v>
-      </c>
-      <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
-      <c r="L282" t="inlineStr"/>
-      <c r="M282" t="n">
+        <v>1</v>
+      </c>
+      <c r="J282" t="n">
+        <v>0</v>
+      </c>
+      <c r="K282" t="n">
+        <v>974</v>
+      </c>
+      <c r="L282" t="n">
+        <v>980</v>
+      </c>
+      <c r="M282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N282" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10399,18 +11763,29 @@
         <v>4.7995</v>
       </c>
       <c r="G283" t="n">
+        <v>980.3333333333334</v>
+      </c>
+      <c r="H283" t="n">
         <v>995.8333333333334</v>
       </c>
-      <c r="H283" t="n">
-        <v>0</v>
-      </c>
       <c r="I283" t="n">
-        <v>0</v>
-      </c>
-      <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
-      <c r="L283" t="inlineStr"/>
-      <c r="M283" t="n">
+        <v>1</v>
+      </c>
+      <c r="J283" t="n">
+        <v>0</v>
+      </c>
+      <c r="K283" t="n">
+        <v>976</v>
+      </c>
+      <c r="L283" t="n">
+        <v>980</v>
+      </c>
+      <c r="M283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N283" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10434,18 +11809,29 @@
         <v>318.3319</v>
       </c>
       <c r="G284" t="n">
+        <v>978.5333333333333</v>
+      </c>
+      <c r="H284" t="n">
         <v>995.0666666666667</v>
       </c>
-      <c r="H284" t="n">
-        <v>0</v>
-      </c>
       <c r="I284" t="n">
-        <v>0</v>
-      </c>
-      <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
-      <c r="L284" t="inlineStr"/>
-      <c r="M284" t="n">
+        <v>1</v>
+      </c>
+      <c r="J284" t="n">
+        <v>0</v>
+      </c>
+      <c r="K284" t="n">
+        <v>971</v>
+      </c>
+      <c r="L284" t="n">
+        <v>980</v>
+      </c>
+      <c r="M284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N284" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10469,18 +11855,29 @@
         <v>36.2376</v>
       </c>
       <c r="G285" t="n">
+        <v>976.8</v>
+      </c>
+      <c r="H285" t="n">
         <v>994.5</v>
       </c>
-      <c r="H285" t="n">
-        <v>0</v>
-      </c>
       <c r="I285" t="n">
-        <v>0</v>
-      </c>
-      <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
-      <c r="L285" t="inlineStr"/>
-      <c r="M285" t="n">
+        <v>1</v>
+      </c>
+      <c r="J285" t="n">
+        <v>0</v>
+      </c>
+      <c r="K285" t="n">
+        <v>965</v>
+      </c>
+      <c r="L285" t="n">
+        <v>980</v>
+      </c>
+      <c r="M285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N285" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10504,18 +11901,29 @@
         <v>1458.2133</v>
       </c>
       <c r="G286" t="n">
+        <v>975.4</v>
+      </c>
+      <c r="H286" t="n">
         <v>993.9333333333333</v>
       </c>
-      <c r="H286" t="n">
-        <v>0</v>
-      </c>
       <c r="I286" t="n">
-        <v>0</v>
-      </c>
-      <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
-      <c r="L286" t="inlineStr"/>
-      <c r="M286" t="n">
+        <v>1</v>
+      </c>
+      <c r="J286" t="n">
+        <v>0</v>
+      </c>
+      <c r="K286" t="n">
+        <v>966</v>
+      </c>
+      <c r="L286" t="n">
+        <v>980</v>
+      </c>
+      <c r="M286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N286" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10539,18 +11947,29 @@
         <v>53.9654</v>
       </c>
       <c r="G287" t="n">
+        <v>974.2</v>
+      </c>
+      <c r="H287" t="n">
         <v>993.3833333333333</v>
       </c>
-      <c r="H287" t="n">
-        <v>0</v>
-      </c>
       <c r="I287" t="n">
-        <v>0</v>
-      </c>
-      <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
-      <c r="L287" t="inlineStr"/>
-      <c r="M287" t="n">
+        <v>1</v>
+      </c>
+      <c r="J287" t="n">
+        <v>0</v>
+      </c>
+      <c r="K287" t="n">
+        <v>971</v>
+      </c>
+      <c r="L287" t="n">
+        <v>980</v>
+      </c>
+      <c r="M287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N287" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10574,18 +11993,29 @@
         <v>48.8523</v>
       </c>
       <c r="G288" t="n">
+        <v>972.7333333333333</v>
+      </c>
+      <c r="H288" t="n">
         <v>992.85</v>
       </c>
-      <c r="H288" t="n">
-        <v>0</v>
-      </c>
       <c r="I288" t="n">
-        <v>0</v>
-      </c>
-      <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
-      <c r="L288" t="inlineStr"/>
-      <c r="M288" t="n">
+        <v>1</v>
+      </c>
+      <c r="J288" t="n">
+        <v>0</v>
+      </c>
+      <c r="K288" t="n">
+        <v>969</v>
+      </c>
+      <c r="L288" t="n">
+        <v>980</v>
+      </c>
+      <c r="M288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N288" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10609,18 +12039,29 @@
         <v>309.0673</v>
       </c>
       <c r="G289" t="n">
+        <v>972.2666666666667</v>
+      </c>
+      <c r="H289" t="n">
         <v>992.35</v>
       </c>
-      <c r="H289" t="n">
-        <v>0</v>
-      </c>
       <c r="I289" t="n">
-        <v>0</v>
-      </c>
-      <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
-      <c r="L289" t="inlineStr"/>
-      <c r="M289" t="n">
+        <v>1</v>
+      </c>
+      <c r="J289" t="n">
+        <v>0</v>
+      </c>
+      <c r="K289" t="n">
+        <v>961</v>
+      </c>
+      <c r="L289" t="n">
+        <v>980</v>
+      </c>
+      <c r="M289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N289" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10644,18 +12085,29 @@
         <v>48.8755</v>
       </c>
       <c r="G290" t="n">
+        <v>971.0666666666667</v>
+      </c>
+      <c r="H290" t="n">
         <v>991.6666666666666</v>
       </c>
-      <c r="H290" t="n">
-        <v>0</v>
-      </c>
       <c r="I290" t="n">
-        <v>0</v>
-      </c>
-      <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
-      <c r="L290" t="inlineStr"/>
-      <c r="M290" t="n">
+        <v>1</v>
+      </c>
+      <c r="J290" t="n">
+        <v>0</v>
+      </c>
+      <c r="K290" t="n">
+        <v>968</v>
+      </c>
+      <c r="L290" t="n">
+        <v>980</v>
+      </c>
+      <c r="M290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N290" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10679,18 +12131,29 @@
         <v>133.6255</v>
       </c>
       <c r="G291" t="n">
+        <v>969.8666666666667</v>
+      </c>
+      <c r="H291" t="n">
         <v>991.0166666666667</v>
       </c>
-      <c r="H291" t="n">
-        <v>0</v>
-      </c>
       <c r="I291" t="n">
-        <v>0</v>
-      </c>
-      <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
-      <c r="L291" t="inlineStr"/>
-      <c r="M291" t="n">
+        <v>1</v>
+      </c>
+      <c r="J291" t="n">
+        <v>0</v>
+      </c>
+      <c r="K291" t="n">
+        <v>961</v>
+      </c>
+      <c r="L291" t="n">
+        <v>980</v>
+      </c>
+      <c r="M291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N291" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10714,18 +12177,29 @@
         <v>5.353</v>
       </c>
       <c r="G292" t="n">
+        <v>968.9333333333333</v>
+      </c>
+      <c r="H292" t="n">
         <v>990.4166666666666</v>
       </c>
-      <c r="H292" t="n">
-        <v>0</v>
-      </c>
       <c r="I292" t="n">
-        <v>0</v>
-      </c>
-      <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
-      <c r="L292" t="inlineStr"/>
-      <c r="M292" t="n">
+        <v>1</v>
+      </c>
+      <c r="J292" t="n">
+        <v>0</v>
+      </c>
+      <c r="K292" t="n">
+        <v>963</v>
+      </c>
+      <c r="L292" t="n">
+        <v>980</v>
+      </c>
+      <c r="M292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N292" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10749,22 +12223,27 @@
         <v>197.9203</v>
       </c>
       <c r="G293" t="n">
+        <v>968.2666666666667</v>
+      </c>
+      <c r="H293" t="n">
         <v>989.85</v>
       </c>
-      <c r="H293" t="n">
-        <v>1</v>
-      </c>
       <c r="I293" t="n">
         <v>0</v>
       </c>
       <c r="J293" t="n">
-        <v>966</v>
-      </c>
-      <c r="K293" t="n">
-        <v>966</v>
-      </c>
-      <c r="L293" t="inlineStr"/>
-      <c r="M293" t="n">
+        <v>0</v>
+      </c>
+      <c r="K293" t="inlineStr"/>
+      <c r="L293" t="n">
+        <v>980</v>
+      </c>
+      <c r="M293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N293" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10788,24 +12267,27 @@
         <v>86.52290000000001</v>
       </c>
       <c r="G294" t="n">
+        <v>967.6666666666666</v>
+      </c>
+      <c r="H294" t="n">
         <v>989.25</v>
       </c>
-      <c r="H294" t="n">
-        <v>0</v>
-      </c>
       <c r="I294" t="n">
         <v>0</v>
       </c>
-      <c r="J294" t="inlineStr"/>
-      <c r="K294" t="n">
-        <v>966</v>
-      </c>
-      <c r="L294" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M294" t="n">
+      <c r="J294" t="n">
+        <v>0</v>
+      </c>
+      <c r="K294" t="inlineStr"/>
+      <c r="L294" t="n">
+        <v>980</v>
+      </c>
+      <c r="M294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N294" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10829,24 +12311,27 @@
         <v>300</v>
       </c>
       <c r="G295" t="n">
+        <v>966.8</v>
+      </c>
+      <c r="H295" t="n">
         <v>988.5333333333333</v>
       </c>
-      <c r="H295" t="n">
-        <v>0</v>
-      </c>
       <c r="I295" t="n">
         <v>0</v>
       </c>
-      <c r="J295" t="inlineStr"/>
-      <c r="K295" t="n">
-        <v>966</v>
-      </c>
-      <c r="L295" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M295" t="n">
+      <c r="J295" t="n">
+        <v>0</v>
+      </c>
+      <c r="K295" t="inlineStr"/>
+      <c r="L295" t="n">
+        <v>980</v>
+      </c>
+      <c r="M295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N295" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10870,18 +12355,27 @@
         <v>1062.1792</v>
       </c>
       <c r="G296" t="n">
+        <v>966.1333333333333</v>
+      </c>
+      <c r="H296" t="n">
         <v>987.85</v>
       </c>
-      <c r="H296" t="n">
-        <v>0</v>
-      </c>
       <c r="I296" t="n">
         <v>0</v>
       </c>
-      <c r="J296" t="inlineStr"/>
+      <c r="J296" t="n">
+        <v>0</v>
+      </c>
       <c r="K296" t="inlineStr"/>
-      <c r="L296" t="inlineStr"/>
-      <c r="M296" t="n">
+      <c r="L296" t="n">
+        <v>980</v>
+      </c>
+      <c r="M296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N296" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10905,18 +12399,27 @@
         <v>336</v>
       </c>
       <c r="G297" t="n">
+        <v>965.2666666666667</v>
+      </c>
+      <c r="H297" t="n">
         <v>987.1333333333333</v>
       </c>
-      <c r="H297" t="n">
-        <v>0</v>
-      </c>
       <c r="I297" t="n">
         <v>0</v>
       </c>
-      <c r="J297" t="inlineStr"/>
+      <c r="J297" t="n">
+        <v>0</v>
+      </c>
       <c r="K297" t="inlineStr"/>
-      <c r="L297" t="inlineStr"/>
-      <c r="M297" t="n">
+      <c r="L297" t="n">
+        <v>980</v>
+      </c>
+      <c r="M297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N297" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10940,18 +12443,27 @@
         <v>1.3236</v>
       </c>
       <c r="G298" t="n">
+        <v>965</v>
+      </c>
+      <c r="H298" t="n">
         <v>986.4166666666666</v>
       </c>
-      <c r="H298" t="n">
-        <v>0</v>
-      </c>
       <c r="I298" t="n">
         <v>0</v>
       </c>
-      <c r="J298" t="inlineStr"/>
+      <c r="J298" t="n">
+        <v>0</v>
+      </c>
       <c r="K298" t="inlineStr"/>
-      <c r="L298" t="inlineStr"/>
-      <c r="M298" t="n">
+      <c r="L298" t="n">
+        <v>980</v>
+      </c>
+      <c r="M298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N298" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10975,18 +12487,27 @@
         <v>561.4555</v>
       </c>
       <c r="G299" t="n">
+        <v>964.8666666666667</v>
+      </c>
+      <c r="H299" t="n">
         <v>985.6333333333333</v>
       </c>
-      <c r="H299" t="n">
-        <v>0</v>
-      </c>
       <c r="I299" t="n">
         <v>0</v>
       </c>
-      <c r="J299" t="inlineStr"/>
+      <c r="J299" t="n">
+        <v>0</v>
+      </c>
       <c r="K299" t="inlineStr"/>
-      <c r="L299" t="inlineStr"/>
-      <c r="M299" t="n">
+      <c r="L299" t="n">
+        <v>980</v>
+      </c>
+      <c r="M299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N299" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11010,18 +12531,27 @@
         <v>402.6046</v>
       </c>
       <c r="G300" t="n">
+        <v>965.1333333333333</v>
+      </c>
+      <c r="H300" t="n">
         <v>984.95</v>
       </c>
-      <c r="H300" t="n">
-        <v>0</v>
-      </c>
       <c r="I300" t="n">
         <v>0</v>
       </c>
-      <c r="J300" t="inlineStr"/>
+      <c r="J300" t="n">
+        <v>0</v>
+      </c>
       <c r="K300" t="inlineStr"/>
-      <c r="L300" t="inlineStr"/>
-      <c r="M300" t="n">
+      <c r="L300" t="n">
+        <v>980</v>
+      </c>
+      <c r="M300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N300" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11045,24 +12575,27 @@
         <v>189.2254</v>
       </c>
       <c r="G301" t="n">
+        <v>965</v>
+      </c>
+      <c r="H301" t="n">
         <v>984.2833333333333</v>
       </c>
-      <c r="H301" t="n">
-        <v>1</v>
-      </c>
       <c r="I301" t="n">
         <v>0</v>
       </c>
       <c r="J301" t="n">
-        <v>970</v>
+        <v>0</v>
       </c>
       <c r="K301" t="inlineStr"/>
-      <c r="L301" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M301" t="n">
+      <c r="L301" t="n">
+        <v>980</v>
+      </c>
+      <c r="M301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N301" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11086,22 +12619,27 @@
         <v>598.8876</v>
       </c>
       <c r="G302" t="n">
+        <v>965</v>
+      </c>
+      <c r="H302" t="n">
         <v>983.6</v>
       </c>
-      <c r="H302" t="n">
-        <v>0</v>
-      </c>
       <c r="I302" t="n">
         <v>0</v>
       </c>
-      <c r="J302" t="inlineStr"/>
+      <c r="J302" t="n">
+        <v>0</v>
+      </c>
       <c r="K302" t="inlineStr"/>
-      <c r="L302" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M302" t="n">
+      <c r="L302" t="n">
+        <v>980</v>
+      </c>
+      <c r="M302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N302" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11125,22 +12663,27 @@
         <v>0.4734</v>
       </c>
       <c r="G303" t="n">
+        <v>965.5333333333333</v>
+      </c>
+      <c r="H303" t="n">
         <v>982.9</v>
       </c>
-      <c r="H303" t="n">
-        <v>0</v>
-      </c>
       <c r="I303" t="n">
         <v>0</v>
       </c>
-      <c r="J303" t="inlineStr"/>
+      <c r="J303" t="n">
+        <v>0</v>
+      </c>
       <c r="K303" t="inlineStr"/>
-      <c r="L303" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M303" t="n">
+      <c r="L303" t="n">
+        <v>980</v>
+      </c>
+      <c r="M303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N303" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11164,22 +12707,27 @@
         <v>37.1598</v>
       </c>
       <c r="G304" t="n">
+        <v>966.0666666666667</v>
+      </c>
+      <c r="H304" t="n">
         <v>982.3166666666667</v>
       </c>
-      <c r="H304" t="n">
-        <v>0</v>
-      </c>
       <c r="I304" t="n">
         <v>0</v>
       </c>
-      <c r="J304" t="inlineStr"/>
+      <c r="J304" t="n">
+        <v>0</v>
+      </c>
       <c r="K304" t="inlineStr"/>
-      <c r="L304" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M304" t="n">
+      <c r="L304" t="n">
+        <v>980</v>
+      </c>
+      <c r="M304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N304" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11203,22 +12751,27 @@
         <v>155.5004</v>
       </c>
       <c r="G305" t="n">
+        <v>966.4666666666667</v>
+      </c>
+      <c r="H305" t="n">
         <v>981.7333333333333</v>
       </c>
-      <c r="H305" t="n">
-        <v>0</v>
-      </c>
       <c r="I305" t="n">
         <v>0</v>
       </c>
-      <c r="J305" t="inlineStr"/>
+      <c r="J305" t="n">
+        <v>0</v>
+      </c>
       <c r="K305" t="inlineStr"/>
-      <c r="L305" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M305" t="n">
+      <c r="L305" t="n">
+        <v>980</v>
+      </c>
+      <c r="M305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N305" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11242,22 +12795,27 @@
         <v>34.3339</v>
       </c>
       <c r="G306" t="n">
+        <v>966.8666666666667</v>
+      </c>
+      <c r="H306" t="n">
         <v>981.05</v>
       </c>
-      <c r="H306" t="n">
-        <v>0</v>
-      </c>
       <c r="I306" t="n">
         <v>0</v>
       </c>
-      <c r="J306" t="inlineStr"/>
+      <c r="J306" t="n">
+        <v>0</v>
+      </c>
       <c r="K306" t="inlineStr"/>
-      <c r="L306" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M306" t="n">
+      <c r="L306" t="n">
+        <v>980</v>
+      </c>
+      <c r="M306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N306" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11281,22 +12839,27 @@
         <v>31.3044</v>
       </c>
       <c r="G307" t="n">
+        <v>967.3333333333334</v>
+      </c>
+      <c r="H307" t="n">
         <v>980.4333333333333</v>
       </c>
-      <c r="H307" t="n">
-        <v>0</v>
-      </c>
       <c r="I307" t="n">
         <v>0</v>
       </c>
-      <c r="J307" t="inlineStr"/>
+      <c r="J307" t="n">
+        <v>0</v>
+      </c>
       <c r="K307" t="inlineStr"/>
-      <c r="L307" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M307" t="n">
+      <c r="L307" t="n">
+        <v>980</v>
+      </c>
+      <c r="M307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N307" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11320,22 +12883,27 @@
         <v>1880.8057</v>
       </c>
       <c r="G308" t="n">
+        <v>968.2</v>
+      </c>
+      <c r="H308" t="n">
         <v>979.9333333333333</v>
       </c>
-      <c r="H308" t="n">
-        <v>0</v>
-      </c>
       <c r="I308" t="n">
         <v>0</v>
       </c>
-      <c r="J308" t="inlineStr"/>
+      <c r="J308" t="n">
+        <v>0</v>
+      </c>
       <c r="K308" t="inlineStr"/>
-      <c r="L308" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M308" t="n">
+      <c r="L308" t="n">
+        <v>980</v>
+      </c>
+      <c r="M308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N308" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11359,22 +12927,467 @@
         <v>1290.3935</v>
       </c>
       <c r="G309" t="n">
+        <v>969.2666666666667</v>
+      </c>
+      <c r="H309" t="n">
         <v>979.55</v>
       </c>
-      <c r="H309" t="n">
-        <v>0</v>
-      </c>
       <c r="I309" t="n">
         <v>0</v>
       </c>
-      <c r="J309" t="inlineStr"/>
+      <c r="J309" t="n">
+        <v>0</v>
+      </c>
       <c r="K309" t="inlineStr"/>
-      <c r="L309" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M309" t="n">
+      <c r="L309" t="n">
+        <v>980</v>
+      </c>
+      <c r="M309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N309" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" s="1" t="n">
+        <v>308</v>
+      </c>
+      <c r="B310" t="n">
+        <v>979</v>
+      </c>
+      <c r="C310" t="n">
+        <v>983</v>
+      </c>
+      <c r="D310" t="n">
+        <v>984</v>
+      </c>
+      <c r="E310" t="n">
+        <v>979</v>
+      </c>
+      <c r="F310" t="n">
+        <v>194.0556</v>
+      </c>
+      <c r="G310" t="n">
+        <v>970.6666666666666</v>
+      </c>
+      <c r="H310" t="n">
+        <v>979.2666666666667</v>
+      </c>
+      <c r="I310" t="n">
+        <v>0</v>
+      </c>
+      <c r="J310" t="n">
+        <v>0</v>
+      </c>
+      <c r="K310" t="inlineStr"/>
+      <c r="L310" t="n">
+        <v>980</v>
+      </c>
+      <c r="M310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N310" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" s="1" t="n">
+        <v>309</v>
+      </c>
+      <c r="B311" t="n">
+        <v>981</v>
+      </c>
+      <c r="C311" t="n">
+        <v>980</v>
+      </c>
+      <c r="D311" t="n">
+        <v>981</v>
+      </c>
+      <c r="E311" t="n">
+        <v>980</v>
+      </c>
+      <c r="F311" t="n">
+        <v>77.57170000000001</v>
+      </c>
+      <c r="G311" t="n">
+        <v>971.7333333333333</v>
+      </c>
+      <c r="H311" t="n">
+        <v>978.95</v>
+      </c>
+      <c r="I311" t="n">
+        <v>0</v>
+      </c>
+      <c r="J311" t="n">
+        <v>0</v>
+      </c>
+      <c r="K311" t="inlineStr"/>
+      <c r="L311" t="n">
+        <v>980</v>
+      </c>
+      <c r="M311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N311" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" s="1" t="n">
+        <v>310</v>
+      </c>
+      <c r="B312" t="n">
+        <v>981</v>
+      </c>
+      <c r="C312" t="n">
+        <v>981</v>
+      </c>
+      <c r="D312" t="n">
+        <v>981</v>
+      </c>
+      <c r="E312" t="n">
+        <v>981</v>
+      </c>
+      <c r="F312" t="n">
+        <v>27.7768</v>
+      </c>
+      <c r="G312" t="n">
+        <v>972.9333333333333</v>
+      </c>
+      <c r="H312" t="n">
+        <v>978.65</v>
+      </c>
+      <c r="I312" t="n">
+        <v>0</v>
+      </c>
+      <c r="J312" t="n">
+        <v>0</v>
+      </c>
+      <c r="K312" t="inlineStr"/>
+      <c r="L312" t="n">
+        <v>980</v>
+      </c>
+      <c r="M312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N312" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" s="1" t="n">
+        <v>311</v>
+      </c>
+      <c r="B313" t="n">
+        <v>980</v>
+      </c>
+      <c r="C313" t="n">
+        <v>979</v>
+      </c>
+      <c r="D313" t="n">
+        <v>980</v>
+      </c>
+      <c r="E313" t="n">
+        <v>979</v>
+      </c>
+      <c r="F313" t="n">
+        <v>600</v>
+      </c>
+      <c r="G313" t="n">
+        <v>973.7333333333333</v>
+      </c>
+      <c r="H313" t="n">
+        <v>978.3833333333333</v>
+      </c>
+      <c r="I313" t="n">
+        <v>0</v>
+      </c>
+      <c r="J313" t="n">
+        <v>0</v>
+      </c>
+      <c r="K313" t="inlineStr"/>
+      <c r="L313" t="n">
+        <v>980</v>
+      </c>
+      <c r="M313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N313" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" s="1" t="n">
+        <v>312</v>
+      </c>
+      <c r="B314" t="n">
+        <v>977</v>
+      </c>
+      <c r="C314" t="n">
+        <v>977</v>
+      </c>
+      <c r="D314" t="n">
+        <v>977</v>
+      </c>
+      <c r="E314" t="n">
+        <v>977</v>
+      </c>
+      <c r="F314" t="n">
+        <v>83.58669999999999</v>
+      </c>
+      <c r="G314" t="n">
+        <v>974.6666666666666</v>
+      </c>
+      <c r="H314" t="n">
+        <v>978.0333333333333</v>
+      </c>
+      <c r="I314" t="n">
+        <v>0</v>
+      </c>
+      <c r="J314" t="n">
+        <v>0</v>
+      </c>
+      <c r="K314" t="inlineStr"/>
+      <c r="L314" t="n">
+        <v>980</v>
+      </c>
+      <c r="M314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N314" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" s="1" t="n">
+        <v>313</v>
+      </c>
+      <c r="B315" t="n">
+        <v>977</v>
+      </c>
+      <c r="C315" t="n">
+        <v>977</v>
+      </c>
+      <c r="D315" t="n">
+        <v>977</v>
+      </c>
+      <c r="E315" t="n">
+        <v>977</v>
+      </c>
+      <c r="F315" t="n">
+        <v>36.5472</v>
+      </c>
+      <c r="G315" t="n">
+        <v>975.1333333333333</v>
+      </c>
+      <c r="H315" t="n">
+        <v>977.8</v>
+      </c>
+      <c r="I315" t="n">
+        <v>0</v>
+      </c>
+      <c r="J315" t="n">
+        <v>0</v>
+      </c>
+      <c r="K315" t="inlineStr"/>
+      <c r="L315" t="n">
+        <v>980</v>
+      </c>
+      <c r="M315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N315" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" s="1" t="n">
+        <v>314</v>
+      </c>
+      <c r="B316" t="n">
+        <v>977</v>
+      </c>
+      <c r="C316" t="n">
+        <v>977</v>
+      </c>
+      <c r="D316" t="n">
+        <v>977</v>
+      </c>
+      <c r="E316" t="n">
+        <v>977</v>
+      </c>
+      <c r="F316" t="n">
+        <v>179.8661</v>
+      </c>
+      <c r="G316" t="n">
+        <v>975.6666666666666</v>
+      </c>
+      <c r="H316" t="n">
+        <v>977.4333333333333</v>
+      </c>
+      <c r="I316" t="n">
+        <v>0</v>
+      </c>
+      <c r="J316" t="n">
+        <v>0</v>
+      </c>
+      <c r="K316" t="inlineStr"/>
+      <c r="L316" t="n">
+        <v>980</v>
+      </c>
+      <c r="M316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N316" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" s="1" t="n">
+        <v>315</v>
+      </c>
+      <c r="B317" t="n">
+        <v>975</v>
+      </c>
+      <c r="C317" t="n">
+        <v>975</v>
+      </c>
+      <c r="D317" t="n">
+        <v>975</v>
+      </c>
+      <c r="E317" t="n">
+        <v>975</v>
+      </c>
+      <c r="F317" t="n">
+        <v>194.7099</v>
+      </c>
+      <c r="G317" t="n">
+        <v>976.0666666666667</v>
+      </c>
+      <c r="H317" t="n">
+        <v>977.0333333333333</v>
+      </c>
+      <c r="I317" t="n">
+        <v>0</v>
+      </c>
+      <c r="J317" t="n">
+        <v>0</v>
+      </c>
+      <c r="K317" t="inlineStr"/>
+      <c r="L317" t="n">
+        <v>980</v>
+      </c>
+      <c r="M317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N317" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" s="1" t="n">
+        <v>316</v>
+      </c>
+      <c r="B318" t="n">
+        <v>979</v>
+      </c>
+      <c r="C318" t="n">
+        <v>979</v>
+      </c>
+      <c r="D318" t="n">
+        <v>979</v>
+      </c>
+      <c r="E318" t="n">
+        <v>979</v>
+      </c>
+      <c r="F318" t="n">
+        <v>5.388</v>
+      </c>
+      <c r="G318" t="n">
+        <v>976.7333333333333</v>
+      </c>
+      <c r="H318" t="n">
+        <v>976.7333333333333</v>
+      </c>
+      <c r="I318" t="n">
+        <v>0</v>
+      </c>
+      <c r="J318" t="n">
+        <v>0</v>
+      </c>
+      <c r="K318" t="inlineStr"/>
+      <c r="L318" t="n">
+        <v>980</v>
+      </c>
+      <c r="M318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N318" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" s="1" t="n">
+        <v>317</v>
+      </c>
+      <c r="B319" t="n">
+        <v>979</v>
+      </c>
+      <c r="C319" t="n">
+        <v>979</v>
+      </c>
+      <c r="D319" t="n">
+        <v>979</v>
+      </c>
+      <c r="E319" t="n">
+        <v>979</v>
+      </c>
+      <c r="F319" t="n">
+        <v>1.3884</v>
+      </c>
+      <c r="G319" t="n">
+        <v>976.9333333333333</v>
+      </c>
+      <c r="H319" t="n">
+        <v>976.4333333333333</v>
+      </c>
+      <c r="I319" t="n">
+        <v>0</v>
+      </c>
+      <c r="J319" t="n">
+        <v>0</v>
+      </c>
+      <c r="K319" t="inlineStr"/>
+      <c r="L319" t="n">
+        <v>980</v>
+      </c>
+      <c r="M319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N319" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-26 BackTest OMG.xlsx
+++ b/BackTest/2019-10-26 BackTest OMG.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>14867.8598</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>14571.298</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>991</v>
@@ -521,7 +521,7 @@
         <v>14302.3341</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>979</v>
@@ -562,7 +562,7 @@
         <v>14307.1018</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>977</v>
@@ -603,7 +603,7 @@
         <v>12400.9012</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>978</v>
@@ -644,7 +644,7 @@
         <v>11775.3841</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>972</v>
@@ -685,7 +685,7 @@
         <v>11875.2054</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>962</v>
@@ -726,7 +726,7 @@
         <v>12059.8024</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>966</v>
@@ -767,7 +767,7 @@
         <v>12055.042</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>972</v>
@@ -808,7 +808,7 @@
         <v>13021.5558</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>963</v>
@@ -849,7 +849,7 @@
         <v>13033.0438</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>965</v>
@@ -890,7 +890,7 @@
         <v>13033.0438</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>970</v>
@@ -931,9 +931,11 @@
         <v>13049.7707</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>970</v>
+      </c>
       <c r="J14" t="n">
         <v>991</v>
       </c>
@@ -970,7 +972,7 @@
         <v>13051.9228</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>972</v>
@@ -1050,7 +1052,7 @@
         <v>12125.4323</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
         <v>972</v>
@@ -6473,7 +6475,7 @@
         <v>23505.70514889526</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="n">
@@ -6481,11 +6483,11 @@
       </c>
       <c r="K156" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L156" t="n">
-        <v>1</v>
+        <v>1.03031786074672</v>
       </c>
       <c r="M156" t="inlineStr"/>
     </row>
@@ -6512,17 +6514,11 @@
         <v>22930.20514889526</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="n">
-        <v>991</v>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6551,17 +6547,11 @@
         <v>23401.26344889526</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="n">
-        <v>991</v>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6590,17 +6580,11 @@
         <v>23401.26344889526</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="n">
-        <v>991</v>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6629,17 +6613,11 @@
         <v>23417.86914889526</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="n">
-        <v>991</v>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6668,17 +6646,11 @@
         <v>25147.83124889526</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="n">
-        <v>991</v>
-      </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6707,17 +6679,11 @@
         <v>25508.63564889526</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="n">
-        <v>991</v>
-      </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6746,17 +6712,11 @@
         <v>25352.84984889526</v>
       </c>
       <c r="H163" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="n">
-        <v>991</v>
-      </c>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6785,17 +6745,11 @@
         <v>24136.53604889526</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="n">
-        <v>991</v>
-      </c>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6824,17 +6778,11 @@
         <v>23637.39124889526</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="n">
-        <v>991</v>
-      </c>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6863,17 +6811,11 @@
         <v>23576.56784889526</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="n">
-        <v>991</v>
-      </c>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6902,17 +6844,11 @@
         <v>24636.27744889526</v>
       </c>
       <c r="H167" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="n">
-        <v>991</v>
-      </c>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6941,17 +6877,11 @@
         <v>24636.27744889526</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="n">
-        <v>991</v>
-      </c>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6980,17 +6910,11 @@
         <v>24636.27744889526</v>
       </c>
       <c r="H169" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="n">
-        <v>991</v>
-      </c>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -7019,17 +6943,11 @@
         <v>24428.40204889526</v>
       </c>
       <c r="H170" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="n">
-        <v>991</v>
-      </c>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -7058,17 +6976,11 @@
         <v>31799.49614889525</v>
       </c>
       <c r="H171" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="n">
-        <v>991</v>
-      </c>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -7097,17 +7009,11 @@
         <v>32825.19234889525</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="n">
-        <v>991</v>
-      </c>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -7136,17 +7042,11 @@
         <v>30827.25834889525</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="n">
-        <v>991</v>
-      </c>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -7175,17 +7075,11 @@
         <v>30827.25834889525</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="n">
-        <v>991</v>
-      </c>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -7214,17 +7108,11 @@
         <v>31004.95464889525</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="n">
-        <v>991</v>
-      </c>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -7253,17 +7141,11 @@
         <v>30943.36454889525</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="n">
-        <v>991</v>
-      </c>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -7292,17 +7174,11 @@
         <v>30915.95114889525</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="n">
-        <v>991</v>
-      </c>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -7331,17 +7207,11 @@
         <v>30777.67554889525</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="n">
-        <v>991</v>
-      </c>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -7370,17 +7240,11 @@
         <v>28964.70134889525</v>
       </c>
       <c r="H179" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="n">
-        <v>991</v>
-      </c>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -7409,17 +7273,11 @@
         <v>28488.41314889525</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="n">
-        <v>991</v>
-      </c>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -7448,17 +7306,11 @@
         <v>28544.84204889525</v>
       </c>
       <c r="H181" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="n">
-        <v>991</v>
-      </c>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -7487,17 +7339,11 @@
         <v>28521.17224889525</v>
       </c>
       <c r="H182" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="n">
-        <v>991</v>
-      </c>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -7526,17 +7372,11 @@
         <v>28522.28224889525</v>
       </c>
       <c r="H183" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="n">
-        <v>991</v>
-      </c>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -7565,17 +7405,11 @@
         <v>28553.20214889525</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="n">
-        <v>991</v>
-      </c>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -7604,17 +7438,11 @@
         <v>28872.59764889525</v>
       </c>
       <c r="H185" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="n">
-        <v>991</v>
-      </c>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -7643,17 +7471,11 @@
         <v>28872.59764889525</v>
       </c>
       <c r="H186" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="n">
-        <v>991</v>
-      </c>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -7682,17 +7504,11 @@
         <v>29350.11564889525</v>
       </c>
       <c r="H187" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="n">
-        <v>991</v>
-      </c>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7721,17 +7537,11 @@
         <v>29340.11564889525</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="n">
-        <v>991</v>
-      </c>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7760,17 +7570,11 @@
         <v>29683.69444889525</v>
       </c>
       <c r="H189" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="n">
-        <v>991</v>
-      </c>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7799,17 +7603,11 @@
         <v>29683.69444889525</v>
       </c>
       <c r="H190" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="n">
-        <v>991</v>
-      </c>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7838,17 +7636,11 @@
         <v>29683.69444889525</v>
       </c>
       <c r="H191" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="n">
-        <v>991</v>
-      </c>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7877,17 +7669,11 @@
         <v>29683.69444889525</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="n">
-        <v>991</v>
-      </c>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7916,17 +7702,11 @@
         <v>29683.69444889525</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="n">
-        <v>991</v>
-      </c>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7955,17 +7735,11 @@
         <v>29683.69444889525</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="n">
-        <v>991</v>
-      </c>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7994,17 +7768,11 @@
         <v>29714.15584889525</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="n">
-        <v>991</v>
-      </c>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -8033,17 +7801,11 @@
         <v>30314.15584889525</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="n">
-        <v>991</v>
-      </c>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -8072,17 +7834,11 @@
         <v>30296.57954889525</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="n">
-        <v>991</v>
-      </c>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -8111,17 +7867,11 @@
         <v>30165.46134889525</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="n">
-        <v>991</v>
-      </c>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -8150,17 +7900,11 @@
         <v>29856.51344889525</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="n">
-        <v>991</v>
-      </c>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -8189,17 +7933,11 @@
         <v>29856.51344889525</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="n">
-        <v>991</v>
-      </c>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -8228,17 +7966,11 @@
         <v>30055.85774889525</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="n">
-        <v>991</v>
-      </c>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -8267,17 +7999,11 @@
         <v>30057.43804889525</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="n">
-        <v>991</v>
-      </c>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -8306,17 +8032,11 @@
         <v>30048.56674889525</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="n">
-        <v>991</v>
-      </c>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -8345,17 +8065,11 @@
         <v>29840.65904889525</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="n">
-        <v>991</v>
-      </c>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -8384,17 +8098,11 @@
         <v>30787.13464889525</v>
       </c>
       <c r="H205" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="n">
-        <v>991</v>
-      </c>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -8423,17 +8131,11 @@
         <v>30781.03994889525</v>
       </c>
       <c r="H206" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="n">
-        <v>991</v>
-      </c>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -8462,17 +8164,11 @@
         <v>30783.82534889525</v>
       </c>
       <c r="H207" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="n">
-        <v>991</v>
-      </c>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -8501,17 +8197,11 @@
         <v>30772.98374889525</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="n">
-        <v>991</v>
-      </c>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -8540,17 +8230,11 @@
         <v>30727.22484889525</v>
       </c>
       <c r="H209" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="n">
-        <v>991</v>
-      </c>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -8579,17 +8263,11 @@
         <v>30685.61304889525</v>
       </c>
       <c r="H210" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="n">
-        <v>991</v>
-      </c>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -8618,17 +8296,11 @@
         <v>30713.52274889525</v>
       </c>
       <c r="H211" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="n">
-        <v>991</v>
-      </c>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -8657,17 +8329,11 @@
         <v>30641.40424889525</v>
       </c>
       <c r="H212" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="n">
-        <v>991</v>
-      </c>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -8696,17 +8362,11 @@
         <v>30121.07944889525</v>
       </c>
       <c r="H213" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="n">
-        <v>991</v>
-      </c>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="inlineStr"/>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -8735,17 +8395,11 @@
         <v>30198.15174889525</v>
       </c>
       <c r="H214" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="n">
-        <v>991</v>
-      </c>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr"/>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -8774,17 +8428,11 @@
         <v>30327.09024889525</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="n">
-        <v>991</v>
-      </c>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr"/>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -8813,17 +8461,11 @@
         <v>29104.91384889525</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="n">
-        <v>991</v>
-      </c>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr"/>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -8852,17 +8494,11 @@
         <v>29773.52584889525</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="n">
-        <v>991</v>
-      </c>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -8891,17 +8527,11 @@
         <v>29773.52584889525</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="n">
-        <v>991</v>
-      </c>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="inlineStr"/>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -8930,17 +8560,11 @@
         <v>29398.49164889525</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="n">
-        <v>991</v>
-      </c>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="inlineStr"/>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -8969,17 +8593,11 @@
         <v>29398.49164889525</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="n">
-        <v>991</v>
-      </c>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -9008,17 +8626,11 @@
         <v>28899.59254889526</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="n">
-        <v>991</v>
-      </c>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -9047,17 +8659,11 @@
         <v>28833.99994889526</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="n">
-        <v>991</v>
-      </c>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -9086,17 +8692,11 @@
         <v>28309.36964889526</v>
       </c>
       <c r="H223" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="n">
-        <v>991</v>
-      </c>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="inlineStr"/>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -9125,17 +8725,11 @@
         <v>27938.10794889526</v>
       </c>
       <c r="H224" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="n">
-        <v>991</v>
-      </c>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="inlineStr"/>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -9164,17 +8758,11 @@
         <v>27938.10794889526</v>
       </c>
       <c r="H225" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="n">
-        <v>991</v>
-      </c>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="inlineStr"/>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -9203,17 +8791,11 @@
         <v>27954.37284889525</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="n">
-        <v>991</v>
-      </c>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="inlineStr"/>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -9242,17 +8824,11 @@
         <v>27920.65544889525</v>
       </c>
       <c r="H227" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="n">
-        <v>991</v>
-      </c>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="inlineStr"/>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -9281,17 +8857,11 @@
         <v>28003.56294889525</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="n">
-        <v>991</v>
-      </c>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="inlineStr"/>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -9320,17 +8890,11 @@
         <v>28097.70144889526</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="n">
-        <v>991</v>
-      </c>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="inlineStr"/>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -9359,17 +8923,11 @@
         <v>28049.45974889526</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="n">
-        <v>991</v>
-      </c>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="inlineStr"/>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -9398,17 +8956,11 @@
         <v>28069.71684889526</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="n">
-        <v>991</v>
-      </c>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="inlineStr"/>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -9437,17 +8989,11 @@
         <v>28376.82064889526</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="n">
-        <v>991</v>
-      </c>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J232" t="inlineStr"/>
+      <c r="K232" t="inlineStr"/>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -9476,17 +9022,11 @@
         <v>28376.82064889526</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="n">
-        <v>991</v>
-      </c>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J233" t="inlineStr"/>
+      <c r="K233" t="inlineStr"/>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -9515,17 +9055,11 @@
         <v>28207.80184889525</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="n">
-        <v>991</v>
-      </c>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J234" t="inlineStr"/>
+      <c r="K234" t="inlineStr"/>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -9554,17 +9088,11 @@
         <v>28207.80184889525</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="n">
-        <v>991</v>
-      </c>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="inlineStr"/>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -9593,17 +9121,11 @@
         <v>28279.96554889526</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="n">
-        <v>991</v>
-      </c>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J236" t="inlineStr"/>
+      <c r="K236" t="inlineStr"/>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -9632,17 +9154,11 @@
         <v>28216.57254889526</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="n">
-        <v>991</v>
-      </c>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J237" t="inlineStr"/>
+      <c r="K237" t="inlineStr"/>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -9671,17 +9187,11 @@
         <v>28217.69944889526</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="n">
-        <v>991</v>
-      </c>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J238" t="inlineStr"/>
+      <c r="K238" t="inlineStr"/>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -9713,14 +9223,8 @@
         <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="n">
-        <v>991</v>
-      </c>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J239" t="inlineStr"/>
+      <c r="K239" t="inlineStr"/>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -9752,14 +9256,8 @@
         <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="n">
-        <v>991</v>
-      </c>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J240" t="inlineStr"/>
+      <c r="K240" t="inlineStr"/>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -9788,17 +9286,11 @@
         <v>27989.29634889526</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="n">
-        <v>991</v>
-      </c>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J241" t="inlineStr"/>
+      <c r="K241" t="inlineStr"/>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -9830,14 +9322,8 @@
         <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="n">
-        <v>991</v>
-      </c>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J242" t="inlineStr"/>
+      <c r="K242" t="inlineStr"/>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -9869,14 +9355,8 @@
         <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="n">
-        <v>991</v>
-      </c>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J243" t="inlineStr"/>
+      <c r="K243" t="inlineStr"/>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -9908,14 +9388,8 @@
         <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="n">
-        <v>991</v>
-      </c>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J244" t="inlineStr"/>
+      <c r="K244" t="inlineStr"/>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -9947,14 +9421,8 @@
         <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="n">
-        <v>991</v>
-      </c>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J245" t="inlineStr"/>
+      <c r="K245" t="inlineStr"/>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -9986,14 +9454,8 @@
         <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="n">
-        <v>991</v>
-      </c>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J246" t="inlineStr"/>
+      <c r="K246" t="inlineStr"/>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -10025,14 +9487,8 @@
         <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="n">
-        <v>991</v>
-      </c>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J247" t="inlineStr"/>
+      <c r="K247" t="inlineStr"/>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -10064,14 +9520,8 @@
         <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="n">
-        <v>991</v>
-      </c>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J248" t="inlineStr"/>
+      <c r="K248" t="inlineStr"/>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -10103,14 +9553,8 @@
         <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="n">
-        <v>991</v>
-      </c>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J249" t="inlineStr"/>
+      <c r="K249" t="inlineStr"/>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -10142,14 +9586,8 @@
         <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="n">
-        <v>991</v>
-      </c>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J250" t="inlineStr"/>
+      <c r="K250" t="inlineStr"/>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -10181,14 +9619,8 @@
         <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="n">
-        <v>991</v>
-      </c>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J251" t="inlineStr"/>
+      <c r="K251" t="inlineStr"/>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -10220,14 +9652,8 @@
         <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="n">
-        <v>991</v>
-      </c>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J252" t="inlineStr"/>
+      <c r="K252" t="inlineStr"/>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -10259,14 +9685,8 @@
         <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="n">
-        <v>991</v>
-      </c>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J253" t="inlineStr"/>
+      <c r="K253" t="inlineStr"/>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -10295,19 +9715,13 @@
         <v>29264.86842181402</v>
       </c>
       <c r="H254" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="n">
-        <v>991</v>
-      </c>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J254" t="inlineStr"/>
+      <c r="K254" t="inlineStr"/>
       <c r="L254" t="n">
-        <v>1.004081735620585</v>
+        <v>1</v>
       </c>
       <c r="M254" t="inlineStr"/>
     </row>
@@ -10565,7 +9979,7 @@
         <v>31758.93652181402</v>
       </c>
       <c r="H262" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -10598,7 +10012,7 @@
         <v>31796.93652181402</v>
       </c>
       <c r="H263" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -10631,7 +10045,7 @@
         <v>31796.93652181402</v>
       </c>
       <c r="H264" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -10664,7 +10078,7 @@
         <v>31796.93652181402</v>
       </c>
       <c r="H265" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -10697,7 +10111,7 @@
         <v>31831.86962181402</v>
       </c>
       <c r="H266" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -10730,7 +10144,7 @@
         <v>31671.75492181402</v>
       </c>
       <c r="H267" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -10763,7 +10177,7 @@
         <v>32291.35492181402</v>
       </c>
       <c r="H268" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -10796,7 +10210,7 @@
         <v>32291.35492181402</v>
       </c>
       <c r="H269" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -10829,7 +10243,7 @@
         <v>32165.49652181402</v>
       </c>
       <c r="H270" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -10862,7 +10276,7 @@
         <v>32655.21482181402</v>
       </c>
       <c r="H271" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -10895,7 +10309,7 @@
         <v>32129.82842181402</v>
       </c>
       <c r="H272" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -10928,7 +10342,7 @@
         <v>31852.53322181402</v>
       </c>
       <c r="H273" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -10961,7 +10375,7 @@
         <v>31852.53322181402</v>
       </c>
       <c r="H274" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -10994,7 +10408,7 @@
         <v>31835.77202181402</v>
       </c>
       <c r="H275" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -11027,7 +10441,7 @@
         <v>31835.77202181402</v>
       </c>
       <c r="H276" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -11060,7 +10474,7 @@
         <v>31786.24362181402</v>
       </c>
       <c r="H277" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -11093,7 +10507,7 @@
         <v>31786.24362181402</v>
       </c>
       <c r="H278" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -11126,7 +10540,7 @@
         <v>34010.96112181402</v>
       </c>
       <c r="H279" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -11159,7 +10573,7 @@
         <v>33757.47402181402</v>
       </c>
       <c r="H280" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -11192,7 +10606,7 @@
         <v>33628.91762181402</v>
       </c>
       <c r="H281" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -11225,7 +10639,7 @@
         <v>33630.21762181402</v>
       </c>
       <c r="H282" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -11258,7 +10672,7 @@
         <v>31430.21762181402</v>
       </c>
       <c r="H283" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -11291,7 +10705,7 @@
         <v>31862.33172181402</v>
       </c>
       <c r="H284" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -11324,7 +10738,7 @@
         <v>31853.86872181402</v>
       </c>
       <c r="H285" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -11357,7 +10771,7 @@
         <v>30777.33522181402</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -11390,7 +10804,7 @@
         <v>31127.33522181402</v>
       </c>
       <c r="H287" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -11423,7 +10837,7 @@
         <v>31128.33522181402</v>
       </c>
       <c r="H288" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -11456,7 +10870,7 @@
         <v>31128.33522181402</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -11489,7 +10903,7 @@
         <v>31128.33522181402</v>
       </c>
       <c r="H290" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -11522,7 +10936,7 @@
         <v>31028.33522181402</v>
       </c>
       <c r="H291" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -11555,7 +10969,7 @@
         <v>31022.78572181402</v>
       </c>
       <c r="H292" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -11588,7 +11002,7 @@
         <v>31034.62872181402</v>
       </c>
       <c r="H293" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -11621,7 +11035,7 @@
         <v>31034.62872181402</v>
       </c>
       <c r="H294" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -11654,7 +11068,7 @@
         <v>31440.78862181402</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -11687,7 +11101,7 @@
         <v>31454.71182181402</v>
       </c>
       <c r="H296" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -11720,7 +11134,7 @@
         <v>31454.71182181402</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -11753,7 +11167,7 @@
         <v>31471.82332181402</v>
       </c>
       <c r="H298" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -11786,7 +11200,7 @@
         <v>31440.31412181402</v>
       </c>
       <c r="H299" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -11819,7 +11233,7 @@
         <v>31450.64132181402</v>
       </c>
       <c r="H300" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -11852,7 +11266,7 @@
         <v>31532.26732181402</v>
       </c>
       <c r="H301" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -11984,7 +11398,7 @@
         <v>30660.49712181402</v>
       </c>
       <c r="H305" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -12050,7 +11464,7 @@
         <v>30627.93992181402</v>
       </c>
       <c r="H307" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -12083,7 +11497,7 @@
         <v>30619.93992181402</v>
       </c>
       <c r="H308" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -12116,7 +11530,7 @@
         <v>30606.56862181402</v>
       </c>
       <c r="H309" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -12149,7 +11563,7 @@
         <v>30606.56862181402</v>
       </c>
       <c r="H310" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -12215,7 +11629,7 @@
         <v>31108.31642181402</v>
       </c>
       <c r="H312" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -12248,7 +11662,7 @@
         <v>30501.07462181402</v>
       </c>
       <c r="H313" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
@@ -12281,7 +11695,7 @@
         <v>31393.07802181402</v>
       </c>
       <c r="H314" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
@@ -12314,7 +11728,7 @@
         <v>31393.07802181402</v>
       </c>
       <c r="H315" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
@@ -12347,7 +11761,7 @@
         <v>30893.07802181402</v>
       </c>
       <c r="H316" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
@@ -12380,7 +11794,7 @@
         <v>30893.07802181402</v>
       </c>
       <c r="H317" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
@@ -12413,7 +11827,7 @@
         <v>30893.07802181402</v>
       </c>
       <c r="H318" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
@@ -12446,7 +11860,7 @@
         <v>30893.07802181402</v>
       </c>
       <c r="H319" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
@@ -12479,7 +11893,7 @@
         <v>30877.17862181403</v>
       </c>
       <c r="H320" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
@@ -12512,7 +11926,7 @@
         <v>31373.42872181403</v>
       </c>
       <c r="H321" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
@@ -12545,7 +11959,7 @@
         <v>31359.93312181403</v>
       </c>
       <c r="H322" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
@@ -12578,7 +11992,7 @@
         <v>31359.93312181403</v>
       </c>
       <c r="H323" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
@@ -12611,7 +12025,7 @@
         <v>31339.93312181403</v>
       </c>
       <c r="H324" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
@@ -12644,7 +12058,7 @@
         <v>31338.10752181403</v>
       </c>
       <c r="H325" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
@@ -12677,7 +12091,7 @@
         <v>31593.10752181403</v>
       </c>
       <c r="H326" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
@@ -12710,7 +12124,7 @@
         <v>31593.10752181403</v>
       </c>
       <c r="H327" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
@@ -12743,7 +12157,7 @@
         <v>31593.10752181403</v>
       </c>
       <c r="H328" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
@@ -12776,7 +12190,7 @@
         <v>31593.10752181403</v>
       </c>
       <c r="H329" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
@@ -12809,7 +12223,7 @@
         <v>31564.93312181403</v>
       </c>
       <c r="H330" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
@@ -12842,7 +12256,7 @@
         <v>31561.87332181403</v>
       </c>
       <c r="H331" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
@@ -12908,7 +12322,7 @@
         <v>31312.42872181403</v>
       </c>
       <c r="H333" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
@@ -12941,7 +12355,7 @@
         <v>31341.32872181403</v>
       </c>
       <c r="H334" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
@@ -13007,7 +12421,7 @@
         <v>31292.37712181403</v>
       </c>
       <c r="H336" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
@@ -13073,7 +12487,7 @@
         <v>31277.72452181403</v>
       </c>
       <c r="H338" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
@@ -13106,7 +12520,7 @@
         <v>31264.00262181403</v>
       </c>
       <c r="H339" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
@@ -13139,7 +12553,7 @@
         <v>31327.93312181403</v>
       </c>
       <c r="H340" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
@@ -13172,7 +12586,7 @@
         <v>31323.13362181403</v>
       </c>
       <c r="H341" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
@@ -13205,7 +12619,7 @@
         <v>31004.80172181403</v>
       </c>
       <c r="H342" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
@@ -13238,7 +12652,7 @@
         <v>31041.03932181403</v>
       </c>
       <c r="H343" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
@@ -13271,7 +12685,7 @@
         <v>32499.25262181403</v>
       </c>
       <c r="H344" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
@@ -13304,7 +12718,7 @@
         <v>32445.28722181403</v>
       </c>
       <c r="H345" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
@@ -13337,7 +12751,7 @@
         <v>32396.43492181403</v>
       </c>
       <c r="H346" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
@@ -13370,7 +12784,7 @@
         <v>32705.50222181403</v>
       </c>
       <c r="H347" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
@@ -14371,6 +13785,6 @@
       <c r="M377" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-26 BackTest OMG.xlsx
+++ b/BackTest/2019-10-26 BackTest OMG.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>14867.8598</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,14 +484,10 @@
         <v>14571.298</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>991</v>
-      </c>
-      <c r="J3" t="n">
-        <v>991</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -521,19 +517,11 @@
         <v>14302.3341</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>979</v>
-      </c>
-      <c r="J4" t="n">
-        <v>991</v>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -562,19 +550,11 @@
         <v>14307.1018</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>977</v>
-      </c>
-      <c r="J5" t="n">
-        <v>991</v>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -603,19 +583,11 @@
         <v>12400.9012</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>978</v>
-      </c>
-      <c r="J6" t="n">
-        <v>991</v>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -644,19 +616,11 @@
         <v>11775.3841</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>972</v>
-      </c>
-      <c r="J7" t="n">
-        <v>991</v>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -685,19 +649,11 @@
         <v>11875.2054</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>962</v>
-      </c>
-      <c r="J8" t="n">
-        <v>991</v>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -726,19 +682,11 @@
         <v>12059.8024</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>966</v>
-      </c>
-      <c r="J9" t="n">
-        <v>991</v>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -767,19 +715,11 @@
         <v>12055.042</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>972</v>
-      </c>
-      <c r="J10" t="n">
-        <v>991</v>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -808,19 +748,11 @@
         <v>13021.5558</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>963</v>
-      </c>
-      <c r="J11" t="n">
-        <v>991</v>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -849,19 +781,11 @@
         <v>13033.0438</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>965</v>
-      </c>
-      <c r="J12" t="n">
-        <v>991</v>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -890,19 +814,11 @@
         <v>13033.0438</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>970</v>
-      </c>
-      <c r="J13" t="n">
-        <v>991</v>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -931,19 +847,11 @@
         <v>13049.7707</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>970</v>
-      </c>
-      <c r="J14" t="n">
-        <v>991</v>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -972,19 +880,11 @@
         <v>13051.9228</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>972</v>
-      </c>
-      <c r="J15" t="n">
-        <v>991</v>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -1013,17 +913,11 @@
         <v>12051.9228</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="n">
-        <v>991</v>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -1052,19 +946,11 @@
         <v>12125.4323</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>972</v>
-      </c>
-      <c r="J17" t="n">
-        <v>991</v>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1093,17 +979,11 @@
         <v>12125.4323</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="n">
-        <v>991</v>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1132,17 +1012,11 @@
         <v>12160.9174</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="n">
-        <v>991</v>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1171,17 +1045,11 @@
         <v>12194.5773</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="n">
-        <v>991</v>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1210,17 +1078,11 @@
         <v>12210.2565</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="n">
-        <v>991</v>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1249,17 +1111,11 @@
         <v>12053.7987</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="n">
-        <v>991</v>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1288,17 +1144,11 @@
         <v>12164.3177</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="n">
-        <v>991</v>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1327,17 +1177,11 @@
         <v>13381.9784</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="n">
-        <v>991</v>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1366,17 +1210,11 @@
         <v>12956.1985</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="n">
-        <v>991</v>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1408,14 +1246,8 @@
         <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="n">
-        <v>991</v>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1447,14 +1279,8 @@
         <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="n">
-        <v>991</v>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1486,14 +1312,8 @@
         <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="n">
-        <v>991</v>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1525,14 +1345,8 @@
         <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="n">
-        <v>991</v>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1564,14 +1378,8 @@
         <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="n">
-        <v>991</v>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1603,14 +1411,8 @@
         <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="n">
-        <v>991</v>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1642,14 +1444,8 @@
         <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="n">
-        <v>991</v>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1681,14 +1477,8 @@
         <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="n">
-        <v>991</v>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1720,14 +1510,8 @@
         <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="n">
-        <v>991</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1759,14 +1543,8 @@
         <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="n">
-        <v>991</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1798,14 +1576,8 @@
         <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="n">
-        <v>991</v>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1837,14 +1609,8 @@
         <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="n">
-        <v>991</v>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1876,14 +1642,8 @@
         <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="n">
-        <v>991</v>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1915,14 +1675,8 @@
         <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="n">
-        <v>991</v>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1951,15 +1705,15 @@
         <v>15789.66048260427</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="n">
-        <v>991</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I40" t="n">
+        <v>965</v>
+      </c>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L40" t="n">
@@ -1990,12 +1744,12 @@
         <v>15595.92598260427</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="n">
-        <v>991</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I41" t="n">
+        <v>961</v>
+      </c>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2029,12 +1783,12 @@
         <v>15614.92538260427</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="n">
-        <v>991</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>960</v>
+      </c>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2068,12 +1822,12 @@
         <v>16872.72538260427</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="n">
-        <v>991</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I43" t="n">
+        <v>973</v>
+      </c>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2110,9 +1864,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="n">
-        <v>991</v>
-      </c>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2149,9 +1901,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="n">
-        <v>991</v>
-      </c>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2188,9 +1938,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="n">
-        <v>991</v>
-      </c>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2227,9 +1975,7 @@
         <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
-        <v>991</v>
-      </c>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2266,9 +2012,7 @@
         <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="n">
-        <v>991</v>
-      </c>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2305,9 +2049,7 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="n">
-        <v>991</v>
-      </c>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2344,9 +2086,7 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="n">
-        <v>991</v>
-      </c>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2383,9 +2123,7 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
-        <v>991</v>
-      </c>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2422,9 +2160,7 @@
         <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="n">
-        <v>991</v>
-      </c>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2461,9 +2197,7 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="n">
-        <v>991</v>
-      </c>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2500,9 +2234,7 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="n">
-        <v>991</v>
-      </c>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2536,12 +2268,12 @@
         <v>15447.45298260427</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>991</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I55" t="n">
+        <v>968</v>
+      </c>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2578,9 +2310,7 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="n">
-        <v>991</v>
-      </c>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2617,9 +2347,7 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>991</v>
-      </c>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2656,9 +2384,7 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>991</v>
-      </c>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2695,9 +2421,7 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
-        <v>991</v>
-      </c>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2734,9 +2458,7 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>991</v>
-      </c>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2773,9 +2495,7 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>991</v>
-      </c>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2812,9 +2532,7 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>991</v>
-      </c>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2851,9 +2569,7 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="n">
-        <v>991</v>
-      </c>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2890,9 +2606,7 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
-        <v>991</v>
-      </c>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2929,9 +2643,7 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
-        <v>991</v>
-      </c>
+      <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2968,9 +2680,7 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
-        <v>991</v>
-      </c>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3007,9 +2717,7 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="n">
-        <v>991</v>
-      </c>
+      <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3046,9 +2754,7 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>991</v>
-      </c>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3085,9 +2791,7 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>991</v>
-      </c>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3124,9 +2828,7 @@
         <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>991</v>
-      </c>
+      <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3163,9 +2865,7 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>991</v>
-      </c>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3202,9 +2902,7 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>991</v>
-      </c>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3241,9 +2939,7 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>991</v>
-      </c>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3280,9 +2976,7 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>991</v>
-      </c>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3319,9 +3013,7 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>991</v>
-      </c>
+      <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3358,9 +3050,7 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>991</v>
-      </c>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3397,9 +3087,7 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>991</v>
-      </c>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3436,9 +3124,7 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>991</v>
-      </c>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3475,9 +3161,7 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>991</v>
-      </c>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3514,9 +3198,7 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>991</v>
-      </c>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3553,9 +3235,7 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>991</v>
-      </c>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3592,9 +3272,7 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>991</v>
-      </c>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3631,9 +3309,7 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>991</v>
-      </c>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3667,12 +3343,12 @@
         <v>14425.61958260427</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>991</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I84" t="n">
+        <v>957</v>
+      </c>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3709,9 +3385,7 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>991</v>
-      </c>
+      <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3745,12 +3419,12 @@
         <v>14471.99168260427</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>991</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I86" t="n">
+        <v>965</v>
+      </c>
+      <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3787,9 +3461,7 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>991</v>
-      </c>
+      <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3826,9 +3498,7 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>991</v>
-      </c>
+      <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3865,9 +3535,7 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>991</v>
-      </c>
+      <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3904,9 +3572,7 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>991</v>
-      </c>
+      <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3943,9 +3609,7 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>991</v>
-      </c>
+      <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3982,9 +3646,7 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>991</v>
-      </c>
+      <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4021,9 +3683,7 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>991</v>
-      </c>
+      <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4057,12 +3717,12 @@
         <v>10969.86198260427</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>991</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I94" t="n">
+        <v>968</v>
+      </c>
+      <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4096,12 +3756,12 @@
         <v>11362.32258260427</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>991</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I95" t="n">
+        <v>966</v>
+      </c>
+      <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4135,12 +3795,12 @@
         <v>11380.94858260427</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>991</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I96" t="n">
+        <v>970</v>
+      </c>
+      <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4174,12 +3834,12 @@
         <v>11380.94858260427</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>991</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I97" t="n">
+        <v>973</v>
+      </c>
+      <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4216,9 +3876,7 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>991</v>
-      </c>
+      <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4255,9 +3913,7 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>991</v>
-      </c>
+      <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4294,9 +3950,7 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>991</v>
-      </c>
+      <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4333,9 +3987,7 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>991</v>
-      </c>
+      <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4372,9 +4024,7 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>991</v>
-      </c>
+      <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4411,9 +4061,7 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>991</v>
-      </c>
+      <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4450,9 +4098,7 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>991</v>
-      </c>
+      <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4489,9 +4135,7 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>991</v>
-      </c>
+      <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4528,9 +4172,7 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>991</v>
-      </c>
+      <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4567,9 +4209,7 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>991</v>
-      </c>
+      <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4606,9 +4246,7 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>991</v>
-      </c>
+      <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4645,9 +4283,7 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>991</v>
-      </c>
+      <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4684,9 +4320,7 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>991</v>
-      </c>
+      <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4723,9 +4357,7 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>991</v>
-      </c>
+      <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4762,9 +4394,7 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>991</v>
-      </c>
+      <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4801,9 +4431,7 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>991</v>
-      </c>
+      <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4840,9 +4468,7 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>991</v>
-      </c>
+      <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4879,9 +4505,7 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>991</v>
-      </c>
+      <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4918,9 +4542,7 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>991</v>
-      </c>
+      <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4957,9 +4579,7 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>991</v>
-      </c>
+      <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4996,9 +4616,7 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>991</v>
-      </c>
+      <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5035,9 +4653,7 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>991</v>
-      </c>
+      <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5074,9 +4690,7 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>991</v>
-      </c>
+      <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5113,9 +4727,7 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>991</v>
-      </c>
+      <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5152,9 +4764,7 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>991</v>
-      </c>
+      <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5191,9 +4801,7 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>991</v>
-      </c>
+      <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5230,9 +4838,7 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>991</v>
-      </c>
+      <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5269,9 +4875,7 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>991</v>
-      </c>
+      <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5308,9 +4912,7 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>991</v>
-      </c>
+      <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5347,9 +4949,7 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>991</v>
-      </c>
+      <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5386,9 +4986,7 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>991</v>
-      </c>
+      <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5425,9 +5023,7 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>991</v>
-      </c>
+      <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5464,9 +5060,7 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>991</v>
-      </c>
+      <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5503,9 +5097,7 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>991</v>
-      </c>
+      <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5542,9 +5134,7 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>991</v>
-      </c>
+      <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5581,9 +5171,7 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>991</v>
-      </c>
+      <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5620,9 +5208,7 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>991</v>
-      </c>
+      <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5659,9 +5245,7 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>991</v>
-      </c>
+      <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5698,9 +5282,7 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>991</v>
-      </c>
+      <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5737,9 +5319,7 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>991</v>
-      </c>
+      <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5776,9 +5356,7 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>991</v>
-      </c>
+      <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5815,9 +5393,7 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>991</v>
-      </c>
+      <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5854,9 +5430,7 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>991</v>
-      </c>
+      <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5893,9 +5467,7 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>991</v>
-      </c>
+      <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5932,9 +5504,7 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>991</v>
-      </c>
+      <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5971,9 +5541,7 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>991</v>
-      </c>
+      <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6010,9 +5578,7 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>991</v>
-      </c>
+      <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6049,9 +5615,7 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>991</v>
-      </c>
+      <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6088,9 +5652,7 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>991</v>
-      </c>
+      <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6127,9 +5689,7 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>991</v>
-      </c>
+      <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6166,9 +5726,7 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>991</v>
-      </c>
+      <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6205,9 +5763,7 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>991</v>
-      </c>
+      <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6244,9 +5800,7 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>991</v>
-      </c>
+      <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6283,9 +5837,7 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>991</v>
-      </c>
+      <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6322,9 +5874,7 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>991</v>
-      </c>
+      <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6361,9 +5911,7 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="n">
-        <v>991</v>
-      </c>
+      <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6400,9 +5948,7 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="n">
-        <v>991</v>
-      </c>
+      <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6439,9 +5985,7 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="n">
-        <v>991</v>
-      </c>
+      <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6475,19 +6019,17 @@
         <v>23505.70514889526</v>
       </c>
       <c r="H156" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="n">
-        <v>991</v>
-      </c>
+      <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L156" t="n">
-        <v>1.03031786074672</v>
+        <v>1</v>
       </c>
       <c r="M156" t="inlineStr"/>
     </row>
@@ -6514,11 +6056,15 @@
         <v>22930.20514889526</v>
       </c>
       <c r="H157" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6547,11 +6093,15 @@
         <v>23401.26344889526</v>
       </c>
       <c r="H158" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6580,11 +6130,15 @@
         <v>23401.26344889526</v>
       </c>
       <c r="H159" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6613,11 +6167,15 @@
         <v>23417.86914889526</v>
       </c>
       <c r="H160" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6646,11 +6204,15 @@
         <v>25147.83124889526</v>
       </c>
       <c r="H161" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6679,11 +6241,15 @@
         <v>25508.63564889526</v>
       </c>
       <c r="H162" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6712,11 +6278,15 @@
         <v>25352.84984889526</v>
       </c>
       <c r="H163" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6745,11 +6315,15 @@
         <v>24136.53604889526</v>
       </c>
       <c r="H164" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6778,11 +6352,15 @@
         <v>23637.39124889526</v>
       </c>
       <c r="H165" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6811,11 +6389,15 @@
         <v>23576.56784889526</v>
       </c>
       <c r="H166" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6844,11 +6426,15 @@
         <v>24636.27744889526</v>
       </c>
       <c r="H167" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6877,11 +6463,15 @@
         <v>24636.27744889526</v>
       </c>
       <c r="H168" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6910,11 +6500,15 @@
         <v>24636.27744889526</v>
       </c>
       <c r="H169" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6943,11 +6537,15 @@
         <v>24428.40204889526</v>
       </c>
       <c r="H170" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6976,11 +6574,15 @@
         <v>31799.49614889525</v>
       </c>
       <c r="H171" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -7009,11 +6611,15 @@
         <v>32825.19234889525</v>
       </c>
       <c r="H172" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -7042,11 +6648,15 @@
         <v>30827.25834889525</v>
       </c>
       <c r="H173" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -7075,11 +6685,15 @@
         <v>30827.25834889525</v>
       </c>
       <c r="H174" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -7108,11 +6722,15 @@
         <v>31004.95464889525</v>
       </c>
       <c r="H175" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -7141,11 +6759,15 @@
         <v>30943.36454889525</v>
       </c>
       <c r="H176" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -7174,11 +6796,15 @@
         <v>30915.95114889525</v>
       </c>
       <c r="H177" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -7207,11 +6833,15 @@
         <v>30777.67554889525</v>
       </c>
       <c r="H178" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -7240,11 +6870,15 @@
         <v>28964.70134889525</v>
       </c>
       <c r="H179" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -7273,11 +6907,15 @@
         <v>28488.41314889525</v>
       </c>
       <c r="H180" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -7306,11 +6944,15 @@
         <v>28544.84204889525</v>
       </c>
       <c r="H181" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -7339,11 +6981,15 @@
         <v>28521.17224889525</v>
       </c>
       <c r="H182" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -7372,11 +7018,15 @@
         <v>28522.28224889525</v>
       </c>
       <c r="H183" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -7405,11 +7055,15 @@
         <v>28553.20214889525</v>
       </c>
       <c r="H184" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -7438,11 +7092,15 @@
         <v>28872.59764889525</v>
       </c>
       <c r="H185" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -7471,11 +7129,15 @@
         <v>28872.59764889525</v>
       </c>
       <c r="H186" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -7504,11 +7166,15 @@
         <v>29350.11564889525</v>
       </c>
       <c r="H187" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7537,11 +7203,15 @@
         <v>29340.11564889525</v>
       </c>
       <c r="H188" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7570,11 +7240,15 @@
         <v>29683.69444889525</v>
       </c>
       <c r="H189" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7603,11 +7277,15 @@
         <v>29683.69444889525</v>
       </c>
       <c r="H190" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7636,11 +7314,15 @@
         <v>29683.69444889525</v>
       </c>
       <c r="H191" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7669,11 +7351,15 @@
         <v>29683.69444889525</v>
       </c>
       <c r="H192" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7702,11 +7388,15 @@
         <v>29683.69444889525</v>
       </c>
       <c r="H193" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7735,11 +7425,15 @@
         <v>29683.69444889525</v>
       </c>
       <c r="H194" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7768,11 +7462,15 @@
         <v>29714.15584889525</v>
       </c>
       <c r="H195" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7801,11 +7499,15 @@
         <v>30314.15584889525</v>
       </c>
       <c r="H196" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7834,11 +7536,15 @@
         <v>30296.57954889525</v>
       </c>
       <c r="H197" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7867,11 +7573,15 @@
         <v>30165.46134889525</v>
       </c>
       <c r="H198" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7900,11 +7610,15 @@
         <v>29856.51344889525</v>
       </c>
       <c r="H199" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7933,11 +7647,15 @@
         <v>29856.51344889525</v>
       </c>
       <c r="H200" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7966,11 +7684,15 @@
         <v>30055.85774889525</v>
       </c>
       <c r="H201" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7999,11 +7721,15 @@
         <v>30057.43804889525</v>
       </c>
       <c r="H202" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -8032,11 +7758,15 @@
         <v>30048.56674889525</v>
       </c>
       <c r="H203" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -8065,11 +7795,15 @@
         <v>29840.65904889525</v>
       </c>
       <c r="H204" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -8098,11 +7832,15 @@
         <v>30787.13464889525</v>
       </c>
       <c r="H205" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -8131,11 +7869,15 @@
         <v>30781.03994889525</v>
       </c>
       <c r="H206" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -8164,11 +7906,15 @@
         <v>30783.82534889525</v>
       </c>
       <c r="H207" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -8197,11 +7943,15 @@
         <v>30772.98374889525</v>
       </c>
       <c r="H208" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -8230,11 +7980,15 @@
         <v>30727.22484889525</v>
       </c>
       <c r="H209" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -8263,11 +8017,15 @@
         <v>30685.61304889525</v>
       </c>
       <c r="H210" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -8296,11 +8054,15 @@
         <v>30713.52274889525</v>
       </c>
       <c r="H211" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -8329,11 +8091,15 @@
         <v>30641.40424889525</v>
       </c>
       <c r="H212" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -8362,11 +8128,15 @@
         <v>30121.07944889525</v>
       </c>
       <c r="H213" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -8395,11 +8165,15 @@
         <v>30198.15174889525</v>
       </c>
       <c r="H214" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -8428,11 +8202,15 @@
         <v>30327.09024889525</v>
       </c>
       <c r="H215" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -8461,11 +8239,15 @@
         <v>29104.91384889525</v>
       </c>
       <c r="H216" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -8494,11 +8276,15 @@
         <v>29773.52584889525</v>
       </c>
       <c r="H217" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -8527,11 +8313,15 @@
         <v>29773.52584889525</v>
       </c>
       <c r="H218" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -8560,11 +8350,15 @@
         <v>29398.49164889525</v>
       </c>
       <c r="H219" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -8593,11 +8387,15 @@
         <v>29398.49164889525</v>
       </c>
       <c r="H220" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -8626,11 +8424,15 @@
         <v>28899.59254889526</v>
       </c>
       <c r="H221" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -8659,11 +8461,15 @@
         <v>28833.99994889526</v>
       </c>
       <c r="H222" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -8692,11 +8498,15 @@
         <v>28309.36964889526</v>
       </c>
       <c r="H223" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -8725,11 +8535,15 @@
         <v>27938.10794889526</v>
       </c>
       <c r="H224" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8758,11 +8572,15 @@
         <v>27938.10794889526</v>
       </c>
       <c r="H225" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8791,11 +8609,15 @@
         <v>27954.37284889525</v>
       </c>
       <c r="H226" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8824,11 +8646,15 @@
         <v>27920.65544889525</v>
       </c>
       <c r="H227" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8857,11 +8683,15 @@
         <v>28003.56294889525</v>
       </c>
       <c r="H228" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8890,11 +8720,15 @@
         <v>28097.70144889526</v>
       </c>
       <c r="H229" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8923,11 +8757,15 @@
         <v>28049.45974889526</v>
       </c>
       <c r="H230" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8956,11 +8794,15 @@
         <v>28069.71684889526</v>
       </c>
       <c r="H231" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8989,11 +8831,15 @@
         <v>28376.82064889526</v>
       </c>
       <c r="H232" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -9022,11 +8868,15 @@
         <v>28376.82064889526</v>
       </c>
       <c r="H233" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -9055,11 +8905,15 @@
         <v>28207.80184889525</v>
       </c>
       <c r="H234" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -9088,11 +8942,15 @@
         <v>28207.80184889525</v>
       </c>
       <c r="H235" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -9121,11 +8979,15 @@
         <v>28279.96554889526</v>
       </c>
       <c r="H236" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -9154,11 +9016,15 @@
         <v>28216.57254889526</v>
       </c>
       <c r="H237" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -9187,11 +9053,15 @@
         <v>28217.69944889526</v>
       </c>
       <c r="H238" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -9224,7 +9094,11 @@
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -9257,7 +9131,11 @@
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -9286,11 +9164,15 @@
         <v>27989.29634889526</v>
       </c>
       <c r="H241" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -9323,7 +9205,11 @@
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -9356,7 +9242,11 @@
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -9389,7 +9279,11 @@
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -9422,7 +9316,11 @@
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -9455,7 +9353,11 @@
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -9488,7 +9390,11 @@
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -9521,7 +9427,11 @@
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -9554,7 +9464,11 @@
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -9587,7 +9501,11 @@
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -9620,7 +9538,11 @@
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -9653,7 +9575,11 @@
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -9686,7 +9612,11 @@
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -9719,7 +9649,11 @@
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -9752,7 +9686,11 @@
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -9785,7 +9723,11 @@
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -9818,7 +9760,11 @@
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -9851,7 +9797,11 @@
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -9884,7 +9834,11 @@
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -9917,7 +9871,11 @@
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9950,7 +9908,11 @@
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9979,11 +9941,15 @@
         <v>31758.93652181402</v>
       </c>
       <c r="H262" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -10012,11 +9978,15 @@
         <v>31796.93652181402</v>
       </c>
       <c r="H263" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -10045,11 +10015,15 @@
         <v>31796.93652181402</v>
       </c>
       <c r="H264" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -10078,11 +10052,15 @@
         <v>31796.93652181402</v>
       </c>
       <c r="H265" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -10111,11 +10089,15 @@
         <v>31831.86962181402</v>
       </c>
       <c r="H266" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -10144,11 +10126,15 @@
         <v>31671.75492181402</v>
       </c>
       <c r="H267" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -10181,7 +10167,11 @@
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -10210,11 +10200,15 @@
         <v>32291.35492181402</v>
       </c>
       <c r="H269" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -10243,11 +10237,15 @@
         <v>32165.49652181402</v>
       </c>
       <c r="H270" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -10276,11 +10274,15 @@
         <v>32655.21482181402</v>
       </c>
       <c r="H271" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -10309,11 +10311,15 @@
         <v>32129.82842181402</v>
       </c>
       <c r="H272" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -10342,11 +10348,15 @@
         <v>31852.53322181402</v>
       </c>
       <c r="H273" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -10375,11 +10385,15 @@
         <v>31852.53322181402</v>
       </c>
       <c r="H274" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -10408,11 +10422,15 @@
         <v>31835.77202181402</v>
       </c>
       <c r="H275" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -10441,11 +10459,15 @@
         <v>31835.77202181402</v>
       </c>
       <c r="H276" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -10474,11 +10496,15 @@
         <v>31786.24362181402</v>
       </c>
       <c r="H277" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -10507,11 +10533,15 @@
         <v>31786.24362181402</v>
       </c>
       <c r="H278" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -10540,11 +10570,15 @@
         <v>34010.96112181402</v>
       </c>
       <c r="H279" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -10573,11 +10607,15 @@
         <v>33757.47402181402</v>
       </c>
       <c r="H280" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -10606,11 +10644,15 @@
         <v>33628.91762181402</v>
       </c>
       <c r="H281" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -10639,11 +10681,15 @@
         <v>33630.21762181402</v>
       </c>
       <c r="H282" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -10672,11 +10718,15 @@
         <v>31430.21762181402</v>
       </c>
       <c r="H283" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -10705,11 +10755,15 @@
         <v>31862.33172181402</v>
       </c>
       <c r="H284" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -10738,11 +10792,15 @@
         <v>31853.86872181402</v>
       </c>
       <c r="H285" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -10771,11 +10829,15 @@
         <v>30777.33522181402</v>
       </c>
       <c r="H286" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -10804,11 +10866,15 @@
         <v>31127.33522181402</v>
       </c>
       <c r="H287" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -10837,11 +10903,15 @@
         <v>31128.33522181402</v>
       </c>
       <c r="H288" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -10870,11 +10940,15 @@
         <v>31128.33522181402</v>
       </c>
       <c r="H289" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -10903,11 +10977,15 @@
         <v>31128.33522181402</v>
       </c>
       <c r="H290" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -10936,11 +11014,15 @@
         <v>31028.33522181402</v>
       </c>
       <c r="H291" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10969,11 +11051,15 @@
         <v>31022.78572181402</v>
       </c>
       <c r="H292" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -11002,11 +11088,15 @@
         <v>31034.62872181402</v>
       </c>
       <c r="H293" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -11035,11 +11125,15 @@
         <v>31034.62872181402</v>
       </c>
       <c r="H294" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -11068,11 +11162,15 @@
         <v>31440.78862181402</v>
       </c>
       <c r="H295" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -11101,11 +11199,15 @@
         <v>31454.71182181402</v>
       </c>
       <c r="H296" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
+      <c r="K296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -11134,11 +11236,15 @@
         <v>31454.71182181402</v>
       </c>
       <c r="H297" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
+      <c r="K297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -11167,11 +11273,15 @@
         <v>31471.82332181402</v>
       </c>
       <c r="H298" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -11200,11 +11310,15 @@
         <v>31440.31412181402</v>
       </c>
       <c r="H299" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
+      <c r="K299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -11233,11 +11347,15 @@
         <v>31450.64132181402</v>
       </c>
       <c r="H300" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -11266,11 +11384,15 @@
         <v>31532.26732181402</v>
       </c>
       <c r="H301" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -11303,7 +11425,11 @@
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -11336,7 +11462,11 @@
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -11369,7 +11499,11 @@
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -11398,11 +11532,15 @@
         <v>30660.49712181402</v>
       </c>
       <c r="H305" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -11435,7 +11573,11 @@
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -11464,11 +11606,15 @@
         <v>30627.93992181402</v>
       </c>
       <c r="H307" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
+      <c r="K307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -11497,11 +11643,15 @@
         <v>30619.93992181402</v>
       </c>
       <c r="H308" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
+      <c r="K308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -11530,11 +11680,15 @@
         <v>30606.56862181402</v>
       </c>
       <c r="H309" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
+      <c r="K309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -11563,11 +11717,15 @@
         <v>30606.56862181402</v>
       </c>
       <c r="H310" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
+      <c r="K310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -11600,7 +11758,11 @@
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
+      <c r="K311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -11629,11 +11791,15 @@
         <v>31108.31642181402</v>
       </c>
       <c r="H312" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
+      <c r="K312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -11662,11 +11828,15 @@
         <v>30501.07462181402</v>
       </c>
       <c r="H313" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
+      <c r="K313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -11695,11 +11865,15 @@
         <v>31393.07802181402</v>
       </c>
       <c r="H314" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
+      <c r="K314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -11728,11 +11902,15 @@
         <v>31393.07802181402</v>
       </c>
       <c r="H315" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
+      <c r="K315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -11761,11 +11939,15 @@
         <v>30893.07802181402</v>
       </c>
       <c r="H316" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
+      <c r="K316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -11794,11 +11976,15 @@
         <v>30893.07802181402</v>
       </c>
       <c r="H317" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
+      <c r="K317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -11827,11 +12013,15 @@
         <v>30893.07802181402</v>
       </c>
       <c r="H318" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
+      <c r="K318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -11860,11 +12050,15 @@
         <v>30893.07802181402</v>
       </c>
       <c r="H319" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
+      <c r="K319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -11893,11 +12087,15 @@
         <v>30877.17862181403</v>
       </c>
       <c r="H320" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
+      <c r="K320" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -11926,11 +12124,15 @@
         <v>31373.42872181403</v>
       </c>
       <c r="H321" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
+      <c r="K321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -11959,11 +12161,15 @@
         <v>31359.93312181403</v>
       </c>
       <c r="H322" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
+      <c r="K322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -11992,11 +12198,15 @@
         <v>31359.93312181403</v>
       </c>
       <c r="H323" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
+      <c r="K323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -12025,11 +12235,15 @@
         <v>31339.93312181403</v>
       </c>
       <c r="H324" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
+      <c r="K324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -12058,11 +12272,15 @@
         <v>31338.10752181403</v>
       </c>
       <c r="H325" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
+      <c r="K325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -12091,11 +12309,15 @@
         <v>31593.10752181403</v>
       </c>
       <c r="H326" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
+      <c r="K326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -12124,11 +12346,15 @@
         <v>31593.10752181403</v>
       </c>
       <c r="H327" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
+      <c r="K327" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -12157,11 +12383,15 @@
         <v>31593.10752181403</v>
       </c>
       <c r="H328" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr"/>
+      <c r="K328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -12190,11 +12420,15 @@
         <v>31593.10752181403</v>
       </c>
       <c r="H329" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr"/>
+      <c r="K329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -12223,11 +12457,15 @@
         <v>31564.93312181403</v>
       </c>
       <c r="H330" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr"/>
+      <c r="K330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -12256,11 +12494,15 @@
         <v>31561.87332181403</v>
       </c>
       <c r="H331" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr"/>
+      <c r="K331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -12293,7 +12535,11 @@
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr"/>
+      <c r="K332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -12322,11 +12568,15 @@
         <v>31312.42872181403</v>
       </c>
       <c r="H333" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr"/>
+      <c r="K333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -12355,11 +12605,15 @@
         <v>31341.32872181403</v>
       </c>
       <c r="H334" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr"/>
+      <c r="K334" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -12392,7 +12646,11 @@
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr"/>
+      <c r="K335" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -12421,11 +12679,15 @@
         <v>31292.37712181403</v>
       </c>
       <c r="H336" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr"/>
+      <c r="K336" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -12458,7 +12720,11 @@
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr"/>
+      <c r="K337" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -12487,11 +12753,15 @@
         <v>31277.72452181403</v>
       </c>
       <c r="H338" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr"/>
+      <c r="K338" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -12520,11 +12790,15 @@
         <v>31264.00262181403</v>
       </c>
       <c r="H339" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr"/>
+      <c r="K339" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -12553,11 +12827,15 @@
         <v>31327.93312181403</v>
       </c>
       <c r="H340" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr"/>
+      <c r="K340" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -12586,11 +12864,15 @@
         <v>31323.13362181403</v>
       </c>
       <c r="H341" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr"/>
+      <c r="K341" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -12619,11 +12901,15 @@
         <v>31004.80172181403</v>
       </c>
       <c r="H342" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr"/>
+      <c r="K342" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -12652,11 +12938,15 @@
         <v>31041.03932181403</v>
       </c>
       <c r="H343" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr"/>
+      <c r="K343" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -12685,11 +12975,15 @@
         <v>32499.25262181403</v>
       </c>
       <c r="H344" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr"/>
+      <c r="K344" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -12718,11 +13012,15 @@
         <v>32445.28722181403</v>
       </c>
       <c r="H345" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr"/>
+      <c r="K345" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -12751,11 +13049,15 @@
         <v>32396.43492181403</v>
       </c>
       <c r="H346" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr"/>
+      <c r="K346" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -12784,11 +13086,15 @@
         <v>32705.50222181403</v>
       </c>
       <c r="H347" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr"/>
+      <c r="K347" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -12821,7 +13127,11 @@
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr"/>
+      <c r="K348" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -12854,7 +13164,11 @@
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr"/>
+      <c r="K349" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -12887,7 +13201,11 @@
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr"/>
+      <c r="K350" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -12920,7 +13238,11 @@
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr"/>
+      <c r="K351" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -12953,7 +13275,11 @@
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr"/>
+      <c r="K352" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -12986,7 +13312,11 @@
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr"/>
+      <c r="K353" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -13019,7 +13349,11 @@
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr"/>
+      <c r="K354" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -13052,7 +13386,11 @@
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr"/>
+      <c r="K355" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -13085,7 +13423,11 @@
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr"/>
+      <c r="K356" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -13118,7 +13460,11 @@
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr"/>
+      <c r="K357" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -13151,7 +13497,11 @@
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr"/>
+      <c r="K358" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -13184,7 +13534,11 @@
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr"/>
+      <c r="K359" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -13217,7 +13571,11 @@
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr"/>
+      <c r="K360" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -13250,7 +13608,11 @@
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr"/>
+      <c r="K361" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -13283,7 +13645,11 @@
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr"/>
+      <c r="K362" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -13316,7 +13682,11 @@
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr"/>
+      <c r="K363" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -13349,7 +13719,11 @@
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr"/>
+      <c r="K364" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -13382,7 +13756,11 @@
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr"/>
+      <c r="K365" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -13415,7 +13793,11 @@
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr"/>
+      <c r="K366" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -13448,7 +13830,11 @@
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr"/>
+      <c r="K367" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -13481,7 +13867,11 @@
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr"/>
+      <c r="K368" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -13514,7 +13904,11 @@
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr"/>
+      <c r="K369" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -13547,7 +13941,11 @@
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr"/>
+      <c r="K370" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -13580,7 +13978,11 @@
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr"/>
+      <c r="K371" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -13613,7 +14015,11 @@
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr"/>
+      <c r="K372" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -13646,7 +14052,11 @@
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr"/>
+      <c r="K373" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -13679,7 +14089,11 @@
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr"/>
+      <c r="K374" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -13712,7 +14126,11 @@
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr"/>
+      <c r="K375" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -13745,7 +14163,11 @@
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr"/>
+      <c r="K376" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -13778,13 +14200,17 @@
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr"/>
+      <c r="K377" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L377" t="n">
         <v>1</v>
       </c>
       <c r="M377" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-26 BackTest OMG.xlsx
+++ b/BackTest/2019-10-26 BackTest OMG.xlsx
@@ -451,7 +451,7 @@
         <v>14867.8598</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,10 +484,14 @@
         <v>14571.298</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>991</v>
+      </c>
+      <c r="J3" t="n">
+        <v>991</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -517,11 +521,19 @@
         <v>14302.3341</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>979</v>
+      </c>
+      <c r="J4" t="n">
+        <v>991</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -550,11 +562,19 @@
         <v>14307.1018</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>977</v>
+      </c>
+      <c r="J5" t="n">
+        <v>991</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -583,11 +603,19 @@
         <v>12400.9012</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>978</v>
+      </c>
+      <c r="J6" t="n">
+        <v>991</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -616,11 +644,19 @@
         <v>11775.3841</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>972</v>
+      </c>
+      <c r="J7" t="n">
+        <v>991</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -649,11 +685,19 @@
         <v>11875.2054</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>962</v>
+      </c>
+      <c r="J8" t="n">
+        <v>991</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -682,11 +726,19 @@
         <v>12059.8024</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>966</v>
+      </c>
+      <c r="J9" t="n">
+        <v>991</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -715,11 +767,19 @@
         <v>12055.042</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>972</v>
+      </c>
+      <c r="J10" t="n">
+        <v>991</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -748,11 +808,19 @@
         <v>13021.5558</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>963</v>
+      </c>
+      <c r="J11" t="n">
+        <v>991</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -781,11 +849,19 @@
         <v>13033.0438</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>965</v>
+      </c>
+      <c r="J12" t="n">
+        <v>991</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -814,11 +890,19 @@
         <v>13033.0438</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>970</v>
+      </c>
+      <c r="J13" t="n">
+        <v>991</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -847,11 +931,19 @@
         <v>13049.7707</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>970</v>
+      </c>
+      <c r="J14" t="n">
+        <v>991</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -880,11 +972,17 @@
         <v>13051.9228</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>991</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -913,11 +1011,17 @@
         <v>12051.9228</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>991</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -946,11 +1050,17 @@
         <v>12125.4323</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>991</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -979,11 +1089,17 @@
         <v>12125.4323</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>991</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1012,11 +1128,17 @@
         <v>12160.9174</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>991</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1045,11 +1167,17 @@
         <v>12194.5773</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>991</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1078,11 +1206,17 @@
         <v>12210.2565</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>991</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1111,11 +1245,17 @@
         <v>12053.7987</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>991</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1144,11 +1284,17 @@
         <v>12164.3177</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>991</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1177,11 +1323,17 @@
         <v>13381.9784</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>991</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1210,11 +1362,17 @@
         <v>12956.1985</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>991</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1246,8 +1404,14 @@
         <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>991</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1279,8 +1443,14 @@
         <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>991</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1312,8 +1482,14 @@
         <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>991</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1345,8 +1521,14 @@
         <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>991</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1378,8 +1560,14 @@
         <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>991</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1411,8 +1599,14 @@
         <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>991</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1444,8 +1638,14 @@
         <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>991</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1477,8 +1677,14 @@
         <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>991</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1510,8 +1716,14 @@
         <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>991</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1543,8 +1755,14 @@
         <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>991</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1576,8 +1794,14 @@
         <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>991</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1609,8 +1833,14 @@
         <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>991</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1642,8 +1872,14 @@
         <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>991</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1675,8 +1911,14 @@
         <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>991</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1705,15 +1947,15 @@
         <v>15789.66048260427</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
-      </c>
-      <c r="I40" t="n">
-        <v>965</v>
-      </c>
-      <c r="J40" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>991</v>
+      </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L40" t="n">
@@ -1744,12 +1986,12 @@
         <v>15595.92598260427</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>961</v>
-      </c>
-      <c r="J41" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>991</v>
+      </c>
       <c r="K41" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1783,12 +2025,12 @@
         <v>15614.92538260427</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>960</v>
-      </c>
-      <c r="J42" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>991</v>
+      </c>
       <c r="K42" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1822,12 +2064,12 @@
         <v>16872.72538260427</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>973</v>
-      </c>
-      <c r="J43" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>991</v>
+      </c>
       <c r="K43" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1864,7 +2106,9 @@
         <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>991</v>
+      </c>
       <c r="K44" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1901,7 +2145,9 @@
         <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>991</v>
+      </c>
       <c r="K45" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1938,7 +2184,9 @@
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>991</v>
+      </c>
       <c r="K46" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1975,7 +2223,9 @@
         <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>991</v>
+      </c>
       <c r="K47" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2012,7 +2262,9 @@
         <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>991</v>
+      </c>
       <c r="K48" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2049,7 +2301,9 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>991</v>
+      </c>
       <c r="K49" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2086,7 +2340,9 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>991</v>
+      </c>
       <c r="K50" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2123,7 +2379,9 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>991</v>
+      </c>
       <c r="K51" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2160,7 +2418,9 @@
         <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>991</v>
+      </c>
       <c r="K52" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2197,7 +2457,9 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>991</v>
+      </c>
       <c r="K53" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2234,7 +2496,9 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>991</v>
+      </c>
       <c r="K54" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2268,12 +2532,12 @@
         <v>15447.45298260427</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
-      </c>
-      <c r="I55" t="n">
-        <v>968</v>
-      </c>
-      <c r="J55" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>991</v>
+      </c>
       <c r="K55" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2310,7 +2574,9 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>991</v>
+      </c>
       <c r="K56" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2347,7 +2613,9 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>991</v>
+      </c>
       <c r="K57" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2384,7 +2652,9 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>991</v>
+      </c>
       <c r="K58" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2421,7 +2691,9 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>991</v>
+      </c>
       <c r="K59" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2458,7 +2730,9 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>991</v>
+      </c>
       <c r="K60" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2495,7 +2769,9 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>991</v>
+      </c>
       <c r="K61" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2532,7 +2808,9 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>991</v>
+      </c>
       <c r="K62" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2569,7 +2847,9 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>991</v>
+      </c>
       <c r="K63" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2606,7 +2886,9 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>991</v>
+      </c>
       <c r="K64" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2643,7 +2925,9 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>991</v>
+      </c>
       <c r="K65" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2680,7 +2964,9 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>991</v>
+      </c>
       <c r="K66" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2717,7 +3003,9 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>991</v>
+      </c>
       <c r="K67" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2754,7 +3042,9 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>991</v>
+      </c>
       <c r="K68" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2791,7 +3081,9 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>991</v>
+      </c>
       <c r="K69" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2828,7 +3120,9 @@
         <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>991</v>
+      </c>
       <c r="K70" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2865,7 +3159,9 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>991</v>
+      </c>
       <c r="K71" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2902,7 +3198,9 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>991</v>
+      </c>
       <c r="K72" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2939,7 +3237,9 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>991</v>
+      </c>
       <c r="K73" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2976,7 +3276,9 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>991</v>
+      </c>
       <c r="K74" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3013,7 +3315,9 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>991</v>
+      </c>
       <c r="K75" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3050,7 +3354,9 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>991</v>
+      </c>
       <c r="K76" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3087,7 +3393,9 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>991</v>
+      </c>
       <c r="K77" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3124,7 +3432,9 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>991</v>
+      </c>
       <c r="K78" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3161,7 +3471,9 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>991</v>
+      </c>
       <c r="K79" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3198,7 +3510,9 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>991</v>
+      </c>
       <c r="K80" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3235,7 +3549,9 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>991</v>
+      </c>
       <c r="K81" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3272,7 +3588,9 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>991</v>
+      </c>
       <c r="K82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3309,7 +3627,9 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>991</v>
+      </c>
       <c r="K83" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3343,12 +3663,12 @@
         <v>14425.61958260427</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
-      </c>
-      <c r="I84" t="n">
-        <v>957</v>
-      </c>
-      <c r="J84" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>991</v>
+      </c>
       <c r="K84" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3385,7 +3705,9 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>991</v>
+      </c>
       <c r="K85" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3419,12 +3741,12 @@
         <v>14471.99168260427</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
-      </c>
-      <c r="I86" t="n">
-        <v>965</v>
-      </c>
-      <c r="J86" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>991</v>
+      </c>
       <c r="K86" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3461,7 +3783,9 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>991</v>
+      </c>
       <c r="K87" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3498,7 +3822,9 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>991</v>
+      </c>
       <c r="K88" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3535,7 +3861,9 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>991</v>
+      </c>
       <c r="K89" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3572,7 +3900,9 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>991</v>
+      </c>
       <c r="K90" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3609,7 +3939,9 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>991</v>
+      </c>
       <c r="K91" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3646,7 +3978,9 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>991</v>
+      </c>
       <c r="K92" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3683,7 +4017,9 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>991</v>
+      </c>
       <c r="K93" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3717,12 +4053,12 @@
         <v>10969.86198260427</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
-      </c>
-      <c r="I94" t="n">
-        <v>968</v>
-      </c>
-      <c r="J94" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>991</v>
+      </c>
       <c r="K94" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3756,12 +4092,12 @@
         <v>11362.32258260427</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
-      </c>
-      <c r="I95" t="n">
-        <v>966</v>
-      </c>
-      <c r="J95" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>991</v>
+      </c>
       <c r="K95" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3795,12 +4131,12 @@
         <v>11380.94858260427</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
-      </c>
-      <c r="I96" t="n">
-        <v>970</v>
-      </c>
-      <c r="J96" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>991</v>
+      </c>
       <c r="K96" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3834,12 +4170,12 @@
         <v>11380.94858260427</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>973</v>
-      </c>
-      <c r="J97" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>991</v>
+      </c>
       <c r="K97" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3876,7 +4212,9 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>991</v>
+      </c>
       <c r="K98" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3913,7 +4251,9 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>991</v>
+      </c>
       <c r="K99" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3950,7 +4290,9 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>991</v>
+      </c>
       <c r="K100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3987,7 +4329,9 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>991</v>
+      </c>
       <c r="K101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4024,7 +4368,9 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>991</v>
+      </c>
       <c r="K102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4061,7 +4407,9 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>991</v>
+      </c>
       <c r="K103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4098,7 +4446,9 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>991</v>
+      </c>
       <c r="K104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4135,7 +4485,9 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>991</v>
+      </c>
       <c r="K105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4172,7 +4524,9 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>991</v>
+      </c>
       <c r="K106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4209,7 +4563,9 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>991</v>
+      </c>
       <c r="K107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4246,7 +4602,9 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>991</v>
+      </c>
       <c r="K108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4283,7 +4641,9 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>991</v>
+      </c>
       <c r="K109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4320,7 +4680,9 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>991</v>
+      </c>
       <c r="K110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4357,7 +4719,9 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>991</v>
+      </c>
       <c r="K111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4394,7 +4758,9 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>991</v>
+      </c>
       <c r="K112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4431,7 +4797,9 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>991</v>
+      </c>
       <c r="K113" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4468,7 +4836,9 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>991</v>
+      </c>
       <c r="K114" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4505,7 +4875,9 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>991</v>
+      </c>
       <c r="K115" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4542,7 +4914,9 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>991</v>
+      </c>
       <c r="K116" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4579,7 +4953,9 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>991</v>
+      </c>
       <c r="K117" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4616,7 +4992,9 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>991</v>
+      </c>
       <c r="K118" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4653,7 +5031,9 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>991</v>
+      </c>
       <c r="K119" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4690,7 +5070,9 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>991</v>
+      </c>
       <c r="K120" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4727,7 +5109,9 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>991</v>
+      </c>
       <c r="K121" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4764,7 +5148,9 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>991</v>
+      </c>
       <c r="K122" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4801,7 +5187,9 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>991</v>
+      </c>
       <c r="K123" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4838,7 +5226,9 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>991</v>
+      </c>
       <c r="K124" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4875,7 +5265,9 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>991</v>
+      </c>
       <c r="K125" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4912,7 +5304,9 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>991</v>
+      </c>
       <c r="K126" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4949,7 +5343,9 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>991</v>
+      </c>
       <c r="K127" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4986,7 +5382,9 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>991</v>
+      </c>
       <c r="K128" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5023,7 +5421,9 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>991</v>
+      </c>
       <c r="K129" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5060,7 +5460,9 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>991</v>
+      </c>
       <c r="K130" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5097,7 +5499,9 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>991</v>
+      </c>
       <c r="K131" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5134,7 +5538,9 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>991</v>
+      </c>
       <c r="K132" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5171,7 +5577,9 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>991</v>
+      </c>
       <c r="K133" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5208,7 +5616,9 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>991</v>
+      </c>
       <c r="K134" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5245,7 +5655,9 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>991</v>
+      </c>
       <c r="K135" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5282,7 +5694,9 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>991</v>
+      </c>
       <c r="K136" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5319,7 +5733,9 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>991</v>
+      </c>
       <c r="K137" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5356,7 +5772,9 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>991</v>
+      </c>
       <c r="K138" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5393,7 +5811,9 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>991</v>
+      </c>
       <c r="K139" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5430,7 +5850,9 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>991</v>
+      </c>
       <c r="K140" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5467,7 +5889,9 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>991</v>
+      </c>
       <c r="K141" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5504,7 +5928,9 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>991</v>
+      </c>
       <c r="K142" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5541,7 +5967,9 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>991</v>
+      </c>
       <c r="K143" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5578,7 +6006,9 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>991</v>
+      </c>
       <c r="K144" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5615,7 +6045,9 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>991</v>
+      </c>
       <c r="K145" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5652,7 +6084,9 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>991</v>
+      </c>
       <c r="K146" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5689,7 +6123,9 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>991</v>
+      </c>
       <c r="K147" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5726,7 +6162,9 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>991</v>
+      </c>
       <c r="K148" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5760,17 +6198,19 @@
         <v>23536.99394889526</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>991</v>
+      </c>
       <c r="K149" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L149" t="n">
-        <v>1</v>
+        <v>1.033345105953582</v>
       </c>
       <c r="M149" t="inlineStr"/>
     </row>
@@ -5797,15 +6237,11 @@
         <v>23504.30394889526</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5834,15 +6270,11 @@
         <v>23580.46454889526</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5871,15 +6303,11 @@
         <v>23575.29424889526</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5908,15 +6336,11 @@
         <v>23301.60444889526</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5945,15 +6369,11 @@
         <v>23763.76614889526</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5982,15 +6402,11 @@
         <v>23763.76614889526</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -6019,15 +6435,11 @@
         <v>23505.70514889526</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -6056,15 +6468,11 @@
         <v>22930.20514889526</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6093,15 +6501,11 @@
         <v>23401.26344889526</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6130,15 +6534,11 @@
         <v>23401.26344889526</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6167,15 +6567,11 @@
         <v>23417.86914889526</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6204,15 +6600,11 @@
         <v>25147.83124889526</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6241,15 +6633,11 @@
         <v>25508.63564889526</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6278,15 +6666,11 @@
         <v>25352.84984889526</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6315,15 +6699,11 @@
         <v>24136.53604889526</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6352,15 +6732,11 @@
         <v>23637.39124889526</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6393,11 +6769,7 @@
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6430,11 +6802,7 @@
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6467,11 +6835,7 @@
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6504,11 +6868,7 @@
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6541,11 +6901,7 @@
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6574,15 +6930,11 @@
         <v>31799.49614889525</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6611,15 +6963,11 @@
         <v>32825.19234889525</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6648,15 +6996,11 @@
         <v>30827.25834889525</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6685,15 +7029,11 @@
         <v>30827.25834889525</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6722,15 +7062,11 @@
         <v>31004.95464889525</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6759,15 +7095,11 @@
         <v>30943.36454889525</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6796,15 +7128,11 @@
         <v>30915.95114889525</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6833,15 +7161,11 @@
         <v>30777.67554889525</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6870,15 +7194,11 @@
         <v>28964.70134889525</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6911,11 +7231,7 @@
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6948,11 +7264,7 @@
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6985,11 +7297,7 @@
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -7022,11 +7330,7 @@
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -7059,11 +7363,7 @@
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -7096,11 +7396,7 @@
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -7133,11 +7429,7 @@
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -7170,11 +7462,7 @@
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7207,11 +7495,7 @@
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7244,11 +7528,7 @@
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7281,11 +7561,7 @@
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7318,11 +7594,7 @@
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7355,11 +7627,7 @@
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7392,11 +7660,7 @@
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7429,11 +7693,7 @@
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7466,11 +7726,7 @@
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7499,15 +7755,11 @@
         <v>30314.15584889525</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K196" t="inlineStr"/>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7536,15 +7788,11 @@
         <v>30296.57954889525</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K197" t="inlineStr"/>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7577,11 +7825,7 @@
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K198" t="inlineStr"/>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7614,11 +7858,7 @@
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K199" t="inlineStr"/>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7651,11 +7891,7 @@
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K200" t="inlineStr"/>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7688,11 +7924,7 @@
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K201" t="inlineStr"/>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7725,11 +7957,7 @@
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K202" t="inlineStr"/>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7762,11 +7990,7 @@
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K203" t="inlineStr"/>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7799,11 +8023,7 @@
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K204" t="inlineStr"/>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7836,11 +8056,7 @@
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7873,11 +8089,7 @@
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K206" t="inlineStr"/>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7910,11 +8122,7 @@
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K207" t="inlineStr"/>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7947,11 +8155,7 @@
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7984,11 +8188,7 @@
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -8021,11 +8221,7 @@
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -8058,11 +8254,7 @@
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K211" t="inlineStr"/>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -8095,11 +8287,7 @@
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K212" t="inlineStr"/>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -8132,11 +8320,7 @@
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K213" t="inlineStr"/>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -8169,11 +8353,7 @@
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K214" t="inlineStr"/>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -8206,11 +8386,7 @@
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K215" t="inlineStr"/>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -8243,11 +8419,7 @@
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K216" t="inlineStr"/>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -8280,11 +8452,7 @@
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K217" t="inlineStr"/>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -8317,11 +8485,7 @@
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K218" t="inlineStr"/>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -8354,11 +8518,7 @@
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K219" t="inlineStr"/>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -8391,11 +8551,7 @@
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -8428,11 +8584,7 @@
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -8465,11 +8617,7 @@
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -8502,11 +8650,7 @@
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K223" t="inlineStr"/>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -8539,11 +8683,7 @@
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K224" t="inlineStr"/>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8576,11 +8716,7 @@
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K225" t="inlineStr"/>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8613,11 +8749,7 @@
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K226" t="inlineStr"/>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8650,11 +8782,7 @@
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K227" t="inlineStr"/>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8687,11 +8815,7 @@
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K228" t="inlineStr"/>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8724,11 +8848,7 @@
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K229" t="inlineStr"/>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8761,11 +8881,7 @@
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K230" t="inlineStr"/>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8798,11 +8914,7 @@
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K231" t="inlineStr"/>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8835,11 +8947,7 @@
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K232" t="inlineStr"/>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8872,11 +8980,7 @@
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K233" t="inlineStr"/>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8909,11 +9013,7 @@
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K234" t="inlineStr"/>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8946,11 +9046,7 @@
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K235" t="inlineStr"/>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8983,11 +9079,7 @@
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K236" t="inlineStr"/>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -9020,11 +9112,7 @@
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K237" t="inlineStr"/>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -9057,11 +9145,7 @@
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K238" t="inlineStr"/>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -9094,11 +9178,7 @@
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K239" t="inlineStr"/>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -9131,11 +9211,7 @@
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K240" t="inlineStr"/>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -9168,11 +9244,7 @@
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K241" t="inlineStr"/>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -9205,11 +9277,7 @@
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K242" t="inlineStr"/>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -9242,11 +9310,7 @@
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K243" t="inlineStr"/>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -9279,11 +9343,7 @@
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K244" t="inlineStr"/>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -9316,11 +9376,7 @@
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K245" t="inlineStr"/>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -9353,11 +9409,7 @@
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K246" t="inlineStr"/>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -9390,11 +9442,7 @@
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K247" t="inlineStr"/>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -9427,11 +9475,7 @@
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K248" t="inlineStr"/>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -9464,11 +9508,7 @@
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K249" t="inlineStr"/>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -9501,11 +9541,7 @@
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K250" t="inlineStr"/>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -9538,11 +9574,7 @@
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K251" t="inlineStr"/>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -9575,11 +9607,7 @@
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K252" t="inlineStr"/>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -9612,11 +9640,7 @@
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K253" t="inlineStr"/>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -9649,11 +9673,7 @@
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K254" t="inlineStr"/>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -9686,11 +9706,7 @@
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K255" t="inlineStr"/>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -9723,11 +9739,7 @@
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K256" t="inlineStr"/>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -9760,11 +9772,7 @@
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K257" t="inlineStr"/>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -9797,11 +9805,7 @@
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K258" t="inlineStr"/>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -9834,11 +9838,7 @@
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K259" t="inlineStr"/>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -9871,11 +9871,7 @@
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K260" t="inlineStr"/>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9908,11 +9904,7 @@
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K261" t="inlineStr"/>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9945,11 +9937,7 @@
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K262" t="inlineStr"/>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9982,11 +9970,7 @@
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K263" t="inlineStr"/>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -10019,11 +10003,7 @@
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K264" t="inlineStr"/>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -10056,11 +10036,7 @@
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K265" t="inlineStr"/>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -10093,11 +10069,7 @@
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K266" t="inlineStr"/>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -10130,11 +10102,7 @@
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K267" t="inlineStr"/>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -10167,11 +10135,7 @@
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K268" t="inlineStr"/>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -10204,11 +10168,7 @@
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K269" t="inlineStr"/>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -10241,11 +10201,7 @@
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K270" t="inlineStr"/>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -10278,11 +10234,7 @@
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K271" t="inlineStr"/>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -10315,11 +10267,7 @@
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K272" t="inlineStr"/>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -10352,11 +10300,7 @@
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K273" t="inlineStr"/>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -10389,11 +10333,7 @@
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K274" t="inlineStr"/>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -10426,11 +10366,7 @@
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K275" t="inlineStr"/>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -10463,11 +10399,7 @@
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K276" t="inlineStr"/>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -10500,11 +10432,7 @@
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K277" t="inlineStr"/>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -10537,11 +10465,7 @@
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K278" t="inlineStr"/>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -10574,11 +10498,7 @@
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K279" t="inlineStr"/>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -10611,11 +10531,7 @@
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K280" t="inlineStr"/>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -10648,11 +10564,7 @@
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K281" t="inlineStr"/>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -10685,11 +10597,7 @@
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K282" t="inlineStr"/>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -10722,11 +10630,7 @@
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K283" t="inlineStr"/>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -10759,11 +10663,7 @@
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K284" t="inlineStr"/>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -10796,11 +10696,7 @@
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K285" t="inlineStr"/>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -10833,11 +10729,7 @@
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K286" t="inlineStr"/>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -10870,11 +10762,7 @@
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K287" t="inlineStr"/>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -10907,11 +10795,7 @@
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K288" t="inlineStr"/>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -10944,11 +10828,7 @@
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K289" t="inlineStr"/>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -10981,11 +10861,7 @@
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K290" t="inlineStr"/>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -11018,11 +10894,7 @@
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K291" t="inlineStr"/>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -11055,11 +10927,7 @@
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K292" t="inlineStr"/>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -11092,11 +10960,7 @@
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K293" t="inlineStr"/>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -11129,11 +10993,7 @@
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K294" t="inlineStr"/>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -11166,11 +11026,7 @@
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K295" t="inlineStr"/>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -11203,11 +11059,7 @@
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K296" t="inlineStr"/>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -11240,11 +11092,7 @@
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K297" t="inlineStr"/>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -11277,11 +11125,7 @@
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K298" t="inlineStr"/>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -11314,11 +11158,7 @@
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K299" t="inlineStr"/>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -11351,11 +11191,7 @@
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K300" t="inlineStr"/>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -11388,11 +11224,7 @@
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K301" t="inlineStr"/>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -11425,11 +11257,7 @@
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K302" t="inlineStr"/>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -11462,11 +11290,7 @@
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K303" t="inlineStr"/>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -11499,11 +11323,7 @@
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K304" t="inlineStr"/>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -11536,11 +11356,7 @@
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K305" t="inlineStr"/>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -11573,11 +11389,7 @@
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K306" t="inlineStr"/>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -11610,11 +11422,7 @@
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K307" t="inlineStr"/>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -11647,11 +11455,7 @@
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K308" t="inlineStr"/>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -11684,11 +11488,7 @@
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K309" t="inlineStr"/>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -11721,11 +11521,7 @@
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K310" t="inlineStr"/>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -11758,11 +11554,7 @@
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K311" t="inlineStr"/>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -11795,11 +11587,7 @@
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K312" t="inlineStr"/>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -11832,11 +11620,7 @@
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K313" t="inlineStr"/>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -11869,11 +11653,7 @@
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K314" t="inlineStr"/>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -11906,11 +11686,7 @@
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K315" t="inlineStr"/>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -11943,11 +11719,7 @@
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K316" t="inlineStr"/>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -11980,11 +11752,7 @@
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K317" t="inlineStr"/>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -12017,11 +11785,7 @@
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K318" t="inlineStr"/>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -12054,11 +11818,7 @@
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K319" t="inlineStr"/>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -12091,11 +11851,7 @@
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K320" t="inlineStr"/>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -12128,11 +11884,7 @@
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K321" t="inlineStr"/>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -12165,11 +11917,7 @@
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K322" t="inlineStr"/>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -12202,11 +11950,7 @@
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K323" t="inlineStr"/>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -12239,11 +11983,7 @@
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K324" t="inlineStr"/>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -12276,11 +12016,7 @@
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K325" t="inlineStr"/>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -12313,11 +12049,7 @@
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K326" t="inlineStr"/>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -12350,11 +12082,7 @@
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K327" t="inlineStr"/>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -12387,11 +12115,7 @@
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K328" t="inlineStr"/>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -12424,11 +12148,7 @@
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K329" t="inlineStr"/>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -12461,11 +12181,7 @@
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K330" t="inlineStr"/>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -12498,11 +12214,7 @@
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K331" t="inlineStr"/>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -12535,11 +12247,7 @@
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K332" t="inlineStr"/>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -12572,11 +12280,7 @@
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K333" t="inlineStr"/>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -12609,11 +12313,7 @@
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K334" t="inlineStr"/>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -12646,11 +12346,7 @@
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K335" t="inlineStr"/>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -12683,11 +12379,7 @@
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K336" t="inlineStr"/>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -12720,11 +12412,7 @@
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K337" t="inlineStr"/>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -12757,11 +12445,7 @@
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K338" t="inlineStr"/>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -12794,11 +12478,7 @@
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K339" t="inlineStr"/>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -12831,11 +12511,7 @@
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K340" t="inlineStr"/>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -12868,11 +12544,7 @@
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K341" t="inlineStr"/>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -12905,11 +12577,7 @@
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K342" t="inlineStr"/>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -12942,11 +12610,7 @@
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K343" t="inlineStr"/>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -12979,11 +12643,7 @@
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K344" t="inlineStr"/>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -13016,11 +12676,7 @@
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K345" t="inlineStr"/>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -13053,11 +12709,7 @@
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K346" t="inlineStr"/>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -13090,11 +12742,7 @@
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K347" t="inlineStr"/>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -13127,11 +12775,7 @@
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K348" t="inlineStr"/>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -13164,11 +12808,7 @@
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K349" t="inlineStr"/>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -13201,11 +12841,7 @@
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K350" t="inlineStr"/>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -13238,11 +12874,7 @@
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K351" t="inlineStr"/>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -13275,11 +12907,7 @@
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K352" t="inlineStr"/>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -13312,11 +12940,7 @@
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K353" t="inlineStr"/>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -13349,11 +12973,7 @@
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K354" t="inlineStr"/>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -13386,11 +13006,7 @@
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K355" t="inlineStr"/>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -13423,11 +13039,7 @@
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K356" t="inlineStr"/>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -13460,11 +13072,7 @@
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K357" t="inlineStr"/>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -13497,11 +13105,7 @@
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K358" t="inlineStr"/>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -13534,11 +13138,7 @@
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K359" t="inlineStr"/>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -13571,11 +13171,7 @@
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K360" t="inlineStr"/>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -13608,11 +13204,7 @@
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K361" t="inlineStr"/>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -13645,11 +13237,7 @@
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K362" t="inlineStr"/>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -13682,11 +13270,7 @@
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K363" t="inlineStr"/>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -13719,11 +13303,7 @@
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K364" t="inlineStr"/>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -13756,11 +13336,7 @@
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K365" t="inlineStr"/>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -13793,11 +13369,7 @@
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K366" t="inlineStr"/>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -13830,11 +13402,7 @@
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K367" t="inlineStr"/>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -13867,11 +13435,7 @@
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K368" t="inlineStr"/>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -13904,11 +13468,7 @@
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K369" t="inlineStr"/>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -13941,11 +13501,7 @@
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K370" t="inlineStr"/>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -13978,11 +13534,7 @@
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K371" t="inlineStr"/>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -14015,11 +13567,7 @@
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K372" t="inlineStr"/>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -14052,11 +13600,7 @@
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K373" t="inlineStr"/>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -14089,11 +13633,7 @@
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K374" t="inlineStr"/>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -14126,11 +13666,7 @@
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K375" t="inlineStr"/>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -14163,11 +13699,7 @@
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K376" t="inlineStr"/>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -14200,11 +13732,7 @@
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K377" t="inlineStr"/>
       <c r="L377" t="n">
         <v>1</v>
       </c>
